--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95BD1CE-79B4-4580-8160-F5A6B56E2A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ECC89F-89D7-4151-B1D9-978B90D417C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="198">
   <si>
     <t>County/Parish</t>
   </si>
@@ -446,8 +446,110 @@
     <t>5555 Melrose Avenue  Los Angeles CA 90038</t>
   </si>
   <si>
+    <t>McDonald&amp;rsquo;s Restaurants of California, Inc.</t>
+  </si>
+  <si>
+    <t>Closure Temporary</t>
+  </si>
+  <si>
+    <t>341 S. Vermont Ave  Los Angeles CA 90029</t>
+  </si>
+  <si>
+    <t>Intel Corporation (Robert Noyce Building)</t>
+  </si>
+  <si>
+    <t>2200 Mission College Boulevard  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Intel Corporation (SC-1)</t>
+  </si>
+  <si>
+    <t>3065 Bowers Avenue  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Intel Corporation (SC-2)</t>
+  </si>
+  <si>
+    <t>Intel Corporation (SC-9)</t>
+  </si>
+  <si>
+    <t>3601 Juliette Lane  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Intel Corporation (SC-11)</t>
+  </si>
+  <si>
+    <t>2191 Laurelwood Rd  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Intel Corporation (SC-12)</t>
+  </si>
+  <si>
+    <t>3600 Juliette Lane  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>T. Marzetti</t>
+  </si>
+  <si>
+    <t>876 Yosemite Drive  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>Activision Blizzard</t>
+  </si>
+  <si>
+    <t>16215 Alton Pkwy  Irvine CA 92618</t>
+  </si>
+  <si>
+    <t>Sacramento County</t>
+  </si>
+  <si>
+    <t>Intel Corporation</t>
+  </si>
+  <si>
+    <t>1900 Prairie City Rd  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>Best Buy Health</t>
+  </si>
+  <si>
+    <t>2200 Faraday Ave, Ste. 100  Carlsbad CA 92008</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals</t>
+  </si>
+  <si>
+    <t>5820 Owens Dr.  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>74 N. Pasadena Ave.  Pasadena CA 91103</t>
+  </si>
+  <si>
+    <t>Solano County</t>
+  </si>
+  <si>
+    <t>1617 Broadway St.  Vallejo CA 94590</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>3551 Trousdale Pkwy  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>135 N Grand Ave.  Los Angeles CA 90012</t>
+  </si>
+  <si>
+    <t>Pacira BioSciences, Inc.</t>
+  </si>
+  <si>
+    <t>10450 Science Center Dr  San Diego CA 92121</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/09/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/14/2025
 </t>
     </r>
     <r>
@@ -461,106 +563,172 @@
     </r>
   </si>
   <si>
-    <t>McDonald&amp;rsquo;s Restaurants of California, Inc.</t>
-  </si>
-  <si>
-    <t>Closure Temporary</t>
-  </si>
-  <si>
-    <t>341 S. Vermont Ave  Los Angeles CA 90029</t>
-  </si>
-  <si>
-    <t>Intel Corporation (Robert Noyce Building)</t>
-  </si>
-  <si>
-    <t>2200 Mission College Boulevard  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Intel Corporation (SC-1)</t>
-  </si>
-  <si>
-    <t>3065 Bowers Avenue  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Intel Corporation (SC-2)</t>
-  </si>
-  <si>
-    <t>Intel Corporation (SC-9)</t>
-  </si>
-  <si>
-    <t>3601 Juliette Lane  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Intel Corporation (SC-11)</t>
-  </si>
-  <si>
-    <t>2191 Laurelwood Rd  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Intel Corporation (SC-12)</t>
-  </si>
-  <si>
-    <t>3600 Juliette Lane  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>T. Marzetti</t>
-  </si>
-  <si>
-    <t>876 Yosemite Drive  Milpitas CA 95035</t>
-  </si>
-  <si>
-    <t>Activision Blizzard</t>
-  </si>
-  <si>
-    <t>16215 Alton Pkwy  Irvine CA 92618</t>
-  </si>
-  <si>
-    <t>Sacramento County</t>
-  </si>
-  <si>
-    <t>Intel Corporation</t>
-  </si>
-  <si>
-    <t>1900 Prairie City Rd  Folsom CA 95630</t>
-  </si>
-  <si>
-    <t>Best Buy Health</t>
-  </si>
-  <si>
-    <t>2200 Faraday Ave, Ste. 100  Carlsbad CA 92008</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals</t>
-  </si>
-  <si>
-    <t>5820 Owens Dr.  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>74 N. Pasadena Ave.  Pasadena CA 91103</t>
-  </si>
-  <si>
-    <t>Solano County</t>
-  </si>
-  <si>
-    <t>1617 Broadway St.  Vallejo CA 94590</t>
-  </si>
-  <si>
-    <t>University of Southern California</t>
-  </si>
-  <si>
-    <t>3551 Trousdale Pkwy  Los Angeles CA 90089</t>
-  </si>
-  <si>
-    <t>Levy</t>
-  </si>
-  <si>
-    <t>135 N Grand Ave.  Los Angeles CA 90012</t>
-  </si>
-  <si>
-    <t>Pacira BioSciences, Inc.</t>
-  </si>
-  <si>
-    <t>10450 Science Center Dr  San Diego CA 92121</t>
+    <t>Quixote Studio Services (1011)</t>
+  </si>
+  <si>
+    <t>1011 N Fuller Ave  West Hollywood CA 90046</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (10252)</t>
+  </si>
+  <si>
+    <t>10252 Norris Avenue  Pacoima CA 91331</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (12137)</t>
+  </si>
+  <si>
+    <t>12137 Montague Street  Pacoima CA 91331</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (10262)</t>
+  </si>
+  <si>
+    <t>10262 Norris Ave  Pacoima CA 91331</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (11473)</t>
+  </si>
+  <si>
+    <t>11473 Penrose St  Sun Valley CA 91352</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (14002)</t>
+  </si>
+  <si>
+    <t>14002 Balboa Blvd  Sylmar CA 91342</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (13334)</t>
+  </si>
+  <si>
+    <t>13334 Ralston Ave  Sylmar CA 91342</t>
+  </si>
+  <si>
+    <t>LMB Mortgage Services, Inc. dba LowerMyBills.com</t>
+  </si>
+  <si>
+    <t>12181 Bluff Creek Drive, Suite 250  Playa Vista CA 90094</t>
+  </si>
+  <si>
+    <t>Intel Corporation (Robert Noyce)</t>
+  </si>
+  <si>
+    <t>3601 Juliette Lane  Santa Clara CA 95054-1513</t>
+  </si>
+  <si>
+    <t>GSC Logistics, Inc.</t>
+  </si>
+  <si>
+    <t>555 Maritime Street, Building 512  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>GSC National Transportation, Inc</t>
+  </si>
+  <si>
+    <t>530 Water Street, 5th Floor  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>All-Rite Leasing, Inc.</t>
+  </si>
+  <si>
+    <t>950 South Coast Drive, Suite 110  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>Quanex Homeshield LLC</t>
+  </si>
+  <si>
+    <t>13611 Santa Ana Avenue  Fontana CA 92337</t>
+  </si>
+  <si>
+    <t>(3909) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3909 Center St  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(1640) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1640 Broadway  San Diego CA 92101</t>
+  </si>
+  <si>
+    <t>(1045) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1045 11th Ave.  San Diego CA 92101</t>
+  </si>
+  <si>
+    <t>(3636) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3636 5th Ave., Suite 300  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(3878) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3878 Old Town Ave.  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>(514) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>514 Pennsylvania Ave.  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(1807) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1807 Robinson Ave., Suite 106  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(3851) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3851 Rosecrans St.  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>(1180) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1180 3rd Ave., Suite C1  Chula Vista CA 91911</t>
+  </si>
+  <si>
+    <t>(3045) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3045 Beyer Blvd., Suite D-101  San Diego CA 92104</t>
+  </si>
+  <si>
+    <t>(134) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>134 Grapevine Rd.  Vista CA 92083</t>
+  </si>
+  <si>
+    <t>(520) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>520 N. Coast Hwy., Suite 102  Oceanside CA 92054</t>
+  </si>
+  <si>
+    <t>(460) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>460 Magnolia Ave., Suite 100,  El Cajon CA 92020</t>
+  </si>
+  <si>
+    <t>(131) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>131 Avocado Ave.  El Cajon CA 92020</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc.</t>
+  </si>
+  <si>
+    <t>1691 The Alameda  San Jose CA 95126</t>
   </si>
   <si>
     <r>
@@ -574,7 +742,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/09/2025</t>
+      <t>07/01/25 to 07/14/2025</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +762,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I43.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I77.</t>
     </r>
   </si>
 </sst>
@@ -1715,8 +1883,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I43" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I43" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I77" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I77" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2073,37 +2241,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2125,18 +2293,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2144,25 +2312,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2171,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2179,16 +2347,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2217,30 +2385,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -2298,7 +2466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2385,7 +2553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -2414,7 +2582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -2443,7 +2611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -2472,7 +2640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -2501,7 +2669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -2530,7 +2698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -2559,7 +2727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -2588,7 +2756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -2617,7 +2785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -2646,7 +2814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -2675,7 +2843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -2704,7 +2872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -2733,7 +2901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -2762,7 +2930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -2791,7 +2959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -2820,7 +2988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -2849,7 +3017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -2878,7 +3046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -2907,7 +3075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -2936,7 +3104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +3133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -2979,22 +3147,22 @@
         <v>45908</v>
       </c>
       <c r="E27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="G27" s="34">
         <v>87</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3008,7 +3176,7 @@
         <v>45853</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>6</v>
@@ -3017,13 +3185,13 @@
         <v>184</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3037,7 +3205,7 @@
         <v>45853</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>6</v>
@@ -3046,13 +3214,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3066,7 +3234,7 @@
         <v>45853</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>6</v>
@@ -3075,13 +3243,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I30" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3095,7 +3263,7 @@
         <v>45853</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>6</v>
@@ -3104,13 +3272,13 @@
         <v>37</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -3124,7 +3292,7 @@
         <v>45853</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>6</v>
@@ -3133,13 +3301,13 @@
         <v>8</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -3153,7 +3321,7 @@
         <v>45853</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>6</v>
@@ -3162,13 +3330,13 @@
         <v>179</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I33" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -3182,7 +3350,7 @@
         <v>45838</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>54</v>
@@ -3191,13 +3359,13 @@
         <v>77</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I34" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -3211,7 +3379,7 @@
         <v>45900</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>6</v>
@@ -3220,15 +3388,15 @@
         <v>73</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I35" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="33">
         <v>45845</v>
@@ -3240,7 +3408,7 @@
         <v>45849</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>6</v>
@@ -3249,13 +3417,13 @@
         <v>174</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I36" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -3269,7 +3437,7 @@
         <v>45912</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>54</v>
@@ -3278,13 +3446,13 @@
         <v>161</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I37" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3298,7 +3466,7 @@
         <v>45845</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>6</v>
@@ -3307,13 +3475,13 @@
         <v>2</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I38" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3495,7 @@
         <v>45845</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>6</v>
@@ -3336,15 +3504,15 @@
         <v>1</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I39" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="33">
         <v>45845</v>
@@ -3356,7 +3524,7 @@
         <v>45845</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>6</v>
@@ -3365,13 +3533,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -3385,7 +3553,7 @@
         <v>45910</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>6</v>
@@ -3394,13 +3562,13 @@
         <v>55</v>
       </c>
       <c r="H41" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3582,7 @@
         <v>45910</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>54</v>
@@ -3423,13 +3591,13 @@
         <v>276</v>
       </c>
       <c r="H42" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -3443,7 +3611,7 @@
         <v>45907</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>6</v>
@@ -3452,10 +3620,996 @@
         <v>71</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I43" s="26" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C44" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D44" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="34">
+        <v>25</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C45" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D45" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="34">
+        <v>38</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="33">
+        <v>45806</v>
+      </c>
+      <c r="C46" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D46" s="33">
+        <v>45867</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="34">
+        <v>132</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C47" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D47" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="34">
+        <v>60</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C48" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D48" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="34">
+        <v>7</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C49" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D49" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="34">
+        <v>6</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C50" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D50" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="34">
+        <v>20</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C51" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D51" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="34">
+        <v>3</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C52" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D52" s="33">
+        <v>45845</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="34">
+        <v>2</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C53" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D53" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="34">
+        <v>5</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C54" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D54" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C55" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D55" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="34">
+        <v>3</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C56" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D56" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="34">
+        <v>1</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C57" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D57" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="34">
+        <v>1</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C58" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D58" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="34">
+        <v>1</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C59" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D59" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="34">
+        <v>1</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="33">
+        <v>45841</v>
+      </c>
+      <c r="C60" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D60" s="33">
+        <v>45906</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="34">
+        <v>1</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="33">
+        <v>45847</v>
+      </c>
+      <c r="C61" s="33">
+        <v>45848</v>
+      </c>
+      <c r="D61" s="33">
+        <v>45847</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="34">
+        <v>17</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C62" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D62" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="34">
+        <v>8</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C63" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D63" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="34">
+        <v>11</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C64" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D64" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="34">
+        <v>1</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C65" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D65" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="34">
+        <v>2</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C66" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D66" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="34">
+        <v>37</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C67" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D67" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="34">
+        <v>7</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C68" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D68" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="34">
+        <v>16</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C69" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D69" s="33">
+        <v>45849</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="34">
+        <v>344</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="33">
+        <v>45849</v>
+      </c>
+      <c r="C70" s="33">
+        <v>45849</v>
+      </c>
+      <c r="D70" s="33">
+        <v>45909</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="34">
+        <v>15</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="33">
+        <v>45849</v>
+      </c>
+      <c r="C71" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D71" s="33">
+        <v>45912</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="34">
+        <v>38</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C72" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D72" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="34">
+        <v>387</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C73" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D73" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="34">
+        <v>5</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C74" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D74" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="34">
+        <v>44</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C75" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D75" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="34">
+        <v>53</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C76" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D76" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="34">
+        <v>13</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C77" s="33">
+        <v>45852</v>
+      </c>
+      <c r="D77" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="34">
+        <v>234</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +4626,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I43</xm:sqref>
+          <xm:sqref>I3:I77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3486,18 +4640,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -3505,7 +4659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -3514,7 +4668,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -3541,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -3550,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -3585,25 +4739,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3671,117 +4825,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ECC89F-89D7-4151-B1D9-978B90D417C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F66E874-9FAA-44B0-B0E5-125F5AF84368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="233">
   <si>
     <t>County/Parish</t>
   </si>
@@ -548,8 +548,176 @@
     <t>10450 Science Center Dr  San Diego CA 92121</t>
   </si>
   <si>
+    <t>Quixote Studio Services (1011)</t>
+  </si>
+  <si>
+    <t>1011 N Fuller Ave  West Hollywood CA 90046</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (10252)</t>
+  </si>
+  <si>
+    <t>10252 Norris Avenue  Pacoima CA 91331</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (12137)</t>
+  </si>
+  <si>
+    <t>12137 Montague Street  Pacoima CA 91331</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (10262)</t>
+  </si>
+  <si>
+    <t>10262 Norris Ave  Pacoima CA 91331</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (11473)</t>
+  </si>
+  <si>
+    <t>11473 Penrose St  Sun Valley CA 91352</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (14002)</t>
+  </si>
+  <si>
+    <t>14002 Balboa Blvd  Sylmar CA 91342</t>
+  </si>
+  <si>
+    <t>Quixote Studio Services (13334)</t>
+  </si>
+  <si>
+    <t>13334 Ralston Ave  Sylmar CA 91342</t>
+  </si>
+  <si>
+    <t>LMB Mortgage Services, Inc. dba LowerMyBills.com</t>
+  </si>
+  <si>
+    <t>12181 Bluff Creek Drive, Suite 250  Playa Vista CA 90094</t>
+  </si>
+  <si>
+    <t>Intel Corporation (Robert Noyce)</t>
+  </si>
+  <si>
+    <t>3601 Juliette Lane  Santa Clara CA 95054-1513</t>
+  </si>
+  <si>
+    <t>GSC Logistics, Inc.</t>
+  </si>
+  <si>
+    <t>555 Maritime Street, Building 512  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>GSC National Transportation, Inc</t>
+  </si>
+  <si>
+    <t>530 Water Street, 5th Floor  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>All-Rite Leasing, Inc.</t>
+  </si>
+  <si>
+    <t>950 South Coast Drive, Suite 110  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>Quanex Homeshield LLC</t>
+  </si>
+  <si>
+    <t>13611 Santa Ana Avenue  Fontana CA 92337</t>
+  </si>
+  <si>
+    <t>(3909) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3909 Center St  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(1640) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1640 Broadway  San Diego CA 92101</t>
+  </si>
+  <si>
+    <t>(1045) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1045 11th Ave.  San Diego CA 92101</t>
+  </si>
+  <si>
+    <t>(3636) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3636 5th Ave., Suite 300  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(3878) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3878 Old Town Ave.  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>(514) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>514 Pennsylvania Ave.  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(1807) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1807 Robinson Ave., Suite 106  San Diego CA 92103</t>
+  </si>
+  <si>
+    <t>(3851) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3851 Rosecrans St.  San Diego CA 92110</t>
+  </si>
+  <si>
+    <t>(1180) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>1180 3rd Ave., Suite C1  Chula Vista CA 91911</t>
+  </si>
+  <si>
+    <t>(3045) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>3045 Beyer Blvd., Suite D-101  San Diego CA 92104</t>
+  </si>
+  <si>
+    <t>(134) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>134 Grapevine Rd.  Vista CA 92083</t>
+  </si>
+  <si>
+    <t>(520) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>520 N. Coast Hwy., Suite 102  Oceanside CA 92054</t>
+  </si>
+  <si>
+    <t>(460) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>460 Magnolia Ave., Suite 100,  El Cajon CA 92020</t>
+  </si>
+  <si>
+    <t>(131) San Diego LGBT Community Center</t>
+  </si>
+  <si>
+    <t>131 Avocado Ave.  El Cajon CA 92020</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc.</t>
+  </si>
+  <si>
+    <t>1691 The Alameda  San Jose CA 95126</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/14/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/16/2025
 </t>
     </r>
     <r>
@@ -563,172 +731,109 @@
     </r>
   </si>
   <si>
-    <t>Quixote Studio Services (1011)</t>
-  </si>
-  <si>
-    <t>1011 N Fuller Ave  West Hollywood CA 90046</t>
-  </si>
-  <si>
-    <t>Quixote Studio Services (10252)</t>
-  </si>
-  <si>
-    <t>10252 Norris Avenue  Pacoima CA 91331</t>
-  </si>
-  <si>
-    <t>Quixote Studio Services (12137)</t>
-  </si>
-  <si>
-    <t>12137 Montague Street  Pacoima CA 91331</t>
-  </si>
-  <si>
-    <t>Quixote Studio Services (10262)</t>
-  </si>
-  <si>
-    <t>10262 Norris Ave  Pacoima CA 91331</t>
-  </si>
-  <si>
-    <t>Quixote Studio Services (11473)</t>
-  </si>
-  <si>
-    <t>11473 Penrose St  Sun Valley CA 91352</t>
-  </si>
-  <si>
-    <t>Quixote Studio Services (14002)</t>
-  </si>
-  <si>
-    <t>14002 Balboa Blvd  Sylmar CA 91342</t>
-  </si>
-  <si>
-    <t>Quixote Studio Services (13334)</t>
-  </si>
-  <si>
-    <t>13334 Ralston Ave  Sylmar CA 91342</t>
-  </si>
-  <si>
-    <t>LMB Mortgage Services, Inc. dba LowerMyBills.com</t>
-  </si>
-  <si>
-    <t>12181 Bluff Creek Drive, Suite 250  Playa Vista CA 90094</t>
-  </si>
-  <si>
-    <t>Intel Corporation (Robert Noyce)</t>
-  </si>
-  <si>
-    <t>3601 Juliette Lane  Santa Clara CA 95054-1513</t>
-  </si>
-  <si>
-    <t>GSC Logistics, Inc.</t>
-  </si>
-  <si>
-    <t>555 Maritime Street, Building 512  Oakland CA 94607</t>
-  </si>
-  <si>
-    <t>GSC National Transportation, Inc</t>
-  </si>
-  <si>
-    <t>530 Water Street, 5th Floor  Oakland CA 94607</t>
-  </si>
-  <si>
-    <t>All-Rite Leasing, Inc.</t>
-  </si>
-  <si>
-    <t>950 South Coast Drive, Suite 110  Costa Mesa CA 92626</t>
-  </si>
-  <si>
-    <t>Quanex Homeshield LLC</t>
-  </si>
-  <si>
-    <t>13611 Santa Ana Avenue  Fontana CA 92337</t>
-  </si>
-  <si>
-    <t>(3909) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>3909 Center St  San Diego CA 92103</t>
-  </si>
-  <si>
-    <t>(1640) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>1640 Broadway  San Diego CA 92101</t>
-  </si>
-  <si>
-    <t>(1045) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>1045 11th Ave.  San Diego CA 92101</t>
-  </si>
-  <si>
-    <t>(3636) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>3636 5th Ave., Suite 300  San Diego CA 92103</t>
-  </si>
-  <si>
-    <t>(3878) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>3878 Old Town Ave.  San Diego CA 92110</t>
-  </si>
-  <si>
-    <t>(514) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>514 Pennsylvania Ave.  San Diego CA 92103</t>
-  </si>
-  <si>
-    <t>(1807) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>1807 Robinson Ave., Suite 106  San Diego CA 92103</t>
-  </si>
-  <si>
-    <t>(3851) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>3851 Rosecrans St.  San Diego CA 92110</t>
-  </si>
-  <si>
-    <t>(1180) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>1180 3rd Ave., Suite C1  Chula Vista CA 91911</t>
-  </si>
-  <si>
-    <t>(3045) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>3045 Beyer Blvd., Suite D-101  San Diego CA 92104</t>
-  </si>
-  <si>
-    <t>(134) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>134 Grapevine Rd.  Vista CA 92083</t>
-  </si>
-  <si>
-    <t>(520) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>520 N. Coast Hwy., Suite 102  Oceanside CA 92054</t>
-  </si>
-  <si>
-    <t>(460) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>460 Magnolia Ave., Suite 100,  El Cajon CA 92020</t>
-  </si>
-  <si>
-    <t>(131) San Diego LGBT Community Center</t>
-  </si>
-  <si>
-    <t>131 Avocado Ave.  El Cajon CA 92020</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte, Inc.</t>
-  </si>
-  <si>
-    <t>1691 The Alameda  San Jose CA 95126</t>
+    <t>Gatan, Inc.</t>
+  </si>
+  <si>
+    <t>5794 W. Las Positas Blvd.  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Contra Costa County</t>
+  </si>
+  <si>
+    <t>Corteva Agriscience</t>
+  </si>
+  <si>
+    <t>901 Loveridge Road  Pittsburg CA 94565</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Oakland</t>
+  </si>
+  <si>
+    <t>601 12th Street  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>El Dorado County</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Town Center, Building C</t>
+  </si>
+  <si>
+    <t>4203 Town Center Blvd, Building C  El Dorado CA 95762</t>
+  </si>
+  <si>
+    <t>Blue shield of California - Town Center, Building B</t>
+  </si>
+  <si>
+    <t>4205 Town Center Blvd. Building B  El Dorado CA 95762</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Long Beach</t>
+  </si>
+  <si>
+    <t>3840 Kilroy Airport Way  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Woodland Hills</t>
+  </si>
+  <si>
+    <t>6300 Canoga Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Rancho Cordova</t>
+  </si>
+  <si>
+    <t>3300 Zinfandel Drive  Rancho Cordova CA 95670</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - San Diego</t>
+  </si>
+  <si>
+    <t>3131 Camino Del Rio, SUite #1300  San Diego CA 92108</t>
+  </si>
+  <si>
+    <t>San Joaquin County</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Lodi</t>
+  </si>
+  <si>
+    <t>3021 Reynolds Ranch Parkway  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>Shasta County</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Redding</t>
+  </si>
+  <si>
+    <t>4700 Bechelli Lane  Redding CA 96002</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - Pleasanton</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - Pasadena</t>
+  </si>
+  <si>
+    <t>393 E. Walnut St.  Pasadena CA 91188</t>
+  </si>
+  <si>
+    <t>Paramount Global</t>
+  </si>
+  <si>
+    <t>1575 N. Gower Street  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>International Paper Company</t>
+  </si>
+  <si>
+    <t>6211 Descanso Ave.  Buena Park CA 90620</t>
+  </si>
+  <si>
+    <t>Mental Health Association of San Francisco</t>
+  </si>
+  <si>
+    <t>870 Market Street, #658  San Francisco CA 94102</t>
   </si>
   <si>
     <r>
@@ -742,7 +847,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/14/2025</t>
+      <t>07/01/25 to 07/16/2025</t>
     </r>
     <r>
       <rPr>
@@ -762,7 +867,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I77.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I95.</t>
     </r>
   </si>
 </sst>
@@ -1883,8 +1988,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I77" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I77" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I95" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I95" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2241,37 +2346,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2293,18 +2398,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2312,25 +2417,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>5857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2339,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2347,25 +2452,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2385,30 +2490,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -2466,7 +2571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -2582,7 +2687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -2611,7 +2716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -2640,7 +2745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -2669,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -2698,7 +2803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -2727,7 +2832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -2756,7 +2861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -2785,7 +2890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -2814,7 +2919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -2843,7 +2948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -2872,7 +2977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -2901,7 +3006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -2930,7 +3035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -2959,7 +3064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -2988,7 +3093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3017,7 +3122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3046,7 +3151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3075,7 +3180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3133,7 +3238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3191,7 +3296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3220,7 +3325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3249,7 +3354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3278,7 +3383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -3307,7 +3412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -3336,7 +3441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -3365,7 +3470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -3394,7 +3499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -3423,7 +3528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -3452,7 +3557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3481,7 +3586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -3539,7 +3644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -3597,7 +3702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -3626,7 +3731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -3640,7 +3745,7 @@
         <v>45848</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>6</v>
@@ -3649,13 +3754,13 @@
         <v>25</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I44" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -3669,7 +3774,7 @@
         <v>45848</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>6</v>
@@ -3678,13 +3783,13 @@
         <v>38</v>
       </c>
       <c r="H45" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -3698,7 +3803,7 @@
         <v>45867</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>54</v>
@@ -3707,13 +3812,13 @@
         <v>132</v>
       </c>
       <c r="H46" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I46" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -3727,7 +3832,7 @@
         <v>45906</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>6</v>
@@ -3736,13 +3841,13 @@
         <v>60</v>
       </c>
       <c r="H47" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I47" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -3756,7 +3861,7 @@
         <v>45906</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>6</v>
@@ -3765,13 +3870,13 @@
         <v>7</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I48" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -3785,22 +3890,22 @@
         <v>45906</v>
       </c>
       <c r="E49" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="34">
+        <v>6</v>
+      </c>
+      <c r="H49" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="34">
-        <v>6</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>172</v>
       </c>
       <c r="I49" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -3814,7 +3919,7 @@
         <v>45906</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>6</v>
@@ -3823,13 +3928,13 @@
         <v>20</v>
       </c>
       <c r="H50" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I50" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -3843,7 +3948,7 @@
         <v>45906</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>6</v>
@@ -3852,13 +3957,13 @@
         <v>3</v>
       </c>
       <c r="H51" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I51" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -3872,7 +3977,7 @@
         <v>45845</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>6</v>
@@ -3881,13 +3986,13 @@
         <v>2</v>
       </c>
       <c r="H52" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I52" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -3901,7 +4006,7 @@
         <v>45906</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F53" s="32" t="s">
         <v>6</v>
@@ -3910,13 +4015,13 @@
         <v>5</v>
       </c>
       <c r="H53" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I53" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -3930,7 +4035,7 @@
         <v>45906</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>6</v>
@@ -3939,13 +4044,13 @@
         <v>1</v>
       </c>
       <c r="H54" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -3959,7 +4064,7 @@
         <v>45906</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>6</v>
@@ -3968,13 +4073,13 @@
         <v>3</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -3988,7 +4093,7 @@
         <v>45906</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>6</v>
@@ -3997,13 +4102,13 @@
         <v>1</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I56" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4017,7 +4122,7 @@
         <v>45906</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" s="32" t="s">
         <v>6</v>
@@ -4026,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I57" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4046,7 +4151,7 @@
         <v>45906</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>6</v>
@@ -4055,13 +4160,13 @@
         <v>1</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I58" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4075,7 +4180,7 @@
         <v>45906</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>6</v>
@@ -4084,13 +4189,13 @@
         <v>1</v>
       </c>
       <c r="H59" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I59" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4104,7 +4209,7 @@
         <v>45906</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>6</v>
@@ -4113,13 +4218,13 @@
         <v>1</v>
       </c>
       <c r="H60" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4133,7 +4238,7 @@
         <v>45847</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F61" s="32" t="s">
         <v>6</v>
@@ -4142,13 +4247,13 @@
         <v>17</v>
       </c>
       <c r="H61" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I61" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4162,7 +4267,7 @@
         <v>45848</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>6</v>
@@ -4171,13 +4276,13 @@
         <v>8</v>
       </c>
       <c r="H62" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I62" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4191,7 +4296,7 @@
         <v>45848</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" s="32" t="s">
         <v>6</v>
@@ -4200,13 +4305,13 @@
         <v>11</v>
       </c>
       <c r="H63" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I63" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -4220,7 +4325,7 @@
         <v>45848</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>6</v>
@@ -4229,13 +4334,13 @@
         <v>1</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I64" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4354,7 @@
         <v>45848</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>6</v>
@@ -4258,13 +4363,13 @@
         <v>2</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I65" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -4278,7 +4383,7 @@
         <v>45848</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66" s="32" t="s">
         <v>6</v>
@@ -4287,13 +4392,13 @@
         <v>37</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I66" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -4307,7 +4412,7 @@
         <v>45848</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>6</v>
@@ -4316,13 +4421,13 @@
         <v>7</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I67" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -4336,7 +4441,7 @@
         <v>45848</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F68" s="32" t="s">
         <v>6</v>
@@ -4345,13 +4450,13 @@
         <v>16</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I68" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -4380,7 +4485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -4394,7 +4499,7 @@
         <v>45909</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>54</v>
@@ -4403,13 +4508,13 @@
         <v>15</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I70" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -4423,7 +4528,7 @@
         <v>45912</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F71" s="32" t="s">
         <v>6</v>
@@ -4432,13 +4537,13 @@
         <v>38</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I71" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -4452,7 +4557,7 @@
         <v>45853</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>6</v>
@@ -4467,7 +4572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -4496,7 +4601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -4525,7 +4630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -4548,13 +4653,13 @@
         <v>53</v>
       </c>
       <c r="H75" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I75" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -4583,7 +4688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -4610,6 +4715,528 @@
       </c>
       <c r="I77" s="26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="33">
+        <v>45853</v>
+      </c>
+      <c r="C78" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D78" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="34">
+        <v>96</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="33">
+        <v>45853</v>
+      </c>
+      <c r="C79" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D79" s="33">
+        <v>45926</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="34">
+        <v>4</v>
+      </c>
+      <c r="H79" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C80" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D80" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="34">
+        <v>70</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C81" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D81" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="34">
+        <v>6</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C82" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D82" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="34">
+        <v>32</v>
+      </c>
+      <c r="H82" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C83" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D83" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="34">
+        <v>11</v>
+      </c>
+      <c r="H83" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C84" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D84" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="34">
+        <v>10</v>
+      </c>
+      <c r="H84" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C85" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D85" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="34">
+        <v>3</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C86" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D86" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="34">
+        <v>2</v>
+      </c>
+      <c r="H86" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C87" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D87" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="34">
+        <v>2</v>
+      </c>
+      <c r="H87" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C88" s="33">
+        <v>45853</v>
+      </c>
+      <c r="D88" s="33">
+        <v>45923</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="34">
+        <v>2</v>
+      </c>
+      <c r="H88" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C89" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D89" s="33">
+        <v>45852</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="34">
+        <v>2</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C90" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D90" s="33">
+        <v>45852</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="34">
+        <v>2</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C91" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D91" s="33">
+        <v>45852</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="34">
+        <v>3</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C92" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D92" s="33">
+        <v>45852</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="34">
+        <v>3</v>
+      </c>
+      <c r="H92" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="33">
+        <v>45853</v>
+      </c>
+      <c r="C93" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D93" s="33">
+        <v>45833</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="34">
+        <v>1</v>
+      </c>
+      <c r="H93" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="33">
+        <v>45853</v>
+      </c>
+      <c r="C94" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D94" s="33">
+        <v>45913</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="34">
+        <v>71</v>
+      </c>
+      <c r="H94" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="33">
+        <v>45854</v>
+      </c>
+      <c r="C95" s="33">
+        <v>45854</v>
+      </c>
+      <c r="D95" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="34">
+        <v>198</v>
+      </c>
+      <c r="H95" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4626,7 +5253,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I77</xm:sqref>
+          <xm:sqref>I3:I95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4640,18 +5267,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4659,7 +5286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -4668,7 +5295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -4677,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -4686,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -4695,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -4704,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -4713,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -4737,27 +5364,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE76718-798E-45ED-8CA1-01AA760CE5F1}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +5412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4825,117 +5454,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F66E874-9FAA-44B0-B0E5-125F5AF84368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD9E2E-6A00-4BCD-979C-0F33F82A5066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="286">
   <si>
     <t>County/Parish</t>
   </si>
@@ -716,8 +716,113 @@
     <t>1691 The Alameda  San Jose CA 95126</t>
   </si>
   <si>
+    <t>Gatan, Inc.</t>
+  </si>
+  <si>
+    <t>5794 W. Las Positas Blvd.  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Contra Costa County</t>
+  </si>
+  <si>
+    <t>Corteva Agriscience</t>
+  </si>
+  <si>
+    <t>901 Loveridge Road  Pittsburg CA 94565</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Oakland</t>
+  </si>
+  <si>
+    <t>601 12th Street  Oakland CA 94607</t>
+  </si>
+  <si>
+    <t>El Dorado County</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Town Center, Building C</t>
+  </si>
+  <si>
+    <t>4203 Town Center Blvd, Building C  El Dorado CA 95762</t>
+  </si>
+  <si>
+    <t>Blue shield of California - Town Center, Building B</t>
+  </si>
+  <si>
+    <t>4205 Town Center Blvd. Building B  El Dorado CA 95762</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Long Beach</t>
+  </si>
+  <si>
+    <t>3840 Kilroy Airport Way  Long Beach CA 90806</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Woodland Hills</t>
+  </si>
+  <si>
+    <t>6300 Canoga Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Rancho Cordova</t>
+  </si>
+  <si>
+    <t>3300 Zinfandel Drive  Rancho Cordova CA 95670</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - San Diego</t>
+  </si>
+  <si>
+    <t>3131 Camino Del Rio, SUite #1300  San Diego CA 92108</t>
+  </si>
+  <si>
+    <t>San Joaquin County</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Lodi</t>
+  </si>
+  <si>
+    <t>3021 Reynolds Ranch Parkway  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>Shasta County</t>
+  </si>
+  <si>
+    <t>Blue Shield of California - Redding</t>
+  </si>
+  <si>
+    <t>4700 Bechelli Lane  Redding CA 96002</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - Pleasanton</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - Pasadena</t>
+  </si>
+  <si>
+    <t>393 E. Walnut St.  Pasadena CA 91188</t>
+  </si>
+  <si>
+    <t>Paramount Global</t>
+  </si>
+  <si>
+    <t>1575 N. Gower Street  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>International Paper Company</t>
+  </si>
+  <si>
+    <t>6211 Descanso Ave.  Buena Park CA 90620</t>
+  </si>
+  <si>
+    <t>Mental Health Association of San Francisco</t>
+  </si>
+  <si>
+    <t>870 Market Street, #658  San Francisco CA 94102</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/16/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/21/2025
 </t>
     </r>
     <r>
@@ -731,109 +836,163 @@
     </r>
   </si>
   <si>
-    <t>Gatan, Inc.</t>
-  </si>
-  <si>
-    <t>5794 W. Las Positas Blvd.  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>Contra Costa County</t>
-  </si>
-  <si>
-    <t>Corteva Agriscience</t>
-  </si>
-  <si>
-    <t>901 Loveridge Road  Pittsburg CA 94565</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Oakland</t>
-  </si>
-  <si>
-    <t>601 12th Street  Oakland CA 94607</t>
-  </si>
-  <si>
-    <t>El Dorado County</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Town Center, Building C</t>
-  </si>
-  <si>
-    <t>4203 Town Center Blvd, Building C  El Dorado CA 95762</t>
-  </si>
-  <si>
-    <t>Blue shield of California - Town Center, Building B</t>
-  </si>
-  <si>
-    <t>4205 Town Center Blvd. Building B  El Dorado CA 95762</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Long Beach</t>
-  </si>
-  <si>
-    <t>3840 Kilroy Airport Way  Long Beach CA 90806</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Woodland Hills</t>
-  </si>
-  <si>
-    <t>6300 Canoga Avenue  Woodland Hills CA 91367</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Rancho Cordova</t>
-  </si>
-  <si>
-    <t>3300 Zinfandel Drive  Rancho Cordova CA 95670</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - San Diego</t>
-  </si>
-  <si>
-    <t>3131 Camino Del Rio, SUite #1300  San Diego CA 92108</t>
-  </si>
-  <si>
-    <t>San Joaquin County</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Lodi</t>
-  </si>
-  <si>
-    <t>3021 Reynolds Ranch Parkway  Lodi CA 95240</t>
-  </si>
-  <si>
-    <t>Shasta County</t>
-  </si>
-  <si>
-    <t>Blue Shield of California - Redding</t>
-  </si>
-  <si>
-    <t>4700 Bechelli Lane  Redding CA 96002</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals - Pleasanton</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals - Pasadena</t>
-  </si>
-  <si>
-    <t>393 E. Walnut St.  Pasadena CA 91188</t>
-  </si>
-  <si>
-    <t>Paramount Global</t>
-  </si>
-  <si>
-    <t>1575 N. Gower Street  Los Angeles CA 90028</t>
-  </si>
-  <si>
-    <t>International Paper Company</t>
-  </si>
-  <si>
-    <t>6211 Descanso Ave.  Buena Park CA 90620</t>
-  </si>
-  <si>
-    <t>Mental Health Association of San Francisco</t>
-  </si>
-  <si>
-    <t>870 Market Street, #658  San Francisco CA 94102</t>
+    <t>Clark Pacific</t>
+  </si>
+  <si>
+    <t>40600 County Road 18C  Woodland CA 95776</t>
+  </si>
+  <si>
+    <t>San Luis Obispo County</t>
+  </si>
+  <si>
+    <t>E. &amp; J. Gallo Winery</t>
+  </si>
+  <si>
+    <t>2425 Mission Street  San Miguel CA 93451</t>
+  </si>
+  <si>
+    <t>Genentech, Inc.</t>
+  </si>
+  <si>
+    <t>1 DNA Way  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Leah's Pantry</t>
+  </si>
+  <si>
+    <t>2204 Garnet Avenue, Suite 304  San Diego CA 92109</t>
+  </si>
+  <si>
+    <t>3019 Mission St. #3  San Francisco CA 94110</t>
+  </si>
+  <si>
+    <t>Levi Strauss &amp; Co.</t>
+  </si>
+  <si>
+    <t>1155 Battery Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>AMD Direct Inc.</t>
+  </si>
+  <si>
+    <t>17322 Gothard Street  Huntington Beach CA 92647</t>
+  </si>
+  <si>
+    <t>Gee Heavy Machinery</t>
+  </si>
+  <si>
+    <t>45051 Industrial Drive  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Fresno County</t>
+  </si>
+  <si>
+    <t>5461 S. Nikita Ave  Fresno CA 93725</t>
+  </si>
+  <si>
+    <t>1164 Prestige Way  Redding CA 96003</t>
+  </si>
+  <si>
+    <t>5400 Raley Blvd  Sacramento CA 95838</t>
+  </si>
+  <si>
+    <t>Kings County</t>
+  </si>
+  <si>
+    <t>KIRA Government Services</t>
+  </si>
+  <si>
+    <t>Building 359 Reeves Blvd.  Lemoore CA 93245</t>
+  </si>
+  <si>
+    <t>L3Harris Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>7821 Orion Avenue  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>Oheck, LLC</t>
+  </si>
+  <si>
+    <t>5830 Bickett Street  Huntington Park CA 90255</t>
+  </si>
+  <si>
+    <t>Primo Brands, Inc.</t>
+  </si>
+  <si>
+    <t>5377 E Home Avenue  Fresno CA 93727</t>
+  </si>
+  <si>
+    <t>4550 York Boulevard Building C  Los Angeles CA 90041</t>
+  </si>
+  <si>
+    <t>7817 Haskell Avenue  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>4510 Azusa Canyon Road  Covina CA 91706</t>
+  </si>
+  <si>
+    <t>Monterey County</t>
+  </si>
+  <si>
+    <t>21875 Rosehart Way  Salinas CA 93908</t>
+  </si>
+  <si>
+    <t>945 Ames Road  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>1522 North Newhope Street  Santa Ana CA 92703</t>
+  </si>
+  <si>
+    <t>Riverside County</t>
+  </si>
+  <si>
+    <t>1363 Citrus Avenue  Riverside CA 92507</t>
+  </si>
+  <si>
+    <t>41611 Date Street  Murrieta CA 92562</t>
+  </si>
+  <si>
+    <t>8631 Younger Creek Drive  Sacramento CA 95828</t>
+  </si>
+  <si>
+    <t>11811 Highway 67  Lakeside CA 92040</t>
+  </si>
+  <si>
+    <t>2615 Temple Heights Road  Oceanside CA 92056</t>
+  </si>
+  <si>
+    <t>1024 Mellon Avenue  Manteca CA 95337</t>
+  </si>
+  <si>
+    <t>395 W Channel Road  Benicia CA 94510</t>
+  </si>
+  <si>
+    <t>Sonoma County</t>
+  </si>
+  <si>
+    <t>1264 Apollo Way Ste 3  Santa Rosa CA 95407</t>
+  </si>
+  <si>
+    <t>221 E. Alondra Boulevard  Gardena CA 90248</t>
+  </si>
+  <si>
+    <t>Tulare County</t>
+  </si>
+  <si>
+    <t>Ventura Coastal</t>
+  </si>
+  <si>
+    <t>Layoff Temporary</t>
+  </si>
+  <si>
+    <t>531 W. Poplar Avenue  Tipton CA 93272</t>
+  </si>
+  <si>
+    <t>SSP America</t>
+  </si>
+  <si>
+    <t>3325 N. Harbor Dr 6900 Airport Blvd San Diego CA 92101</t>
   </si>
   <si>
     <r>
@@ -847,7 +1006,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/16/2025</t>
+      <t>07/01/25 to 07/21/2025</t>
     </r>
     <r>
       <rPr>
@@ -867,7 +1026,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I95.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I125.</t>
     </r>
   </si>
 </sst>
@@ -1988,8 +2147,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I95" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I95" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I125" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I125" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2348,7 +2507,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.90625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
@@ -2400,7 +2559,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2423,7 +2582,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>6375</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2432,7 +2591,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2441,7 +2600,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2458,7 +2617,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2490,30 +2649,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -4731,7 +4890,7 @@
         <v>45915</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>107</v>
@@ -4740,7 +4899,7 @@
         <v>96</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I78" s="26" t="s">
         <v>34</v>
@@ -4748,7 +4907,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" s="33">
         <v>45853</v>
@@ -4760,7 +4919,7 @@
         <v>45926</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>6</v>
@@ -4769,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I79" s="26" t="s">
         <v>30</v>
@@ -4789,7 +4948,7 @@
         <v>45923</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>6</v>
@@ -4798,7 +4957,7 @@
         <v>70</v>
       </c>
       <c r="H80" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I80" s="26" t="s">
         <v>39</v>
@@ -4806,7 +4965,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="33">
         <v>45852</v>
@@ -4818,16 +4977,16 @@
         <v>45923</v>
       </c>
       <c r="E81" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="34">
+        <v>6</v>
+      </c>
+      <c r="H81" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="34">
-        <v>6</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>206</v>
       </c>
       <c r="I81" s="26" t="s">
         <v>39</v>
@@ -4835,7 +4994,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="33">
         <v>45852</v>
@@ -4847,7 +5006,7 @@
         <v>45923</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F82" s="32" t="s">
         <v>6</v>
@@ -4856,7 +5015,7 @@
         <v>32</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I82" s="26" t="s">
         <v>39</v>
@@ -4876,7 +5035,7 @@
         <v>45923</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F83" s="32" t="s">
         <v>6</v>
@@ -4885,7 +5044,7 @@
         <v>11</v>
       </c>
       <c r="H83" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I83" s="26" t="s">
         <v>39</v>
@@ -4905,7 +5064,7 @@
         <v>45923</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>6</v>
@@ -4914,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="H84" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I84" s="26" t="s">
         <v>39</v>
@@ -4934,7 +5093,7 @@
         <v>45923</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>6</v>
@@ -4943,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="H85" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I85" s="26" t="s">
         <v>39</v>
@@ -4963,7 +5122,7 @@
         <v>45923</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>6</v>
@@ -4972,7 +5131,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I86" s="26" t="s">
         <v>39</v>
@@ -4980,7 +5139,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B87" s="33">
         <v>45852</v>
@@ -4992,7 +5151,7 @@
         <v>45923</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F87" s="32" t="s">
         <v>6</v>
@@ -5001,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="H87" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I87" s="26" t="s">
         <v>39</v>
@@ -5009,7 +5168,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B88" s="33">
         <v>45852</v>
@@ -5021,7 +5180,7 @@
         <v>45923</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>6</v>
@@ -5030,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="H88" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I88" s="26" t="s">
         <v>39</v>
@@ -5050,7 +5209,7 @@
         <v>45852</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F89" s="32" t="s">
         <v>6</v>
@@ -5067,7 +5226,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B90" s="33">
         <v>45852</v>
@@ -5085,10 +5244,10 @@
         <v>6</v>
       </c>
       <c r="G90" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="I90" s="26" t="s">
         <v>45</v>
@@ -5099,25 +5258,25 @@
         <v>5</v>
       </c>
       <c r="B91" s="33">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="C91" s="33">
         <v>45854</v>
       </c>
       <c r="D91" s="33">
-        <v>45852</v>
+        <v>45833</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F91" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G91" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" s="34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I91" s="26" t="s">
         <v>45</v>
@@ -5125,28 +5284,28 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B92" s="33">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="C92" s="33">
         <v>45854</v>
       </c>
       <c r="D92" s="33">
-        <v>45852</v>
+        <v>45913</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G92" s="34">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H92" s="34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I92" s="26" t="s">
         <v>45</v>
@@ -5154,28 +5313,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B93" s="33">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="C93" s="33">
         <v>45854</v>
       </c>
       <c r="D93" s="33">
-        <v>45833</v>
+        <v>45915</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F93" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G93" s="34">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="H93" s="34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I93" s="26" t="s">
         <v>46</v>
@@ -5183,28 +5342,28 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B94" s="33">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="C94" s="33">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="D94" s="33">
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G94" s="34">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I94" s="26" t="s">
         <v>34</v>
@@ -5212,31 +5371,901 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B95" s="33">
         <v>45854</v>
       </c>
       <c r="C95" s="33">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="D95" s="33">
-        <v>45915</v>
+        <v>45930</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F95" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="34">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I95" s="26" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="33">
+        <v>45852</v>
+      </c>
+      <c r="C96" s="33">
+        <v>45855</v>
+      </c>
+      <c r="D96" s="33">
+        <v>45912</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="34">
+        <v>44</v>
+      </c>
+      <c r="H96" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="33">
+        <v>45854</v>
+      </c>
+      <c r="C97" s="33">
+        <v>45855</v>
+      </c>
+      <c r="D97" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="34">
+        <v>40</v>
+      </c>
+      <c r="H97" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B98" s="33">
+        <v>45855</v>
+      </c>
+      <c r="C98" s="33">
+        <v>45855</v>
+      </c>
+      <c r="D98" s="33">
+        <v>45908</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="34">
+        <v>47</v>
+      </c>
+      <c r="H98" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="33">
+        <v>45855</v>
+      </c>
+      <c r="C99" s="33">
+        <v>45855</v>
+      </c>
+      <c r="D99" s="33">
+        <v>45919</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="34">
+        <v>65</v>
+      </c>
+      <c r="H99" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I99" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C100" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D100" s="33">
+        <v>45859</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="34">
+        <v>7</v>
+      </c>
+      <c r="H100" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C101" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D101" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F101" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="34">
+        <v>3</v>
+      </c>
+      <c r="H101" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I101" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C102" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D102" s="33">
+        <v>45859</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="34">
+        <v>9</v>
+      </c>
+      <c r="H102" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="I102" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" s="33">
+        <v>45853</v>
+      </c>
+      <c r="C103" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D103" s="33">
+        <v>45880</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="34">
+        <v>11</v>
+      </c>
+      <c r="H103" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C104" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D104" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="34">
+        <v>3</v>
+      </c>
+      <c r="H104" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C105" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D105" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="34">
+        <v>1</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C106" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D106" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="34">
+        <v>149</v>
+      </c>
+      <c r="H106" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="I106" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="33">
+        <v>45855</v>
+      </c>
+      <c r="C107" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D107" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F107" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="34">
+        <v>174</v>
+      </c>
+      <c r="H107" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I107" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C108" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D108" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="34">
+        <v>3</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="I108" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C109" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D109" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F109" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="34">
+        <v>1</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I109" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C110" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D110" s="33">
+        <v>45859</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G110" s="34">
+        <v>7</v>
+      </c>
+      <c r="H110" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="I110" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C111" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D111" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="34">
+        <v>4</v>
+      </c>
+      <c r="H111" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C112" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D112" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F112" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G112" s="34">
+        <v>7</v>
+      </c>
+      <c r="H112" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C113" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D113" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F113" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" s="34">
+        <v>4</v>
+      </c>
+      <c r="H113" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="I113" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C114" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D114" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="34">
+        <v>4</v>
+      </c>
+      <c r="H114" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I114" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C115" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D115" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F115" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="34">
+        <v>1</v>
+      </c>
+      <c r="H115" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="I115" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C116" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D116" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F116" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="34">
+        <v>1</v>
+      </c>
+      <c r="H116" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="I116" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C117" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D117" s="33">
+        <v>45859</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="34">
+        <v>34</v>
+      </c>
+      <c r="H117" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C118" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D118" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="34">
+        <v>4</v>
+      </c>
+      <c r="H118" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="I118" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C119" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D119" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F119" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="34">
+        <v>1</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C120" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D120" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F120" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="34">
+        <v>3</v>
+      </c>
+      <c r="H120" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C121" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D121" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F121" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="34">
+        <v>1</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B122" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C122" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D122" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F122" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="34">
+        <v>1</v>
+      </c>
+      <c r="H122" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C123" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D123" s="33">
+        <v>45916</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F123" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="34">
+        <v>3</v>
+      </c>
+      <c r="H123" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I123" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B124" s="33">
+        <v>45856</v>
+      </c>
+      <c r="C124" s="33">
+        <v>45856</v>
+      </c>
+      <c r="D124" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F124" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G124" s="34">
+        <v>70</v>
+      </c>
+      <c r="H124" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="33">
+        <v>45859</v>
+      </c>
+      <c r="C125" s="33">
+        <v>45859</v>
+      </c>
+      <c r="D125" s="33">
+        <v>45922</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F125" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="34">
+        <v>116</v>
+      </c>
+      <c r="H125" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="I125" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5253,7 +6282,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I95</xm:sqref>
+          <xm:sqref>I3:I125</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5269,8 +6298,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
@@ -5364,25 +6393,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE76718-798E-45ED-8CA1-01AA760CE5F1}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD9E2E-6A00-4BCD-979C-0F33F82A5066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EF2193-FB0A-4488-853A-36A4F482A472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="305">
   <si>
     <t>County/Parish</t>
   </si>
@@ -821,8 +821,167 @@
     <t>870 Market Street, #658  San Francisco CA 94102</t>
   </si>
   <si>
+    <t>Clark Pacific</t>
+  </si>
+  <si>
+    <t>40600 County Road 18C  Woodland CA 95776</t>
+  </si>
+  <si>
+    <t>San Luis Obispo County</t>
+  </si>
+  <si>
+    <t>E. &amp; J. Gallo Winery</t>
+  </si>
+  <si>
+    <t>2425 Mission Street  San Miguel CA 93451</t>
+  </si>
+  <si>
+    <t>Genentech, Inc.</t>
+  </si>
+  <si>
+    <t>1 DNA Way  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Leah's Pantry</t>
+  </si>
+  <si>
+    <t>2204 Garnet Avenue, Suite 304  San Diego CA 92109</t>
+  </si>
+  <si>
+    <t>3019 Mission St. #3  San Francisco CA 94110</t>
+  </si>
+  <si>
+    <t>Levi Strauss &amp; Co.</t>
+  </si>
+  <si>
+    <t>1155 Battery Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>AMD Direct Inc.</t>
+  </si>
+  <si>
+    <t>17322 Gothard Street  Huntington Beach CA 92647</t>
+  </si>
+  <si>
+    <t>Gee Heavy Machinery</t>
+  </si>
+  <si>
+    <t>45051 Industrial Drive  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Fresno County</t>
+  </si>
+  <si>
+    <t>5461 S. Nikita Ave  Fresno CA 93725</t>
+  </si>
+  <si>
+    <t>1164 Prestige Way  Redding CA 96003</t>
+  </si>
+  <si>
+    <t>5400 Raley Blvd  Sacramento CA 95838</t>
+  </si>
+  <si>
+    <t>Kings County</t>
+  </si>
+  <si>
+    <t>KIRA Government Services</t>
+  </si>
+  <si>
+    <t>Building 359 Reeves Blvd.  Lemoore CA 93245</t>
+  </si>
+  <si>
+    <t>L3Harris Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>7821 Orion Avenue  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>Oheck, LLC</t>
+  </si>
+  <si>
+    <t>5830 Bickett Street  Huntington Park CA 90255</t>
+  </si>
+  <si>
+    <t>Primo Brands, Inc.</t>
+  </si>
+  <si>
+    <t>5377 E Home Avenue  Fresno CA 93727</t>
+  </si>
+  <si>
+    <t>4550 York Boulevard Building C  Los Angeles CA 90041</t>
+  </si>
+  <si>
+    <t>7817 Haskell Avenue  Van Nuys CA 91406</t>
+  </si>
+  <si>
+    <t>4510 Azusa Canyon Road  Covina CA 91706</t>
+  </si>
+  <si>
+    <t>Monterey County</t>
+  </si>
+  <si>
+    <t>21875 Rosehart Way  Salinas CA 93908</t>
+  </si>
+  <si>
+    <t>945 Ames Road  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>1522 North Newhope Street  Santa Ana CA 92703</t>
+  </si>
+  <si>
+    <t>Riverside County</t>
+  </si>
+  <si>
+    <t>1363 Citrus Avenue  Riverside CA 92507</t>
+  </si>
+  <si>
+    <t>41611 Date Street  Murrieta CA 92562</t>
+  </si>
+  <si>
+    <t>8631 Younger Creek Drive  Sacramento CA 95828</t>
+  </si>
+  <si>
+    <t>11811 Highway 67  Lakeside CA 92040</t>
+  </si>
+  <si>
+    <t>2615 Temple Heights Road  Oceanside CA 92056</t>
+  </si>
+  <si>
+    <t>1024 Mellon Avenue  Manteca CA 95337</t>
+  </si>
+  <si>
+    <t>395 W Channel Road  Benicia CA 94510</t>
+  </si>
+  <si>
+    <t>Sonoma County</t>
+  </si>
+  <si>
+    <t>1264 Apollo Way Ste 3  Santa Rosa CA 95407</t>
+  </si>
+  <si>
+    <t>221 E. Alondra Boulevard  Gardena CA 90248</t>
+  </si>
+  <si>
+    <t>Tulare County</t>
+  </si>
+  <si>
+    <t>Ventura Coastal</t>
+  </si>
+  <si>
+    <t>Layoff Temporary</t>
+  </si>
+  <si>
+    <t>531 W. Poplar Avenue  Tipton CA 93272</t>
+  </si>
+  <si>
+    <t>SSP America</t>
+  </si>
+  <si>
+    <t>3325 N. Harbor Dr 6900 Airport Blvd San Diego CA 92101</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/21/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/23/2025
 </t>
     </r>
     <r>
@@ -836,163 +995,61 @@
     </r>
   </si>
   <si>
-    <t>Clark Pacific</t>
-  </si>
-  <si>
-    <t>40600 County Road 18C  Woodland CA 95776</t>
-  </si>
-  <si>
-    <t>San Luis Obispo County</t>
-  </si>
-  <si>
-    <t>E. &amp; J. Gallo Winery</t>
-  </si>
-  <si>
-    <t>2425 Mission Street  San Miguel CA 93451</t>
-  </si>
-  <si>
-    <t>Genentech, Inc.</t>
-  </si>
-  <si>
-    <t>1 DNA Way  South San Francisco CA 94080</t>
-  </si>
-  <si>
-    <t>Leah's Pantry</t>
-  </si>
-  <si>
-    <t>2204 Garnet Avenue, Suite 304  San Diego CA 92109</t>
-  </si>
-  <si>
-    <t>3019 Mission St. #3  San Francisco CA 94110</t>
-  </si>
-  <si>
-    <t>Levi Strauss &amp; Co.</t>
-  </si>
-  <si>
-    <t>1155 Battery Street  San Francisco CA 94111</t>
-  </si>
-  <si>
-    <t>AMD Direct Inc.</t>
-  </si>
-  <si>
-    <t>17322 Gothard Street  Huntington Beach CA 92647</t>
-  </si>
-  <si>
-    <t>Gee Heavy Machinery</t>
-  </si>
-  <si>
-    <t>45051 Industrial Drive  Fremont CA 94538</t>
-  </si>
-  <si>
-    <t>Fresno County</t>
-  </si>
-  <si>
-    <t>5461 S. Nikita Ave  Fresno CA 93725</t>
-  </si>
-  <si>
-    <t>1164 Prestige Way  Redding CA 96003</t>
-  </si>
-  <si>
-    <t>5400 Raley Blvd  Sacramento CA 95838</t>
-  </si>
-  <si>
-    <t>Kings County</t>
-  </si>
-  <si>
-    <t>KIRA Government Services</t>
-  </si>
-  <si>
-    <t>Building 359 Reeves Blvd.  Lemoore CA 93245</t>
-  </si>
-  <si>
-    <t>L3Harris Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>7821 Orion Avenue  Van Nuys CA 91406</t>
-  </si>
-  <si>
-    <t>Oheck, LLC</t>
-  </si>
-  <si>
-    <t>5830 Bickett Street  Huntington Park CA 90255</t>
-  </si>
-  <si>
-    <t>Primo Brands, Inc.</t>
-  </si>
-  <si>
-    <t>5377 E Home Avenue  Fresno CA 93727</t>
-  </si>
-  <si>
-    <t>4550 York Boulevard Building C  Los Angeles CA 90041</t>
-  </si>
-  <si>
-    <t>7817 Haskell Avenue  Van Nuys CA 91406</t>
-  </si>
-  <si>
-    <t>4510 Azusa Canyon Road  Covina CA 91706</t>
-  </si>
-  <si>
-    <t>Monterey County</t>
-  </si>
-  <si>
-    <t>21875 Rosehart Way  Salinas CA 93908</t>
-  </si>
-  <si>
-    <t>945 Ames Road  Milpitas CA 95035</t>
-  </si>
-  <si>
-    <t>1522 North Newhope Street  Santa Ana CA 92703</t>
-  </si>
-  <si>
-    <t>Riverside County</t>
-  </si>
-  <si>
-    <t>1363 Citrus Avenue  Riverside CA 92507</t>
-  </si>
-  <si>
-    <t>41611 Date Street  Murrieta CA 92562</t>
-  </si>
-  <si>
-    <t>8631 Younger Creek Drive  Sacramento CA 95828</t>
-  </si>
-  <si>
-    <t>11811 Highway 67  Lakeside CA 92040</t>
-  </si>
-  <si>
-    <t>2615 Temple Heights Road  Oceanside CA 92056</t>
-  </si>
-  <si>
-    <t>1024 Mellon Avenue  Manteca CA 95337</t>
-  </si>
-  <si>
-    <t>395 W Channel Road  Benicia CA 94510</t>
-  </si>
-  <si>
-    <t>Sonoma County</t>
-  </si>
-  <si>
-    <t>1264 Apollo Way Ste 3  Santa Rosa CA 95407</t>
-  </si>
-  <si>
-    <t>221 E. Alondra Boulevard  Gardena CA 90248</t>
-  </si>
-  <si>
-    <t>Tulare County</t>
-  </si>
-  <si>
-    <t>Ventura Coastal</t>
-  </si>
-  <si>
-    <t>Layoff Temporary</t>
-  </si>
-  <si>
-    <t>531 W. Poplar Avenue  Tipton CA 93272</t>
-  </si>
-  <si>
-    <t>SSP America</t>
-  </si>
-  <si>
-    <t>3325 N. Harbor Dr 6900 Airport Blvd San Diego CA 92101</t>
+    <t>5820 Owens Dr  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Marin County</t>
+  </si>
+  <si>
+    <t>100 Smith Ranch Rd  San Rafael CA 94903</t>
+  </si>
+  <si>
+    <t>Lazy Dog</t>
+  </si>
+  <si>
+    <t>40754 Winchester Rd.  Temecula CA 92591</t>
+  </si>
+  <si>
+    <t>Primal Pet Foods, Inc. - Chadbourne</t>
+  </si>
+  <si>
+    <t>801 Chadbourne, Suite 103  Fairfield CA 94534</t>
+  </si>
+  <si>
+    <t>Primal Pet Foods, Inc.</t>
+  </si>
+  <si>
+    <t>5100 Fulton Drive, Suite B  Fairfield CA 94534</t>
+  </si>
+  <si>
+    <t>Primal Pet Foods, Inc. - Watt</t>
+  </si>
+  <si>
+    <t>535 Watt Drive, Suite B  Fairfield CA 94534</t>
+  </si>
+  <si>
+    <t>US Foods, Inc.</t>
+  </si>
+  <si>
+    <t>3045 Mulvany Place  West Sacramento CA 95691</t>
+  </si>
+  <si>
+    <t>International Flavors &amp; Fragrances</t>
+  </si>
+  <si>
+    <t>790 East Harrison Street  Corona CA 92879</t>
+  </si>
+  <si>
+    <t>Williamson Morgan &amp; Associates LLC</t>
+  </si>
+  <si>
+    <t>320 S Milliken Avenue Suite H  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>SenDx Medical, Inc.</t>
+  </si>
+  <si>
+    <t>1945 Palomar Oaks Way  Carlsbad CA 92011</t>
   </si>
   <si>
     <r>
@@ -1006,7 +1063,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/21/2025</t>
+      <t>07/01/25 to 07/23/2025</t>
     </r>
     <r>
       <rPr>
@@ -1026,7 +1083,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I125.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I135.</t>
     </r>
   </si>
 </sst>
@@ -2147,8 +2204,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I125" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I125" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I135" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I135" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2505,37 +2562,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2557,18 +2614,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2576,25 +2633,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>7315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2611,16 +2668,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2629,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2649,30 +2706,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="35.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -2759,7 +2816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -2817,7 +2874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -2846,7 +2903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -2875,7 +2932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -2904,7 +2961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -2933,7 +2990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -2962,7 +3019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3020,7 +3077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3049,7 +3106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3078,7 +3135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3107,7 +3164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3136,7 +3193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3165,7 +3222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3194,7 +3251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3223,7 +3280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3252,7 +3309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3281,7 +3338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3310,7 +3367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3339,7 +3396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3426,7 +3483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3455,7 +3512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3484,7 +3541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3513,7 +3570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3542,7 +3599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -3571,7 +3628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -3600,7 +3657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -3629,7 +3686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -3658,7 +3715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -3687,7 +3744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -3716,7 +3773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -3745,7 +3802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -3803,7 +3860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -3861,7 +3918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -3890,7 +3947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -3919,7 +3976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -3948,7 +4005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -3977,7 +4034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4006,7 +4063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4035,7 +4092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4064,7 +4121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4093,7 +4150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4122,7 +4179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4151,7 +4208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4180,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4209,7 +4266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4238,7 +4295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4267,7 +4324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4296,7 +4353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4325,7 +4382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4354,7 +4411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4383,7 +4440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4412,7 +4469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +4498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4470,7 +4527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -4499,7 +4556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -4528,7 +4585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -4557,7 +4614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -4586,7 +4643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -4644,7 +4701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -4673,7 +4730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -4731,7 +4788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -4760,7 +4817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -4789,7 +4846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -4818,7 +4875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -4847,7 +4904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -4876,7 +4933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -4905,7 +4962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -4934,7 +4991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -4963,7 +5020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -4992,7 +5049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5021,7 +5078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5050,7 +5107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5079,7 +5136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5108,7 +5165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5166,7 +5223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5195,7 +5252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5224,7 +5281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5253,7 +5310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5282,7 +5339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5311,7 +5368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5340,7 +5397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5354,7 +5411,7 @@
         <v>45915</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>6</v>
@@ -5363,13 +5420,13 @@
         <v>87</v>
       </c>
       <c r="H94" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I94" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5383,7 +5440,7 @@
         <v>45930</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F95" s="32" t="s">
         <v>6</v>
@@ -5392,13 +5449,13 @@
         <v>40</v>
       </c>
       <c r="H95" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I95" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -5412,7 +5469,7 @@
         <v>45912</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>6</v>
@@ -5421,13 +5478,13 @@
         <v>44</v>
       </c>
       <c r="H96" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I96" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -5441,7 +5498,7 @@
         <v>45930</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>6</v>
@@ -5450,15 +5507,15 @@
         <v>40</v>
       </c>
       <c r="H97" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I97" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B98" s="33">
         <v>45855</v>
@@ -5470,7 +5527,7 @@
         <v>45908</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F98" s="32" t="s">
         <v>54</v>
@@ -5479,13 +5536,13 @@
         <v>47</v>
       </c>
       <c r="H98" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I98" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -5499,7 +5556,7 @@
         <v>45919</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>6</v>
@@ -5508,13 +5565,13 @@
         <v>65</v>
       </c>
       <c r="H99" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I99" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -5528,7 +5585,7 @@
         <v>45859</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F100" s="32" t="s">
         <v>6</v>
@@ -5537,15 +5594,15 @@
         <v>7</v>
       </c>
       <c r="H100" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I100" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B101" s="33">
         <v>45856</v>
@@ -5557,7 +5614,7 @@
         <v>45916</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>6</v>
@@ -5566,15 +5623,15 @@
         <v>3</v>
       </c>
       <c r="H101" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I101" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B102" s="33">
         <v>45856</v>
@@ -5586,7 +5643,7 @@
         <v>45859</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F102" s="32" t="s">
         <v>54</v>
@@ -5595,15 +5652,15 @@
         <v>9</v>
       </c>
       <c r="H102" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I102" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B103" s="33">
         <v>45853</v>
@@ -5615,7 +5672,7 @@
         <v>45880</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F103" s="32" t="s">
         <v>6</v>
@@ -5624,13 +5681,13 @@
         <v>11</v>
       </c>
       <c r="H103" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I103" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -5644,7 +5701,7 @@
         <v>45916</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F104" s="32" t="s">
         <v>6</v>
@@ -5653,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="H104" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I104" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -5673,7 +5730,7 @@
         <v>45916</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F105" s="32" t="s">
         <v>6</v>
@@ -5682,13 +5739,13 @@
         <v>1</v>
       </c>
       <c r="H105" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I105" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -5702,7 +5759,7 @@
         <v>45930</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F106" s="32" t="s">
         <v>54</v>
@@ -5711,13 +5768,13 @@
         <v>149</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I106" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -5731,7 +5788,7 @@
         <v>45916</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>54</v>
@@ -5740,13 +5797,13 @@
         <v>174</v>
       </c>
       <c r="H107" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I107" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +5817,7 @@
         <v>45916</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F108" s="32" t="s">
         <v>6</v>
@@ -5769,15 +5826,15 @@
         <v>3</v>
       </c>
       <c r="H108" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I108" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B109" s="33">
         <v>45856</v>
@@ -5789,7 +5846,7 @@
         <v>45916</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>6</v>
@@ -5798,13 +5855,13 @@
         <v>1</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I109" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -5818,7 +5875,7 @@
         <v>45859</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>54</v>
@@ -5827,13 +5884,13 @@
         <v>7</v>
       </c>
       <c r="H110" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I110" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -5847,7 +5904,7 @@
         <v>45916</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F111" s="32" t="s">
         <v>6</v>
@@ -5856,13 +5913,13 @@
         <v>4</v>
       </c>
       <c r="H111" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I111" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -5876,7 +5933,7 @@
         <v>45915</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>54</v>
@@ -5885,13 +5942,13 @@
         <v>7</v>
       </c>
       <c r="H112" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I112" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -5905,7 +5962,7 @@
         <v>45916</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F113" s="32" t="s">
         <v>6</v>
@@ -5914,15 +5971,15 @@
         <v>4</v>
       </c>
       <c r="H113" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I113" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B114" s="33">
         <v>45856</v>
@@ -5934,7 +5991,7 @@
         <v>45916</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>6</v>
@@ -5943,15 +6000,15 @@
         <v>4</v>
       </c>
       <c r="H114" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I114" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B115" s="33">
         <v>45856</v>
@@ -5963,7 +6020,7 @@
         <v>45916</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F115" s="32" t="s">
         <v>6</v>
@@ -5972,13 +6029,13 @@
         <v>1</v>
       </c>
       <c r="H115" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I115" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -5992,7 +6049,7 @@
         <v>45916</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>6</v>
@@ -6001,13 +6058,13 @@
         <v>1</v>
       </c>
       <c r="H116" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I116" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6021,7 +6078,7 @@
         <v>45859</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F117" s="32" t="s">
         <v>6</v>
@@ -6030,13 +6087,13 @@
         <v>34</v>
       </c>
       <c r="H117" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I117" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6050,7 +6107,7 @@
         <v>45916</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>6</v>
@@ -6059,13 +6116,13 @@
         <v>4</v>
       </c>
       <c r="H118" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I118" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6079,7 +6136,7 @@
         <v>45916</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F119" s="32" t="s">
         <v>6</v>
@@ -6088,13 +6145,13 @@
         <v>1</v>
       </c>
       <c r="H119" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I119" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6108,7 +6165,7 @@
         <v>45916</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F120" s="32" t="s">
         <v>6</v>
@@ -6117,13 +6174,13 @@
         <v>3</v>
       </c>
       <c r="H120" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I120" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6137,7 +6194,7 @@
         <v>45916</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F121" s="32" t="s">
         <v>6</v>
@@ -6146,15 +6203,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I121" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B122" s="33">
         <v>45856</v>
@@ -6166,7 +6223,7 @@
         <v>45916</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>6</v>
@@ -6175,13 +6232,13 @@
         <v>1</v>
       </c>
       <c r="H122" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I122" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6195,7 +6252,7 @@
         <v>45916</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F123" s="32" t="s">
         <v>6</v>
@@ -6204,15 +6261,15 @@
         <v>3</v>
       </c>
       <c r="H123" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I123" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B124" s="33">
         <v>45856</v>
@@ -6224,22 +6281,22 @@
         <v>45924</v>
       </c>
       <c r="E124" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="F124" s="32" t="s">
-        <v>281</v>
       </c>
       <c r="G124" s="34">
         <v>70</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I124" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6253,7 +6310,7 @@
         <v>45922</v>
       </c>
       <c r="E125" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>6</v>
@@ -6262,10 +6319,300 @@
         <v>116</v>
       </c>
       <c r="H125" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I125" s="26" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" s="33">
+        <v>45859</v>
+      </c>
+      <c r="C126" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D126" s="33">
+        <v>45859</v>
+      </c>
+      <c r="E126" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="34">
+        <v>3</v>
+      </c>
+      <c r="H126" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="I126" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" s="33">
+        <v>45859</v>
+      </c>
+      <c r="C127" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D127" s="33">
+        <v>45859</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="34">
+        <v>1</v>
+      </c>
+      <c r="H127" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I127" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" s="33">
+        <v>45859</v>
+      </c>
+      <c r="C128" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D128" s="33">
+        <v>45919</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="F128" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G128" s="34">
+        <v>89</v>
+      </c>
+      <c r="H128" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="I128" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="33">
+        <v>45855</v>
+      </c>
+      <c r="C129" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D129" s="33">
+        <v>45917</v>
+      </c>
+      <c r="E129" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F129" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G129" s="34">
+        <v>7</v>
+      </c>
+      <c r="H129" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="I129" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="33">
+        <v>45855</v>
+      </c>
+      <c r="C130" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D130" s="33">
+        <v>45917</v>
+      </c>
+      <c r="E130" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F130" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="34">
+        <v>10</v>
+      </c>
+      <c r="H130" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="I130" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="33">
+        <v>45855</v>
+      </c>
+      <c r="C131" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D131" s="33">
+        <v>45917</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F131" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="34">
+        <v>130</v>
+      </c>
+      <c r="H131" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="I131" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="33">
+        <v>45860</v>
+      </c>
+      <c r="C132" s="33">
+        <v>45860</v>
+      </c>
+      <c r="D132" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" s="34">
+        <v>48</v>
+      </c>
+      <c r="H132" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="I132" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="33">
+        <v>45860</v>
+      </c>
+      <c r="C133" s="33">
+        <v>45861</v>
+      </c>
+      <c r="D133" s="33">
+        <v>45922</v>
+      </c>
+      <c r="E133" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="34">
+        <v>36</v>
+      </c>
+      <c r="H133" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="I133" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" s="33">
+        <v>45859</v>
+      </c>
+      <c r="C134" s="33">
+        <v>45861</v>
+      </c>
+      <c r="D134" s="33">
+        <v>45922</v>
+      </c>
+      <c r="E134" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F134" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" s="34">
+        <v>22</v>
+      </c>
+      <c r="H134" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="I134" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B135" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C135" s="33">
+        <v>45861</v>
+      </c>
+      <c r="D135" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F135" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="34">
+        <v>119</v>
+      </c>
+      <c r="H135" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="I135" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6629,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I125</xm:sqref>
+          <xm:sqref>I3:I135</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6296,18 +6643,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -6315,7 +6662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -6324,7 +6671,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -6333,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -6342,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -6351,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -6360,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -6369,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -6395,25 +6742,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -6439,7 +6786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -6481,117 +6828,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EF2193-FB0A-4488-853A-36A4F482A472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F060FB8-F78E-41E6-A961-13EF813B7D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="316">
   <si>
     <t>County/Parish</t>
   </si>
@@ -980,21 +980,6 @@
     <t>3325 N. Harbor Dr 6900 Airport Blvd San Diego CA 92101</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/23/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>5820 Owens Dr  Pleasanton CA 94588</t>
   </si>
   <si>
@@ -1063,7 +1048,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/23/2025</t>
+      <t>07/01/25 to 07/28/2025</t>
     </r>
     <r>
       <rPr>
@@ -1085,6 +1070,54 @@
       </rPr>
       <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I135.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/28/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Block By Block-CA</t>
+  </si>
+  <si>
+    <t>WeHo Santa Monica Blvd. S4750 7362 Santa Monica Blvd. Los Angeles CA 90046</t>
+  </si>
+  <si>
+    <t>Crane Food Services</t>
+  </si>
+  <si>
+    <t>2679 E Bidwell Street  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>Decra Roofing Systems, Inc.</t>
+  </si>
+  <si>
+    <t>1230 Railroad Street  Corona CA 92882</t>
+  </si>
+  <si>
+    <t>CRST Lincoln Sales, Inc. dba CRST Equipment Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>5150 Wilson St.  JURUPA VALLEY CA 92509</t>
+  </si>
+  <si>
+    <t>Ventura County</t>
+  </si>
+  <si>
+    <t>Spiral Binding, LLC</t>
+  </si>
+  <si>
+    <t>431 Calle San Pablo  Camarillo CA 93012</t>
   </si>
 </sst>
 </file>
@@ -2204,8 +2237,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I135" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I135" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I140" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I140" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2614,10 +2647,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -2639,7 +2672,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>7780</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2681,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2690,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2674,7 +2707,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2706,26 +2739,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -4692,7 +4725,7 @@
         <v>6</v>
       </c>
       <c r="G69" s="34">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="H69" s="34" t="s">
         <v>126</v>
@@ -4779,7 +4812,7 @@
         <v>6</v>
       </c>
       <c r="G72" s="34">
-        <v>387</v>
+        <v>203</v>
       </c>
       <c r="H72" s="34" t="s">
         <v>110</v>
@@ -4808,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="G73" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" s="34" t="s">
         <v>112</v>
@@ -4837,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="G74" s="34">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>112</v>
@@ -4866,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="G75" s="34">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H75" s="34" t="s">
         <v>157</v>
@@ -4895,7 +4928,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H76" s="34" t="s">
         <v>117</v>
@@ -4924,7 +4957,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="34">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="H77" s="34" t="s">
         <v>119</v>
@@ -6348,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="H126" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I126" s="26" t="s">
         <v>45</v>
@@ -6356,7 +6389,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B127" s="33">
         <v>45859</v>
@@ -6377,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I127" s="26" t="s">
         <v>45</v>
@@ -6397,7 +6430,7 @@
         <v>45919</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F128" s="32" t="s">
         <v>54</v>
@@ -6406,7 +6439,7 @@
         <v>89</v>
       </c>
       <c r="H128" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I128" s="26" t="s">
         <v>47</v>
@@ -6426,7 +6459,7 @@
         <v>45917</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>54</v>
@@ -6435,7 +6468,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I129" s="26" t="s">
         <v>34</v>
@@ -6455,7 +6488,7 @@
         <v>45917</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F130" s="32" t="s">
         <v>54</v>
@@ -6464,7 +6497,7 @@
         <v>10</v>
       </c>
       <c r="H130" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I130" s="26" t="s">
         <v>34</v>
@@ -6484,7 +6517,7 @@
         <v>45917</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F131" s="32" t="s">
         <v>54</v>
@@ -6493,7 +6526,7 @@
         <v>130</v>
       </c>
       <c r="H131" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I131" s="26" t="s">
         <v>34</v>
@@ -6513,7 +6546,7 @@
         <v>45930</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F132" s="32" t="s">
         <v>54</v>
@@ -6522,7 +6555,7 @@
         <v>48</v>
       </c>
       <c r="H132" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I132" s="26" t="s">
         <v>35</v>
@@ -6542,7 +6575,7 @@
         <v>45922</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>54</v>
@@ -6551,7 +6584,7 @@
         <v>36</v>
       </c>
       <c r="H133" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I133" s="26" t="s">
         <v>35</v>
@@ -6571,7 +6604,7 @@
         <v>45922</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F134" s="32" t="s">
         <v>58</v>
@@ -6580,7 +6613,7 @@
         <v>22</v>
       </c>
       <c r="H134" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I134" s="26" t="s">
         <v>43</v>
@@ -6600,7 +6633,7 @@
         <v>45915</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F135" s="32" t="s">
         <v>54</v>
@@ -6609,9 +6642,154 @@
         <v>119</v>
       </c>
       <c r="H135" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I135" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C136" s="33">
+        <v>45863</v>
+      </c>
+      <c r="D136" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="F136" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="34">
+        <v>82</v>
+      </c>
+      <c r="H136" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="I136" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" s="33">
+        <v>45863</v>
+      </c>
+      <c r="C137" s="33">
+        <v>45863</v>
+      </c>
+      <c r="D137" s="33">
+        <v>45925</v>
+      </c>
+      <c r="E137" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F137" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G137" s="34">
+        <v>85</v>
+      </c>
+      <c r="H137" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="I137" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C138" s="33">
+        <v>45866</v>
+      </c>
+      <c r="D138" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E138" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F138" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G138" s="34">
+        <v>57</v>
+      </c>
+      <c r="H138" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="I138" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C139" s="33">
+        <v>45866</v>
+      </c>
+      <c r="D139" s="33">
+        <v>45927</v>
+      </c>
+      <c r="E139" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="F139" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="34">
+        <v>10</v>
+      </c>
+      <c r="H139" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C140" s="33">
+        <v>45866</v>
+      </c>
+      <c r="D140" s="33">
+        <v>45926</v>
+      </c>
+      <c r="E140" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="34">
+        <v>135</v>
+      </c>
+      <c r="H140" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I140" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6629,7 +6807,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I135</xm:sqref>
+          <xm:sqref>I3:I140</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6645,7 +6823,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6744,19 +6922,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F060FB8-F78E-41E6-A961-13EF813B7D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F383A34C-9280-44EE-B8AE-3A0D372C0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="362">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1037,6 +1037,192 @@
     <t>1945 Palomar Oaks Way  Carlsbad CA 92011</t>
   </si>
   <si>
+    <t>Block By Block-CA</t>
+  </si>
+  <si>
+    <t>WeHo Santa Monica Blvd. S4750 7362 Santa Monica Blvd. Los Angeles CA 90046</t>
+  </si>
+  <si>
+    <t>Crane Food Services</t>
+  </si>
+  <si>
+    <t>2679 E Bidwell Street  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>Decra Roofing Systems, Inc.</t>
+  </si>
+  <si>
+    <t>1230 Railroad Street  Corona CA 92882</t>
+  </si>
+  <si>
+    <t>CRST Lincoln Sales, Inc. dba CRST Equipment Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>5150 Wilson St.  JURUPA VALLEY CA 92509</t>
+  </si>
+  <si>
+    <t>Ventura County</t>
+  </si>
+  <si>
+    <t>Spiral Binding, LLC</t>
+  </si>
+  <si>
+    <t>431 Calle San Pablo  Camarillo CA 93012</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/30/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>One Kaiser Plaza  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>4460 Hacienda Dr., Bldg. A  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (393)</t>
+  </si>
+  <si>
+    <t>393 E. Walnut St  Pasadena CA 91188</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (74)</t>
+  </si>
+  <si>
+    <t>74 N. Pasadena Ave  Pasadena CA 91103</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (99)</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Ave  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>11975 El Camino Real, Ste. 105  San Diego CA 92130</t>
+  </si>
+  <si>
+    <t>CRST Expedited, Inc. dba CRST The Transportation Solution</t>
+  </si>
+  <si>
+    <t>5350 Wilson St.  JURUPA VALLEY CA 92509</t>
+  </si>
+  <si>
+    <t>1230 Railroad St.  Corona CA 92882</t>
+  </si>
+  <si>
+    <t>1005 Jamacha Blvd.  Spring Valley CA 91978</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific (5823)</t>
+  </si>
+  <si>
+    <t>5823 Newton Dr  Carlsbad CA 92008</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific (5781)</t>
+  </si>
+  <si>
+    <t>5781 Van Allen Way  Carlsbad CA 92008</t>
+  </si>
+  <si>
+    <t>6095 N. 1st Sreet  Fresno CA 93710</t>
+  </si>
+  <si>
+    <t>Kern County</t>
+  </si>
+  <si>
+    <t>Galleher LLC</t>
+  </si>
+  <si>
+    <t>6901 District Blvd. b  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte</t>
+  </si>
+  <si>
+    <t>2633 16th Street  Bakersfield CA 93301</t>
+  </si>
+  <si>
+    <t>Madera County</t>
+  </si>
+  <si>
+    <t>500 E. Almond Ave. Ste. 1  Madera CA 93637</t>
+  </si>
+  <si>
+    <t>Merced County</t>
+  </si>
+  <si>
+    <t>3166 Collins Drive  Merced CA 95348</t>
+  </si>
+  <si>
+    <t>316 North Main Street  Salinas CA 93901</t>
+  </si>
+  <si>
+    <t>Santa Cruz County</t>
+  </si>
+  <si>
+    <t>398 South Green Valley Road  Watsonville CA 95076</t>
+  </si>
+  <si>
+    <t>3098 Crossroads Dr.  Redding CA 96003</t>
+  </si>
+  <si>
+    <t>435 Grand Avenue  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>201 29th Street, Suite B  Sacramento CA 95816</t>
+  </si>
+  <si>
+    <t>4555 Precissi Lane  Stockton CA 95207</t>
+  </si>
+  <si>
+    <t>760 Renz Lane  Gilroy CA 95020</t>
+  </si>
+  <si>
+    <t>1119 Pacific Avenue, Suite 200  Santa Cruz CA 95060</t>
+  </si>
+  <si>
+    <t>Stanislaus County</t>
+  </si>
+  <si>
+    <t>1431 McHenry Suite 100  Modesto CA 95350</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc. (100)</t>
+  </si>
+  <si>
+    <t>100 S. California Street  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc. (200)</t>
+  </si>
+  <si>
+    <t>200 S. California Street  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc. (4000)</t>
+  </si>
+  <si>
+    <t>4000 Warner Blvd  Burbank CA 91522</t>
+  </si>
+  <si>
+    <t>Recology Vallejo</t>
+  </si>
+  <si>
+    <t>2021 Broadway  Vallejo CA 94589</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -1048,7 +1234,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/28/2025</t>
+      <t>07/01/25 to 07/30/2025</t>
     </r>
     <r>
       <rPr>
@@ -1068,56 +1254,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I135.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I169.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/28/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
-    <t>Block By Block-CA</t>
-  </si>
-  <si>
-    <t>WeHo Santa Monica Blvd. S4750 7362 Santa Monica Blvd. Los Angeles CA 90046</t>
-  </si>
-  <si>
-    <t>Crane Food Services</t>
-  </si>
-  <si>
-    <t>2679 E Bidwell Street  Folsom CA 95630</t>
-  </si>
-  <si>
-    <t>Decra Roofing Systems, Inc.</t>
-  </si>
-  <si>
-    <t>1230 Railroad Street  Corona CA 92882</t>
-  </si>
-  <si>
-    <t>CRST Lincoln Sales, Inc. dba CRST Equipment Solutions, Inc.</t>
-  </si>
-  <si>
-    <t>5150 Wilson St.  JURUPA VALLEY CA 92509</t>
-  </si>
-  <si>
-    <t>Ventura County</t>
-  </si>
-  <si>
-    <t>Spiral Binding, LLC</t>
-  </si>
-  <si>
-    <t>431 Calle San Pablo  Camarillo CA 93012</t>
   </si>
 </sst>
 </file>
@@ -2237,8 +2375,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I140" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I140" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I169" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I169" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2647,10 +2785,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -2672,7 +2810,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>7565</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2819,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2707,7 +2845,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2739,26 +2877,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -6662,7 +6800,7 @@
         <v>45930</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F136" s="32" t="s">
         <v>6</v>
@@ -6671,7 +6809,7 @@
         <v>82</v>
       </c>
       <c r="H136" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I136" s="26" t="s">
         <v>43</v>
@@ -6691,7 +6829,7 @@
         <v>45925</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F137" s="32" t="s">
         <v>280</v>
@@ -6700,7 +6838,7 @@
         <v>85</v>
       </c>
       <c r="H137" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I137" s="26" t="s">
         <v>47</v>
@@ -6720,7 +6858,7 @@
         <v>45930</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F138" s="32" t="s">
         <v>54</v>
@@ -6729,7 +6867,7 @@
         <v>57</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I138" s="26" t="s">
         <v>34</v>
@@ -6749,7 +6887,7 @@
         <v>45927</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F139" s="32" t="s">
         <v>6</v>
@@ -6758,7 +6896,7 @@
         <v>10</v>
       </c>
       <c r="H139" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I139" s="26" t="s">
         <v>48</v>
@@ -6766,7 +6904,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B140" s="33">
         <v>45866</v>
@@ -6778,7 +6916,7 @@
         <v>45926</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F140" s="32" t="s">
         <v>54</v>
@@ -6787,10 +6925,851 @@
         <v>135</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I140" s="26" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C141" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D141" s="33">
+        <v>45866</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="34">
+        <v>6</v>
+      </c>
+      <c r="H141" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I141" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C142" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D142" s="33">
+        <v>45866</v>
+      </c>
+      <c r="E142" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="34">
+        <v>4</v>
+      </c>
+      <c r="H142" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C143" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D143" s="33">
+        <v>45866</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="34">
+        <v>1</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C144" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D144" s="33">
+        <v>45866</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="34">
+        <v>1</v>
+      </c>
+      <c r="H144" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="I144" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C145" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D145" s="33">
+        <v>45866</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="34">
+        <v>3</v>
+      </c>
+      <c r="H145" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="I145" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C146" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D146" s="33">
+        <v>45866</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="34">
+        <v>1</v>
+      </c>
+      <c r="H146" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B147" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C147" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D147" s="33">
+        <v>45927</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="34">
+        <v>7</v>
+      </c>
+      <c r="H147" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="I147" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" s="33">
+        <v>45866</v>
+      </c>
+      <c r="C148" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D148" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E148" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F148" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" s="34">
+        <v>4</v>
+      </c>
+      <c r="H148" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" s="33">
+        <v>45867</v>
+      </c>
+      <c r="C149" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D149" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G149" s="34">
+        <v>27</v>
+      </c>
+      <c r="H149" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="I149" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="33">
+        <v>45867</v>
+      </c>
+      <c r="C150" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D150" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E150" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="34">
+        <v>52</v>
+      </c>
+      <c r="H150" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="I150" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="33">
+        <v>45867</v>
+      </c>
+      <c r="C151" s="33">
+        <v>45867</v>
+      </c>
+      <c r="D151" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F151" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G151" s="34">
+        <v>33</v>
+      </c>
+      <c r="H151" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="I151" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C152" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D152" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E152" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F152" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="34">
+        <v>4</v>
+      </c>
+      <c r="H152" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="33">
+        <v>45867</v>
+      </c>
+      <c r="C153" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D153" s="33">
+        <v>45929</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F153" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" s="34">
+        <v>2</v>
+      </c>
+      <c r="H153" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="I153" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C154" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D154" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E154" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F154" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="34">
+        <v>2</v>
+      </c>
+      <c r="H154" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I154" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B155" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C155" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D155" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E155" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F155" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="34">
+        <v>11</v>
+      </c>
+      <c r="H155" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="I155" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B156" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C156" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D156" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E156" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F156" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="34">
+        <v>2</v>
+      </c>
+      <c r="H156" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I156" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B157" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C157" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D157" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E157" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F157" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="34">
+        <v>3</v>
+      </c>
+      <c r="H157" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B158" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C158" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D158" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E158" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="34">
+        <v>2</v>
+      </c>
+      <c r="H158" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B159" s="33">
+        <v>45867</v>
+      </c>
+      <c r="C159" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D159" s="33">
+        <v>45929</v>
+      </c>
+      <c r="E159" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F159" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="34">
+        <v>2</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="I159" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B160" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C160" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D160" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E160" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F160" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" s="34">
+        <v>10</v>
+      </c>
+      <c r="H160" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="I160" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C161" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D161" s="33">
+        <v>45925</v>
+      </c>
+      <c r="E161" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F161" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" s="34">
+        <v>1</v>
+      </c>
+      <c r="H161" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="I161" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B162" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C162" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D162" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E162" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="34">
+        <v>3</v>
+      </c>
+      <c r="H162" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="I162" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B163" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C163" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D163" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E163" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F163" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="34">
+        <v>13</v>
+      </c>
+      <c r="H163" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I163" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B164" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C164" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D164" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E164" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F164" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="34">
+        <v>17</v>
+      </c>
+      <c r="H164" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C165" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D165" s="33">
+        <v>45924</v>
+      </c>
+      <c r="E165" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F165" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="34">
+        <v>3</v>
+      </c>
+      <c r="H165" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="I165" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="33">
+        <v>45868</v>
+      </c>
+      <c r="C166" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D166" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E166" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F166" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="34">
+        <v>11</v>
+      </c>
+      <c r="H166" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="I166" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="33">
+        <v>45868</v>
+      </c>
+      <c r="C167" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D167" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E167" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F167" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G167" s="34">
+        <v>38</v>
+      </c>
+      <c r="H167" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="I167" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="33">
+        <v>45868</v>
+      </c>
+      <c r="C168" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D168" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E168" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="34">
+        <v>3</v>
+      </c>
+      <c r="H168" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="I168" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B169" s="33">
+        <v>45868</v>
+      </c>
+      <c r="C169" s="33">
+        <v>45868</v>
+      </c>
+      <c r="D169" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="F169" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="34">
+        <v>25</v>
+      </c>
+      <c r="H169" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="I169" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6807,7 +7786,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I140</xm:sqref>
+          <xm:sqref>I3:I169</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6823,7 +7802,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6922,19 +7901,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F383A34C-9280-44EE-B8AE-3A0D372C0870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BA159C-70D9-4409-B1BC-DC9C67BD20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="378">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1070,8 +1070,146 @@
     <t>431 Calle San Pablo  Camarillo CA 93012</t>
   </si>
   <si>
+    <t>One Kaiser Plaza  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>4460 Hacienda Dr., Bldg. A  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (393)</t>
+  </si>
+  <si>
+    <t>393 E. Walnut St  Pasadena CA 91188</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (74)</t>
+  </si>
+  <si>
+    <t>74 N. Pasadena Ave  Pasadena CA 91103</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (99)</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Ave  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>11975 El Camino Real, Ste. 105  San Diego CA 92130</t>
+  </si>
+  <si>
+    <t>CRST Expedited, Inc. dba CRST The Transportation Solution</t>
+  </si>
+  <si>
+    <t>5350 Wilson St.  JURUPA VALLEY CA 92509</t>
+  </si>
+  <si>
+    <t>1230 Railroad St.  Corona CA 92882</t>
+  </si>
+  <si>
+    <t>1005 Jamacha Blvd.  Spring Valley CA 91978</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific (5823)</t>
+  </si>
+  <si>
+    <t>5823 Newton Dr  Carlsbad CA 92008</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific (5781)</t>
+  </si>
+  <si>
+    <t>5781 Van Allen Way  Carlsbad CA 92008</t>
+  </si>
+  <si>
+    <t>6095 N. 1st Sreet  Fresno CA 93710</t>
+  </si>
+  <si>
+    <t>Kern County</t>
+  </si>
+  <si>
+    <t>Galleher LLC</t>
+  </si>
+  <si>
+    <t>6901 District Blvd. b  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte</t>
+  </si>
+  <si>
+    <t>2633 16th Street  Bakersfield CA 93301</t>
+  </si>
+  <si>
+    <t>Madera County</t>
+  </si>
+  <si>
+    <t>500 E. Almond Ave. Ste. 1  Madera CA 93637</t>
+  </si>
+  <si>
+    <t>Merced County</t>
+  </si>
+  <si>
+    <t>3166 Collins Drive  Merced CA 95348</t>
+  </si>
+  <si>
+    <t>316 North Main Street  Salinas CA 93901</t>
+  </si>
+  <si>
+    <t>Santa Cruz County</t>
+  </si>
+  <si>
+    <t>398 South Green Valley Road  Watsonville CA 95076</t>
+  </si>
+  <si>
+    <t>3098 Crossroads Dr.  Redding CA 96003</t>
+  </si>
+  <si>
+    <t>435 Grand Avenue  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>201 29th Street, Suite B  Sacramento CA 95816</t>
+  </si>
+  <si>
+    <t>4555 Precissi Lane  Stockton CA 95207</t>
+  </si>
+  <si>
+    <t>760 Renz Lane  Gilroy CA 95020</t>
+  </si>
+  <si>
+    <t>1119 Pacific Avenue, Suite 200  Santa Cruz CA 95060</t>
+  </si>
+  <si>
+    <t>Stanislaus County</t>
+  </si>
+  <si>
+    <t>1431 McHenry Suite 100  Modesto CA 95350</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc. (100)</t>
+  </si>
+  <si>
+    <t>100 S. California Street  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc. (200)</t>
+  </si>
+  <si>
+    <t>200 S. California Street  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>Warner Bros. Discovery, Inc. (4000)</t>
+  </si>
+  <si>
+    <t>4000 Warner Blvd  Burbank CA 91522</t>
+  </si>
+  <si>
+    <t>Recology Vallejo</t>
+  </si>
+  <si>
+    <t>2021 Broadway  Vallejo CA 94589</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 07/30/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/04/2025
 </t>
     </r>
     <r>
@@ -1085,142 +1223,52 @@
     </r>
   </si>
   <si>
-    <t>One Kaiser Plaza  Oakland CA 94612</t>
-  </si>
-  <si>
-    <t>4460 Hacienda Dr., Bldg. A  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals (393)</t>
-  </si>
-  <si>
-    <t>393 E. Walnut St  Pasadena CA 91188</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals (74)</t>
-  </si>
-  <si>
-    <t>74 N. Pasadena Ave  Pasadena CA 91103</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals (99)</t>
-  </si>
-  <si>
-    <t>99 S. Oakland Ave  Pasadena CA 91101</t>
-  </si>
-  <si>
-    <t>11975 El Camino Real, Ste. 105  San Diego CA 92130</t>
-  </si>
-  <si>
-    <t>CRST Expedited, Inc. dba CRST The Transportation Solution</t>
-  </si>
-  <si>
-    <t>5350 Wilson St.  JURUPA VALLEY CA 92509</t>
-  </si>
-  <si>
-    <t>1230 Railroad St.  Corona CA 92882</t>
-  </si>
-  <si>
-    <t>1005 Jamacha Blvd.  Spring Valley CA 91978</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific (5823)</t>
-  </si>
-  <si>
-    <t>5823 Newton Dr  Carlsbad CA 92008</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific (5781)</t>
-  </si>
-  <si>
-    <t>5781 Van Allen Way  Carlsbad CA 92008</t>
-  </si>
-  <si>
-    <t>6095 N. 1st Sreet  Fresno CA 93710</t>
-  </si>
-  <si>
-    <t>Kern County</t>
-  </si>
-  <si>
-    <t>Galleher LLC</t>
-  </si>
-  <si>
-    <t>6901 District Blvd. b  Bakersfield CA 93313</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte</t>
-  </si>
-  <si>
-    <t>2633 16th Street  Bakersfield CA 93301</t>
-  </si>
-  <si>
-    <t>Madera County</t>
-  </si>
-  <si>
-    <t>500 E. Almond Ave. Ste. 1  Madera CA 93637</t>
-  </si>
-  <si>
-    <t>Merced County</t>
-  </si>
-  <si>
-    <t>3166 Collins Drive  Merced CA 95348</t>
-  </si>
-  <si>
-    <t>316 North Main Street  Salinas CA 93901</t>
-  </si>
-  <si>
-    <t>Santa Cruz County</t>
-  </si>
-  <si>
-    <t>398 South Green Valley Road  Watsonville CA 95076</t>
-  </si>
-  <si>
-    <t>3098 Crossroads Dr.  Redding CA 96003</t>
-  </si>
-  <si>
-    <t>435 Grand Avenue  South San Francisco CA 94080</t>
-  </si>
-  <si>
-    <t>201 29th Street, Suite B  Sacramento CA 95816</t>
-  </si>
-  <si>
-    <t>4555 Precissi Lane  Stockton CA 95207</t>
-  </si>
-  <si>
-    <t>760 Renz Lane  Gilroy CA 95020</t>
-  </si>
-  <si>
-    <t>1119 Pacific Avenue, Suite 200  Santa Cruz CA 95060</t>
-  </si>
-  <si>
-    <t>Stanislaus County</t>
-  </si>
-  <si>
-    <t>1431 McHenry Suite 100  Modesto CA 95350</t>
-  </si>
-  <si>
-    <t>Warner Bros. Discovery, Inc. (100)</t>
-  </si>
-  <si>
-    <t>100 S. California Street  Burbank CA 91505</t>
-  </si>
-  <si>
-    <t>Warner Bros. Discovery, Inc. (200)</t>
-  </si>
-  <si>
-    <t>200 S. California Street  Burbank CA 91505</t>
-  </si>
-  <si>
-    <t>Warner Bros. Discovery, Inc. (4000)</t>
-  </si>
-  <si>
-    <t>4000 Warner Blvd  Burbank CA 91522</t>
-  </si>
-  <si>
-    <t>Recology Vallejo</t>
-  </si>
-  <si>
-    <t>2021 Broadway  Vallejo CA 94589</t>
+    <t>Greif Packaging LLC</t>
+  </si>
+  <si>
+    <t>2400 Cooper Ave  Merced CA 95348</t>
+  </si>
+  <si>
+    <t>Children's Specialists of San Diego</t>
+  </si>
+  <si>
+    <t>7910 Frost Street  San Diego CA 92123</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>450 Jane Stanford Way  Stanford CA 94305</t>
+  </si>
+  <si>
+    <t>Wildbrine, LLC</t>
+  </si>
+  <si>
+    <t>3700 Fulton Rd  Santa Rosa CA 95403</t>
+  </si>
+  <si>
+    <t>Host International Inc.</t>
+  </si>
+  <si>
+    <t>6900 Airport Blvd.  Sacramento CA 95837</t>
+  </si>
+  <si>
+    <t>Zeco Systems, Inc (DBA Shell Recharge Solutions)</t>
+  </si>
+  <si>
+    <t>568 S Alameda St  Los Angeles CA 90013</t>
+  </si>
+  <si>
+    <t>Azoteas Mex LA, LLC</t>
+  </si>
+  <si>
+    <t>812 East 3rd Street  Los Angeles CA 90013</t>
+  </si>
+  <si>
+    <t>Poseida Therapeutics, Inc.</t>
+  </si>
+  <si>
+    <t>9390 Towne Centre Dr., #200  San Diego CA 92121</t>
   </si>
   <si>
     <r>
@@ -1234,7 +1282,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 07/30/2025</t>
+      <t>07/01/25 to 08/04/2025</t>
     </r>
     <r>
       <rPr>
@@ -1254,7 +1302,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I169.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I177.</t>
     </r>
   </si>
 </sst>
@@ -2375,8 +2423,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I169" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I169" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I177" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I177" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2788,7 +2836,7 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -2810,7 +2858,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>7856</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2867,7 @@
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2828,7 +2876,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2845,7 +2893,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,26 +2925,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -5559,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="G93" s="34">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H93" s="34" t="s">
         <v>230</v>
@@ -6954,7 +7002,7 @@
         <v>6</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I141" s="26" t="s">
         <v>45</v>
@@ -6983,7 +7031,7 @@
         <v>4</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I142" s="26" t="s">
         <v>45</v>
@@ -7003,7 +7051,7 @@
         <v>45866</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F143" s="32" t="s">
         <v>6</v>
@@ -7012,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I143" s="26" t="s">
         <v>45</v>
@@ -7032,7 +7080,7 @@
         <v>45866</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F144" s="32" t="s">
         <v>6</v>
@@ -7041,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I144" s="26" t="s">
         <v>45</v>
@@ -7061,7 +7109,7 @@
         <v>45866</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F145" s="32" t="s">
         <v>6</v>
@@ -7070,7 +7118,7 @@
         <v>3</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I145" s="26" t="s">
         <v>45</v>
@@ -7099,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I146" s="26" t="s">
         <v>45</v>
@@ -7119,7 +7167,7 @@
         <v>45927</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F147" s="32" t="s">
         <v>6</v>
@@ -7128,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="H147" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I147" s="26" t="s">
         <v>37</v>
@@ -7157,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="H148" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I148" s="26" t="s">
         <v>34</v>
@@ -7186,7 +7234,7 @@
         <v>27</v>
       </c>
       <c r="H149" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I149" s="26" t="s">
         <v>41</v>
@@ -7206,7 +7254,7 @@
         <v>45915</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>6</v>
@@ -7215,7 +7263,7 @@
         <v>52</v>
       </c>
       <c r="H150" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I150" s="26" t="s">
         <v>34</v>
@@ -7235,7 +7283,7 @@
         <v>45915</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F151" s="32" t="s">
         <v>6</v>
@@ -7244,7 +7292,7 @@
         <v>33</v>
       </c>
       <c r="H151" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I151" s="26" t="s">
         <v>34</v>
@@ -7273,7 +7321,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I152" s="26" t="s">
         <v>45</v>
@@ -7281,7 +7329,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B153" s="33">
         <v>45867</v>
@@ -7293,7 +7341,7 @@
         <v>45929</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F153" s="32" t="s">
         <v>54</v>
@@ -7302,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="H153" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I153" s="26" t="s">
         <v>35</v>
@@ -7310,7 +7358,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B154" s="33">
         <v>45862</v>
@@ -7322,7 +7370,7 @@
         <v>45924</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F154" s="32" t="s">
         <v>6</v>
@@ -7331,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I154" s="26" t="s">
         <v>45</v>
@@ -7339,7 +7387,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B155" s="33">
         <v>45862</v>
@@ -7351,7 +7399,7 @@
         <v>45924</v>
       </c>
       <c r="E155" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F155" s="32" t="s">
         <v>6</v>
@@ -7360,7 +7408,7 @@
         <v>11</v>
       </c>
       <c r="H155" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I155" s="26" t="s">
         <v>45</v>
@@ -7368,7 +7416,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B156" s="33">
         <v>45862</v>
@@ -7380,7 +7428,7 @@
         <v>45862</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F156" s="32" t="s">
         <v>6</v>
@@ -7389,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I156" s="26" t="s">
         <v>45</v>
@@ -7418,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I157" s="26" t="s">
         <v>45</v>
@@ -7426,7 +7474,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B158" s="33">
         <v>45862</v>
@@ -7447,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I158" s="26" t="s">
         <v>45</v>
@@ -7467,7 +7515,7 @@
         <v>45929</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F159" s="32" t="s">
         <v>54</v>
@@ -7476,7 +7524,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I159" s="26" t="s">
         <v>35</v>
@@ -7505,7 +7553,7 @@
         <v>10</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I160" s="26" t="s">
         <v>45</v>
@@ -7534,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I161" s="26" t="s">
         <v>45</v>
@@ -7563,7 +7611,7 @@
         <v>3</v>
       </c>
       <c r="H162" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I162" s="26" t="s">
         <v>45</v>
@@ -7592,7 +7640,7 @@
         <v>13</v>
       </c>
       <c r="H163" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I163" s="26" t="s">
         <v>45</v>
@@ -7600,7 +7648,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B164" s="33">
         <v>45862</v>
@@ -7621,7 +7669,7 @@
         <v>17</v>
       </c>
       <c r="H164" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I164" s="26" t="s">
         <v>45</v>
@@ -7629,7 +7677,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B165" s="33">
         <v>45862</v>
@@ -7641,7 +7689,7 @@
         <v>45924</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F165" s="32" t="s">
         <v>6</v>
@@ -7650,7 +7698,7 @@
         <v>3</v>
       </c>
       <c r="H165" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I165" s="26" t="s">
         <v>45</v>
@@ -7670,7 +7718,7 @@
         <v>45934</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F166" s="32" t="s">
         <v>6</v>
@@ -7679,7 +7727,7 @@
         <v>11</v>
       </c>
       <c r="H166" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I166" s="26" t="s">
         <v>38</v>
@@ -7699,7 +7747,7 @@
         <v>45934</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F167" s="32" t="s">
         <v>6</v>
@@ -7708,7 +7756,7 @@
         <v>38</v>
       </c>
       <c r="H167" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I167" s="26" t="s">
         <v>38</v>
@@ -7728,7 +7776,7 @@
         <v>45934</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F168" s="32" t="s">
         <v>6</v>
@@ -7737,7 +7785,7 @@
         <v>3</v>
       </c>
       <c r="H168" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I168" s="26" t="s">
         <v>38</v>
@@ -7757,7 +7805,7 @@
         <v>45930</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F169" s="32" t="s">
         <v>6</v>
@@ -7766,10 +7814,242 @@
         <v>25</v>
       </c>
       <c r="H169" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I169" s="26" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B170" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C170" s="33">
+        <v>45869</v>
+      </c>
+      <c r="D170" s="33">
+        <v>45929</v>
+      </c>
+      <c r="E170" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F170" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="34">
+        <v>43</v>
+      </c>
+      <c r="H170" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="I170" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C171" s="33">
+        <v>45869</v>
+      </c>
+      <c r="D171" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E171" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F171" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="34">
+        <v>55</v>
+      </c>
+      <c r="H171" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I171" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C172" s="33">
+        <v>45869</v>
+      </c>
+      <c r="D172" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="34">
+        <v>363</v>
+      </c>
+      <c r="H172" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="I172" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B173" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C173" s="33">
+        <v>45869</v>
+      </c>
+      <c r="D173" s="33">
+        <v>45931</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G173" s="34">
+        <v>4</v>
+      </c>
+      <c r="H173" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="I173" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B174" s="33">
+        <v>45870</v>
+      </c>
+      <c r="C174" s="33">
+        <v>45870</v>
+      </c>
+      <c r="D174" s="33">
+        <v>45931</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F174" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G174" s="34">
+        <v>70</v>
+      </c>
+      <c r="H174" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I174" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C175" s="33">
+        <v>45873</v>
+      </c>
+      <c r="D175" s="33">
+        <v>45991</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="F175" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" s="34">
+        <v>4</v>
+      </c>
+      <c r="H175" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="I175" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="33">
+        <v>45870</v>
+      </c>
+      <c r="C176" s="33">
+        <v>45873</v>
+      </c>
+      <c r="D176" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="F176" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G176" s="34">
+        <v>48</v>
+      </c>
+      <c r="H176" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="I176" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B177" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C177" s="33">
+        <v>45873</v>
+      </c>
+      <c r="D177" s="33">
+        <v>45931</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F177" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="34">
+        <v>52</v>
+      </c>
+      <c r="H177" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="I177" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7786,7 +8066,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I169</xm:sqref>
+          <xm:sqref>I3:I177</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7802,7 +8082,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7901,19 +8181,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="E1"/>
     </row>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BA159C-70D9-4409-B1BC-DC9C67BD20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF896B10-2A8B-457F-A85E-A5432954CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="401">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1208,8 +1208,56 @@
     <t>2021 Broadway  Vallejo CA 94589</t>
   </si>
   <si>
+    <t>Greif Packaging LLC</t>
+  </si>
+  <si>
+    <t>2400 Cooper Ave  Merced CA 95348</t>
+  </si>
+  <si>
+    <t>Children's Specialists of San Diego</t>
+  </si>
+  <si>
+    <t>7910 Frost Street  San Diego CA 92123</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>450 Jane Stanford Way  Stanford CA 94305</t>
+  </si>
+  <si>
+    <t>Wildbrine, LLC</t>
+  </si>
+  <si>
+    <t>3700 Fulton Rd  Santa Rosa CA 95403</t>
+  </si>
+  <si>
+    <t>Host International Inc.</t>
+  </si>
+  <si>
+    <t>6900 Airport Blvd.  Sacramento CA 95837</t>
+  </si>
+  <si>
+    <t>Zeco Systems, Inc (DBA Shell Recharge Solutions)</t>
+  </si>
+  <si>
+    <t>568 S Alameda St  Los Angeles CA 90013</t>
+  </si>
+  <si>
+    <t>Azoteas Mex LA, LLC</t>
+  </si>
+  <si>
+    <t>812 East 3rd Street  Los Angeles CA 90013</t>
+  </si>
+  <si>
+    <t>Poseida Therapeutics, Inc.</t>
+  </si>
+  <si>
+    <t>9390 Towne Centre Dr., #200  San Diego CA 92121</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/04/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/06/2025
 </t>
     </r>
     <r>
@@ -1223,52 +1271,73 @@
     </r>
   </si>
   <si>
-    <t>Greif Packaging LLC</t>
-  </si>
-  <si>
-    <t>2400 Cooper Ave  Merced CA 95348</t>
-  </si>
-  <si>
-    <t>Children's Specialists of San Diego</t>
-  </si>
-  <si>
-    <t>7910 Frost Street  San Diego CA 92123</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t>450 Jane Stanford Way  Stanford CA 94305</t>
-  </si>
-  <si>
-    <t>Wildbrine, LLC</t>
-  </si>
-  <si>
-    <t>3700 Fulton Rd  Santa Rosa CA 95403</t>
-  </si>
-  <si>
-    <t>Host International Inc.</t>
-  </si>
-  <si>
-    <t>6900 Airport Blvd.  Sacramento CA 95837</t>
-  </si>
-  <si>
-    <t>Zeco Systems, Inc (DBA Shell Recharge Solutions)</t>
-  </si>
-  <si>
-    <t>568 S Alameda St  Los Angeles CA 90013</t>
-  </si>
-  <si>
-    <t>Azoteas Mex LA, LLC</t>
-  </si>
-  <si>
-    <t>812 East 3rd Street  Los Angeles CA 90013</t>
-  </si>
-  <si>
-    <t>Poseida Therapeutics, Inc.</t>
-  </si>
-  <si>
-    <t>9390 Towne Centre Dr., #200  San Diego CA 92121</t>
+    <t>1500 San Pablo Street (Keck)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1441 Eastlake Ave (Norris)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1509 San Pablo St. (Soto II)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1510 San Pablo St (HC1)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1520 San Pablo St. (HC2)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1516 San Pablo St. (HC3)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1450 San Pablo St. (HC4)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>830 S. Flower Street, Building DKC  Los Angeles CA 90017</t>
+  </si>
+  <si>
+    <t>1509 San Pablo St.  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>SIE Orange County Kitchen, LLC</t>
+  </si>
+  <si>
+    <t>1400 Anduril Drive  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>Horizon Hobby, LLC</t>
+  </si>
+  <si>
+    <t>4710 E, Guasti Rd. Ste. A  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>Southwest Key Programs, Inc.</t>
+  </si>
+  <si>
+    <t>808 Grayson Rd.  Pleasant Hill CA 94523</t>
+  </si>
+  <si>
+    <t>Gilead Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>4010 Ocean Ranch Blvd  Oceanside CA 92056</t>
+  </si>
+  <si>
+    <t>1160 Broadway  El Cajon CA 92021</t>
+  </si>
+  <si>
+    <t>Tehama County</t>
+  </si>
+  <si>
+    <t>Marathon Staffing Solutions Inc</t>
+  </si>
+  <si>
+    <t>1600 Solano St. Suite C  Corning CA 96021</t>
+  </si>
+  <si>
+    <t>Marathon Staff Solutions Inc. - W. Sacramento</t>
+  </si>
+  <si>
+    <t>2950 Beacon Boulevard, Suite 45  West Sacramento CA 95691</t>
   </si>
   <si>
     <r>
@@ -1282,7 +1351,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/04/2025</t>
+      <t>07/01/25 to 08/06/2025</t>
     </r>
     <r>
       <rPr>
@@ -1302,7 +1371,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I177.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I193.</t>
     </r>
   </si>
 </sst>
@@ -2423,8 +2492,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I177" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I177" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I193" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I193" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2781,37 +2850,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2833,18 +2902,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2852,25 +2921,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>8497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2879,7 +2948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2887,16 +2956,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2905,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2925,30 +2994,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +3046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3006,7 +3075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3035,7 +3104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3064,7 +3133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3122,7 +3191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3151,7 +3220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3180,7 +3249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3209,7 +3278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3238,7 +3307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3267,7 +3336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3296,7 +3365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3325,7 +3394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3354,7 +3423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3383,7 +3452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3412,7 +3481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3441,7 +3510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3470,7 +3539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3499,7 +3568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3528,7 +3597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3557,7 +3626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3586,7 +3655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3615,7 +3684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3644,7 +3713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3673,7 +3742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3702,7 +3771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3731,7 +3800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3760,7 +3829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3789,7 +3858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3818,7 +3887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -3847,7 +3916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -3876,7 +3945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -3905,7 +3974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -3934,7 +4003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -3963,7 +4032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -3992,7 +4061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4021,7 +4090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4050,7 +4119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4079,7 +4148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4108,7 +4177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4137,7 +4206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4166,7 +4235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4195,7 +4264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4224,7 +4293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4253,7 +4322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4282,7 +4351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4311,7 +4380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4340,7 +4409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4369,7 +4438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4398,7 +4467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4427,7 +4496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4456,7 +4525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4485,7 +4554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4514,7 +4583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4543,7 +4612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4572,7 +4641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4601,7 +4670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4630,7 +4699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4659,7 +4728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4688,7 +4757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4717,7 +4786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4746,7 +4815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -4775,7 +4844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -4804,7 +4873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -4833,7 +4902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -4862,7 +4931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -4891,7 +4960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -4920,7 +4989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -4949,7 +5018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +5047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5007,7 +5076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5036,7 +5105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5065,7 +5134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5094,7 +5163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5123,7 +5192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5152,7 +5221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5181,7 +5250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5210,7 +5279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5239,7 +5308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5268,7 +5337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5297,7 +5366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5326,7 +5395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5355,7 +5424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5384,7 +5453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5413,7 +5482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5442,7 +5511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5471,7 +5540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5500,7 +5569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5529,7 +5598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5558,7 +5627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5587,7 +5656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5616,7 +5685,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5645,7 +5714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5674,7 +5743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -5703,7 +5772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -5732,7 +5801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -5761,7 +5830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -5790,7 +5859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -5819,7 +5888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -5848,7 +5917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -5877,7 +5946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -5906,7 +5975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -5935,7 +6004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -5964,7 +6033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -5993,7 +6062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6022,7 +6091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6051,7 +6120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6080,7 +6149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6109,7 +6178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6138,7 +6207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6167,7 +6236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6196,7 +6265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6225,7 +6294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6254,7 +6323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6283,7 +6352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6312,7 +6381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6341,7 +6410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6370,7 +6439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6399,7 +6468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6428,7 +6497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6457,7 +6526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6486,7 +6555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6515,7 +6584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6544,7 +6613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6573,7 +6642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6602,7 +6671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6631,7 +6700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -6660,7 +6729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -6689,7 +6758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -6718,7 +6787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -6747,7 +6816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>267</v>
       </c>
@@ -6776,7 +6845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>71</v>
       </c>
@@ -6805,7 +6874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>74</v>
       </c>
@@ -6834,7 +6903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>5</v>
       </c>
@@ -6863,7 +6932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>124</v>
       </c>
@@ -6892,7 +6961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>267</v>
       </c>
@@ -6921,7 +6990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -6950,7 +7019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>311</v>
       </c>
@@ -6979,7 +7048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>52</v>
       </c>
@@ -7008,7 +7077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7037,7 +7106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>5</v>
       </c>
@@ -7066,7 +7135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7095,7 +7164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7124,7 +7193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>74</v>
       </c>
@@ -7153,7 +7222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>267</v>
       </c>
@@ -7182,7 +7251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7211,7 +7280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>74</v>
       </c>
@@ -7240,7 +7309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7269,7 +7338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7298,7 +7367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>247</v>
       </c>
@@ -7327,7 +7396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>332</v>
       </c>
@@ -7356,7 +7425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7385,7 +7454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>337</v>
       </c>
@@ -7414,7 +7483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>339</v>
       </c>
@@ -7443,7 +7512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>263</v>
       </c>
@@ -7472,7 +7541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>342</v>
       </c>
@@ -7501,7 +7570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>219</v>
       </c>
@@ -7530,7 +7599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>97</v>
       </c>
@@ -7559,7 +7628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>124</v>
       </c>
@@ -7588,7 +7657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>216</v>
       </c>
@@ -7617,7 +7686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>90</v>
       </c>
@@ -7646,7 +7715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>342</v>
       </c>
@@ -7675,7 +7744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>350</v>
       </c>
@@ -7704,7 +7773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>5</v>
       </c>
@@ -7733,7 +7802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -7762,7 +7831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -7791,7 +7860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>132</v>
       </c>
@@ -7820,7 +7889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>339</v>
       </c>
@@ -7834,7 +7903,7 @@
         <v>45929</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F170" s="32" t="s">
         <v>54</v>
@@ -7843,13 +7912,13 @@
         <v>43</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I170" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>74</v>
       </c>
@@ -7863,7 +7932,7 @@
         <v>45961</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F171" s="32" t="s">
         <v>6</v>
@@ -7872,13 +7941,13 @@
         <v>55</v>
       </c>
       <c r="H171" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I171" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>90</v>
       </c>
@@ -7892,7 +7961,7 @@
         <v>45930</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F172" s="32" t="s">
         <v>6</v>
@@ -7901,13 +7970,13 @@
         <v>363</v>
       </c>
       <c r="H172" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I172" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>275</v>
       </c>
@@ -7921,7 +7990,7 @@
         <v>45931</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F173" s="32" t="s">
         <v>54</v>
@@ -7930,13 +7999,13 @@
         <v>4</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I173" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>124</v>
       </c>
@@ -7950,7 +8019,7 @@
         <v>45931</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F174" s="32" t="s">
         <v>280</v>
@@ -7959,13 +8028,13 @@
         <v>70</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I174" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>5</v>
       </c>
@@ -7979,7 +8048,7 @@
         <v>45991</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F175" s="32" t="s">
         <v>54</v>
@@ -7988,13 +8057,13 @@
         <v>4</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I175" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8008,7 +8077,7 @@
         <v>45936</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F176" s="32" t="s">
         <v>54</v>
@@ -8017,13 +8086,13 @@
         <v>48</v>
       </c>
       <c r="H176" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I176" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>74</v>
       </c>
@@ -8037,7 +8106,7 @@
         <v>45931</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F177" s="32" t="s">
         <v>6</v>
@@ -8046,10 +8115,474 @@
         <v>52</v>
       </c>
       <c r="H177" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I177" s="26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C178" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D178" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E178" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="34">
+        <v>45</v>
+      </c>
+      <c r="H178" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="I178" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C179" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D179" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179" s="34">
+        <v>10</v>
+      </c>
+      <c r="H179" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="I179" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C180" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D180" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="34">
+        <v>26</v>
+      </c>
+      <c r="H180" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="I180" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C181" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D181" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E181" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F181" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="34">
+        <v>2</v>
+      </c>
+      <c r="H181" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I181" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C182" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D182" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E182" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F182" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="34">
+        <v>1</v>
+      </c>
+      <c r="H182" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="I182" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C183" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D183" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E183" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F183" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="34">
+        <v>1</v>
+      </c>
+      <c r="H183" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="I183" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C184" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D184" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F184" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="34">
+        <v>2</v>
+      </c>
+      <c r="H184" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="I184" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C185" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D185" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E185" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F185" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="34">
+        <v>1</v>
+      </c>
+      <c r="H185" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="I185" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="33">
+        <v>45873</v>
+      </c>
+      <c r="C186" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D186" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F186" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="34">
+        <v>1</v>
+      </c>
+      <c r="H186" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="I186" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187" s="33">
+        <v>45870</v>
+      </c>
+      <c r="C187" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D187" s="33">
+        <v>45931</v>
+      </c>
+      <c r="E187" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="F187" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="34">
+        <v>64</v>
+      </c>
+      <c r="H187" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="I187" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188" s="33">
+        <v>45870</v>
+      </c>
+      <c r="C188" s="33">
+        <v>45874</v>
+      </c>
+      <c r="D188" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F188" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G188" s="34">
+        <v>19</v>
+      </c>
+      <c r="H188" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="I188" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="33">
+        <v>45875</v>
+      </c>
+      <c r="C189" s="33">
+        <v>45875</v>
+      </c>
+      <c r="D189" s="33">
+        <v>45935</v>
+      </c>
+      <c r="E189" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="F189" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G189" s="34">
+        <v>3</v>
+      </c>
+      <c r="H189" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="I189" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B190" s="33">
+        <v>45875</v>
+      </c>
+      <c r="C190" s="33">
+        <v>45875</v>
+      </c>
+      <c r="D190" s="33">
+        <v>45940</v>
+      </c>
+      <c r="E190" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="F190" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190" s="34">
+        <v>5</v>
+      </c>
+      <c r="H190" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="I190" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" s="33">
+        <v>45875</v>
+      </c>
+      <c r="C191" s="33">
+        <v>45875</v>
+      </c>
+      <c r="D191" s="33">
+        <v>45935</v>
+      </c>
+      <c r="E191" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="F191" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G191" s="34">
+        <v>5</v>
+      </c>
+      <c r="H191" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="I191" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B192" s="33">
+        <v>45874</v>
+      </c>
+      <c r="C192" s="33">
+        <v>45875</v>
+      </c>
+      <c r="D192" s="33">
+        <v>45937</v>
+      </c>
+      <c r="E192" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="F192" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192" s="34">
+        <v>9</v>
+      </c>
+      <c r="H192" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="I192" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B193" s="33">
+        <v>45874</v>
+      </c>
+      <c r="C193" s="33">
+        <v>45875</v>
+      </c>
+      <c r="D193" s="33">
+        <v>45937</v>
+      </c>
+      <c r="E193" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="F193" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="34">
+        <v>62</v>
+      </c>
+      <c r="H193" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="I193" s="26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8599,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I177</xm:sqref>
+          <xm:sqref>I3:I193</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8080,18 +8613,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -8099,7 +8632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -8108,7 +8641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -8117,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -8126,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -8144,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -8153,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -8179,25 +8712,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -8223,7 +8756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8265,117 +8798,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF896B10-2A8B-457F-A85E-A5432954CE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4844410-920F-4466-9545-50DB7572581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="426">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1256,8 +1256,77 @@
     <t>9390 Towne Centre Dr., #200  San Diego CA 92121</t>
   </si>
   <si>
+    <t>1500 San Pablo Street (Keck)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1441 Eastlake Ave (Norris)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1509 San Pablo St. (Soto II)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1510 San Pablo St (HC1)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1520 San Pablo St. (HC2)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1516 San Pablo St. (HC3)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>1450 San Pablo St. (HC4)  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>830 S. Flower Street, Building DKC  Los Angeles CA 90017</t>
+  </si>
+  <si>
+    <t>1509 San Pablo St.  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>SIE Orange County Kitchen, LLC</t>
+  </si>
+  <si>
+    <t>1400 Anduril Drive  Costa Mesa CA 92626</t>
+  </si>
+  <si>
+    <t>Horizon Hobby, LLC</t>
+  </si>
+  <si>
+    <t>4710 E, Guasti Rd. Ste. A  Ontario CA 91761</t>
+  </si>
+  <si>
+    <t>Southwest Key Programs, Inc.</t>
+  </si>
+  <si>
+    <t>808 Grayson Rd.  Pleasant Hill CA 94523</t>
+  </si>
+  <si>
+    <t>Gilead Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>4010 Ocean Ranch Blvd  Oceanside CA 92056</t>
+  </si>
+  <si>
+    <t>1160 Broadway  El Cajon CA 92021</t>
+  </si>
+  <si>
+    <t>Tehama County</t>
+  </si>
+  <si>
+    <t>Marathon Staffing Solutions Inc</t>
+  </si>
+  <si>
+    <t>1600 Solano St. Suite C  Corning CA 96021</t>
+  </si>
+  <si>
+    <t>Marathon Staff Solutions Inc. - W. Sacramento</t>
+  </si>
+  <si>
+    <t>2950 Beacon Boulevard, Suite 45  West Sacramento CA 95691</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/06/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/11/2025
 </t>
     </r>
     <r>
@@ -1271,73 +1340,79 @@
     </r>
   </si>
   <si>
-    <t>1500 San Pablo Street (Keck)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>1441 Eastlake Ave (Norris)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>1509 San Pablo St. (Soto II)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>1510 San Pablo St (HC1)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>1520 San Pablo St. (HC2)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>1516 San Pablo St. (HC3)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>1450 San Pablo St. (HC4)  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>830 S. Flower Street, Building DKC  Los Angeles CA 90017</t>
-  </si>
-  <si>
-    <t>1509 San Pablo St.  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>SIE Orange County Kitchen, LLC</t>
-  </si>
-  <si>
-    <t>1400 Anduril Drive  Costa Mesa CA 92626</t>
-  </si>
-  <si>
-    <t>Horizon Hobby, LLC</t>
-  </si>
-  <si>
-    <t>4710 E, Guasti Rd. Ste. A  Ontario CA 91761</t>
-  </si>
-  <si>
-    <t>Southwest Key Programs, Inc.</t>
-  </si>
-  <si>
-    <t>808 Grayson Rd.  Pleasant Hill CA 94523</t>
-  </si>
-  <si>
-    <t>Gilead Sciences, Inc.</t>
-  </si>
-  <si>
-    <t>4010 Ocean Ranch Blvd  Oceanside CA 92056</t>
-  </si>
-  <si>
-    <t>1160 Broadway  El Cajon CA 92021</t>
-  </si>
-  <si>
-    <t>Tehama County</t>
-  </si>
-  <si>
-    <t>Marathon Staffing Solutions Inc</t>
-  </si>
-  <si>
-    <t>1600 Solano St. Suite C  Corning CA 96021</t>
-  </si>
-  <si>
-    <t>Marathon Staff Solutions Inc. - W. Sacramento</t>
-  </si>
-  <si>
-    <t>2950 Beacon Boulevard, Suite 45  West Sacramento CA 95691</t>
+    <t>Astellas Gene Therapies, Inc.</t>
+  </si>
+  <si>
+    <t>534 Eccles Avenue  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Keck Hospital of USC</t>
+  </si>
+  <si>
+    <t>USC Norris Cancer Hospital</t>
+  </si>
+  <si>
+    <t>Soto II - USC</t>
+  </si>
+  <si>
+    <t>HC1</t>
+  </si>
+  <si>
+    <t>HC2</t>
+  </si>
+  <si>
+    <t>HC3</t>
+  </si>
+  <si>
+    <t>HC4</t>
+  </si>
+  <si>
+    <t>DTLA Clinic</t>
+  </si>
+  <si>
+    <t>San Pablo</t>
+  </si>
+  <si>
+    <t>Jabil, Inc.</t>
+  </si>
+  <si>
+    <t>6212 Hellyer Ave, Suite 10  San Jose CA 95138</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (10770)</t>
+  </si>
+  <si>
+    <t>10770 Wateridge Cir.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (5717)</t>
+  </si>
+  <si>
+    <t>5717 Pacific Center Blvd.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (10240)</t>
+  </si>
+  <si>
+    <t>10240 Flanders Ct.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (10247)</t>
+  </si>
+  <si>
+    <t>10247 Flanders Ct.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>Diamond Baseball Holdings</t>
+  </si>
+  <si>
+    <t>601 Neece Drive  Modesto CA 95351</t>
+  </si>
+  <si>
+    <t>Altera Corporation</t>
+  </si>
+  <si>
+    <t>101 Innovation Drive  San Jose CA 95134</t>
   </si>
   <si>
     <r>
@@ -1351,7 +1426,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/06/2025</t>
+      <t>07/01/25 to 08/11/2025</t>
     </r>
     <r>
       <rPr>
@@ -1371,7 +1446,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I193.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I201.</t>
     </r>
   </si>
 </sst>
@@ -2492,8 +2567,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I193" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I193" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I201" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2850,37 +2925,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2902,18 +2977,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2921,25 +2996,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>8753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2956,16 +3031,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2974,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2994,30 +3069,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3046,7 +3121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3075,7 +3150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3133,7 +3208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3191,7 +3266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3220,7 +3295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3249,7 +3324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3278,7 +3353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3307,7 +3382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3336,7 +3411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3365,7 +3440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3394,7 +3469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3423,7 +3498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3452,7 +3527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3481,7 +3556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3510,7 +3585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3539,7 +3614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3568,7 +3643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3597,7 +3672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3626,7 +3701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3655,7 +3730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3684,7 +3759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3713,7 +3788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3742,7 +3817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +3846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3800,7 +3875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3829,7 +3904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3858,7 +3933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3887,7 +3962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -3916,7 +3991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -3945,7 +4020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -3974,7 +4049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4003,7 +4078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4032,7 +4107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4061,7 +4136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4090,7 +4165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4148,7 +4223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4177,7 +4252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4206,7 +4281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4235,7 +4310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4264,7 +4339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4293,7 +4368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4322,7 +4397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4351,7 +4426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4380,7 +4455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4409,7 +4484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4438,7 +4513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4467,7 +4542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4496,7 +4571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4525,7 +4600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4554,7 +4629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4583,7 +4658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4612,7 +4687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4641,7 +4716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4670,7 +4745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4699,7 +4774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4728,7 +4803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4757,7 +4832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4786,7 +4861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4815,7 +4890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -4844,7 +4919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -4873,7 +4948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -4902,7 +4977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -4931,7 +5006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -4960,7 +5035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -4989,7 +5064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5018,7 +5093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5047,7 +5122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5076,7 +5151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5105,7 +5180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5134,7 +5209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5163,7 +5238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5192,7 +5267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5221,7 +5296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5250,7 +5325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5279,7 +5354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5308,7 +5383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5337,7 +5412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5366,7 +5441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5395,7 +5470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5424,7 +5499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5453,7 +5528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5482,7 +5557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5511,7 +5586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5540,7 +5615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5569,7 +5644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5598,7 +5673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +5702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5656,7 +5731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5685,7 +5760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5714,7 +5789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5743,7 +5818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -5772,7 +5847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -5801,7 +5876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -5830,7 +5905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -5859,7 +5934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -5888,7 +5963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -5917,7 +5992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -5946,7 +6021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -5975,7 +6050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6004,7 +6079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6033,7 +6108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6062,7 +6137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6091,7 +6166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6120,7 +6195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6149,7 +6224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6178,7 +6253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6207,7 +6282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6236,7 +6311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6265,7 +6340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6294,7 +6369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6323,7 +6398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6352,7 +6427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6381,7 +6456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6410,7 +6485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6439,7 +6514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6468,7 +6543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6497,7 +6572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6526,7 +6601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6555,7 +6630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6584,7 +6659,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6613,7 +6688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6642,7 +6717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6671,7 +6746,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6700,7 +6775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -6729,7 +6804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -6758,7 +6833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -6787,7 +6862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -6816,41 +6891,41 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="B133" s="33">
-        <v>45860</v>
+        <v>45686</v>
       </c>
       <c r="C133" s="33">
         <v>45861</v>
       </c>
       <c r="D133" s="33">
-        <v>45922</v>
+        <v>45686</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="F133" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G133" s="34">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H133" s="34" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="I133" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="B134" s="33">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="C134" s="33">
         <v>45861</v>
@@ -6859,138 +6934,138 @@
         <v>45922</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G134" s="34">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H134" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I134" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B135" s="33">
-        <v>45848</v>
+        <v>45859</v>
       </c>
       <c r="C135" s="33">
         <v>45861</v>
       </c>
       <c r="D135" s="33">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G135" s="34">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="H135" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I135" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B136" s="33">
-        <v>45862</v>
+        <v>45848</v>
       </c>
       <c r="C136" s="33">
-        <v>45863</v>
+        <v>45861</v>
       </c>
       <c r="D136" s="33">
-        <v>45930</v>
+        <v>45915</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G136" s="34">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="H136" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I136" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B137" s="33">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="C137" s="33">
         <v>45863</v>
       </c>
       <c r="D137" s="33">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="G137" s="34">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H137" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I137" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="B138" s="33">
-        <v>45866</v>
+        <v>45863</v>
       </c>
       <c r="C138" s="33">
-        <v>45866</v>
+        <v>45863</v>
       </c>
       <c r="D138" s="33">
-        <v>45930</v>
+        <v>45925</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="G138" s="34">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I138" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7001,27 +7076,27 @@
         <v>45866</v>
       </c>
       <c r="D139" s="33">
-        <v>45927</v>
+        <v>45930</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G139" s="34">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="H139" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I139" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="B140" s="33">
         <v>45866</v>
@@ -7030,54 +7105,54 @@
         <v>45866</v>
       </c>
       <c r="D140" s="33">
-        <v>45926</v>
+        <v>45927</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G140" s="34">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="H140" s="34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I140" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
-        <v>52</v>
+        <v>311</v>
       </c>
       <c r="B141" s="33">
         <v>45866</v>
       </c>
       <c r="C141" s="33">
-        <v>45867</v>
+        <v>45866</v>
       </c>
       <c r="D141" s="33">
-        <v>45866</v>
+        <v>45926</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G141" s="34">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="H141" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I141" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7097,18 +7172,18 @@
         <v>6</v>
       </c>
       <c r="G142" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I142" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="32" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B143" s="33">
         <v>45866</v>
@@ -7120,22 +7195,22 @@
         <v>45866</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="F143" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G143" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H143" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I143" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7149,7 +7224,7 @@
         <v>45866</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F144" s="32" t="s">
         <v>6</v>
@@ -7158,13 +7233,13 @@
         <v>1</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I144" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7178,24 +7253,24 @@
         <v>45866</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F145" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G145" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H145" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I145" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="32" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B146" s="33">
         <v>45866</v>
@@ -7207,24 +7282,24 @@
         <v>45866</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>129</v>
+        <v>320</v>
       </c>
       <c r="F146" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I146" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="32" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="B147" s="33">
         <v>45866</v>
@@ -7233,25 +7308,25 @@
         <v>45867</v>
       </c>
       <c r="D147" s="33">
-        <v>45927</v>
+        <v>45866</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="F147" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G147" s="34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H147" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I147" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7262,30 +7337,30 @@
         <v>45867</v>
       </c>
       <c r="D148" s="33">
-        <v>45930</v>
+        <v>45927</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G148" s="34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H148" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I148" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="32" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="B149" s="33">
-        <v>45867</v>
+        <v>45866</v>
       </c>
       <c r="C149" s="33">
         <v>45867</v>
@@ -7294,22 +7369,22 @@
         <v>45930</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>54</v>
       </c>
       <c r="G149" s="34">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H149" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I149" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7320,25 +7395,25 @@
         <v>45867</v>
       </c>
       <c r="D150" s="33">
-        <v>45915</v>
+        <v>45930</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G150" s="34">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H150" s="34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I150" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7352,111 +7427,111 @@
         <v>45915</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F151" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G151" s="34">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H151" s="34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I151" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="32" t="s">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="B152" s="33">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C152" s="33">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="D152" s="33">
-        <v>45924</v>
+        <v>45915</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="F152" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G152" s="34">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H152" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I152" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="32" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="B153" s="33">
-        <v>45867</v>
+        <v>45862</v>
       </c>
       <c r="C153" s="33">
         <v>45868</v>
       </c>
       <c r="D153" s="33">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G153" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H153" s="34" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I153" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
       <c r="B154" s="33">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C154" s="33">
         <v>45868</v>
       </c>
       <c r="D154" s="33">
-        <v>45924</v>
+        <v>45929</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G154" s="34">
         <v>2</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I154" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="32" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B155" s="33">
         <v>45862</v>
@@ -7474,18 +7549,18 @@
         <v>6</v>
       </c>
       <c r="G155" s="34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H155" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I155" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B156" s="33">
         <v>45862</v>
@@ -7494,7 +7569,7 @@
         <v>45868</v>
       </c>
       <c r="D156" s="33">
-        <v>45862</v>
+        <v>45924</v>
       </c>
       <c r="E156" s="32" t="s">
         <v>335</v>
@@ -7503,18 +7578,18 @@
         <v>6</v>
       </c>
       <c r="G156" s="34">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H156" s="34" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I156" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="32" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="B157" s="33">
         <v>45862</v>
@@ -7523,27 +7598,27 @@
         <v>45868</v>
       </c>
       <c r="D157" s="33">
-        <v>45924</v>
+        <v>45862</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="F157" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G157" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I157" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="32" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="B158" s="33">
         <v>45862</v>
@@ -7561,76 +7636,76 @@
         <v>6</v>
       </c>
       <c r="G158" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I158" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="32" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
       <c r="B159" s="33">
-        <v>45867</v>
+        <v>45862</v>
       </c>
       <c r="C159" s="33">
         <v>45868</v>
       </c>
       <c r="D159" s="33">
-        <v>45929</v>
+        <v>45924</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G159" s="34">
         <v>2</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I159" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="B160" s="33">
-        <v>45862</v>
+        <v>45867</v>
       </c>
       <c r="C160" s="33">
         <v>45868</v>
       </c>
       <c r="D160" s="33">
-        <v>45924</v>
+        <v>45929</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G160" s="34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I160" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B161" s="33">
         <v>45862</v>
@@ -7639,7 +7714,7 @@
         <v>45868</v>
       </c>
       <c r="D161" s="33">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="E161" s="32" t="s">
         <v>194</v>
@@ -7648,18 +7723,18 @@
         <v>6</v>
       </c>
       <c r="G161" s="34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I161" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="B162" s="33">
         <v>45862</v>
@@ -7668,7 +7743,7 @@
         <v>45868</v>
       </c>
       <c r="D162" s="33">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="E162" s="32" t="s">
         <v>194</v>
@@ -7677,18 +7752,18 @@
         <v>6</v>
       </c>
       <c r="G162" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I162" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="B163" s="33">
         <v>45862</v>
@@ -7706,18 +7781,18 @@
         <v>6</v>
       </c>
       <c r="G163" s="34">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H163" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I163" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
-        <v>342</v>
+        <v>90</v>
       </c>
       <c r="B164" s="33">
         <v>45862</v>
@@ -7735,18 +7810,18 @@
         <v>6</v>
       </c>
       <c r="G164" s="34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H164" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I164" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B165" s="33">
         <v>45862</v>
@@ -7758,51 +7833,51 @@
         <v>45924</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="F165" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G165" s="34">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H165" s="34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I165" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="B166" s="33">
-        <v>45868</v>
+        <v>45862</v>
       </c>
       <c r="C166" s="33">
         <v>45868</v>
       </c>
       <c r="D166" s="33">
-        <v>45934</v>
+        <v>45924</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="F166" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G166" s="34">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H166" s="34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I166" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -7816,22 +7891,22 @@
         <v>45934</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F167" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="34">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H167" s="34" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I167" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -7845,24 +7920,24 @@
         <v>45934</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F168" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G168" s="34">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="H168" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I168" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="B169" s="33">
         <v>45868</v>
@@ -7871,56 +7946,56 @@
         <v>45868</v>
       </c>
       <c r="D169" s="33">
-        <v>45930</v>
+        <v>45934</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F169" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G169" s="34">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H169" s="34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I169" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="B170" s="33">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="C170" s="33">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="D170" s="33">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F170" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G170" s="34">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H170" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I170" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="B171" s="33">
         <v>45869</v>
@@ -7929,27 +8004,27 @@
         <v>45869</v>
       </c>
       <c r="D171" s="33">
-        <v>45961</v>
+        <v>45929</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G171" s="34">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H171" s="34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I171" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B172" s="33">
         <v>45869</v>
@@ -7958,27 +8033,27 @@
         <v>45869</v>
       </c>
       <c r="D172" s="33">
-        <v>45930</v>
+        <v>45961</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F172" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G172" s="34">
+        <v>55</v>
+      </c>
+      <c r="H172" s="34" t="s">
         <v>363</v>
-      </c>
-      <c r="H172" s="34" t="s">
-        <v>365</v>
       </c>
       <c r="I172" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="B173" s="33">
         <v>45869</v>
@@ -7987,170 +8062,170 @@
         <v>45869</v>
       </c>
       <c r="D173" s="33">
-        <v>45931</v>
+        <v>45930</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G173" s="34">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="H173" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I173" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="B174" s="33">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="C174" s="33">
-        <v>45870</v>
+        <v>45869</v>
       </c>
       <c r="D174" s="33">
         <v>45931</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F174" s="32" t="s">
-        <v>280</v>
+        <v>54</v>
       </c>
       <c r="G174" s="34">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H174" s="34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I174" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B175" s="33">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="C175" s="33">
-        <v>45873</v>
+        <v>45870</v>
       </c>
       <c r="D175" s="33">
-        <v>45991</v>
+        <v>45931</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F175" s="32" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="G175" s="34">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H175" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I175" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B176" s="33">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="C176" s="33">
         <v>45873</v>
       </c>
       <c r="D176" s="33">
-        <v>45936</v>
+        <v>45991</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F176" s="32" t="s">
         <v>54</v>
       </c>
       <c r="G176" s="34">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H176" s="34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I176" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B177" s="33">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="C177" s="33">
         <v>45873</v>
       </c>
       <c r="D177" s="33">
-        <v>45931</v>
+        <v>45936</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F177" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G177" s="34">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H177" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I177" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B178" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C178" s="33">
         <v>45873</v>
       </c>
-      <c r="C178" s="33">
-        <v>45874</v>
-      </c>
       <c r="D178" s="33">
-        <v>45934</v>
+        <v>45931</v>
       </c>
       <c r="E178" s="32" t="s">
-        <v>134</v>
+        <v>374</v>
       </c>
       <c r="F178" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G178" s="34">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H178" s="34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I178" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8164,22 +8239,22 @@
         <v>45934</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="F179" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G179" s="34">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H179" s="34" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I179" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8193,22 +8268,22 @@
         <v>45934</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>134</v>
+        <v>403</v>
       </c>
       <c r="F180" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G180" s="34">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H180" s="34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I180" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8222,22 +8297,22 @@
         <v>45934</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="F181" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G181" s="34">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H181" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I181" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8251,22 +8326,22 @@
         <v>45934</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>134</v>
+        <v>405</v>
       </c>
       <c r="F182" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G182" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" s="34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I182" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8280,7 +8355,7 @@
         <v>45934</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="F183" s="32" t="s">
         <v>6</v>
@@ -8289,13 +8364,13 @@
         <v>1</v>
       </c>
       <c r="H183" s="34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I183" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8309,22 +8384,22 @@
         <v>45934</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>134</v>
+        <v>407</v>
       </c>
       <c r="F184" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G184" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" s="34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I184" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8338,22 +8413,22 @@
         <v>45934</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>134</v>
+        <v>408</v>
       </c>
       <c r="F185" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G185" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" s="34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I185" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8367,7 +8442,7 @@
         <v>45934</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>134</v>
+        <v>409</v>
       </c>
       <c r="F186" s="32" t="s">
         <v>6</v>
@@ -8376,44 +8451,44 @@
         <v>1</v>
       </c>
       <c r="H186" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I186" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B187" s="33">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="C187" s="33">
         <v>45874</v>
       </c>
       <c r="D187" s="33">
-        <v>45931</v>
+        <v>45934</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F187" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G187" s="34">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="H187" s="34" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I187" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B188" s="33">
         <v>45870</v>
@@ -8422,56 +8497,56 @@
         <v>45874</v>
       </c>
       <c r="D188" s="33">
-        <v>45933</v>
+        <v>45931</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F188" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G188" s="34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H188" s="34" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I188" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B189" s="33">
-        <v>45875</v>
+        <v>45870</v>
       </c>
       <c r="C189" s="33">
-        <v>45875</v>
+        <v>45874</v>
       </c>
       <c r="D189" s="33">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F189" s="32" t="s">
         <v>54</v>
       </c>
       <c r="G189" s="34">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H189" s="34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I189" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="B190" s="33">
         <v>45875</v>
@@ -8480,25 +8555,25 @@
         <v>45875</v>
       </c>
       <c r="D190" s="33">
-        <v>45940</v>
+        <v>45935</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G190" s="34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H190" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I190" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8509,56 +8584,56 @@
         <v>45875</v>
       </c>
       <c r="D191" s="33">
-        <v>45935</v>
+        <v>45940</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F191" s="32" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G191" s="34">
         <v>5</v>
       </c>
       <c r="H191" s="34" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I191" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>395</v>
+        <v>74</v>
       </c>
       <c r="B192" s="33">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="C192" s="33">
         <v>45875</v>
       </c>
       <c r="D192" s="33">
-        <v>45937</v>
+        <v>45935</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F192" s="32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G192" s="34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H192" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I192" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
-        <v>92</v>
+        <v>394</v>
       </c>
       <c r="B193" s="33">
         <v>45874</v>
@@ -8570,19 +8645,251 @@
         <v>45937</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F193" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G193" s="34">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="H193" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I193" s="26" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B194" s="33">
+        <v>45874</v>
+      </c>
+      <c r="C194" s="33">
+        <v>45875</v>
+      </c>
+      <c r="D194" s="33">
+        <v>45937</v>
+      </c>
+      <c r="E194" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="F194" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="34">
+        <v>62</v>
+      </c>
+      <c r="H194" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I194" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B195" s="33">
+        <v>45875</v>
+      </c>
+      <c r="C195" s="33">
+        <v>45876</v>
+      </c>
+      <c r="D195" s="33">
+        <v>45931</v>
+      </c>
+      <c r="E195" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="F195" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G195" s="34">
+        <v>21</v>
+      </c>
+      <c r="H195" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="I195" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B196" s="33">
+        <v>45877</v>
+      </c>
+      <c r="C196" s="33">
+        <v>45877</v>
+      </c>
+      <c r="D196" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E196" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="F196" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196" s="34">
+        <v>69</v>
+      </c>
+      <c r="H196" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="I196" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B197" s="33">
+        <v>45877</v>
+      </c>
+      <c r="C197" s="33">
+        <v>45877</v>
+      </c>
+      <c r="D197" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E197" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="F197" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="34">
+        <v>5</v>
+      </c>
+      <c r="H197" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="I197" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B198" s="33">
+        <v>45877</v>
+      </c>
+      <c r="C198" s="33">
+        <v>45877</v>
+      </c>
+      <c r="D198" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E198" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="F198" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="34">
+        <v>5</v>
+      </c>
+      <c r="H198" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="I198" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B199" s="33">
+        <v>45877</v>
+      </c>
+      <c r="C199" s="33">
+        <v>45877</v>
+      </c>
+      <c r="D199" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E199" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="F199" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G199" s="34">
+        <v>11</v>
+      </c>
+      <c r="H199" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="I199" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B200" s="33">
+        <v>45877</v>
+      </c>
+      <c r="C200" s="33">
+        <v>45877</v>
+      </c>
+      <c r="D200" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E200" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="F200" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G200" s="34">
+        <v>7</v>
+      </c>
+      <c r="H200" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="I200" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B201" s="33">
+        <v>45876</v>
+      </c>
+      <c r="C201" s="33">
+        <v>45880</v>
+      </c>
+      <c r="D201" s="33">
+        <v>45938</v>
+      </c>
+      <c r="E201" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="34">
+        <v>82</v>
+      </c>
+      <c r="H201" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I201" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -8599,7 +8906,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I193</xm:sqref>
+          <xm:sqref>I3:I201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8613,18 +8920,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -8632,7 +8939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -8641,7 +8948,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -8650,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -8659,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -8668,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -8677,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -8686,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -8712,25 +9019,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -8756,7 +9063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -8798,117 +9105,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4844410-920F-4466-9545-50DB7572581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9E8233-B7DA-4013-932A-D2355424BF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="434">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1325,8 +1325,56 @@
     <t>2950 Beacon Boulevard, Suite 45  West Sacramento CA 95691</t>
   </si>
   <si>
+    <t>Astellas Gene Therapies, Inc.</t>
+  </si>
+  <si>
+    <t>534 Eccles Avenue  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Jabil, Inc.</t>
+  </si>
+  <si>
+    <t>6212 Hellyer Ave, Suite 10  San Jose CA 95138</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (10770)</t>
+  </si>
+  <si>
+    <t>10770 Wateridge Cir.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (5717)</t>
+  </si>
+  <si>
+    <t>5717 Pacific Center Blvd.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (10240)</t>
+  </si>
+  <si>
+    <t>10240 Flanders Ct.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>TriLink Biotechnologies, LLC (10247)</t>
+  </si>
+  <si>
+    <t>10247 Flanders Ct.  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>Diamond Baseball Holdings</t>
+  </si>
+  <si>
+    <t>601 Neece Drive  Modesto CA 95351</t>
+  </si>
+  <si>
+    <t>Altera Corporation</t>
+  </si>
+  <si>
+    <t>101 Innovation Drive  San Jose CA 95134</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/11/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/13/2025
 </t>
     </r>
     <r>
@@ -1340,79 +1388,55 @@
     </r>
   </si>
   <si>
-    <t>Astellas Gene Therapies, Inc.</t>
-  </si>
-  <si>
-    <t>534 Eccles Avenue  South San Francisco CA 94080</t>
-  </si>
-  <si>
-    <t>Keck Hospital of USC</t>
-  </si>
-  <si>
-    <t>USC Norris Cancer Hospital</t>
-  </si>
-  <si>
-    <t>Soto II - USC</t>
-  </si>
-  <si>
-    <t>HC1</t>
-  </si>
-  <si>
-    <t>HC2</t>
-  </si>
-  <si>
-    <t>HC3</t>
-  </si>
-  <si>
-    <t>HC4</t>
-  </si>
-  <si>
-    <t>DTLA Clinic</t>
-  </si>
-  <si>
-    <t>San Pablo</t>
-  </si>
-  <si>
-    <t>Jabil, Inc.</t>
-  </si>
-  <si>
-    <t>6212 Hellyer Ave, Suite 10  San Jose CA 95138</t>
-  </si>
-  <si>
-    <t>TriLink Biotechnologies, LLC (10770)</t>
-  </si>
-  <si>
-    <t>10770 Wateridge Cir.  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>TriLink Biotechnologies, LLC (5717)</t>
-  </si>
-  <si>
-    <t>5717 Pacific Center Blvd.  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>TriLink Biotechnologies, LLC (10240)</t>
-  </si>
-  <si>
-    <t>10240 Flanders Ct.  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>TriLink Biotechnologies, LLC (10247)</t>
-  </si>
-  <si>
-    <t>10247 Flanders Ct.  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>Diamond Baseball Holdings</t>
-  </si>
-  <si>
-    <t>601 Neece Drive  Modesto CA 95351</t>
-  </si>
-  <si>
-    <t>Altera Corporation</t>
-  </si>
-  <si>
-    <t>101 Innovation Drive  San Jose CA 95134</t>
+    <t>University of Southern California Keck Hospital</t>
+  </si>
+  <si>
+    <t>University of Southern California Norris Cancer Hospital</t>
+  </si>
+  <si>
+    <t>University of Southern California Soto II</t>
+  </si>
+  <si>
+    <t>University of Southern California HC1</t>
+  </si>
+  <si>
+    <t>University of Southern California HC2</t>
+  </si>
+  <si>
+    <t>University of Southern California HC3</t>
+  </si>
+  <si>
+    <t>University of Southern California (HC4)</t>
+  </si>
+  <si>
+    <t>University of Southern California DTLA Clinic</t>
+  </si>
+  <si>
+    <t>Oracle America, Inc.</t>
+  </si>
+  <si>
+    <t>5815 Owens Drive  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Buck Mason</t>
+  </si>
+  <si>
+    <t>8500 Beverly Blvd  Los Angeles CA 90048</t>
+  </si>
+  <si>
+    <t>500 Oracle Parkway  Redwood City CA 94065</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>1955 Broadway, Suite 600  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>Bausch Health US, LLC</t>
+  </si>
+  <si>
+    <t>1330 Redwood Way  Petaluma CA 94954</t>
   </si>
   <si>
     <r>
@@ -1426,7 +1450,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/11/2025</t>
+      <t>07/01/25 to 08/13/2025</t>
     </r>
     <r>
       <rPr>
@@ -1446,7 +1470,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I201.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I206.</t>
     </r>
   </si>
 </sst>
@@ -2567,8 +2591,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I201" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I206" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I206" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2925,37 +2949,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2977,18 +3001,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2996,25 +3020,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>8974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3031,16 +3055,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3069,30 +3093,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3150,7 +3174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3179,7 +3203,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3266,7 +3290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3295,7 +3319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3324,7 +3348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3353,7 +3377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3382,7 +3406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3440,7 +3464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3469,7 +3493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3498,7 +3522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3527,7 +3551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3556,7 +3580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3585,7 +3609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3614,7 +3638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3643,7 +3667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3672,7 +3696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3701,7 +3725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3730,7 +3754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3759,7 +3783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3817,7 +3841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3846,7 +3870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3875,7 +3899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3904,7 +3928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3933,7 +3957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3962,7 +3986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -3991,7 +4015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4020,7 +4044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4049,7 +4073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4078,7 +4102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4107,7 +4131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4136,7 +4160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4165,7 +4189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4223,7 +4247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4252,7 +4276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +4305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4310,7 +4334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4339,7 +4363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4368,7 +4392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4397,7 +4421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4455,7 +4479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4484,7 +4508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4513,7 +4537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4542,7 +4566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4571,7 +4595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4600,7 +4624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4629,7 +4653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4658,7 +4682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4687,7 +4711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4716,7 +4740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4745,7 +4769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4774,7 +4798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4803,7 +4827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4832,7 +4856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4861,7 +4885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4890,7 +4914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -4919,7 +4943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -4948,7 +4972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -4977,7 +5001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5006,7 +5030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5035,7 +5059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5064,7 +5088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5093,7 +5117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5151,7 +5175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5180,7 +5204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5209,7 +5233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5238,7 +5262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5267,7 +5291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5296,7 +5320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5325,7 +5349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5354,7 +5378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5383,7 +5407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5412,7 +5436,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5441,7 +5465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +5494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5499,7 +5523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5528,7 +5552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5557,7 +5581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5586,7 +5610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5615,7 +5639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5644,7 +5668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5673,7 +5697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5702,7 +5726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5731,7 +5755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5760,7 +5784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5789,7 +5813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5818,7 +5842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -5847,7 +5871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -5876,7 +5900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -5905,7 +5929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -5934,7 +5958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -5963,7 +5987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -5992,7 +6016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6021,7 +6045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6050,7 +6074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6079,7 +6103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6108,7 +6132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6137,7 +6161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6166,7 +6190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6195,7 +6219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6224,7 +6248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6253,7 +6277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6282,7 +6306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6311,7 +6335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6340,7 +6364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6369,7 +6393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6398,7 +6422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6427,7 +6451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6456,7 +6480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6485,7 +6509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6514,7 +6538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6543,7 +6567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6572,7 +6596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6601,7 +6625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6630,7 +6654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6659,7 +6683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6688,7 +6712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6717,7 +6741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6746,7 +6770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6775,7 +6799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -6804,7 +6828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -6833,7 +6857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -6862,7 +6886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -6891,7 +6915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -6905,7 +6929,7 @@
         <v>45686</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>6</v>
@@ -6914,13 +6938,13 @@
         <v>21</v>
       </c>
       <c r="H133" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I133" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -6949,7 +6973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -6978,7 +7002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7007,7 +7031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7036,7 +7060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7065,7 +7089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7094,7 +7118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7123,7 +7147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7152,7 +7176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7181,7 +7205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7210,7 +7234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7239,7 +7263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7268,7 +7292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7297,7 +7321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7326,7 +7350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7355,7 +7379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7384,7 +7408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7413,7 +7437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7442,7 +7466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7471,7 +7495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7500,7 +7524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7529,7 +7553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7558,7 +7582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7587,7 +7611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7616,7 +7640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -7645,7 +7669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -7674,7 +7698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -7703,7 +7727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -7732,7 +7756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -7761,7 +7785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -7790,7 +7814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -7819,7 +7843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -7848,7 +7872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -7877,7 +7901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -7906,7 +7930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -7935,7 +7959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -7964,7 +7988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -7993,7 +8017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8022,7 +8046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8051,7 +8075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8080,7 +8104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8109,7 +8133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8138,7 +8162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8167,7 +8191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8196,7 +8220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8225,7 +8249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8239,7 +8263,7 @@
         <v>45934</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F179" s="32" t="s">
         <v>6</v>
@@ -8254,7 +8278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8268,7 +8292,7 @@
         <v>45934</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="F180" s="32" t="s">
         <v>6</v>
@@ -8283,7 +8307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8297,7 +8321,7 @@
         <v>45934</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="F181" s="32" t="s">
         <v>6</v>
@@ -8312,7 +8336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8326,7 +8350,7 @@
         <v>45934</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F182" s="32" t="s">
         <v>6</v>
@@ -8341,7 +8365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8355,7 +8379,7 @@
         <v>45934</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="F183" s="32" t="s">
         <v>6</v>
@@ -8370,7 +8394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8384,7 +8408,7 @@
         <v>45934</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="F184" s="32" t="s">
         <v>6</v>
@@ -8399,7 +8423,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8413,7 +8437,7 @@
         <v>45934</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="F185" s="32" t="s">
         <v>6</v>
@@ -8428,7 +8452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8442,7 +8466,7 @@
         <v>45934</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F186" s="32" t="s">
         <v>6</v>
@@ -8457,7 +8481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8471,7 +8495,7 @@
         <v>45934</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="F187" s="32" t="s">
         <v>6</v>
@@ -8486,7 +8510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8515,7 +8539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8544,7 +8568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8573,7 +8597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8602,7 +8626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -8631,7 +8655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -8660,7 +8684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -8689,7 +8713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -8703,7 +8727,7 @@
         <v>45931</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F195" s="32" t="s">
         <v>54</v>
@@ -8712,13 +8736,13 @@
         <v>21</v>
       </c>
       <c r="H195" s="34" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="I195" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -8732,7 +8756,7 @@
         <v>45936</v>
       </c>
       <c r="E196" s="32" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F196" s="32" t="s">
         <v>6</v>
@@ -8741,13 +8765,13 @@
         <v>69</v>
       </c>
       <c r="H196" s="34" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I196" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -8761,7 +8785,7 @@
         <v>45936</v>
       </c>
       <c r="E197" s="32" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F197" s="32" t="s">
         <v>6</v>
@@ -8770,13 +8794,13 @@
         <v>5</v>
       </c>
       <c r="H197" s="34" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I197" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -8790,7 +8814,7 @@
         <v>45936</v>
       </c>
       <c r="E198" s="32" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F198" s="32" t="s">
         <v>6</v>
@@ -8799,13 +8823,13 @@
         <v>5</v>
       </c>
       <c r="H198" s="34" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I198" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -8819,7 +8843,7 @@
         <v>45936</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F199" s="32" t="s">
         <v>6</v>
@@ -8828,13 +8852,13 @@
         <v>11</v>
       </c>
       <c r="H199" s="34" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="I199" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -8848,7 +8872,7 @@
         <v>45930</v>
       </c>
       <c r="E200" s="32" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F200" s="32" t="s">
         <v>6</v>
@@ -8857,13 +8881,13 @@
         <v>7</v>
       </c>
       <c r="H200" s="34" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I200" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -8877,7 +8901,7 @@
         <v>45938</v>
       </c>
       <c r="E201" s="32" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F201" s="32" t="s">
         <v>6</v>
@@ -8886,10 +8910,155 @@
         <v>82</v>
       </c>
       <c r="H201" s="34" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I201" s="26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C202" s="33">
+        <v>45882</v>
+      </c>
+      <c r="D202" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E202" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="F202" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="34">
+        <v>45</v>
+      </c>
+      <c r="H202" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="I202" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="33">
+        <v>45881</v>
+      </c>
+      <c r="C203" s="33">
+        <v>45882</v>
+      </c>
+      <c r="D203" s="33">
+        <v>45900</v>
+      </c>
+      <c r="E203" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F203" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G203" s="34">
+        <v>2</v>
+      </c>
+      <c r="H203" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="I203" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B204" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C204" s="33">
+        <v>45882</v>
+      </c>
+      <c r="D204" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E204" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="F204" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204" s="34">
+        <v>143</v>
+      </c>
+      <c r="H204" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="I204" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B205" s="33">
+        <v>45881</v>
+      </c>
+      <c r="C205" s="33">
+        <v>45882</v>
+      </c>
+      <c r="D205" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E205" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="F205" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="34">
+        <v>5</v>
+      </c>
+      <c r="H205" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="I205" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B206" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C206" s="33">
+        <v>45882</v>
+      </c>
+      <c r="D206" s="33">
+        <v>45882</v>
+      </c>
+      <c r="E206" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F206" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G206" s="34">
+        <v>49</v>
+      </c>
+      <c r="H206" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="I206" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8906,7 +9075,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I201</xm:sqref>
+          <xm:sqref>I3:I206</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8920,18 +9089,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -8939,7 +9108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -8948,7 +9117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -8957,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -8966,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -8975,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -8984,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -8993,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -9019,25 +9188,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -9063,7 +9232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9105,117 +9274,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9E8233-B7DA-4013-932A-D2355424BF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3271B5-7B87-44E4-9AAA-A10868928E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="461">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1373,8 +1373,59 @@
     <t>101 Innovation Drive  San Jose CA 95134</t>
   </si>
   <si>
+    <t>University of Southern California Keck Hospital</t>
+  </si>
+  <si>
+    <t>University of Southern California Norris Cancer Hospital</t>
+  </si>
+  <si>
+    <t>University of Southern California Soto II</t>
+  </si>
+  <si>
+    <t>University of Southern California HC1</t>
+  </si>
+  <si>
+    <t>University of Southern California HC2</t>
+  </si>
+  <si>
+    <t>University of Southern California HC3</t>
+  </si>
+  <si>
+    <t>University of Southern California (HC4)</t>
+  </si>
+  <si>
+    <t>University of Southern California DTLA Clinic</t>
+  </si>
+  <si>
+    <t>Oracle America, Inc.</t>
+  </si>
+  <si>
+    <t>5815 Owens Drive  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>Buck Mason</t>
+  </si>
+  <si>
+    <t>8500 Beverly Blvd  Los Angeles CA 90048</t>
+  </si>
+  <si>
+    <t>500 Oracle Parkway  Redwood City CA 94065</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>1955 Broadway, Suite 600  Oakland CA 94612</t>
+  </si>
+  <si>
+    <t>Bausch Health US, LLC</t>
+  </si>
+  <si>
+    <t>1330 Redwood Way  Petaluma CA 94954</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/13/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/18/2025
 </t>
     </r>
     <r>
@@ -1388,55 +1439,85 @@
     </r>
   </si>
   <si>
-    <t>University of Southern California Keck Hospital</t>
-  </si>
-  <si>
-    <t>University of Southern California Norris Cancer Hospital</t>
-  </si>
-  <si>
-    <t>University of Southern California Soto II</t>
-  </si>
-  <si>
-    <t>University of Southern California HC1</t>
-  </si>
-  <si>
-    <t>University of Southern California HC2</t>
-  </si>
-  <si>
-    <t>University of Southern California HC3</t>
-  </si>
-  <si>
-    <t>University of Southern California (HC4)</t>
-  </si>
-  <si>
-    <t>University of Southern California DTLA Clinic</t>
-  </si>
-  <si>
-    <t>Oracle America, Inc.</t>
-  </si>
-  <si>
-    <t>5815 Owens Drive  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>Buck Mason</t>
-  </si>
-  <si>
-    <t>8500 Beverly Blvd  Los Angeles CA 90048</t>
-  </si>
-  <si>
-    <t>500 Oracle Parkway  Redwood City CA 94065</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>1955 Broadway, Suite 600  Oakland CA 94612</t>
-  </si>
-  <si>
-    <t>Bausch Health US, LLC</t>
-  </si>
-  <si>
-    <t>1330 Redwood Way  Petaluma CA 94954</t>
+    <t>Delaware North Companies Travel Hospitality Services, Inc.</t>
+  </si>
+  <si>
+    <t>1 World Way  Los Angeles CA 90045</t>
+  </si>
+  <si>
+    <t>Warner Music Inc.</t>
+  </si>
+  <si>
+    <t>777 South Santa Fe Avenue  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>4230 Leonard Stocking Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Adventist Health Simi Valley</t>
+  </si>
+  <si>
+    <t>2975 Sycamore Drive  Simi Valley CA 93065</t>
+  </si>
+  <si>
+    <t>Anaheim Arena Management, LLC</t>
+  </si>
+  <si>
+    <t>2695 E Katella Avenue  Anaheim CA 92806</t>
+  </si>
+  <si>
+    <t>Pactiv LLC</t>
+  </si>
+  <si>
+    <t>2024 Norris Rd.  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>The Vons Companies Inc.</t>
+  </si>
+  <si>
+    <t>3118 S. Sepulveda Blvd.  Los Angeles CA 90034</t>
+  </si>
+  <si>
+    <t>Adventist Health White Memorial &amp; Montebello</t>
+  </si>
+  <si>
+    <t>1720 East Cesar E. Chavez Ave  Los Angeles CA 90003</t>
+  </si>
+  <si>
+    <t>Adventist Health Glendale</t>
+  </si>
+  <si>
+    <t>1509 Wilson Terrace  Glendale CA 91206</t>
+  </si>
+  <si>
+    <t>Placer County</t>
+  </si>
+  <si>
+    <t>Adventist Health 1</t>
+  </si>
+  <si>
+    <t>1 Adventist Health Way  Roseville CA 95661</t>
+  </si>
+  <si>
+    <t>Cisco Systems, Inc.</t>
+  </si>
+  <si>
+    <t>560 McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>500 Terry A. Francois Blvd  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>Zeco Systems, Inc.</t>
+  </si>
+  <si>
+    <t>767 S Alameda, Suite 200  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>Penney OpCo LLC</t>
+  </si>
+  <si>
+    <t>400 Westminster Mall  Westminster CA 92683</t>
   </si>
   <si>
     <r>
@@ -1450,7 +1531,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/13/2025</t>
+      <t>07/01/25 to 08/18/2025</t>
     </r>
     <r>
       <rPr>
@@ -1470,7 +1551,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I206.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I222.</t>
     </r>
   </si>
 </sst>
@@ -2591,8 +2672,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I206" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I206" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I222" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I222" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2949,37 +3030,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3001,18 +3082,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3020,25 +3101,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>9218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3055,25 +3136,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3093,30 +3174,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3174,7 +3255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3261,7 +3342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3290,7 +3371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3319,7 +3400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3348,7 +3429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3377,7 +3458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3406,7 +3487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3435,7 +3516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3464,7 +3545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3493,7 +3574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3522,7 +3603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3551,7 +3632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3580,7 +3661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3609,7 +3690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3638,7 +3719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3667,7 +3748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3696,7 +3777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3725,7 +3806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3754,7 +3835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3783,7 +3864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3841,7 +3922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3870,7 +3951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3899,7 +3980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -3928,7 +4009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -3957,7 +4038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -3986,7 +4067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4015,7 +4096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4044,7 +4125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4073,7 +4154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4102,7 +4183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4131,7 +4212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4160,7 +4241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4189,7 +4270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4218,7 +4299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4247,7 +4328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4305,7 +4386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4334,7 +4415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4363,7 +4444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4392,7 +4473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4421,7 +4502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4450,7 +4531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +4560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4508,7 +4589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4537,7 +4618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4566,7 +4647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4595,7 +4676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4624,7 +4705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4653,7 +4734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4682,7 +4763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4711,7 +4792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4740,7 +4821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4769,7 +4850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4798,7 +4879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4827,7 +4908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4856,7 +4937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4885,7 +4966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4914,7 +4995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -4943,7 +5024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -4972,7 +5053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5001,7 +5082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5030,7 +5111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5059,7 +5140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5088,7 +5169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5117,7 +5198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5146,7 +5227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5175,7 +5256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5204,7 +5285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5233,7 +5314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5262,7 +5343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5291,7 +5372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5320,7 +5401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5349,7 +5430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5378,7 +5459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5407,7 +5488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5436,7 +5517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5465,7 +5546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5494,7 +5575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5552,7 +5633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5581,7 +5662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5610,7 +5691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5639,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5668,7 +5749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5697,7 +5778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5726,7 +5807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5755,7 +5836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5784,7 +5865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5813,7 +5894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5842,7 +5923,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -5871,7 +5952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -5900,7 +5981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -5929,7 +6010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -5958,7 +6039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -5987,7 +6068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6016,7 +6097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6045,7 +6126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6074,7 +6155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6103,7 +6184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6132,7 +6213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6161,7 +6242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6190,7 +6271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +6300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6248,7 +6329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6277,7 +6358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6306,7 +6387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6335,7 +6416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6364,7 +6445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6393,7 +6474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6422,7 +6503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6451,7 +6532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6480,7 +6561,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6509,7 +6590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6538,7 +6619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6567,7 +6648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6596,7 +6677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6625,7 +6706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6654,7 +6735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6683,7 +6764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6712,7 +6793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6741,7 +6822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6770,7 +6851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6799,7 +6880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -6828,7 +6909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -6857,7 +6938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -6886,7 +6967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -6915,7 +6996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -6944,7 +7025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -6973,7 +7054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7002,7 +7083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7031,7 +7112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7060,7 +7141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7089,7 +7170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7118,7 +7199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7147,7 +7228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7176,7 +7257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7205,7 +7286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7234,7 +7315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7263,7 +7344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7292,7 +7373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7321,7 +7402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7350,7 +7431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7379,7 +7460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7408,7 +7489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7437,7 +7518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7466,7 +7547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7495,7 +7576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7524,7 +7605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7553,7 +7634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7582,7 +7663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7611,7 +7692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7640,7 +7721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -7669,7 +7750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -7698,7 +7779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -7727,7 +7808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -7756,7 +7837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -7785,7 +7866,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -7814,7 +7895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -7843,7 +7924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -7872,7 +7953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -7901,7 +7982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -7930,7 +8011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -7959,7 +8040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -7988,7 +8069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8017,7 +8098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8046,7 +8127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8075,7 +8156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8104,7 +8185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8133,7 +8214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8162,7 +8243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8191,7 +8272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8220,7 +8301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8249,7 +8330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8263,7 +8344,7 @@
         <v>45934</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F179" s="32" t="s">
         <v>6</v>
@@ -8278,7 +8359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8292,7 +8373,7 @@
         <v>45934</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F180" s="32" t="s">
         <v>6</v>
@@ -8307,7 +8388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8321,7 +8402,7 @@
         <v>45934</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F181" s="32" t="s">
         <v>6</v>
@@ -8336,7 +8417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8350,7 +8431,7 @@
         <v>45934</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F182" s="32" t="s">
         <v>6</v>
@@ -8365,7 +8446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8379,7 +8460,7 @@
         <v>45934</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F183" s="32" t="s">
         <v>6</v>
@@ -8394,7 +8475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8408,7 +8489,7 @@
         <v>45934</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F184" s="32" t="s">
         <v>6</v>
@@ -8423,7 +8504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8437,7 +8518,7 @@
         <v>45934</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F185" s="32" t="s">
         <v>6</v>
@@ -8452,7 +8533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8466,7 +8547,7 @@
         <v>45934</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F186" s="32" t="s">
         <v>6</v>
@@ -8481,7 +8562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8510,7 +8591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8539,7 +8620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8568,7 +8649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8597,7 +8678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8626,7 +8707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -8655,7 +8736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -8684,7 +8765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -8713,7 +8794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -8742,7 +8823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -8771,7 +8852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -8800,7 +8881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -8829,7 +8910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -8858,7 +8939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -8887,7 +8968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -8916,7 +8997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -8930,7 +9011,7 @@
         <v>45943</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F202" s="32" t="s">
         <v>6</v>
@@ -8939,13 +9020,13 @@
         <v>45</v>
       </c>
       <c r="H202" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I202" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -8959,7 +9040,7 @@
         <v>45900</v>
       </c>
       <c r="E203" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F203" s="32" t="s">
         <v>54</v>
@@ -8968,13 +9049,13 @@
         <v>2</v>
       </c>
       <c r="H203" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I203" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -8988,7 +9069,7 @@
         <v>45943</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F204" s="32" t="s">
         <v>6</v>
@@ -8997,13 +9078,13 @@
         <v>143</v>
       </c>
       <c r="H204" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I204" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9017,7 +9098,7 @@
         <v>45943</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F205" s="32" t="s">
         <v>6</v>
@@ -9026,13 +9107,13 @@
         <v>5</v>
       </c>
       <c r="H205" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I205" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9046,7 +9127,7 @@
         <v>45882</v>
       </c>
       <c r="E206" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F206" s="32" t="s">
         <v>54</v>
@@ -9055,10 +9136,474 @@
         <v>49</v>
       </c>
       <c r="H206" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I206" s="26" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C207" s="33">
+        <v>45883</v>
+      </c>
+      <c r="D207" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E207" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="F207" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="34">
+        <v>92</v>
+      </c>
+      <c r="H207" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="I207" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C208" s="33">
+        <v>45883</v>
+      </c>
+      <c r="D208" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E208" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F208" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="34">
+        <v>54</v>
+      </c>
+      <c r="H208" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I208" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C209" s="33">
+        <v>45883</v>
+      </c>
+      <c r="D209" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E209" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="F209" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209" s="34">
+        <v>56</v>
+      </c>
+      <c r="H209" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="I209" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B210" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C210" s="33">
+        <v>45883</v>
+      </c>
+      <c r="D210" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E210" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F210" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="34">
+        <v>101</v>
+      </c>
+      <c r="H210" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="I210" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B211" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C211" s="33">
+        <v>45883</v>
+      </c>
+      <c r="D211" s="33">
+        <v>45870</v>
+      </c>
+      <c r="E211" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="F211" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="34">
+        <v>2</v>
+      </c>
+      <c r="H211" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="I211" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B212" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C212" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D212" s="33">
+        <v>45945</v>
+      </c>
+      <c r="E212" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="F212" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G212" s="34">
+        <v>91</v>
+      </c>
+      <c r="H212" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="I212" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B213" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C213" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D213" s="33">
+        <v>45944</v>
+      </c>
+      <c r="E213" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F213" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G213" s="34">
+        <v>127</v>
+      </c>
+      <c r="H213" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="I213" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="33">
+        <v>45884</v>
+      </c>
+      <c r="C214" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D214" s="33">
+        <v>45946</v>
+      </c>
+      <c r="E214" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F214" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G214" s="34">
+        <v>54</v>
+      </c>
+      <c r="H214" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="I214" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="33">
+        <v>45884</v>
+      </c>
+      <c r="C215" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D215" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E215" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F215" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G215" s="34">
+        <v>54</v>
+      </c>
+      <c r="H215" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="I215" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="33">
+        <v>45884</v>
+      </c>
+      <c r="C216" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D216" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E216" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F216" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="34">
+        <v>58</v>
+      </c>
+      <c r="H216" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="I216" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B217" s="33">
+        <v>45884</v>
+      </c>
+      <c r="C217" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D217" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E217" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F217" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="34">
+        <v>296</v>
+      </c>
+      <c r="H217" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="I217" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B218" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C218" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D218" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E218" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F218" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="34">
+        <v>157</v>
+      </c>
+      <c r="H218" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="I218" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B219" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C219" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D219" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E219" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="F219" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="34">
+        <v>64</v>
+      </c>
+      <c r="H219" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="I219" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B220" s="33">
+        <v>45884</v>
+      </c>
+      <c r="C220" s="33">
+        <v>45884</v>
+      </c>
+      <c r="D220" s="33">
+        <v>45884</v>
+      </c>
+      <c r="E220" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="34">
+        <v>1</v>
+      </c>
+      <c r="H220" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="I220" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C221" s="33">
+        <v>45887</v>
+      </c>
+      <c r="D221" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E221" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="F221" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221" s="34">
+        <v>114</v>
+      </c>
+      <c r="H221" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="I221" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B222" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C222" s="33">
+        <v>45887</v>
+      </c>
+      <c r="D222" s="33">
+        <v>45982</v>
+      </c>
+      <c r="E222" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="F222" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G222" s="34">
+        <v>76</v>
+      </c>
+      <c r="H222" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="I222" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9075,7 +9620,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I206</xm:sqref>
+          <xm:sqref>I3:I222</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9089,18 +9634,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -9108,7 +9653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -9117,7 +9662,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -9126,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -9135,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -9144,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -9153,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -9162,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -9188,25 +9733,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -9232,7 +9777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9274,117 +9819,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3271B5-7B87-44E4-9AAA-A10868928E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B1AE30-663D-419E-B31F-9030107C3151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="478">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1424,8 +1424,89 @@
     <t>1330 Redwood Way  Petaluma CA 94954</t>
   </si>
   <si>
+    <t>Delaware North Companies Travel Hospitality Services, Inc.</t>
+  </si>
+  <si>
+    <t>1 World Way  Los Angeles CA 90045</t>
+  </si>
+  <si>
+    <t>Warner Music Inc.</t>
+  </si>
+  <si>
+    <t>777 South Santa Fe Avenue  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>4230 Leonard Stocking Drive  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Adventist Health Simi Valley</t>
+  </si>
+  <si>
+    <t>2975 Sycamore Drive  Simi Valley CA 93065</t>
+  </si>
+  <si>
+    <t>Anaheim Arena Management, LLC</t>
+  </si>
+  <si>
+    <t>2695 E Katella Avenue  Anaheim CA 92806</t>
+  </si>
+  <si>
+    <t>Pactiv LLC</t>
+  </si>
+  <si>
+    <t>2024 Norris Rd.  Bakersfield CA 93308</t>
+  </si>
+  <si>
+    <t>The Vons Companies Inc.</t>
+  </si>
+  <si>
+    <t>3118 S. Sepulveda Blvd.  Los Angeles CA 90034</t>
+  </si>
+  <si>
+    <t>Adventist Health White Memorial &amp; Montebello</t>
+  </si>
+  <si>
+    <t>1720 East Cesar E. Chavez Ave  Los Angeles CA 90003</t>
+  </si>
+  <si>
+    <t>Adventist Health Glendale</t>
+  </si>
+  <si>
+    <t>1509 Wilson Terrace  Glendale CA 91206</t>
+  </si>
+  <si>
+    <t>Placer County</t>
+  </si>
+  <si>
+    <t>Adventist Health 1</t>
+  </si>
+  <si>
+    <t>1 Adventist Health Way  Roseville CA 95661</t>
+  </si>
+  <si>
+    <t>Cisco Systems, Inc.</t>
+  </si>
+  <si>
+    <t>560 McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>500 Terry A. Francois Blvd  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>Zeco Systems, Inc.</t>
+  </si>
+  <si>
+    <t>767 S Alameda, Suite 200  Los Angeles CA 90021</t>
+  </si>
+  <si>
+    <t>Penney OpCo LLC</t>
+  </si>
+  <si>
+    <t>400 Westminster Mall  Westminster CA 92683</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/18/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/20/2025
 </t>
     </r>
     <r>
@@ -1439,85 +1520,55 @@
     </r>
   </si>
   <si>
-    <t>Delaware North Companies Travel Hospitality Services, Inc.</t>
-  </si>
-  <si>
-    <t>1 World Way  Los Angeles CA 90045</t>
-  </si>
-  <si>
-    <t>Warner Music Inc.</t>
-  </si>
-  <si>
-    <t>777 South Santa Fe Avenue  Los Angeles CA 90021</t>
-  </si>
-  <si>
-    <t>4230 Leonard Stocking Drive  Santa Clara CA 95054</t>
-  </si>
-  <si>
-    <t>Adventist Health Simi Valley</t>
-  </si>
-  <si>
-    <t>2975 Sycamore Drive  Simi Valley CA 93065</t>
-  </si>
-  <si>
-    <t>Anaheim Arena Management, LLC</t>
-  </si>
-  <si>
-    <t>2695 E Katella Avenue  Anaheim CA 92806</t>
-  </si>
-  <si>
-    <t>Pactiv LLC</t>
-  </si>
-  <si>
-    <t>2024 Norris Rd.  Bakersfield CA 93308</t>
-  </si>
-  <si>
-    <t>The Vons Companies Inc.</t>
-  </si>
-  <si>
-    <t>3118 S. Sepulveda Blvd.  Los Angeles CA 90034</t>
-  </si>
-  <si>
-    <t>Adventist Health White Memorial &amp; Montebello</t>
-  </si>
-  <si>
-    <t>1720 East Cesar E. Chavez Ave  Los Angeles CA 90003</t>
-  </si>
-  <si>
-    <t>Adventist Health Glendale</t>
-  </si>
-  <si>
-    <t>1509 Wilson Terrace  Glendale CA 91206</t>
-  </si>
-  <si>
-    <t>Placer County</t>
-  </si>
-  <si>
-    <t>Adventist Health 1</t>
-  </si>
-  <si>
-    <t>1 Adventist Health Way  Roseville CA 95661</t>
-  </si>
-  <si>
-    <t>Cisco Systems, Inc.</t>
-  </si>
-  <si>
-    <t>560 McCarthy Blvd  Milpitas CA 95035</t>
-  </si>
-  <si>
-    <t>500 Terry A. Francois Blvd  San Francisco CA 94158</t>
-  </si>
-  <si>
-    <t>Zeco Systems, Inc.</t>
-  </si>
-  <si>
-    <t>767 S Alameda, Suite 200  Los Angeles CA 90021</t>
-  </si>
-  <si>
-    <t>Penney OpCo LLC</t>
-  </si>
-  <si>
-    <t>400 Westminster Mall  Westminster CA 92683</t>
+    <t>Corteva Agriscience LLC</t>
+  </si>
+  <si>
+    <t>99 Montecillo Rd.  San Rafael CA 94903</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (1830)</t>
+  </si>
+  <si>
+    <t>1830 California Ave  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (1850)</t>
+  </si>
+  <si>
+    <t>1850 California Ave  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>LCP Lake Tahoe EMP</t>
+  </si>
+  <si>
+    <t>3411 Lake Tahoe Blvd  South Lake Tahoe CA 96150</t>
+  </si>
+  <si>
+    <t>Sella Restaurant Holdings LP</t>
+  </si>
+  <si>
+    <t>8899 Beverly Blvd.  Los Angeles CA 90048</t>
+  </si>
+  <si>
+    <t>GSC Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>Regional Center of the East Bay</t>
+  </si>
+  <si>
+    <t>675 Hegenberger Rd. Ste. 200  Oakland CA 94621</t>
+  </si>
+  <si>
+    <t>Town Hospice &amp; Palliative Care LLC dba Suncrest Hospice Inland Empire</t>
+  </si>
+  <si>
+    <t>6465 Sycamore Canyon Blvd. Suie 150  Riverside CA 92507</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>6379 San Ignacio Avenue  San Jose CA 95119</t>
   </si>
   <si>
     <r>
@@ -1531,7 +1582,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/18/2025</t>
+      <t>07/01/25 to 08/20/2025</t>
     </r>
     <r>
       <rPr>
@@ -1551,7 +1602,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I222.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I235.</t>
     </r>
   </si>
 </sst>
@@ -2672,8 +2723,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I222" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I222" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I235" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I235" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3030,37 +3081,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3082,18 +3133,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3101,25 +3152,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>10615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3128,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3136,16 +3187,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3154,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3174,30 +3225,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3226,7 +3277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3255,7 +3306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3284,7 +3335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3371,7 +3422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3400,7 +3451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3429,7 +3480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3458,7 +3509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3487,7 +3538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3516,7 +3567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3545,7 +3596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3574,7 +3625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3603,7 +3654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3632,7 +3683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3661,7 +3712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3690,7 +3741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3719,7 +3770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3748,7 +3799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3777,7 +3828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3806,7 +3857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3835,7 +3886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3864,7 +3915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3893,7 +3944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +3973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -3951,7 +4002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -3980,7 +4031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4009,7 +4060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4038,7 +4089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4067,7 +4118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4096,7 +4147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4125,7 +4176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4154,7 +4205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4183,7 +4234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4212,7 +4263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4241,7 +4292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4270,7 +4321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4299,7 +4350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4328,7 +4379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4357,7 +4408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4386,7 +4437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4415,7 +4466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4444,7 +4495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4473,7 +4524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4502,7 +4553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4531,7 +4582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4560,7 +4611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4589,7 +4640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4618,7 +4669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4647,7 +4698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4676,7 +4727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4705,7 +4756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4734,7 +4785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4763,7 +4814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4792,7 +4843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4821,7 +4872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4850,7 +4901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4879,7 +4930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4908,7 +4959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4937,7 +4988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -4966,7 +5017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -4995,7 +5046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5024,7 +5075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5053,7 +5104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5082,7 +5133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5111,7 +5162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5140,7 +5191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5169,7 +5220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5198,7 +5249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5227,7 +5278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5256,7 +5307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5285,7 +5336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5314,7 +5365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5343,7 +5394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5372,7 +5423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5401,7 +5452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5430,7 +5481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5459,7 +5510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5488,7 +5539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5517,7 +5568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5546,7 +5597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5575,7 +5626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5604,7 +5655,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5633,7 +5684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5662,7 +5713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5691,7 +5742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5720,7 +5771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5749,7 +5800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5778,7 +5829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5807,7 +5858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5836,7 +5887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5865,7 +5916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5894,7 +5945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5923,7 +5974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -5952,7 +6003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -5981,7 +6032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6010,7 +6061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6039,7 +6090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6068,7 +6119,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6097,7 +6148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6126,7 +6177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6155,7 +6206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6184,7 +6235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6213,7 +6264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6242,7 +6293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6271,7 +6322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6300,7 +6351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6329,7 +6380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6358,7 +6409,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6387,7 +6438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6416,7 +6467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6445,7 +6496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6474,7 +6525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6503,7 +6554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6532,7 +6583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6561,7 +6612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6590,7 +6641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6619,7 +6670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6648,7 +6699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6677,7 +6728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6706,7 +6757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6735,7 +6786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6764,7 +6815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6793,7 +6844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6822,7 +6873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6851,7 +6902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6880,7 +6931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -6909,7 +6960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -6938,7 +6989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -6967,7 +7018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -6996,7 +7047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7025,7 +7076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7054,7 +7105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7083,7 +7134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7112,7 +7163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7141,7 +7192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7170,7 +7221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7199,7 +7250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7228,7 +7279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7257,7 +7308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7286,7 +7337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7315,7 +7366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7344,7 +7395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7373,7 +7424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7402,7 +7453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7431,7 +7482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7460,7 +7511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7489,7 +7540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7518,7 +7569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7547,7 +7598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7576,7 +7627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7605,7 +7656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7634,7 +7685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7663,7 +7714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7692,7 +7743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7721,7 +7772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -7750,7 +7801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -7779,7 +7830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -7808,7 +7859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -7837,7 +7888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -7866,7 +7917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -7895,7 +7946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -7924,7 +7975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -7953,7 +8004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -7982,7 +8033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8011,7 +8062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8040,7 +8091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8069,7 +8120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8098,7 +8149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8127,7 +8178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8156,7 +8207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8185,7 +8236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8214,7 +8265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8243,7 +8294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8272,7 +8323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8301,7 +8352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8330,7 +8381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8359,7 +8410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8388,7 +8439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8417,7 +8468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8446,7 +8497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8475,7 +8526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8504,7 +8555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8533,7 +8584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8562,7 +8613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8591,7 +8642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8620,7 +8671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8649,7 +8700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8678,7 +8729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8707,7 +8758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -8736,7 +8787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -8765,7 +8816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -8794,7 +8845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -8823,7 +8874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -8852,7 +8903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -8881,7 +8932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -8910,7 +8961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -8939,7 +8990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -8968,7 +9019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -8997,7 +9048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9026,7 +9077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9055,7 +9106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9084,7 +9135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9113,7 +9164,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9142,7 +9193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9156,7 +9207,7 @@
         <v>45961</v>
       </c>
       <c r="E207" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F207" s="32" t="s">
         <v>6</v>
@@ -9165,13 +9216,13 @@
         <v>92</v>
       </c>
       <c r="H207" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I207" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9200,7 +9251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9214,7 +9265,7 @@
         <v>45961</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F209" s="32" t="s">
         <v>6</v>
@@ -9223,13 +9274,13 @@
         <v>56</v>
       </c>
       <c r="H209" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I209" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9252,13 +9303,13 @@
         <v>101</v>
       </c>
       <c r="H210" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I210" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9272,7 +9323,7 @@
         <v>45870</v>
       </c>
       <c r="E211" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F211" s="32" t="s">
         <v>6</v>
@@ -9281,13 +9332,13 @@
         <v>2</v>
       </c>
       <c r="H211" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I211" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9301,7 +9352,7 @@
         <v>45945</v>
       </c>
       <c r="E212" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F212" s="32" t="s">
         <v>6</v>
@@ -9310,13 +9361,13 @@
         <v>91</v>
       </c>
       <c r="H212" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I212" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9330,7 +9381,7 @@
         <v>45944</v>
       </c>
       <c r="E213" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F213" s="32" t="s">
         <v>54</v>
@@ -9339,13 +9390,13 @@
         <v>127</v>
       </c>
       <c r="H213" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I213" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9359,7 +9410,7 @@
         <v>45946</v>
       </c>
       <c r="E214" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F214" s="32" t="s">
         <v>107</v>
@@ -9368,13 +9419,13 @@
         <v>54</v>
       </c>
       <c r="H214" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I214" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9388,7 +9439,7 @@
         <v>45936</v>
       </c>
       <c r="E215" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F215" s="32" t="s">
         <v>6</v>
@@ -9397,13 +9448,13 @@
         <v>54</v>
       </c>
       <c r="H215" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I215" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9417,7 +9468,7 @@
         <v>45936</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F216" s="32" t="s">
         <v>6</v>
@@ -9426,15 +9477,15 @@
         <v>58</v>
       </c>
       <c r="H216" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I216" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B217" s="33">
         <v>45884</v>
@@ -9446,7 +9497,7 @@
         <v>45936</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F217" s="32" t="s">
         <v>6</v>
@@ -9455,13 +9506,13 @@
         <v>296</v>
       </c>
       <c r="H217" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I217" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9475,7 +9526,7 @@
         <v>45943</v>
       </c>
       <c r="E218" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F218" s="32" t="s">
         <v>6</v>
@@ -9484,13 +9535,13 @@
         <v>157</v>
       </c>
       <c r="H218" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I218" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9504,7 +9555,7 @@
         <v>45943</v>
       </c>
       <c r="E219" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F219" s="32" t="s">
         <v>6</v>
@@ -9513,13 +9564,13 @@
         <v>64</v>
       </c>
       <c r="H219" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I219" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9533,7 +9584,7 @@
         <v>45884</v>
       </c>
       <c r="E220" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F220" s="32" t="s">
         <v>6</v>
@@ -9542,13 +9593,13 @@
         <v>1</v>
       </c>
       <c r="H220" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I220" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9562,7 +9613,7 @@
         <v>45934</v>
       </c>
       <c r="E221" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F221" s="32" t="s">
         <v>6</v>
@@ -9571,13 +9622,13 @@
         <v>114</v>
       </c>
       <c r="H221" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I221" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9591,7 +9642,7 @@
         <v>45982</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F222" s="32" t="s">
         <v>54</v>
@@ -9600,10 +9651,387 @@
         <v>76</v>
       </c>
       <c r="H222" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I222" s="26" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A223" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B223" s="33">
+        <v>45888</v>
+      </c>
+      <c r="C223" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D223" s="33">
+        <v>45954</v>
+      </c>
+      <c r="E223" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="F223" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223" s="34">
+        <v>10</v>
+      </c>
+      <c r="H223" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I223" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B224" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C224" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D224" s="33">
+        <v>45873</v>
+      </c>
+      <c r="E224" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F224" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G224" s="34">
+        <v>2</v>
+      </c>
+      <c r="H224" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="I224" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B225" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C225" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D225" s="33">
+        <v>45873</v>
+      </c>
+      <c r="E225" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F225" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G225" s="34">
+        <v>8</v>
+      </c>
+      <c r="H225" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I225" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C226" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D226" s="33">
+        <v>45873</v>
+      </c>
+      <c r="E226" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F226" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G226" s="34">
+        <v>1</v>
+      </c>
+      <c r="H226" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="I226" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B227" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C227" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D227" s="33">
+        <v>45873</v>
+      </c>
+      <c r="E227" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F227" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G227" s="34">
+        <v>42</v>
+      </c>
+      <c r="H227" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="I227" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C228" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D228" s="33">
+        <v>45873</v>
+      </c>
+      <c r="E228" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="F228" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G228" s="34">
+        <v>2</v>
+      </c>
+      <c r="H228" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="I228" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B229" s="33">
+        <v>45887</v>
+      </c>
+      <c r="C229" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D229" s="33">
+        <v>45873</v>
+      </c>
+      <c r="E229" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F229" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G229" s="34">
+        <v>2</v>
+      </c>
+      <c r="H229" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="I229" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B230" s="33">
+        <v>45888</v>
+      </c>
+      <c r="C230" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D230" s="33">
+        <v>45960</v>
+      </c>
+      <c r="E230" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F230" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G230" s="34">
+        <v>110</v>
+      </c>
+      <c r="H230" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="I230" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="33">
+        <v>45882</v>
+      </c>
+      <c r="C231" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D231" s="33">
+        <v>45886</v>
+      </c>
+      <c r="E231" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="F231" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G231" s="34">
+        <v>72</v>
+      </c>
+      <c r="H231" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="I231" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B232" s="33">
+        <v>45848</v>
+      </c>
+      <c r="C232" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D232" s="33">
+        <v>45848</v>
+      </c>
+      <c r="E232" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="F232" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G232" s="34">
+        <v>32</v>
+      </c>
+      <c r="H232" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I232" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B233" s="33">
+        <v>45888</v>
+      </c>
+      <c r="C233" s="33">
+        <v>45888</v>
+      </c>
+      <c r="D233" s="33">
+        <v>45936</v>
+      </c>
+      <c r="E233" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="F233" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G233" s="34">
+        <v>108</v>
+      </c>
+      <c r="H233" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="I233" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B234" s="33">
+        <v>45889</v>
+      </c>
+      <c r="C234" s="33">
+        <v>45889</v>
+      </c>
+      <c r="D234" s="33">
+        <v>45982</v>
+      </c>
+      <c r="E234" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="F234" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G234" s="34">
+        <v>23</v>
+      </c>
+      <c r="H234" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="I234" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B235" s="33">
+        <v>45889</v>
+      </c>
+      <c r="C235" s="33">
+        <v>45889</v>
+      </c>
+      <c r="D235" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E235" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="F235" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G235" s="34">
+        <v>78</v>
+      </c>
+      <c r="H235" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="I235" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -9620,7 +10048,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I222</xm:sqref>
+          <xm:sqref>I3:I235</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9634,18 +10062,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -9653,7 +10081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -9662,7 +10090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -9671,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -9680,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -9689,7 +10117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -9698,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -9707,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -9733,25 +10161,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -9777,7 +10205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -9819,117 +10247,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B1AE30-663D-419E-B31F-9030107C3151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AEF9BF-2027-4FA8-920E-FA91FC42B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="497">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1505,8 +1505,59 @@
     <t>400 Westminster Mall  Westminster CA 92683</t>
   </si>
   <si>
+    <t>Corteva Agriscience LLC</t>
+  </si>
+  <si>
+    <t>99 Montecillo Rd.  San Rafael CA 94903</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (1830)</t>
+  </si>
+  <si>
+    <t>1830 California Ave  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals (1850)</t>
+  </si>
+  <si>
+    <t>1850 California Ave  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>LCP Lake Tahoe EMP</t>
+  </si>
+  <si>
+    <t>3411 Lake Tahoe Blvd  South Lake Tahoe CA 96150</t>
+  </si>
+  <si>
+    <t>Sella Restaurant Holdings LP</t>
+  </si>
+  <si>
+    <t>8899 Beverly Blvd.  Los Angeles CA 90048</t>
+  </si>
+  <si>
+    <t>GSC Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>Regional Center of the East Bay</t>
+  </si>
+  <si>
+    <t>675 Hegenberger Rd. Ste. 200  Oakland CA 94621</t>
+  </si>
+  <si>
+    <t>Town Hospice &amp; Palliative Care LLC dba Suncrest Hospice Inland Empire</t>
+  </si>
+  <si>
+    <t>6465 Sycamore Canyon Blvd. Suie 150  Riverside CA 92507</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>6379 San Ignacio Avenue  San Jose CA 95119</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/20/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/25/2025
 </t>
     </r>
     <r>
@@ -1520,55 +1571,61 @@
     </r>
   </si>
   <si>
-    <t>Corteva Agriscience LLC</t>
-  </si>
-  <si>
-    <t>99 Montecillo Rd.  San Rafael CA 94903</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals (1830)</t>
-  </si>
-  <si>
-    <t>1830 California Ave  Corona CA 92881</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals (1850)</t>
-  </si>
-  <si>
-    <t>1850 California Ave  Corona CA 92881</t>
-  </si>
-  <si>
-    <t>LCP Lake Tahoe EMP</t>
-  </si>
-  <si>
-    <t>3411 Lake Tahoe Blvd  South Lake Tahoe CA 96150</t>
-  </si>
-  <si>
-    <t>Sella Restaurant Holdings LP</t>
-  </si>
-  <si>
-    <t>8899 Beverly Blvd.  Los Angeles CA 90048</t>
-  </si>
-  <si>
-    <t>GSC Solutions, Inc.</t>
-  </si>
-  <si>
-    <t>Regional Center of the East Bay</t>
-  </si>
-  <si>
-    <t>675 Hegenberger Rd. Ste. 200  Oakland CA 94621</t>
-  </si>
-  <si>
-    <t>Town Hospice &amp; Palliative Care LLC dba Suncrest Hospice Inland Empire</t>
-  </si>
-  <si>
-    <t>6465 Sycamore Canyon Blvd. Suie 150  Riverside CA 92507</t>
-  </si>
-  <si>
-    <t>Northrop Grumman</t>
-  </si>
-  <si>
-    <t>6379 San Ignacio Avenue  San Jose CA 95119</t>
+    <t>Farmers Group, Inc.</t>
+  </si>
+  <si>
+    <t>6301 Owensmouth Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>6303 Owensmouth Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>Freedom Designs Inc.</t>
+  </si>
+  <si>
+    <t>2241 Madera Rd  Simi Valley CA 93065</t>
+  </si>
+  <si>
+    <t>3551 Trousdale Pkwy.  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>Glenn County</t>
+  </si>
+  <si>
+    <t>Glenn Medical Center</t>
+  </si>
+  <si>
+    <t>1133 West Sycamore St.  Willows CA 95988</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical, Inc.</t>
+  </si>
+  <si>
+    <t>1050 Kifer Rd.  Sunnyvale CA 94086</t>
+  </si>
+  <si>
+    <t>CooperVision, Inc.</t>
+  </si>
+  <si>
+    <t>5870 Stoneridge Dr., Suite 1  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>4460 Hacienda Dr., Bldg. A.  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Ave.  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>1850 California Ave.  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>Butte County</t>
+  </si>
+  <si>
+    <t>Enloe Health</t>
+  </si>
+  <si>
+    <t>1390 E. Lassen Avenue  Chico CA 95973</t>
   </si>
   <si>
     <r>
@@ -1582,7 +1639,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/20/2025</t>
+      <t>07/01/25 to 08/25/2025</t>
     </r>
     <r>
       <rPr>
@@ -1602,7 +1659,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I235.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I247.</t>
     </r>
   </si>
 </sst>
@@ -2723,8 +2780,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I235" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I235" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I247" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I247" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3081,37 +3138,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3133,18 +3190,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3152,25 +3209,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>11105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3179,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3187,16 +3244,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3205,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3225,30 +3282,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3306,7 +3363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3335,7 +3392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3364,7 +3421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3422,7 +3479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3451,7 +3508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3509,7 +3566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3538,7 +3595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3567,7 +3624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3596,7 +3653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3625,7 +3682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3654,7 +3711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3683,7 +3740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3712,7 +3769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3741,7 +3798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3770,7 +3827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3799,7 +3856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3828,7 +3885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3857,7 +3914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3886,7 +3943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3915,7 +3972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -3944,7 +4001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -3973,7 +4030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4031,7 +4088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4060,7 +4117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4089,7 +4146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4118,7 +4175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4147,7 +4204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4176,7 +4233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4205,7 +4262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4234,7 +4291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4263,7 +4320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4292,7 +4349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4321,7 +4378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4379,7 +4436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4408,7 +4465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4437,7 +4494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4466,7 +4523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4495,7 +4552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4524,7 +4581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4553,7 +4610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4582,7 +4639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4611,7 +4668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4640,7 +4697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4669,7 +4726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4698,7 +4755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4727,7 +4784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4756,7 +4813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4785,7 +4842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4814,7 +4871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4843,7 +4900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4872,7 +4929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4901,7 +4958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4930,7 +4987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -4959,7 +5016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -4988,7 +5045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5017,7 +5074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5046,7 +5103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5075,7 +5132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5104,7 +5161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5133,7 +5190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5162,7 +5219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5191,7 +5248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5220,7 +5277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5249,7 +5306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5278,7 +5335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5307,7 +5364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5336,7 +5393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5365,7 +5422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5394,7 +5451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5423,7 +5480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5452,7 +5509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5481,7 +5538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5510,7 +5567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5539,7 +5596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5568,7 +5625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5597,7 +5654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5626,7 +5683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5655,7 +5712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5684,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5713,7 +5770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5742,7 +5799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5771,7 +5828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5800,7 +5857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5858,7 +5915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5887,7 +5944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5916,7 +5973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -5945,7 +6002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -5974,7 +6031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6003,7 +6060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6032,7 +6089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6061,7 +6118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6090,7 +6147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6119,7 +6176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6148,7 +6205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6177,7 +6234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6206,7 +6263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6235,7 +6292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6264,7 +6321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6293,7 +6350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6322,7 +6379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6351,7 +6408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6380,7 +6437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6409,7 +6466,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6438,7 +6495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6467,7 +6524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6496,7 +6553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6525,7 +6582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6554,7 +6611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6583,7 +6640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6612,7 +6669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6641,7 +6698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6670,7 +6727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6699,7 +6756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6728,7 +6785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6757,7 +6814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6786,7 +6843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6815,7 +6872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6844,7 +6901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6873,7 +6930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6902,7 +6959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6931,7 +6988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -6960,7 +7017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -6989,7 +7046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7018,7 +7075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7076,7 +7133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7105,7 +7162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7134,7 +7191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7163,7 +7220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7192,7 +7249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7221,7 +7278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7250,7 +7307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7279,7 +7336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7308,7 +7365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7337,7 +7394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7366,7 +7423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7395,7 +7452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7424,7 +7481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7453,7 +7510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7482,7 +7539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7511,7 +7568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7540,7 +7597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7569,7 +7626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7598,7 +7655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7627,7 +7684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7656,7 +7713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7685,7 +7742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7714,7 +7771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7743,7 +7800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7772,7 +7829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -7801,7 +7858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -7830,7 +7887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -7859,7 +7916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -7888,7 +7945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -7917,7 +7974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -7946,7 +8003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -7975,7 +8032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8004,7 +8061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8033,7 +8090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8062,7 +8119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8091,7 +8148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8120,7 +8177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8149,7 +8206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8178,7 +8235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8207,7 +8264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8236,7 +8293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8265,7 +8322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8294,7 +8351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8323,7 +8380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8352,7 +8409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8381,7 +8438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8410,7 +8467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8439,7 +8496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8468,7 +8525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8497,7 +8554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8555,7 +8612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8584,7 +8641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8613,7 +8670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8642,7 +8699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8671,7 +8728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8700,7 +8757,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8729,7 +8786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8758,7 +8815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -8787,7 +8844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -8816,7 +8873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -8845,7 +8902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -8874,7 +8931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -8903,7 +8960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -8932,7 +8989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -8961,7 +9018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -8990,7 +9047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9019,7 +9076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9048,7 +9105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9077,7 +9134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9106,7 +9163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9135,7 +9192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9164,7 +9221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9193,7 +9250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9222,7 +9279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9251,7 +9308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9280,7 +9337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9309,7 +9366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9338,7 +9395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9367,7 +9424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9396,7 +9453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9425,7 +9482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9454,7 +9511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9483,7 +9540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9512,7 +9569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9541,7 +9598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9570,7 +9627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9599,7 +9656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9628,7 +9685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9657,7 +9714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -9671,7 +9728,7 @@
         <v>45954</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F223" s="32" t="s">
         <v>6</v>
@@ -9686,7 +9743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -9715,7 +9772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -9744,7 +9801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -9773,7 +9830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -9796,13 +9853,13 @@
         <v>42</v>
       </c>
       <c r="H227" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I227" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -9816,7 +9873,7 @@
         <v>45873</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F228" s="32" t="s">
         <v>6</v>
@@ -9825,13 +9882,13 @@
         <v>2</v>
       </c>
       <c r="H228" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I228" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -9845,7 +9902,7 @@
         <v>45873</v>
       </c>
       <c r="E229" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F229" s="32" t="s">
         <v>6</v>
@@ -9854,13 +9911,13 @@
         <v>2</v>
       </c>
       <c r="H229" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I229" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -9874,7 +9931,7 @@
         <v>45960</v>
       </c>
       <c r="E230" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F230" s="32" t="s">
         <v>54</v>
@@ -9883,13 +9940,13 @@
         <v>110</v>
       </c>
       <c r="H230" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I230" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -9903,7 +9960,7 @@
         <v>45886</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F231" s="32" t="s">
         <v>54</v>
@@ -9912,13 +9969,13 @@
         <v>72</v>
       </c>
       <c r="H231" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I231" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -9932,7 +9989,7 @@
         <v>45848</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F232" s="32" t="s">
         <v>6</v>
@@ -9947,7 +10004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -9961,7 +10018,7 @@
         <v>45936</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F233" s="32" t="s">
         <v>6</v>
@@ -9970,13 +10027,13 @@
         <v>108</v>
       </c>
       <c r="H233" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I233" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -9990,7 +10047,7 @@
         <v>45982</v>
       </c>
       <c r="E234" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F234" s="32" t="s">
         <v>54</v>
@@ -9999,13 +10056,13 @@
         <v>23</v>
       </c>
       <c r="H234" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I234" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10019,7 +10076,7 @@
         <v>45961</v>
       </c>
       <c r="E235" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F235" s="32" t="s">
         <v>54</v>
@@ -10028,10 +10085,358 @@
         <v>78</v>
       </c>
       <c r="H235" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I235" s="26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="33">
+        <v>45888</v>
+      </c>
+      <c r="C236" s="33">
+        <v>45890</v>
+      </c>
+      <c r="D236" s="33">
+        <v>45950</v>
+      </c>
+      <c r="E236" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="F236" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="34">
+        <v>62</v>
+      </c>
+      <c r="H236" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="I236" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="33">
+        <v>45888</v>
+      </c>
+      <c r="C237" s="33">
+        <v>45890</v>
+      </c>
+      <c r="D237" s="33">
+        <v>45950</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="F237" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="34">
+        <v>1</v>
+      </c>
+      <c r="H237" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="I237" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B238" s="33">
+        <v>45890</v>
+      </c>
+      <c r="C238" s="33">
+        <v>45890</v>
+      </c>
+      <c r="D238" s="33">
+        <v>45959</v>
+      </c>
+      <c r="E238" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="F238" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G238" s="34">
+        <v>70</v>
+      </c>
+      <c r="H238" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="I238" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="33">
+        <v>45891</v>
+      </c>
+      <c r="C239" s="33">
+        <v>45891</v>
+      </c>
+      <c r="D239" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E239" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F239" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G239" s="34">
+        <v>144</v>
+      </c>
+      <c r="H239" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="I239" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="B240" s="33">
+        <v>45891</v>
+      </c>
+      <c r="C240" s="33">
+        <v>45891</v>
+      </c>
+      <c r="D240" s="33">
+        <v>45951</v>
+      </c>
+      <c r="E240" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="F240" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G240" s="34">
+        <v>225</v>
+      </c>
+      <c r="H240" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="I240" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B241" s="33">
+        <v>45890</v>
+      </c>
+      <c r="C241" s="33">
+        <v>45891</v>
+      </c>
+      <c r="D241" s="33">
+        <v>45957</v>
+      </c>
+      <c r="E241" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="F241" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G241" s="34">
+        <v>331</v>
+      </c>
+      <c r="H241" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="I241" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242" s="33">
+        <v>45891</v>
+      </c>
+      <c r="C242" s="33">
+        <v>45894</v>
+      </c>
+      <c r="D242" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E242" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="F242" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G242" s="34">
+        <v>6</v>
+      </c>
+      <c r="H242" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="I242" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C243" s="33">
+        <v>45894</v>
+      </c>
+      <c r="D243" s="33">
+        <v>45894</v>
+      </c>
+      <c r="E243" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F243" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G243" s="34">
+        <v>3</v>
+      </c>
+      <c r="H243" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="I243" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C244" s="33">
+        <v>45894</v>
+      </c>
+      <c r="D244" s="33">
+        <v>45894</v>
+      </c>
+      <c r="E244" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F244" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G244" s="34">
+        <v>2</v>
+      </c>
+      <c r="H244" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="I244" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B245" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C245" s="33">
+        <v>45894</v>
+      </c>
+      <c r="D245" s="33">
+        <v>45894</v>
+      </c>
+      <c r="E245" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="F245" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="34">
+        <v>1</v>
+      </c>
+      <c r="H245" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="I245" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B246" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C246" s="33">
+        <v>45894</v>
+      </c>
+      <c r="D246" s="33">
+        <v>45894</v>
+      </c>
+      <c r="E246" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F246" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="34">
+        <v>2</v>
+      </c>
+      <c r="H246" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="I246" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="B247" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C247" s="33">
+        <v>45894</v>
+      </c>
+      <c r="D247" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E247" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="F247" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G247" s="34">
+        <v>78</v>
+      </c>
+      <c r="H247" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="I247" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -10048,7 +10453,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I235</xm:sqref>
+          <xm:sqref>I3:I247</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10062,18 +10467,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -10081,7 +10486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -10090,7 +10495,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -10099,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -10108,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -10117,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -10126,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -10135,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -10161,25 +10566,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -10205,7 +10610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -10247,117 +10652,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AEF9BF-2027-4FA8-920E-FA91FC42B968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E41EFC-504C-461E-8E13-C38D1B36FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="536">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1556,8 +1556,65 @@
     <t>6379 San Ignacio Avenue  San Jose CA 95119</t>
   </si>
   <si>
+    <t>Farmers Group, Inc.</t>
+  </si>
+  <si>
+    <t>6301 Owensmouth Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>6303 Owensmouth Avenue  Woodland Hills CA 91367</t>
+  </si>
+  <si>
+    <t>Freedom Designs Inc.</t>
+  </si>
+  <si>
+    <t>2241 Madera Rd  Simi Valley CA 93065</t>
+  </si>
+  <si>
+    <t>3551 Trousdale Pkwy.  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>Glenn County</t>
+  </si>
+  <si>
+    <t>Glenn Medical Center</t>
+  </si>
+  <si>
+    <t>1133 West Sycamore St.  Willows CA 95988</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical, Inc.</t>
+  </si>
+  <si>
+    <t>1050 Kifer Rd.  Sunnyvale CA 94086</t>
+  </si>
+  <si>
+    <t>CooperVision, Inc.</t>
+  </si>
+  <si>
+    <t>5870 Stoneridge Dr., Suite 1  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>4460 Hacienda Dr., Bldg. A.  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Ave.  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>1850 California Ave.  Corona CA 92881</t>
+  </si>
+  <si>
+    <t>Butte County</t>
+  </si>
+  <si>
+    <t>Enloe Health</t>
+  </si>
+  <si>
+    <t>1390 E. Lassen Avenue  Chico CA 95973</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/25/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/27/2025
 </t>
     </r>
     <r>
@@ -1571,61 +1628,121 @@
     </r>
   </si>
   <si>
-    <t>Farmers Group, Inc.</t>
-  </si>
-  <si>
-    <t>6301 Owensmouth Avenue  Woodland Hills CA 91367</t>
-  </si>
-  <si>
-    <t>6303 Owensmouth Avenue  Woodland Hills CA 91367</t>
-  </si>
-  <si>
-    <t>Freedom Designs Inc.</t>
-  </si>
-  <si>
-    <t>2241 Madera Rd  Simi Valley CA 93065</t>
-  </si>
-  <si>
-    <t>3551 Trousdale Pkwy.  Los Angeles CA 90089</t>
-  </si>
-  <si>
-    <t>Glenn County</t>
-  </si>
-  <si>
-    <t>Glenn Medical Center</t>
-  </si>
-  <si>
-    <t>1133 West Sycamore St.  Willows CA 95988</t>
-  </si>
-  <si>
-    <t>Intuitive Surgical, Inc.</t>
-  </si>
-  <si>
-    <t>1050 Kifer Rd.  Sunnyvale CA 94086</t>
-  </si>
-  <si>
-    <t>CooperVision, Inc.</t>
-  </si>
-  <si>
-    <t>5870 Stoneridge Dr., Suite 1  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>4460 Hacienda Dr., Bldg. A.  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>99 S. Oakland Ave.  Pasadena CA 91101</t>
-  </si>
-  <si>
-    <t>1850 California Ave.  Corona CA 92881</t>
-  </si>
-  <si>
-    <t>Butte County</t>
-  </si>
-  <si>
-    <t>Enloe Health</t>
-  </si>
-  <si>
-    <t>1390 E. Lassen Avenue  Chico CA 95973</t>
+    <t>Exelixis, Inc.</t>
+  </si>
+  <si>
+    <t>1851 Harbor Pay Parkway  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Web To Door Corporation</t>
+  </si>
+  <si>
+    <t>2995 Atlas Road  Richmond CA 94806</t>
+  </si>
+  <si>
+    <t>Children's Hospital Los Angeles</t>
+  </si>
+  <si>
+    <t>4650 Sunset Blvd.  Los Angeles CA 90027</t>
+  </si>
+  <si>
+    <t>Adventist Health White Memorial</t>
+  </si>
+  <si>
+    <t>309 W Beverly Blvd.  Montebello CA 90640</t>
+  </si>
+  <si>
+    <t>35 Baywood Avenue  San Mateo CA 94402</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. - 29</t>
+  </si>
+  <si>
+    <t>29 Baywood Avenue  San Mateo CA 94402</t>
+  </si>
+  <si>
+    <t>225 N McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>5800 Coliseum Way  Oakland CA 94601</t>
+  </si>
+  <si>
+    <t>Dandelion Payments, Inc.</t>
+  </si>
+  <si>
+    <t>7000 Village Dr., Ste 200  Buena Park CA 90621-2287</t>
+  </si>
+  <si>
+    <t>Berco Redwood Inc.</t>
+  </si>
+  <si>
+    <t>4560 Auburn Blvd  Sacramento CA 95841</t>
+  </si>
+  <si>
+    <t>GXO Logistics Supply Chain, Inc.</t>
+  </si>
+  <si>
+    <t>26525 Pioneer Avenue, Suite B  Redlands CA 92374</t>
+  </si>
+  <si>
+    <t>Southwest Key Programs, Inc. - Casa Pleasant Hill</t>
+  </si>
+  <si>
+    <t>Southwest Key Programs, Inc. - Casa San Diego</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>One Front Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>Norman's Nursery</t>
+  </si>
+  <si>
+    <t>6250 Escalon Bellota Road  Linden CA 95236</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. 5440</t>
+  </si>
+  <si>
+    <t>5440 Thornwood Drive, Suite G  San Jose CA 95123</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. - 3131</t>
+  </si>
+  <si>
+    <t>3131 Alum Rock Ave.  San Jose CA 95127</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte,  Inc. - 1694</t>
+  </si>
+  <si>
+    <t>1694 Tully Road, Suite 40  San Jose CA 95122</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. - 1691</t>
+  </si>
+  <si>
+    <t>Silgan Containers</t>
+  </si>
+  <si>
+    <t>567 S Riverside Drive  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>430 Doherty Ave  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>Vistar Green Rabbit 2237</t>
+  </si>
+  <si>
+    <t>2237 North Plaza Drive  Visalia CA 93291</t>
+  </si>
+  <si>
+    <t>Vistar Green Rabbit</t>
+  </si>
+  <si>
+    <t>345 East Tulare Street  Visalia CA 93277</t>
   </si>
   <si>
     <r>
@@ -1639,7 +1756,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/25/2025</t>
+      <t>07/01/25 to 08/27/2025</t>
     </r>
     <r>
       <rPr>
@@ -1659,7 +1776,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I247.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I274.</t>
     </r>
   </si>
 </sst>
@@ -2780,8 +2897,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I247" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I247" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I274" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:I274" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3138,37 +3255,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3190,18 +3307,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3209,34 +3326,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>12030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3244,25 +3361,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3282,30 +3399,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3363,7 +3480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3392,7 +3509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3450,7 +3567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3479,7 +3596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3508,7 +3625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3537,7 +3654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3566,7 +3683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3595,7 +3712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3624,7 +3741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3653,7 +3770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3682,7 +3799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3711,7 +3828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3740,7 +3857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3769,7 +3886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3798,7 +3915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3827,7 +3944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3856,7 +3973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -3885,7 +4002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -3914,7 +4031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -3943,7 +4060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -3972,7 +4089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4001,7 +4118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +4147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4059,7 +4176,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4088,7 +4205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4117,7 +4234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4146,7 +4263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4175,7 +4292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4204,7 +4321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4233,7 +4350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4262,7 +4379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4291,7 +4408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4320,7 +4437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4349,7 +4466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4378,7 +4495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4407,7 +4524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4436,7 +4553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4465,7 +4582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +4611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4523,7 +4640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4552,7 +4669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4581,7 +4698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4610,7 +4727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4639,7 +4756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4668,7 +4785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4697,7 +4814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4726,7 +4843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4755,7 +4872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4784,7 +4901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4813,7 +4930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4842,7 +4959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4871,7 +4988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -4900,7 +5017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -4929,7 +5046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -4958,7 +5075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -4987,7 +5104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5016,7 +5133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5045,7 +5162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5074,7 +5191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5103,7 +5220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5132,7 +5249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5161,7 +5278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5190,7 +5307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5219,7 +5336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5277,7 +5394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5306,7 +5423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5335,7 +5452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5364,7 +5481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5393,7 +5510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5422,7 +5539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5451,7 +5568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5480,7 +5597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5509,7 +5626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5538,7 +5655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5567,7 +5684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5596,7 +5713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5625,7 +5742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5654,7 +5771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5683,7 +5800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5712,7 +5829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5741,7 +5858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5770,7 +5887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5799,7 +5916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5828,7 +5945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5857,7 +5974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -5886,7 +6003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -5915,7 +6032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -5944,7 +6061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -5973,7 +6090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6002,7 +6119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6031,7 +6148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6060,7 +6177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6089,7 +6206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6118,7 +6235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6147,7 +6264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6176,7 +6293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6205,7 +6322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6234,7 +6351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6263,7 +6380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6292,7 +6409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6321,7 +6438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6350,7 +6467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6379,7 +6496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6408,7 +6525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6437,7 +6554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6466,7 +6583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6495,7 +6612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6524,7 +6641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6553,7 +6670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6582,7 +6699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6611,7 +6728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6640,7 +6757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6669,7 +6786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6698,7 +6815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6727,7 +6844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6756,7 +6873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6785,7 +6902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6814,7 +6931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6843,7 +6960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6872,7 +6989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -6901,7 +7018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -6930,7 +7047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -6959,7 +7076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -6988,7 +7105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7017,7 +7134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7046,7 +7163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7075,7 +7192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7104,7 +7221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7133,7 +7250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7162,7 +7279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7191,7 +7308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7220,7 +7337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7249,7 +7366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7278,7 +7395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7307,7 +7424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7336,7 +7453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7365,7 +7482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7394,7 +7511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7423,7 +7540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7452,7 +7569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7481,7 +7598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7510,7 +7627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7539,7 +7656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7568,7 +7685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7597,7 +7714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7626,7 +7743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7655,7 +7772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7684,7 +7801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7713,7 +7830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7742,7 +7859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7771,7 +7888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7800,7 +7917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7829,7 +7946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -7858,7 +7975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -7887,7 +8004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -7916,7 +8033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -7945,7 +8062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -7974,7 +8091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8003,7 +8120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8032,7 +8149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8061,7 +8178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8090,7 +8207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8119,7 +8236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8148,7 +8265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8177,7 +8294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8206,7 +8323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8235,7 +8352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8264,7 +8381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8293,7 +8410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8322,7 +8439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8351,7 +8468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8380,7 +8497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8409,7 +8526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8438,7 +8555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8467,7 +8584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8496,7 +8613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8525,7 +8642,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8554,7 +8671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8583,7 +8700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8612,7 +8729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8641,7 +8758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8670,7 +8787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8699,7 +8816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8728,7 +8845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8757,7 +8874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8786,7 +8903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8815,7 +8932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -8844,7 +8961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -8873,7 +8990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -8902,7 +9019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -8931,7 +9048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -8960,7 +9077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -8989,7 +9106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9018,7 +9135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9047,7 +9164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9076,7 +9193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9105,7 +9222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9134,7 +9251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9163,7 +9280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9192,7 +9309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9221,7 +9338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9250,7 +9367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9279,7 +9396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9308,7 +9425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9337,7 +9454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9366,7 +9483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9395,7 +9512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9424,7 +9541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9453,7 +9570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9482,7 +9599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9511,7 +9628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9540,7 +9657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9569,7 +9686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9598,7 +9715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9627,7 +9744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9656,7 +9773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9685,7 +9802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9714,7 +9831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -9743,7 +9860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -9772,7 +9889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -9801,7 +9918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -9830,7 +9947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -9859,7 +9976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -9888,7 +10005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -9917,7 +10034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -9946,7 +10063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -9975,7 +10092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10004,7 +10121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10033,7 +10150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10062,7 +10179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10091,7 +10208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10105,7 +10222,7 @@
         <v>45950</v>
       </c>
       <c r="E236" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F236" s="32" t="s">
         <v>6</v>
@@ -10114,13 +10231,13 @@
         <v>62</v>
       </c>
       <c r="H236" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I236" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10134,7 +10251,7 @@
         <v>45950</v>
       </c>
       <c r="E237" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F237" s="32" t="s">
         <v>6</v>
@@ -10143,13 +10260,13 @@
         <v>1</v>
       </c>
       <c r="H237" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I237" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10163,7 +10280,7 @@
         <v>45959</v>
       </c>
       <c r="E238" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F238" s="32" t="s">
         <v>54</v>
@@ -10172,13 +10289,13 @@
         <v>70</v>
       </c>
       <c r="H238" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I238" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10201,15 +10318,15 @@
         <v>144</v>
       </c>
       <c r="H239" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I239" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B240" s="33">
         <v>45891</v>
@@ -10221,7 +10338,7 @@
         <v>45951</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F240" s="32" t="s">
         <v>54</v>
@@ -10230,13 +10347,13 @@
         <v>225</v>
       </c>
       <c r="H240" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I240" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10250,7 +10367,7 @@
         <v>45957</v>
       </c>
       <c r="E241" s="32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F241" s="32" t="s">
         <v>6</v>
@@ -10259,13 +10376,13 @@
         <v>331</v>
       </c>
       <c r="H241" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I241" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10279,7 +10396,7 @@
         <v>45961</v>
       </c>
       <c r="E242" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F242" s="32" t="s">
         <v>54</v>
@@ -10288,13 +10405,13 @@
         <v>6</v>
       </c>
       <c r="H242" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I242" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10317,13 +10434,13 @@
         <v>3</v>
       </c>
       <c r="H243" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I243" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10346,13 +10463,13 @@
         <v>2</v>
       </c>
       <c r="H244" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I244" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10381,7 +10498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10404,15 +10521,15 @@
         <v>2</v>
       </c>
       <c r="H246" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I246" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B247" s="33">
         <v>45894</v>
@@ -10424,7 +10541,7 @@
         <v>45961</v>
       </c>
       <c r="E247" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F247" s="32" t="s">
         <v>54</v>
@@ -10433,10 +10550,793 @@
         <v>78</v>
       </c>
       <c r="H247" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I247" s="26" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A248" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B248" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C248" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D248" s="33">
+        <v>45957</v>
+      </c>
+      <c r="E248" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F248" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248" s="34">
+        <v>71</v>
+      </c>
+      <c r="H248" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="I248" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A249" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B249" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C249" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D249" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E249" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F249" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G249" s="34">
+        <v>9</v>
+      </c>
+      <c r="H249" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="I249" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A250" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B250" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C250" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D250" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E250" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="F250" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="34">
+        <v>1</v>
+      </c>
+      <c r="H250" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="I250" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A251" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B251" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C251" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D251" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E251" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F251" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G251" s="34">
+        <v>46</v>
+      </c>
+      <c r="H251" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I251" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B252" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C252" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D252" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E252" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F252" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G252" s="34">
+        <v>2</v>
+      </c>
+      <c r="H252" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I252" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A253" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B253" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C253" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D253" s="33">
+        <v>45853</v>
+      </c>
+      <c r="E253" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F253" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G253" s="34">
+        <v>50</v>
+      </c>
+      <c r="H253" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I253" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B254" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C254" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D254" s="33">
+        <v>45955</v>
+      </c>
+      <c r="E254" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="F254" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G254" s="34">
+        <v>64</v>
+      </c>
+      <c r="H254" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="I254" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A255" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B255" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C255" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D255" s="33">
+        <v>45849</v>
+      </c>
+      <c r="E255" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F255" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G255" s="34">
+        <v>83</v>
+      </c>
+      <c r="H255" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I255" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A256" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B256" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C256" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D256" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E256" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="F256" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G256" s="34">
+        <v>13</v>
+      </c>
+      <c r="H256" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="I256" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A257" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B257" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C257" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D257" s="33">
+        <v>45869</v>
+      </c>
+      <c r="E257" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="F257" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G257" s="34">
+        <v>47</v>
+      </c>
+      <c r="H257" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="I257" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A258" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B258" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C258" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D258" s="33">
+        <v>45869</v>
+      </c>
+      <c r="E258" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="F258" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G258" s="34">
+        <v>116</v>
+      </c>
+      <c r="H258" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="I258" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A259" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B259" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C259" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D259" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E259" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F259" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G259" s="34">
+        <v>12</v>
+      </c>
+      <c r="H259" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="I259" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A260" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B260" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C260" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D260" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E260" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="F260" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G260" s="34">
+        <v>1</v>
+      </c>
+      <c r="H260" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="I260" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A261" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B261" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C261" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D261" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E261" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="F261" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G261" s="34">
+        <v>1</v>
+      </c>
+      <c r="H261" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="I261" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A262" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B262" s="33">
+        <v>45862</v>
+      </c>
+      <c r="C262" s="33">
+        <v>45895</v>
+      </c>
+      <c r="D262" s="33">
+        <v>45862</v>
+      </c>
+      <c r="E262" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="F262" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="34">
+        <v>1</v>
+      </c>
+      <c r="H262" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I262" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A263" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B263" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C263" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D263" s="33">
+        <v>45957</v>
+      </c>
+      <c r="E263" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F263" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G263" s="34">
+        <v>67</v>
+      </c>
+      <c r="H263" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="I263" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A264" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="33">
+        <v>45896</v>
+      </c>
+      <c r="C264" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D264" s="33">
+        <v>45958</v>
+      </c>
+      <c r="E264" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="F264" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G264" s="34">
+        <v>439</v>
+      </c>
+      <c r="H264" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="I264" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A265" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="33">
+        <v>45869</v>
+      </c>
+      <c r="C265" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D265" s="33">
+        <v>45877</v>
+      </c>
+      <c r="E265" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="F265" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G265" s="34">
+        <v>28</v>
+      </c>
+      <c r="H265" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="I265" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A266" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B266" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C266" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D266" s="33">
+        <v>45957</v>
+      </c>
+      <c r="E266" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F266" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G266" s="34">
+        <v>63</v>
+      </c>
+      <c r="H266" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="I266" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A267" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B267" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C267" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D267" s="33">
+        <v>45957</v>
+      </c>
+      <c r="E267" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F267" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G267" s="34">
+        <v>62</v>
+      </c>
+      <c r="H267" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="I267" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A268" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B268" s="33">
+        <v>45895</v>
+      </c>
+      <c r="C268" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D268" s="33">
+        <v>45956</v>
+      </c>
+      <c r="E268" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="F268" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G268" s="34">
+        <v>32</v>
+      </c>
+      <c r="H268" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="I268" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A269" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B269" s="33">
+        <v>45896</v>
+      </c>
+      <c r="C269" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D269" s="33">
+        <v>45896</v>
+      </c>
+      <c r="E269" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="F269" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G269" s="34">
+        <v>99</v>
+      </c>
+      <c r="H269" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="I269" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A270" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B270" s="33">
+        <v>45896</v>
+      </c>
+      <c r="C270" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D270" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E270" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="F270" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G270" s="34">
+        <v>71</v>
+      </c>
+      <c r="H270" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="I270" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A271" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B271" s="33">
+        <v>45883</v>
+      </c>
+      <c r="C271" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D271" s="33">
+        <v>45943</v>
+      </c>
+      <c r="E271" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="F271" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G271" s="34">
+        <v>78</v>
+      </c>
+      <c r="H271" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="I271" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A272" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B272" s="33">
+        <v>45888</v>
+      </c>
+      <c r="C272" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D272" s="33">
+        <v>45949</v>
+      </c>
+      <c r="E272" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="F272" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G272" s="34">
+        <v>72</v>
+      </c>
+      <c r="H272" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="I272" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A273" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C273" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D273" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E273" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="F273" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G273" s="34">
+        <v>92</v>
+      </c>
+      <c r="H273" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="I273" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A274" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B274" s="33">
+        <v>45894</v>
+      </c>
+      <c r="C274" s="33">
+        <v>45896</v>
+      </c>
+      <c r="D274" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E274" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="F274" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G274" s="34">
+        <v>15</v>
+      </c>
+      <c r="H274" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="I274" s="26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -10453,7 +11353,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I247</xm:sqref>
+          <xm:sqref>I3:I274</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10467,18 +11367,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -10486,7 +11386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -10495,7 +11395,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -10504,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -10513,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -10522,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -10531,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -10540,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -10566,25 +11466,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -10610,7 +11510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -10652,117 +11552,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E41EFC-504C-461E-8E13-C38D1B36FFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C4CCB-51A0-4447-A1AD-5CCB646EF364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="556">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1613,8 +1613,125 @@
     <t>1390 E. Lassen Avenue  Chico CA 95973</t>
   </si>
   <si>
+    <t>Exelixis, Inc.</t>
+  </si>
+  <si>
+    <t>1851 Harbor Pay Parkway  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Web To Door Corporation</t>
+  </si>
+  <si>
+    <t>2995 Atlas Road  Richmond CA 94806</t>
+  </si>
+  <si>
+    <t>Children's Hospital Los Angeles</t>
+  </si>
+  <si>
+    <t>4650 Sunset Blvd.  Los Angeles CA 90027</t>
+  </si>
+  <si>
+    <t>Adventist Health White Memorial</t>
+  </si>
+  <si>
+    <t>309 W Beverly Blvd.  Montebello CA 90640</t>
+  </si>
+  <si>
+    <t>35 Baywood Avenue  San Mateo CA 94402</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. - 29</t>
+  </si>
+  <si>
+    <t>29 Baywood Avenue  San Mateo CA 94402</t>
+  </si>
+  <si>
+    <t>225 N McCarthy Blvd  Milpitas CA 95035</t>
+  </si>
+  <si>
+    <t>5800 Coliseum Way  Oakland CA 94601</t>
+  </si>
+  <si>
+    <t>Dandelion Payments, Inc.</t>
+  </si>
+  <si>
+    <t>7000 Village Dr., Ste 200  Buena Park CA 90621-2287</t>
+  </si>
+  <si>
+    <t>Berco Redwood Inc.</t>
+  </si>
+  <si>
+    <t>4560 Auburn Blvd  Sacramento CA 95841</t>
+  </si>
+  <si>
+    <t>GXO Logistics Supply Chain, Inc.</t>
+  </si>
+  <si>
+    <t>26525 Pioneer Avenue, Suite B  Redlands CA 92374</t>
+  </si>
+  <si>
+    <t>Southwest Key Programs, Inc. - Casa Pleasant Hill</t>
+  </si>
+  <si>
+    <t>Southwest Key Programs, Inc. - Casa San Diego</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase</t>
+  </si>
+  <si>
+    <t>One Front Street  San Francisco CA 94111</t>
+  </si>
+  <si>
+    <t>Norman's Nursery</t>
+  </si>
+  <si>
+    <t>6250 Escalon Bellota Road  Linden CA 95236</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. 5440</t>
+  </si>
+  <si>
+    <t>5440 Thornwood Drive, Suite G  San Jose CA 95123</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. - 3131</t>
+  </si>
+  <si>
+    <t>3131 Alum Rock Ave.  San Jose CA 95127</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte,  Inc. - 1694</t>
+  </si>
+  <si>
+    <t>1694 Tully Road, Suite 40  San Jose CA 95122</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Mar Monte, Inc. - 1691</t>
+  </si>
+  <si>
+    <t>Silgan Containers</t>
+  </si>
+  <si>
+    <t>567 S Riverside Drive  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>430 Doherty Ave  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>Vistar Green Rabbit 2237</t>
+  </si>
+  <si>
+    <t>2237 North Plaza Drive  Visalia CA 93291</t>
+  </si>
+  <si>
+    <t>Vistar Green Rabbit</t>
+  </si>
+  <si>
+    <t>345 East Tulare Street  Visalia CA 93277</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 08/27/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/01/2025
 </t>
     </r>
     <r>
@@ -1628,121 +1745,64 @@
     </r>
   </si>
   <si>
-    <t>Exelixis, Inc.</t>
-  </si>
-  <si>
-    <t>1851 Harbor Pay Parkway  Alameda CA 94502</t>
-  </si>
-  <si>
-    <t>Web To Door Corporation</t>
-  </si>
-  <si>
-    <t>2995 Atlas Road  Richmond CA 94806</t>
-  </si>
-  <si>
-    <t>Children's Hospital Los Angeles</t>
-  </si>
-  <si>
-    <t>4650 Sunset Blvd.  Los Angeles CA 90027</t>
-  </si>
-  <si>
-    <t>Adventist Health White Memorial</t>
-  </si>
-  <si>
-    <t>309 W Beverly Blvd.  Montebello CA 90640</t>
-  </si>
-  <si>
-    <t>35 Baywood Avenue  San Mateo CA 94402</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte, Inc. - 29</t>
-  </si>
-  <si>
-    <t>29 Baywood Avenue  San Mateo CA 94402</t>
-  </si>
-  <si>
-    <t>225 N McCarthy Blvd  Milpitas CA 95035</t>
-  </si>
-  <si>
-    <t>5800 Coliseum Way  Oakland CA 94601</t>
-  </si>
-  <si>
-    <t>Dandelion Payments, Inc.</t>
-  </si>
-  <si>
-    <t>7000 Village Dr., Ste 200  Buena Park CA 90621-2287</t>
-  </si>
-  <si>
-    <t>Berco Redwood Inc.</t>
-  </si>
-  <si>
-    <t>4560 Auburn Blvd  Sacramento CA 95841</t>
-  </si>
-  <si>
-    <t>GXO Logistics Supply Chain, Inc.</t>
-  </si>
-  <si>
-    <t>26525 Pioneer Avenue, Suite B  Redlands CA 92374</t>
-  </si>
-  <si>
-    <t>Southwest Key Programs, Inc. - Casa Pleasant Hill</t>
-  </si>
-  <si>
-    <t>Southwest Key Programs, Inc. - Casa San Diego</t>
-  </si>
-  <si>
-    <t>JPMorgan Chase</t>
-  </si>
-  <si>
-    <t>One Front Street  San Francisco CA 94111</t>
-  </si>
-  <si>
-    <t>Norman's Nursery</t>
-  </si>
-  <si>
-    <t>6250 Escalon Bellota Road  Linden CA 95236</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte, Inc. 5440</t>
-  </si>
-  <si>
-    <t>5440 Thornwood Drive, Suite G  San Jose CA 95123</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte, Inc. - 3131</t>
-  </si>
-  <si>
-    <t>3131 Alum Rock Ave.  San Jose CA 95127</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte,  Inc. - 1694</t>
-  </si>
-  <si>
-    <t>1694 Tully Road, Suite 40  San Jose CA 95122</t>
-  </si>
-  <si>
-    <t>Planned Parenthood Mar Monte, Inc. - 1691</t>
-  </si>
-  <si>
-    <t>Silgan Containers</t>
-  </si>
-  <si>
-    <t>567 S Riverside Drive  Modesto CA 95354</t>
-  </si>
-  <si>
-    <t>430 Doherty Ave  Modesto CA 95354</t>
-  </si>
-  <si>
-    <t>Vistar Green Rabbit 2237</t>
-  </si>
-  <si>
-    <t>2237 North Plaza Drive  Visalia CA 93291</t>
-  </si>
-  <si>
-    <t>Vistar Green Rabbit</t>
-  </si>
-  <si>
-    <t>345 East Tulare Street  Visalia CA 93277</t>
+    <t>Foundation for California Community Colleges</t>
+  </si>
+  <si>
+    <t>DexCom, Inc.</t>
+  </si>
+  <si>
+    <t>Downtown Streets, Inc.</t>
+  </si>
+  <si>
+    <t>1102 Q Street, Suite 4800  Sacramento CA 95811</t>
+  </si>
+  <si>
+    <t>6290-6350 Sequence Drive  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>22551 2nd Street, Suite 255  Hayward CA 94541</t>
+  </si>
+  <si>
+    <t>Closure Not known at this time</t>
+  </si>
+  <si>
+    <t>1600 Shattuck Avenue, Suite 205  Berkeley CA 94709</t>
+  </si>
+  <si>
+    <t>140 Central Ave  Salinas CA 93901</t>
+  </si>
+  <si>
+    <t>270 Grant Ave  Palo Alto CA 94306</t>
+  </si>
+  <si>
+    <t>1160 Kern Ave  Sunnyvale CA 94085</t>
+  </si>
+  <si>
+    <t>2111 J Street  Sacramento CA 95816</t>
+  </si>
+  <si>
+    <t>1671 The Alameda, Suite 301  San Jose CA 95126</t>
+  </si>
+  <si>
+    <t>1671 The Alameda, Suite 304  San Jose CA 95126</t>
+  </si>
+  <si>
+    <t>404 Ocean Street  Santa Cruz CA 95060</t>
+  </si>
+  <si>
+    <t>1652 W Texas Street  Fairfield CA 94533</t>
+  </si>
+  <si>
+    <t>1300 H Street  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>412 C Street  Davis CA 95616</t>
+  </si>
+  <si>
+    <t>920 W Capital Ave  West Sacramento CA 95691</t>
+  </si>
+  <si>
+    <t>532 4th Street  San Rafael CA 94901</t>
   </si>
   <si>
     <r>
@@ -1756,7 +1816,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 08/27/2025</t>
+      <t>07/01/25 to 09/01/2025</t>
     </r>
     <r>
       <rPr>
@@ -1776,7 +1836,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I274.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I290.</t>
     </r>
   </si>
 </sst>
@@ -2897,18 +2957,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I274" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:I274" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I290" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3255,37 +3304,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3307,18 +3356,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3326,25 +3375,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>13665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="11">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Permanent")</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3353,24 +3401,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3379,13 +3427,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="11">
-        <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Not Identified")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3399,30 +3446,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I274"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3480,7 +3527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3509,7 +3556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3538,7 +3585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3567,7 +3614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3596,7 +3643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3625,7 +3672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3654,7 +3701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3683,7 +3730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3712,7 +3759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3741,7 +3788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3770,7 +3817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3799,7 +3846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3828,7 +3875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3857,7 +3904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3886,7 +3933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3915,7 +3962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3944,7 +3991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -3973,7 +4020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4002,7 +4049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4031,7 +4078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4060,7 +4107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4089,7 +4136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4118,7 +4165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4147,7 +4194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4176,7 +4223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4205,7 +4252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4234,7 +4281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4263,7 +4310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4292,7 +4339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4321,7 +4368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4350,7 +4397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4379,7 +4426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4408,7 +4455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4437,7 +4484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4466,7 +4513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4495,7 +4542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4524,7 +4571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4553,7 +4600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4611,7 +4658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4640,7 +4687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4669,7 +4716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4698,7 +4745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4727,7 +4774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4756,7 +4803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4785,7 +4832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4814,7 +4861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4843,7 +4890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4872,7 +4919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4901,7 +4948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4930,7 +4977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -4959,7 +5006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -4988,7 +5035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5017,7 +5064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5046,7 +5093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5075,7 +5122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5104,7 +5151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5133,7 +5180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5162,7 +5209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5191,7 +5238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +5267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5249,7 +5296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5278,7 +5325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5307,7 +5354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5336,7 +5383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5365,7 +5412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5394,7 +5441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5423,7 +5470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5481,7 +5528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5510,7 +5557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5539,7 +5586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5568,7 +5615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5597,7 +5644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5626,7 +5673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5655,7 +5702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5684,7 +5731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5713,7 +5760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5742,7 +5789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5771,7 +5818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5800,7 +5847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5858,7 +5905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5887,7 +5934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5916,7 +5963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5945,7 +5992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -5974,7 +6021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6003,7 +6050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6061,7 +6108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6090,7 +6137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6119,7 +6166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6148,7 +6195,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6177,7 +6224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6206,7 +6253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6235,7 +6282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6264,7 +6311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6293,7 +6340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6322,7 +6369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6351,7 +6398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6380,7 +6427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6409,7 +6456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6438,7 +6485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6467,7 +6514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6496,7 +6543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6525,7 +6572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6554,7 +6601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6583,7 +6630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6612,7 +6659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6641,7 +6688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6670,7 +6717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6699,7 +6746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6728,7 +6775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6757,7 +6804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6786,7 +6833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6815,7 +6862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6844,7 +6891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6873,7 +6920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6902,7 +6949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6931,7 +6978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -6960,7 +7007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -6989,7 +7036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7018,7 +7065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7047,7 +7094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7076,7 +7123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7105,7 +7152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7134,7 +7181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7163,7 +7210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7192,7 +7239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7221,7 +7268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7250,7 +7297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7279,7 +7326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7308,7 +7355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7337,7 +7384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7366,7 +7413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7395,7 +7442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7424,7 +7471,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7453,7 +7500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7482,7 +7529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7511,7 +7558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7540,7 +7587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7569,7 +7616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7598,7 +7645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7627,7 +7674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7656,7 +7703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7685,7 +7732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7714,7 +7761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7743,7 +7790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7772,7 +7819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7801,7 +7848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7830,7 +7877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7859,7 +7906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7888,7 +7935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7917,7 +7964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7946,7 +7993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -7975,7 +8022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8004,7 +8051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8033,7 +8080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8062,7 +8109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8091,7 +8138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8120,7 +8167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8149,7 +8196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8178,7 +8225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8207,7 +8254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8236,7 +8283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8265,7 +8312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8294,7 +8341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8323,7 +8370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8352,7 +8399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8381,7 +8428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8410,7 +8457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8439,7 +8486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8468,7 +8515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8497,7 +8544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8555,7 +8602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8584,7 +8631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8613,7 +8660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8642,7 +8689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8671,7 +8718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8700,7 +8747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8729,7 +8776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8758,7 +8805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8787,7 +8834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8816,7 +8863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8845,7 +8892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8874,7 +8921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8903,7 +8950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8932,7 +8979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -8961,7 +9008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -8990,7 +9037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9019,7 +9066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9048,7 +9095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9077,7 +9124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9106,7 +9153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9135,7 +9182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9164,7 +9211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9193,7 +9240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9222,7 +9269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9251,7 +9298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9280,7 +9327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9309,7 +9356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9338,7 +9385,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9367,7 +9414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9396,7 +9443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9425,7 +9472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9454,7 +9501,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9483,7 +9530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9512,7 +9559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9541,7 +9588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9570,7 +9617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9599,7 +9646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9628,7 +9675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9657,7 +9704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9686,7 +9733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9715,7 +9762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9744,7 +9791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9773,7 +9820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9802,7 +9849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9831,7 +9878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -9860,7 +9907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -9889,7 +9936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -9918,7 +9965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -9947,7 +9994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -9976,7 +10023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10005,7 +10052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10034,7 +10081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10063,7 +10110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10092,7 +10139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10121,7 +10168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10150,7 +10197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10179,7 +10226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10208,7 +10255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10237,7 +10284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10266,7 +10313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10295,7 +10342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10324,7 +10371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10353,7 +10400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10382,7 +10429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10411,7 +10458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10440,7 +10487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10469,7 +10516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10498,7 +10545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10527,7 +10574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10556,7 +10603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10570,7 +10617,7 @@
         <v>45957</v>
       </c>
       <c r="E248" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F248" s="32" t="s">
         <v>6</v>
@@ -10579,13 +10626,13 @@
         <v>71</v>
       </c>
       <c r="H248" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I248" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10608,13 +10655,13 @@
         <v>9</v>
       </c>
       <c r="H249" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I249" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10628,7 +10675,7 @@
         <v>45862</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F250" s="32" t="s">
         <v>6</v>
@@ -10637,13 +10684,13 @@
         <v>1</v>
       </c>
       <c r="H250" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I250" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10672,7 +10719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -10701,7 +10748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -10730,7 +10777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -10744,7 +10791,7 @@
         <v>45955</v>
       </c>
       <c r="E254" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F254" s="32" t="s">
         <v>6</v>
@@ -10753,13 +10800,13 @@
         <v>64</v>
       </c>
       <c r="H254" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I254" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -10788,7 +10835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -10802,7 +10849,7 @@
         <v>45961</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F256" s="32" t="s">
         <v>107</v>
@@ -10811,13 +10858,13 @@
         <v>13</v>
       </c>
       <c r="H256" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I256" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -10831,7 +10878,7 @@
         <v>45869</v>
       </c>
       <c r="E257" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F257" s="32" t="s">
         <v>6</v>
@@ -10846,7 +10893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -10860,7 +10907,7 @@
         <v>45869</v>
       </c>
       <c r="E258" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F258" s="32" t="s">
         <v>6</v>
@@ -10875,7 +10922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -10889,7 +10936,7 @@
         <v>45862</v>
       </c>
       <c r="E259" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F259" s="32" t="s">
         <v>6</v>
@@ -10898,13 +10945,13 @@
         <v>12</v>
       </c>
       <c r="H259" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I259" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -10918,7 +10965,7 @@
         <v>45862</v>
       </c>
       <c r="E260" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F260" s="32" t="s">
         <v>6</v>
@@ -10927,13 +10974,13 @@
         <v>1</v>
       </c>
       <c r="H260" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I260" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -10947,7 +10994,7 @@
         <v>45862</v>
       </c>
       <c r="E261" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F261" s="32" t="s">
         <v>6</v>
@@ -10956,13 +11003,13 @@
         <v>1</v>
       </c>
       <c r="H261" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I261" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -10976,7 +11023,7 @@
         <v>45862</v>
       </c>
       <c r="E262" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F262" s="32" t="s">
         <v>6</v>
@@ -10991,7 +11038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11005,7 +11052,7 @@
         <v>45957</v>
       </c>
       <c r="E263" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F263" s="32" t="s">
         <v>6</v>
@@ -11014,13 +11061,13 @@
         <v>67</v>
       </c>
       <c r="H263" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I263" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11034,7 +11081,7 @@
         <v>45958</v>
       </c>
       <c r="E264" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F264" s="32" t="s">
         <v>6</v>
@@ -11043,13 +11090,13 @@
         <v>439</v>
       </c>
       <c r="H264" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I264" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11063,7 +11110,7 @@
         <v>45877</v>
       </c>
       <c r="E265" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F265" s="32" t="s">
         <v>6</v>
@@ -11072,13 +11119,13 @@
         <v>28</v>
       </c>
       <c r="H265" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I265" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11092,7 +11139,7 @@
         <v>45957</v>
       </c>
       <c r="E266" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F266" s="32" t="s">
         <v>6</v>
@@ -11101,13 +11148,13 @@
         <v>63</v>
       </c>
       <c r="H266" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I266" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11121,7 +11168,7 @@
         <v>45957</v>
       </c>
       <c r="E267" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F267" s="32" t="s">
         <v>6</v>
@@ -11130,13 +11177,13 @@
         <v>62</v>
       </c>
       <c r="H267" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I267" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11150,7 +11197,7 @@
         <v>45956</v>
       </c>
       <c r="E268" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F268" s="32" t="s">
         <v>54</v>
@@ -11159,13 +11206,13 @@
         <v>32</v>
       </c>
       <c r="H268" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I268" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11179,7 +11226,7 @@
         <v>45896</v>
       </c>
       <c r="E269" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F269" s="32" t="s">
         <v>6</v>
@@ -11188,13 +11235,13 @@
         <v>99</v>
       </c>
       <c r="H269" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I269" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11208,7 +11255,7 @@
         <v>45964</v>
       </c>
       <c r="E270" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F270" s="32" t="s">
         <v>6</v>
@@ -11217,13 +11264,13 @@
         <v>71</v>
       </c>
       <c r="H270" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I270" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11237,7 +11284,7 @@
         <v>45943</v>
       </c>
       <c r="E271" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F271" s="32" t="s">
         <v>280</v>
@@ -11246,13 +11293,13 @@
         <v>78</v>
       </c>
       <c r="H271" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I271" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11266,7 +11313,7 @@
         <v>45949</v>
       </c>
       <c r="E272" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F272" s="32" t="s">
         <v>280</v>
@@ -11275,13 +11322,13 @@
         <v>72</v>
       </c>
       <c r="H272" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I272" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11295,7 +11342,7 @@
         <v>45961</v>
       </c>
       <c r="E273" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F273" s="32" t="s">
         <v>54</v>
@@ -11304,13 +11351,13 @@
         <v>92</v>
       </c>
       <c r="H273" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I273" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11324,7 +11371,7 @@
         <v>45961</v>
       </c>
       <c r="E274" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F274" s="32" t="s">
         <v>54</v>
@@ -11333,10 +11380,474 @@
         <v>15</v>
       </c>
       <c r="H274" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I274" s="26" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B275" s="33">
+        <v>45897</v>
+      </c>
+      <c r="C275" s="33">
+        <v>45897</v>
+      </c>
+      <c r="D275" s="33">
+        <v>45951</v>
+      </c>
+      <c r="E275" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="F275" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G275" s="34">
+        <v>174</v>
+      </c>
+      <c r="H275" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="I275" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B276" s="33">
+        <v>45896</v>
+      </c>
+      <c r="C276" s="33">
+        <v>45897</v>
+      </c>
+      <c r="D276" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E276" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="F276" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G276" s="34">
+        <v>319</v>
+      </c>
+      <c r="H276" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="I276" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C277" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D277" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E277" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F277" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G277" s="34">
+        <v>5</v>
+      </c>
+      <c r="H277" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="I277" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A278" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C278" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D278" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E278" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F278" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G278" s="34">
+        <v>4</v>
+      </c>
+      <c r="H278" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="I278" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B279" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C279" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D279" s="33">
+        <v>45898</v>
+      </c>
+      <c r="E279" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F279" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G279" s="34">
+        <v>4</v>
+      </c>
+      <c r="H279" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="I279" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B280" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C280" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D280" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E280" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F280" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G280" s="34">
+        <v>3</v>
+      </c>
+      <c r="H280" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="I280" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B281" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C281" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D281" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E281" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F281" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G281" s="34">
+        <v>3</v>
+      </c>
+      <c r="H281" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="I281" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B282" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C282" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D282" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E282" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F282" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G282" s="34">
+        <v>3</v>
+      </c>
+      <c r="H282" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="I282" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B283" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C283" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D283" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E283" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F283" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G283" s="34">
+        <v>25</v>
+      </c>
+      <c r="H283" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="I283" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B284" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C284" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D284" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E284" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F284" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G284" s="34">
+        <v>9</v>
+      </c>
+      <c r="H284" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="I284" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B285" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C285" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D285" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E285" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F285" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G285" s="34">
+        <v>9</v>
+      </c>
+      <c r="H285" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="I285" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B286" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C286" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D286" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E286" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F286" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G286" s="34">
+        <v>2</v>
+      </c>
+      <c r="H286" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="I286" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B287" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C287" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D287" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E287" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F287" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G287" s="34">
+        <v>17</v>
+      </c>
+      <c r="H287" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B288" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C288" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D288" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E288" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F288" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G288" s="34">
+        <v>3</v>
+      </c>
+      <c r="H288" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="I288" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B289" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C289" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D289" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E289" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F289" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G289" s="34">
+        <v>8</v>
+      </c>
+      <c r="H289" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="I289" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B290" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C290" s="33">
+        <v>45898</v>
+      </c>
+      <c r="D290" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E290" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="F290" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="G290" s="34">
+        <v>16</v>
+      </c>
+      <c r="H290" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="I290" s="26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11353,7 +11864,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I274</xm:sqref>
+          <xm:sqref>I3:I290</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11367,18 +11878,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -11386,7 +11897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -11395,7 +11906,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -11404,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -11413,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -11422,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -11431,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -11440,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -11466,25 +11977,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -11510,7 +12021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -11552,117 +12063,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C4CCB-51A0-4447-A1AD-5CCB646EF364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2B2D24CB-2DA1-4047-B5AE-ABBEFF491515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="567">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1730,8 +1730,68 @@
     <t>345 East Tulare Street  Visalia CA 93277</t>
   </si>
   <si>
+    <t>Foundation for California Community Colleges</t>
+  </si>
+  <si>
+    <t>DexCom, Inc.</t>
+  </si>
+  <si>
+    <t>Downtown Streets, Inc.</t>
+  </si>
+  <si>
+    <t>1102 Q Street, Suite 4800  Sacramento CA 95811</t>
+  </si>
+  <si>
+    <t>6290-6350 Sequence Drive  San Diego CA 92121</t>
+  </si>
+  <si>
+    <t>22551 2nd Street, Suite 255  Hayward CA 94541</t>
+  </si>
+  <si>
+    <t>Closure Not known at this time</t>
+  </si>
+  <si>
+    <t>1600 Shattuck Avenue, Suite 205  Berkeley CA 94709</t>
+  </si>
+  <si>
+    <t>140 Central Ave  Salinas CA 93901</t>
+  </si>
+  <si>
+    <t>270 Grant Ave  Palo Alto CA 94306</t>
+  </si>
+  <si>
+    <t>1160 Kern Ave  Sunnyvale CA 94085</t>
+  </si>
+  <si>
+    <t>2111 J Street  Sacramento CA 95816</t>
+  </si>
+  <si>
+    <t>1671 The Alameda, Suite 301  San Jose CA 95126</t>
+  </si>
+  <si>
+    <t>1671 The Alameda, Suite 304  San Jose CA 95126</t>
+  </si>
+  <si>
+    <t>404 Ocean Street  Santa Cruz CA 95060</t>
+  </si>
+  <si>
+    <t>1652 W Texas Street  Fairfield CA 94533</t>
+  </si>
+  <si>
+    <t>1300 H Street  Modesto CA 95354</t>
+  </si>
+  <si>
+    <t>412 C Street  Davis CA 95616</t>
+  </si>
+  <si>
+    <t>920 W Capital Ave  West Sacramento CA 95691</t>
+  </si>
+  <si>
+    <t>532 4th Street  San Rafael CA 94901</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/01/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/03/2025
 </t>
     </r>
     <r>
@@ -1745,64 +1805,37 @@
     </r>
   </si>
   <si>
-    <t>Foundation for California Community Colleges</t>
-  </si>
-  <si>
-    <t>DexCom, Inc.</t>
-  </si>
-  <si>
-    <t>Downtown Streets, Inc.</t>
-  </si>
-  <si>
-    <t>1102 Q Street, Suite 4800  Sacramento CA 95811</t>
-  </si>
-  <si>
-    <t>6290-6350 Sequence Drive  San Diego CA 92121</t>
-  </si>
-  <si>
-    <t>22551 2nd Street, Suite 255  Hayward CA 94541</t>
-  </si>
-  <si>
-    <t>Closure Not known at this time</t>
-  </si>
-  <si>
-    <t>1600 Shattuck Avenue, Suite 205  Berkeley CA 94709</t>
-  </si>
-  <si>
-    <t>140 Central Ave  Salinas CA 93901</t>
-  </si>
-  <si>
-    <t>270 Grant Ave  Palo Alto CA 94306</t>
-  </si>
-  <si>
-    <t>1160 Kern Ave  Sunnyvale CA 94085</t>
-  </si>
-  <si>
-    <t>2111 J Street  Sacramento CA 95816</t>
-  </si>
-  <si>
-    <t>1671 The Alameda, Suite 301  San Jose CA 95126</t>
-  </si>
-  <si>
-    <t>1671 The Alameda, Suite 304  San Jose CA 95126</t>
-  </si>
-  <si>
-    <t>404 Ocean Street  Santa Cruz CA 95060</t>
-  </si>
-  <si>
-    <t>1652 W Texas Street  Fairfield CA 94533</t>
-  </si>
-  <si>
-    <t>1300 H Street  Modesto CA 95354</t>
-  </si>
-  <si>
-    <t>412 C Street  Davis CA 95616</t>
-  </si>
-  <si>
-    <t>920 W Capital Ave  West Sacramento CA 95691</t>
-  </si>
-  <si>
-    <t>532 4th Street  San Rafael CA 94901</t>
+    <t>1851 Harbor Bay Parkway  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Juni Learning, Inc.</t>
+  </si>
+  <si>
+    <t>2261 Market Street, #4242  San Francisco CA 94114</t>
+  </si>
+  <si>
+    <t>Salesforce, Inc.</t>
+  </si>
+  <si>
+    <t>415 Mission Street  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>Fellers LLC</t>
+  </si>
+  <si>
+    <t>4933 West Jennifer Avenue, #102  Fresno CA 93722</t>
+  </si>
+  <si>
+    <t>G2 Secure Staff</t>
+  </si>
+  <si>
+    <t>400 World Way  Los Angeles CA 90045</t>
+  </si>
+  <si>
+    <t>Sandpiper</t>
+  </si>
+  <si>
+    <t>2259 Avenida De La Playa  La Jolla CA 92037</t>
   </si>
   <si>
     <r>
@@ -1816,7 +1849,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/01/2025</t>
+      <t>07/01/25 to 09/03/2025</t>
     </r>
     <r>
       <rPr>
@@ -1836,7 +1869,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I290.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I299.</t>
     </r>
   </si>
 </sst>
@@ -2957,7 +2990,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I290" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I299" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3304,37 +3337,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3356,18 +3389,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3375,16 +3408,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>14269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3425,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3401,7 +3434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3409,16 +3442,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3427,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3446,30 +3479,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3527,7 +3560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3556,7 +3589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3614,7 +3647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3643,7 +3676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3672,7 +3705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3701,7 +3734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3730,7 +3763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3759,7 +3792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3788,7 +3821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3817,7 +3850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3846,7 +3879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3875,7 +3908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3904,7 +3937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3933,7 +3966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3962,7 +3995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -3991,7 +4024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4020,7 +4053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4049,7 +4082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4078,7 +4111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4107,7 +4140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4136,7 +4169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4165,7 +4198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4223,7 +4256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4252,7 +4285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4281,7 +4314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4310,7 +4343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4339,7 +4372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4368,7 +4401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4397,7 +4430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4426,7 +4459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4455,7 +4488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4484,7 +4517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4513,7 +4546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4542,7 +4575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4571,7 +4604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4600,7 +4633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4629,7 +4662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4658,7 +4691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4687,7 +4720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4716,7 +4749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4745,7 +4778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4774,7 +4807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4803,7 +4836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4832,7 +4865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4861,7 +4894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4890,7 +4923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4919,7 +4952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4948,7 +4981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -4977,7 +5010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5006,7 +5039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5035,7 +5068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5064,7 +5097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5093,7 +5126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5122,7 +5155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5151,7 +5184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5180,7 +5213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5209,7 +5242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5238,7 +5271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5267,7 +5300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5296,7 +5329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5325,7 +5358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5354,7 +5387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5383,7 +5416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5412,7 +5445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5441,7 +5474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5470,7 +5503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5499,7 +5532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5528,7 +5561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5557,7 +5590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5586,7 +5619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5615,7 +5648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5644,7 +5677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5673,7 +5706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5702,7 +5735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5731,7 +5764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5760,7 +5793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5789,7 +5822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5818,7 +5851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5847,7 +5880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5876,7 +5909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5905,7 +5938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5934,7 +5967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5963,7 +5996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -5992,7 +6025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6021,7 +6054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6050,7 +6083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6079,7 +6112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6108,7 +6141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6137,7 +6170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6166,7 +6199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6195,7 +6228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6224,7 +6257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6253,7 +6286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6282,7 +6315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6311,7 +6344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6340,7 +6373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6369,7 +6402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6398,7 +6431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6427,7 +6460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6456,7 +6489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6485,7 +6518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6514,7 +6547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6601,7 +6634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6630,7 +6663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6659,7 +6692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6688,7 +6721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6717,7 +6750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6746,7 +6779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6775,7 +6808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6804,7 +6837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6833,7 +6866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6862,7 +6895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6891,7 +6924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6920,7 +6953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6949,7 +6982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -6978,7 +7011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7007,7 +7040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7036,7 +7069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7065,7 +7098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7094,7 +7127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7123,7 +7156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7152,7 +7185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7181,7 +7214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7210,7 +7243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7239,7 +7272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7297,7 +7330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7326,7 +7359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7355,7 +7388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7384,7 +7417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7413,7 +7446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7442,7 +7475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7471,7 +7504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7500,7 +7533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7529,7 +7562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7558,7 +7591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7587,7 +7620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7616,7 +7649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7645,7 +7678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7674,7 +7707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7703,7 +7736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7732,7 +7765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7761,7 +7794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7790,7 +7823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7819,7 +7852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7848,7 +7881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7877,7 +7910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7906,7 +7939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7935,7 +7968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7964,7 +7997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -7993,7 +8026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8022,7 +8055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8051,7 +8084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8080,7 +8113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8109,7 +8142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8138,7 +8171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8167,7 +8200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8196,7 +8229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8225,7 +8258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8254,7 +8287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8283,7 +8316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8312,7 +8345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8341,7 +8374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8370,7 +8403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8399,7 +8432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8428,7 +8461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8457,7 +8490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8486,7 +8519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8515,7 +8548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8544,7 +8577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8573,7 +8606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8602,7 +8635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8631,7 +8664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8660,7 +8693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8689,7 +8722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8718,7 +8751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8747,7 +8780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8776,7 +8809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8805,7 +8838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8834,7 +8867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8863,7 +8896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8892,7 +8925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8921,7 +8954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8950,7 +8983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -8979,7 +9012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9008,7 +9041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9037,7 +9070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9066,7 +9099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9095,7 +9128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9124,7 +9157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9153,7 +9186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9182,7 +9215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9211,7 +9244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9240,7 +9273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9269,7 +9302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9298,7 +9331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9327,7 +9360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9356,7 +9389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9385,7 +9418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9414,7 +9447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9476,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9472,7 +9505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9501,7 +9534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9530,7 +9563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9559,7 +9592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9588,7 +9621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9617,7 +9650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9646,7 +9679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9675,7 +9708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9704,7 +9737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9733,7 +9766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9762,7 +9795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9791,7 +9824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9820,7 +9853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9849,7 +9882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9878,7 +9911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -9907,7 +9940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -9936,7 +9969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -9965,7 +9998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -9994,7 +10027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10023,7 +10056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10052,7 +10085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10081,7 +10114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10110,7 +10143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10139,7 +10172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10168,7 +10201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10197,7 +10230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10226,7 +10259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10255,7 +10288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10284,7 +10317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10313,7 +10346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10342,7 +10375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10371,7 +10404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10400,7 +10433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10429,7 +10462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10458,7 +10491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10487,7 +10520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10516,7 +10549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10545,7 +10578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10574,7 +10607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10603,7 +10636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10632,7 +10665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10661,7 +10694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10690,7 +10723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10719,7 +10752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -10748,7 +10781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -10777,7 +10810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -10806,7 +10839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -10835,7 +10868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -10864,7 +10897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -10893,7 +10926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -10922,7 +10955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -10951,7 +10984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -10980,7 +11013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11009,7 +11042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11038,7 +11071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11067,7 +11100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11096,7 +11129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11125,7 +11158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11154,7 +11187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11183,7 +11216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11212,7 +11245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11241,7 +11274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11270,7 +11303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11299,7 +11332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11328,7 +11361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11357,7 +11390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11386,7 +11419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11400,7 +11433,7 @@
         <v>45951</v>
       </c>
       <c r="E275" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F275" s="32" t="s">
         <v>6</v>
@@ -11409,13 +11442,13 @@
         <v>174</v>
       </c>
       <c r="H275" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I275" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11429,7 +11462,7 @@
         <v>45964</v>
       </c>
       <c r="E276" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F276" s="32" t="s">
         <v>6</v>
@@ -11438,13 +11471,13 @@
         <v>319</v>
       </c>
       <c r="H276" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I276" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11458,7 +11491,7 @@
         <v>45961</v>
       </c>
       <c r="E277" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F277" s="32" t="s">
         <v>54</v>
@@ -11467,13 +11500,13 @@
         <v>5</v>
       </c>
       <c r="H277" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I277" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11487,22 +11520,22 @@
         <v>45961</v>
       </c>
       <c r="E278" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F278" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G278" s="34">
         <v>4</v>
       </c>
       <c r="H278" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I278" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11516,7 +11549,7 @@
         <v>45898</v>
       </c>
       <c r="E279" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F279" s="32" t="s">
         <v>54</v>
@@ -11525,13 +11558,13 @@
         <v>4</v>
       </c>
       <c r="H279" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I279" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11545,7 +11578,7 @@
         <v>45961</v>
       </c>
       <c r="E280" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F280" s="32" t="s">
         <v>54</v>
@@ -11554,13 +11587,13 @@
         <v>3</v>
       </c>
       <c r="H280" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I280" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11574,7 +11607,7 @@
         <v>45961</v>
       </c>
       <c r="E281" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F281" s="32" t="s">
         <v>54</v>
@@ -11583,13 +11616,13 @@
         <v>3</v>
       </c>
       <c r="H281" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I281" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11603,22 +11636,22 @@
         <v>45961</v>
       </c>
       <c r="E282" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F282" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G282" s="34">
         <v>3</v>
       </c>
       <c r="H282" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I282" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11632,22 +11665,22 @@
         <v>45961</v>
       </c>
       <c r="E283" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F283" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G283" s="34">
         <v>25</v>
       </c>
       <c r="H283" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I283" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11661,22 +11694,22 @@
         <v>45961</v>
       </c>
       <c r="E284" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F284" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G284" s="34">
         <v>9</v>
       </c>
       <c r="H284" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I284" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11690,22 +11723,22 @@
         <v>45961</v>
       </c>
       <c r="E285" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F285" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G285" s="34">
         <v>9</v>
       </c>
       <c r="H285" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I285" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -11719,7 +11752,7 @@
         <v>45961</v>
       </c>
       <c r="E286" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F286" s="32" t="s">
         <v>54</v>
@@ -11728,13 +11761,13 @@
         <v>2</v>
       </c>
       <c r="H286" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I286" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -11748,7 +11781,7 @@
         <v>45961</v>
       </c>
       <c r="E287" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F287" s="32" t="s">
         <v>54</v>
@@ -11757,13 +11790,13 @@
         <v>17</v>
       </c>
       <c r="H287" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I287" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -11777,7 +11810,7 @@
         <v>45961</v>
       </c>
       <c r="E288" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F288" s="32" t="s">
         <v>54</v>
@@ -11786,13 +11819,13 @@
         <v>3</v>
       </c>
       <c r="H288" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I288" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -11806,7 +11839,7 @@
         <v>45961</v>
       </c>
       <c r="E289" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F289" s="32" t="s">
         <v>54</v>
@@ -11815,13 +11848,13 @@
         <v>8</v>
       </c>
       <c r="H289" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I289" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -11835,19 +11868,280 @@
         <v>45961</v>
       </c>
       <c r="E290" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F290" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G290" s="34">
         <v>16</v>
       </c>
       <c r="H290" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I290" s="26" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A291" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B291" s="33">
+        <v>45898</v>
+      </c>
+      <c r="C291" s="33">
+        <v>45902</v>
+      </c>
+      <c r="D291" s="33">
+        <v>45898</v>
+      </c>
+      <c r="E291" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F291" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G291" s="34">
+        <v>74</v>
+      </c>
+      <c r="H291" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="I291" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A292" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B292" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C292" s="33">
+        <v>45902</v>
+      </c>
+      <c r="D292" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E292" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F292" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G292" s="34">
+        <v>36</v>
+      </c>
+      <c r="H292" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I292" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A293" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B293" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C293" s="33">
+        <v>45902</v>
+      </c>
+      <c r="D293" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E293" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F293" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G293" s="34">
+        <v>187</v>
+      </c>
+      <c r="H293" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="I293" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A294" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B294" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C294" s="33">
+        <v>45902</v>
+      </c>
+      <c r="D294" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E294" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F294" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G294" s="34">
+        <v>31</v>
+      </c>
+      <c r="H294" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="I294" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A295" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B295" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C295" s="33">
+        <v>45902</v>
+      </c>
+      <c r="D295" s="33">
+        <v>45962</v>
+      </c>
+      <c r="E295" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="F295" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G295" s="34">
+        <v>121</v>
+      </c>
+      <c r="H295" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="I295" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A296" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B296" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C296" s="33">
+        <v>45902</v>
+      </c>
+      <c r="D296" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E296" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F296" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G296" s="34">
+        <v>262</v>
+      </c>
+      <c r="H296" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="I296" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A297" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B297" s="33">
+        <v>45896</v>
+      </c>
+      <c r="C297" s="33">
+        <v>45903</v>
+      </c>
+      <c r="D297" s="33">
+        <v>45954</v>
+      </c>
+      <c r="E297" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="F297" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G297" s="34">
+        <v>2</v>
+      </c>
+      <c r="H297" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="I297" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A298" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C298" s="33">
+        <v>45903</v>
+      </c>
+      <c r="D298" s="33">
+        <v>45962</v>
+      </c>
+      <c r="E298" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="F298" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G298" s="34">
+        <v>103</v>
+      </c>
+      <c r="H298" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="I298" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A299" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B299" s="33">
+        <v>45903</v>
+      </c>
+      <c r="C299" s="33">
+        <v>45903</v>
+      </c>
+      <c r="D299" s="33">
+        <v>45965</v>
+      </c>
+      <c r="E299" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="F299" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G299" s="34">
+        <v>25</v>
+      </c>
+      <c r="H299" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="I299" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -11864,7 +12158,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I290</xm:sqref>
+          <xm:sqref>I3:I299</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11878,18 +12172,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -11897,7 +12191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -11906,7 +12200,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -11915,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -11924,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -11933,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -11942,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -11951,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -11977,25 +12271,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -12021,7 +12315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -12063,117 +12357,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2B2D24CB-2DA1-4047-B5AE-ABBEFF491515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5784B0-627F-4EDB-9E6F-2F38FCF4F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="586">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1790,8 +1790,41 @@
     <t>532 4th Street  San Rafael CA 94901</t>
   </si>
   <si>
+    <t>1851 Harbor Bay Parkway  Alameda CA 94502</t>
+  </si>
+  <si>
+    <t>Juni Learning, Inc.</t>
+  </si>
+  <si>
+    <t>2261 Market Street, #4242  San Francisco CA 94114</t>
+  </si>
+  <si>
+    <t>Salesforce, Inc.</t>
+  </si>
+  <si>
+    <t>415 Mission Street  San Francisco CA 94105</t>
+  </si>
+  <si>
+    <t>Fellers LLC</t>
+  </si>
+  <si>
+    <t>4933 West Jennifer Avenue, #102  Fresno CA 93722</t>
+  </si>
+  <si>
+    <t>G2 Secure Staff</t>
+  </si>
+  <si>
+    <t>400 World Way  Los Angeles CA 90045</t>
+  </si>
+  <si>
+    <t>Sandpiper</t>
+  </si>
+  <si>
+    <t>2259 Avenida De La Playa  La Jolla CA 92037</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/03/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/08/2025
 </t>
     </r>
     <r>
@@ -1805,37 +1838,61 @@
     </r>
   </si>
   <si>
-    <t>1851 Harbor Bay Parkway  Alameda CA 94502</t>
-  </si>
-  <si>
-    <t>Juni Learning, Inc.</t>
-  </si>
-  <si>
-    <t>2261 Market Street, #4242  San Francisco CA 94114</t>
-  </si>
-  <si>
-    <t>Salesforce, Inc.</t>
-  </si>
-  <si>
-    <t>415 Mission Street  San Francisco CA 94105</t>
-  </si>
-  <si>
-    <t>Fellers LLC</t>
-  </si>
-  <si>
-    <t>4933 West Jennifer Avenue, #102  Fresno CA 93722</t>
-  </si>
-  <si>
-    <t>G2 Secure Staff</t>
-  </si>
-  <si>
-    <t>400 World Way  Los Angeles CA 90045</t>
-  </si>
-  <si>
-    <t>Sandpiper</t>
-  </si>
-  <si>
-    <t>2259 Avenida De La Playa  La Jolla CA 92037</t>
+    <t>Six Flags Entertainment Corporation</t>
+  </si>
+  <si>
+    <t>4701 Great America Parkway  Santa Clara CA 95054</t>
+  </si>
+  <si>
+    <t>Essendant</t>
+  </si>
+  <si>
+    <t>4555 Redlands Ave  Perris CA 92571</t>
+  </si>
+  <si>
+    <t>The Brigantine, Inc.</t>
+  </si>
+  <si>
+    <t>10514 Craftsman Way  San Diego CA 92127</t>
+  </si>
+  <si>
+    <t>Adventist Health Lodi Memorial</t>
+  </si>
+  <si>
+    <t>975 S Fairmont Ave  Lodi CA 95240</t>
+  </si>
+  <si>
+    <t>NeueHouse, Inc. (6121)</t>
+  </si>
+  <si>
+    <t>6121 Sunset Boulevard  Los Angeles CA 90028</t>
+  </si>
+  <si>
+    <t>NeueHouse, Inc. (73)</t>
+  </si>
+  <si>
+    <t>73 Market Street  Venice Beach CA 90291</t>
+  </si>
+  <si>
+    <t>NeueHouse, Inc. (304)</t>
+  </si>
+  <si>
+    <t>304 S. Broadway  Los Angeles CA 90013</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>2000 E El Segundo Blvd.  El Segundo CA 90245</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>3112 Santa Rita Rd.  Pleasanton CA 94566</t>
+  </si>
+  <si>
+    <t>859 W Florida Ave,  Hemet CA 92543</t>
   </si>
   <si>
     <r>
@@ -1849,7 +1906,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/03/2025</t>
+      <t>07/01/25 to 09/08/2025</t>
     </r>
     <r>
       <rPr>
@@ -1869,7 +1926,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I299.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I309.</t>
     </r>
   </si>
 </sst>
@@ -2990,7 +3047,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I299" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I309" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3337,37 +3394,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3389,18 +3446,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3408,16 +3465,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>15110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3482,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3434,7 +3491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3442,16 +3499,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3460,7 +3517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3479,30 +3536,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="78.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3560,7 +3617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3589,7 +3646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3618,7 +3675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3647,7 +3704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3676,7 +3733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3705,7 +3762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3734,7 +3791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3763,7 +3820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3792,7 +3849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3821,7 +3878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3850,7 +3907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3879,7 +3936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3908,7 +3965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3937,7 +3994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -3966,7 +4023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -3995,7 +4052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4024,7 +4081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4053,7 +4110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4082,7 +4139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4111,7 +4168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4140,7 +4197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4169,7 +4226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4227,7 +4284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4285,7 +4342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4314,7 +4371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4343,7 +4400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4372,7 +4429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +4458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4430,7 +4487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4459,7 +4516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4488,7 +4545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4517,7 +4574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4546,7 +4603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4575,7 +4632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4604,7 +4661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4633,7 +4690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4662,7 +4719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4691,7 +4748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4720,7 +4777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4749,7 +4806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4778,7 +4835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4807,7 +4864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4836,7 +4893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4865,7 +4922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4894,7 +4951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4923,7 +4980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -4952,7 +5009,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -4981,7 +5038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5010,7 +5067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5039,7 +5096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5068,7 +5125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5097,7 +5154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5126,7 +5183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5155,7 +5212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5184,7 +5241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5213,7 +5270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5242,7 +5299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5271,7 +5328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5300,7 +5357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5329,7 +5386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5358,7 +5415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5387,7 +5444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5416,7 +5473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5445,7 +5502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5474,7 +5531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5503,7 +5560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5532,7 +5589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5561,7 +5618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5590,7 +5647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5619,7 +5676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5648,7 +5705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5677,7 +5734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5706,7 +5763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5735,7 +5792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5764,7 +5821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5793,7 +5850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5822,7 +5879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5851,7 +5908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5880,7 +5937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5909,7 +5966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5938,7 +5995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -5967,7 +6024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -5996,7 +6053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6025,7 +6082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6054,7 +6111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6083,7 +6140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6112,7 +6169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6141,7 +6198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6170,7 +6227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6199,7 +6256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6228,7 +6285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6257,7 +6314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6286,7 +6343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6315,7 +6372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6344,7 +6401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6373,7 +6430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6402,7 +6459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6431,7 +6488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6460,7 +6517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6489,7 +6546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6518,7 +6575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6547,7 +6604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6576,7 +6633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6634,7 +6691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6663,7 +6720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6692,7 +6749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6721,7 +6778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6750,7 +6807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6779,7 +6836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6808,7 +6865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6837,7 +6894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6866,7 +6923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6895,7 +6952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6924,7 +6981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -6953,7 +7010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -6982,7 +7039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7011,7 +7068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7040,7 +7097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7069,7 +7126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7098,7 +7155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7127,7 +7184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7156,7 +7213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7185,7 +7242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7214,7 +7271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7243,7 +7300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7272,7 +7329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7301,7 +7358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7330,7 +7387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7359,7 +7416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7388,7 +7445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7417,7 +7474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7446,7 +7503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7475,7 +7532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7504,7 +7561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7533,7 +7590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7562,7 +7619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7591,7 +7648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7620,7 +7677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7649,7 +7706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7678,7 +7735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +7764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7736,7 +7793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7765,7 +7822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7794,7 +7851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7823,7 +7880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7852,7 +7909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7881,7 +7938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7910,7 +7967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7939,7 +7996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -7968,7 +8025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -7997,7 +8054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8026,7 +8083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8055,7 +8112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8084,7 +8141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8113,7 +8170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8142,7 +8199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8171,7 +8228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8200,7 +8257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8229,7 +8286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8258,7 +8315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8287,7 +8344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8316,7 +8373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8345,7 +8402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8374,7 +8431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8403,7 +8460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8432,7 +8489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8461,7 +8518,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8490,7 +8547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8519,7 +8576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8548,7 +8605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8577,7 +8634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8606,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8635,7 +8692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8664,7 +8721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8693,7 +8750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8722,7 +8779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8751,7 +8808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8780,7 +8837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8809,7 +8866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8838,7 +8895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8867,7 +8924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8896,7 +8953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8925,7 +8982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -8954,7 +9011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -8983,7 +9040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9012,7 +9069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9041,7 +9098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9070,7 +9127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9099,7 +9156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9128,7 +9185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9157,7 +9214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9186,7 +9243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9215,7 +9272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9244,7 +9301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9273,7 +9330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9302,7 +9359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9331,7 +9388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9360,7 +9417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9389,7 +9446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9418,7 +9475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9447,7 +9504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9476,7 +9533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9505,7 +9562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9534,7 +9591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9563,7 +9620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9592,7 +9649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9621,7 +9678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9650,7 +9707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9679,7 +9736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9708,7 +9765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9737,7 +9794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9766,7 +9823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9795,7 +9852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9824,7 +9881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9853,7 +9910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9882,7 +9939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9911,7 +9968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -9940,7 +9997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -9969,7 +10026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -9998,7 +10055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10027,7 +10084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10056,7 +10113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10085,7 +10142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10114,7 +10171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10143,7 +10200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10172,7 +10229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10201,7 +10258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10230,7 +10287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10259,7 +10316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10288,7 +10345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10317,7 +10374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10346,7 +10403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10375,7 +10432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10404,7 +10461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10433,7 +10490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10462,7 +10519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10491,7 +10548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10520,7 +10577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10549,7 +10606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10578,7 +10635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10607,7 +10664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10636,7 +10693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10665,7 +10722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10694,7 +10751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10723,7 +10780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10752,7 +10809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -10781,7 +10838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -10810,7 +10867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -10839,7 +10896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -10868,7 +10925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -10897,7 +10954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -10926,7 +10983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -10955,7 +11012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -10984,7 +11041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11013,7 +11070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11042,7 +11099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11071,7 +11128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11100,7 +11157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11129,7 +11186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11158,7 +11215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11187,7 +11244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11216,7 +11273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11245,7 +11302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11274,7 +11331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11303,7 +11360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11332,7 +11389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11361,7 +11418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11390,7 +11447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11419,7 +11476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11448,7 +11505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11477,7 +11534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11506,7 +11563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11535,7 +11592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11564,7 +11621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11593,7 +11650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11622,7 +11679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11651,7 +11708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11680,7 +11737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11709,7 +11766,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11738,7 +11795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -11767,7 +11824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -11796,7 +11853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -11825,7 +11882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -11854,7 +11911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -11883,7 +11940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -11906,13 +11963,13 @@
         <v>74</v>
       </c>
       <c r="H291" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I291" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -11941,7 +11998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -11970,7 +12027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -11999,7 +12056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12013,7 +12070,7 @@
         <v>45962</v>
       </c>
       <c r="E295" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F295" s="32" t="s">
         <v>54</v>
@@ -12022,13 +12079,13 @@
         <v>121</v>
       </c>
       <c r="H295" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I295" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12042,7 +12099,7 @@
         <v>45964</v>
       </c>
       <c r="E296" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F296" s="32" t="s">
         <v>6</v>
@@ -12051,13 +12108,13 @@
         <v>262</v>
       </c>
       <c r="H296" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I296" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12071,7 +12128,7 @@
         <v>45954</v>
       </c>
       <c r="E297" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F297" s="32" t="s">
         <v>54</v>
@@ -12080,13 +12137,13 @@
         <v>2</v>
       </c>
       <c r="H297" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I297" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12100,7 +12157,7 @@
         <v>45962</v>
       </c>
       <c r="E298" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F298" s="32" t="s">
         <v>6</v>
@@ -12109,13 +12166,13 @@
         <v>103</v>
       </c>
       <c r="H298" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I298" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12129,7 +12186,7 @@
         <v>45965</v>
       </c>
       <c r="E299" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F299" s="32" t="s">
         <v>54</v>
@@ -12138,10 +12195,300 @@
         <v>25</v>
       </c>
       <c r="H299" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I299" s="26" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B300" s="33">
+        <v>45903</v>
+      </c>
+      <c r="C300" s="33">
+        <v>45904</v>
+      </c>
+      <c r="D300" s="33">
+        <v>45963</v>
+      </c>
+      <c r="E300" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="F300" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G300" s="34">
+        <v>184</v>
+      </c>
+      <c r="H300" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="I300" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B301" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C301" s="33">
+        <v>45904</v>
+      </c>
+      <c r="D301" s="33">
+        <v>46022</v>
+      </c>
+      <c r="E301" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="F301" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G301" s="34">
+        <v>146</v>
+      </c>
+      <c r="H301" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="I301" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B302" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C302" s="33">
+        <v>45904</v>
+      </c>
+      <c r="D302" s="33">
+        <v>45965</v>
+      </c>
+      <c r="E302" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="F302" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G302" s="34">
+        <v>64</v>
+      </c>
+      <c r="H302" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="I302" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B303" s="33">
+        <v>45897</v>
+      </c>
+      <c r="C303" s="33">
+        <v>45904</v>
+      </c>
+      <c r="D303" s="33">
+        <v>45897</v>
+      </c>
+      <c r="E303" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="F303" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G303" s="34">
+        <v>17</v>
+      </c>
+      <c r="H303" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="I303" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C304" s="33">
+        <v>45905</v>
+      </c>
+      <c r="D304" s="33">
+        <v>45905</v>
+      </c>
+      <c r="E304" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="F304" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G304" s="34">
+        <v>108</v>
+      </c>
+      <c r="H304" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="I304" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C305" s="33">
+        <v>45905</v>
+      </c>
+      <c r="D305" s="33">
+        <v>45905</v>
+      </c>
+      <c r="E305" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="F305" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G305" s="34">
+        <v>29</v>
+      </c>
+      <c r="H305" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="I305" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C306" s="33">
+        <v>45905</v>
+      </c>
+      <c r="D306" s="33">
+        <v>45905</v>
+      </c>
+      <c r="E306" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="F306" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G306" s="34">
+        <v>2</v>
+      </c>
+      <c r="H306" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="I306" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="33">
+        <v>45905</v>
+      </c>
+      <c r="C307" s="33">
+        <v>45905</v>
+      </c>
+      <c r="D307" s="33">
+        <v>45968</v>
+      </c>
+      <c r="E307" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="F307" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G307" s="34">
+        <v>4</v>
+      </c>
+      <c r="H307" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="I307" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B308" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C308" s="33">
+        <v>45908</v>
+      </c>
+      <c r="D308" s="33">
+        <v>46003</v>
+      </c>
+      <c r="E308" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="F308" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G308" s="34">
+        <v>87</v>
+      </c>
+      <c r="H308" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="I308" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B309" s="33">
+        <v>45904</v>
+      </c>
+      <c r="C309" s="33">
+        <v>45908</v>
+      </c>
+      <c r="D309" s="33">
+        <v>46003</v>
+      </c>
+      <c r="E309" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="F309" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G309" s="34">
+        <v>106</v>
+      </c>
+      <c r="H309" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="I309" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -12158,7 +12505,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I299</xm:sqref>
+          <xm:sqref>I3:I309</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12172,18 +12519,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -12191,7 +12538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -12200,7 +12547,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -12209,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -12218,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -12227,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -12236,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -12245,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -12271,25 +12618,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -12315,7 +12662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -12357,117 +12704,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5784B0-627F-4EDB-9E6F-2F38FCF4F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9206DC-A10D-452B-9115-47BF15A8CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -2041,6 +2041,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3846,7 +3847,7 @@
         <v>76</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4020,7 +4021,7 @@
         <v>56</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6166,7 +6167,7 @@
         <v>226</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6195,7 +6196,7 @@
         <v>228</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6224,7 +6225,7 @@
         <v>230</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6253,7 +6254,7 @@
         <v>237</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -6282,7 +6283,7 @@
         <v>239</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -8950,7 +8951,7 @@
         <v>384</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -8979,7 +8980,7 @@
         <v>386</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -9008,7 +9009,7 @@
         <v>388</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -9037,7 +9038,7 @@
         <v>390</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -9066,7 +9067,7 @@
         <v>392</v>
       </c>
       <c r="I191" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -9095,7 +9096,7 @@
         <v>393</v>
       </c>
       <c r="I192" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -9501,7 +9502,7 @@
         <v>431</v>
       </c>
       <c r="I206" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C9206DC-A10D-452B-9115-47BF15A8CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79799FDF-CDE7-4246-B795-E6714161DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="1" activeTab="1" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="602">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1823,21 +1823,6 @@
     <t>2259 Avenida De La Playa  La Jolla CA 92037</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/08/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>Six Flags Entertainment Corporation</t>
   </si>
   <si>
@@ -1906,7 +1891,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/08/2025</t>
+      <t>07/01/25 to 09/10/2025</t>
     </r>
     <r>
       <rPr>
@@ -1928,6 +1913,69 @@
       </rPr>
       <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I309.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/10/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>Revol Greens CA, LLC</t>
+  </si>
+  <si>
+    <t>20570 Pellisier Road  Tehachapi CA 93561</t>
+  </si>
+  <si>
+    <t>Family YMCA of the Desert</t>
+  </si>
+  <si>
+    <t>73751 Magnesia Falls Dr  Palm Desert CA 92260</t>
+  </si>
+  <si>
+    <t>Epic Lightning Fast Service LLC</t>
+  </si>
+  <si>
+    <t>5670 Kearny Mesa Rd.  San Diego CA 92111</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals-Pleasanton</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals-Antioch</t>
+  </si>
+  <si>
+    <t>4501 Sand Creek  Antioch CA 94531</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - Walnut Creek</t>
+  </si>
+  <si>
+    <t>25 N. Via Monte  Walnut Creek CA 94598</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - 99 S. Pasadena</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Avenue  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - 74 N. Pasadena</t>
+  </si>
+  <si>
+    <t>Woodward West</t>
+  </si>
+  <si>
+    <t>28400 Stallion Springs Dr.  Tehachapi CA 93561</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2089,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3048,7 +3095,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I309" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I318" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3393,39 +3440,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3445,20 +3494,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3466,16 +3515,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>15857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3483,16 +3532,16 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3500,16 +3549,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3518,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3537,30 +3586,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3618,7 +3667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3647,7 +3696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +3725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3705,7 +3754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3734,7 +3783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3763,7 +3812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3821,7 +3870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3850,7 +3899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3879,7 +3928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3908,7 +3957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3937,7 +3986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -3966,7 +4015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -3995,7 +4044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -4024,7 +4073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4053,7 +4102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4082,7 +4131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4111,7 +4160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4140,7 +4189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4169,7 +4218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4198,7 +4247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4227,7 +4276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4285,7 +4334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4314,7 +4363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4343,7 +4392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4372,7 +4421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4430,7 +4479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4459,7 +4508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4488,7 +4537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4517,7 +4566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4546,7 +4595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4575,7 +4624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4604,7 +4653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4633,7 +4682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4662,7 +4711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4691,7 +4740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4720,7 +4769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4749,7 +4798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4778,7 +4827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4807,7 +4856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4836,7 +4885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4865,7 +4914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4894,7 +4943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4923,7 +4972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -4952,7 +5001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -4981,7 +5030,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -5010,7 +5059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -5039,7 +5088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5068,7 +5117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5097,7 +5146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5126,7 +5175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5155,7 +5204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5184,7 +5233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5213,7 +5262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5242,7 +5291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5271,7 +5320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5300,7 +5349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5329,7 +5378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5358,7 +5407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5387,7 +5436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5416,7 +5465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5445,7 +5494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5474,7 +5523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5503,7 +5552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5532,7 +5581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5561,7 +5610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5590,7 +5639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5619,7 +5668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5648,7 +5697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5677,7 +5726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5706,7 +5755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5735,7 +5784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5764,7 +5813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5793,7 +5842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5822,7 +5871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5851,7 +5900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5880,7 +5929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5909,7 +5958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5938,7 +5987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -5967,7 +6016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -5996,7 +6045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -6025,7 +6074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -6054,7 +6103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6083,7 +6132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6112,7 +6161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6141,7 +6190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6170,7 +6219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6199,7 +6248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6228,7 +6277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6257,7 +6306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6286,7 +6335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6315,7 +6364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6344,7 +6393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6373,7 +6422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6402,7 +6451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6431,7 +6480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6460,7 +6509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6489,7 +6538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6518,7 +6567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6547,7 +6596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6576,7 +6625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6634,7 +6683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6663,7 +6712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6692,7 +6741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6721,7 +6770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6750,7 +6799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6779,7 +6828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6808,7 +6857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6837,7 +6886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6866,7 +6915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6895,7 +6944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6924,7 +6973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -6953,7 +7002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -6982,7 +7031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -7011,7 +7060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -7040,7 +7089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7069,7 +7118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7098,7 +7147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7127,7 +7176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7156,7 +7205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7185,7 +7234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7214,7 +7263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7243,7 +7292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7272,7 +7321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7301,7 +7350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7330,7 +7379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7359,7 +7408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7388,7 +7437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7417,7 +7466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7446,7 +7495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7475,7 +7524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7504,7 +7553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7533,7 +7582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7562,7 +7611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7591,7 +7640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7620,7 +7669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7649,7 +7698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7678,7 +7727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7707,7 +7756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7736,7 +7785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7794,7 +7843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7823,7 +7872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7852,7 +7901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7881,7 +7930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7910,7 +7959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7939,7 +7988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -7968,7 +8017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -7997,7 +8046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -8026,7 +8075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -8055,7 +8104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8084,7 +8133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8113,7 +8162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8142,7 +8191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8171,7 +8220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8200,7 +8249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8229,7 +8278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8258,7 +8307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8287,7 +8336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8316,7 +8365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8345,7 +8394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8374,7 +8423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8403,7 +8452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8432,7 +8481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8461,7 +8510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8490,7 +8539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8519,7 +8568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8548,7 +8597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8577,7 +8626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8606,7 +8655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8635,7 +8684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8664,7 +8713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8693,7 +8742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8722,7 +8771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8751,7 +8800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8780,7 +8829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8809,7 +8858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8838,7 +8887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8867,7 +8916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8896,7 +8945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8925,7 +8974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -8954,7 +9003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -8983,7 +9032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -9012,7 +9061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -9041,7 +9090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9070,7 +9119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9099,7 +9148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9128,7 +9177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9157,7 +9206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9186,7 +9235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9215,7 +9264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9244,7 +9293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9273,7 +9322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9302,7 +9351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9331,7 +9380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9360,7 +9409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9389,7 +9438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9418,7 +9467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9447,7 +9496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9476,7 +9525,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9505,7 +9554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9534,7 +9583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9563,7 +9612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9592,7 +9641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9621,7 +9670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9650,7 +9699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9679,7 +9728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9708,7 +9757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9737,7 +9786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9766,7 +9815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9795,7 +9844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9824,7 +9873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9853,7 +9902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9882,7 +9931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9911,7 +9960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9940,7 +9989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -9969,7 +10018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -9998,7 +10047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -10027,7 +10076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -10056,7 +10105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10085,7 +10134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10114,7 +10163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10143,7 +10192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10172,7 +10221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10201,7 +10250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10230,7 +10279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10259,7 +10308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10288,7 +10337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10317,7 +10366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10346,7 +10395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10375,7 +10424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10404,7 +10453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10433,7 +10482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10462,7 +10511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10491,7 +10540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10520,7 +10569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10549,7 +10598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10578,7 +10627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10607,7 +10656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10636,7 +10685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10665,7 +10714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10694,7 +10743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10723,7 +10772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10752,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10781,7 +10830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10810,7 +10859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -10839,7 +10888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -10868,7 +10917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -10897,7 +10946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -10926,7 +10975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -10955,7 +11004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -10984,7 +11033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -11013,7 +11062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -11042,7 +11091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11071,7 +11120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11100,7 +11149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11129,7 +11178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11158,7 +11207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11187,7 +11236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11216,7 +11265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11245,7 +11294,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11274,7 +11323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11303,7 +11352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11332,7 +11381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11361,7 +11410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11390,7 +11439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11419,7 +11468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11448,7 +11497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11477,7 +11526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11506,7 +11555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11535,7 +11584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11564,7 +11613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11593,7 +11642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11622,7 +11671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11651,7 +11700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11680,7 +11729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11709,7 +11758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11738,7 +11787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11767,7 +11816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11796,7 +11845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -11825,7 +11874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -11854,7 +11903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -11883,7 +11932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -11912,7 +11961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -11941,7 +11990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -11970,7 +12019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -11999,7 +12048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -12028,7 +12077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -12057,7 +12106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12086,7 +12135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12115,7 +12164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12144,7 +12193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12173,7 +12222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12202,7 +12251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="32" t="s">
         <v>90</v>
       </c>
@@ -12216,7 +12265,7 @@
         <v>45963</v>
       </c>
       <c r="E300" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F300" s="32" t="s">
         <v>6</v>
@@ -12225,13 +12274,13 @@
         <v>184</v>
       </c>
       <c r="H300" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I300" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="32" t="s">
         <v>267</v>
       </c>
@@ -12245,7 +12294,7 @@
         <v>46022</v>
       </c>
       <c r="E301" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F301" s="32" t="s">
         <v>6</v>
@@ -12254,13 +12303,13 @@
         <v>146</v>
       </c>
       <c r="H301" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I301" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="32" t="s">
         <v>74</v>
       </c>
@@ -12274,7 +12323,7 @@
         <v>45965</v>
       </c>
       <c r="E302" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F302" s="32" t="s">
         <v>54</v>
@@ -12283,13 +12332,13 @@
         <v>64</v>
       </c>
       <c r="H302" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I302" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="32" t="s">
         <v>216</v>
       </c>
@@ -12303,7 +12352,7 @@
         <v>45897</v>
       </c>
       <c r="E303" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F303" s="32" t="s">
         <v>6</v>
@@ -12312,13 +12361,13 @@
         <v>17</v>
       </c>
       <c r="H303" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I303" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="32" t="s">
         <v>5</v>
       </c>
@@ -12332,7 +12381,7 @@
         <v>45905</v>
       </c>
       <c r="E304" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F304" s="32" t="s">
         <v>54</v>
@@ -12341,13 +12390,13 @@
         <v>108</v>
       </c>
       <c r="H304" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I304" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="32" t="s">
         <v>5</v>
       </c>
@@ -12361,7 +12410,7 @@
         <v>45905</v>
       </c>
       <c r="E305" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F305" s="32" t="s">
         <v>54</v>
@@ -12370,13 +12419,13 @@
         <v>29</v>
       </c>
       <c r="H305" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I305" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="32" t="s">
         <v>5</v>
       </c>
@@ -12390,7 +12439,7 @@
         <v>45905</v>
       </c>
       <c r="E306" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F306" s="32" t="s">
         <v>54</v>
@@ -12399,13 +12448,13 @@
         <v>2</v>
       </c>
       <c r="H306" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I306" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="32" t="s">
         <v>5</v>
       </c>
@@ -12419,7 +12468,7 @@
         <v>45968</v>
       </c>
       <c r="E307" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F307" s="32" t="s">
         <v>6</v>
@@ -12428,13 +12477,13 @@
         <v>4</v>
       </c>
       <c r="H307" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I307" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="32" t="s">
         <v>52</v>
       </c>
@@ -12448,7 +12497,7 @@
         <v>46003</v>
       </c>
       <c r="E308" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F308" s="32" t="s">
         <v>54</v>
@@ -12457,13 +12506,13 @@
         <v>87</v>
       </c>
       <c r="H308" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I308" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="32" t="s">
         <v>267</v>
       </c>
@@ -12477,7 +12526,7 @@
         <v>46003</v>
       </c>
       <c r="E309" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F309" s="32" t="s">
         <v>54</v>
@@ -12486,10 +12535,271 @@
         <v>106</v>
       </c>
       <c r="H309" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I309" s="26" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A310" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B310" s="33">
+        <v>45909</v>
+      </c>
+      <c r="C310" s="33">
+        <v>45909</v>
+      </c>
+      <c r="D310" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E310" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="F310" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G310" s="34">
+        <v>42</v>
+      </c>
+      <c r="H310" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="I310" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A311" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B311" s="33">
+        <v>45909</v>
+      </c>
+      <c r="C311" s="33">
+        <v>45909</v>
+      </c>
+      <c r="D311" s="33">
+        <v>45978</v>
+      </c>
+      <c r="E311" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="F311" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G311" s="34">
+        <v>110</v>
+      </c>
+      <c r="H311" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="I311" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A312" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B312" s="33">
+        <v>45901</v>
+      </c>
+      <c r="C312" s="33">
+        <v>45909</v>
+      </c>
+      <c r="D312" s="33">
+        <v>45961</v>
+      </c>
+      <c r="E312" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="F312" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G312" s="34">
+        <v>116</v>
+      </c>
+      <c r="H312" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="I312" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A313" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B313" s="33">
+        <v>45908</v>
+      </c>
+      <c r="C313" s="33">
+        <v>45910</v>
+      </c>
+      <c r="D313" s="33">
+        <v>45908</v>
+      </c>
+      <c r="E313" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="F313" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G313" s="34">
+        <v>14</v>
+      </c>
+      <c r="H313" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I313" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A314" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B314" s="33">
+        <v>45908</v>
+      </c>
+      <c r="C314" s="33">
+        <v>45910</v>
+      </c>
+      <c r="D314" s="33">
+        <v>45908</v>
+      </c>
+      <c r="E314" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F314" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G314" s="34">
+        <v>1</v>
+      </c>
+      <c r="H314" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="I314" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A315" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B315" s="33">
+        <v>45908</v>
+      </c>
+      <c r="C315" s="33">
+        <v>45910</v>
+      </c>
+      <c r="D315" s="33">
+        <v>45908</v>
+      </c>
+      <c r="E315" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="F315" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G315" s="34">
+        <v>1</v>
+      </c>
+      <c r="H315" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="I315" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A316" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" s="33">
+        <v>45908</v>
+      </c>
+      <c r="C316" s="33">
+        <v>45910</v>
+      </c>
+      <c r="D316" s="33">
+        <v>45908</v>
+      </c>
+      <c r="E316" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="F316" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G316" s="34">
+        <v>1</v>
+      </c>
+      <c r="H316" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="I316" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A317" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="33">
+        <v>45908</v>
+      </c>
+      <c r="C317" s="33">
+        <v>45910</v>
+      </c>
+      <c r="D317" s="33">
+        <v>45908</v>
+      </c>
+      <c r="E317" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="F317" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G317" s="34">
+        <v>2</v>
+      </c>
+      <c r="H317" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I317" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A318" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B318" s="33">
+        <v>45903</v>
+      </c>
+      <c r="C318" s="33">
+        <v>45910</v>
+      </c>
+      <c r="D318" s="33">
+        <v>45964</v>
+      </c>
+      <c r="E318" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="F318" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G318" s="34">
+        <v>24</v>
+      </c>
+      <c r="H318" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="I318" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -12506,7 +12816,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I309</xm:sqref>
+          <xm:sqref>I3:I318</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12520,18 +12830,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -12539,7 +12849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -12548,7 +12858,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -12557,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -12566,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -12575,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -12584,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -12593,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -12619,25 +12929,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -12663,7 +12973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -12705,117 +13015,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79799FDF-CDE7-4246-B795-E6714161DCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE8179-9592-4E0A-8B72-490A0952CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="1" activeTab="1" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="616">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1880,6 +1880,111 @@
     <t>859 W Florida Ave,  Hemet CA 92543</t>
   </si>
   <si>
+    <t>Revol Greens CA, LLC</t>
+  </si>
+  <si>
+    <t>20570 Pellisier Road  Tehachapi CA 93561</t>
+  </si>
+  <si>
+    <t>Family YMCA of the Desert</t>
+  </si>
+  <si>
+    <t>73751 Magnesia Falls Dr  Palm Desert CA 92260</t>
+  </si>
+  <si>
+    <t>Epic Lightning Fast Service LLC</t>
+  </si>
+  <si>
+    <t>5670 Kearny Mesa Rd.  San Diego CA 92111</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals-Pleasanton</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals-Antioch</t>
+  </si>
+  <si>
+    <t>4501 Sand Creek  Antioch CA 94531</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - Walnut Creek</t>
+  </si>
+  <si>
+    <t>25 N. Via Monte  Walnut Creek CA 94598</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - 99 S. Pasadena</t>
+  </si>
+  <si>
+    <t>99 S. Oakland Avenue  Pasadena CA 91101</t>
+  </si>
+  <si>
+    <t>Kaiser Foundation Hospitals - 74 N. Pasadena</t>
+  </si>
+  <si>
+    <t>Woodward West</t>
+  </si>
+  <si>
+    <t>28400 Stallion Springs Dr.  Tehachapi CA 93561</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/15/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
+    </r>
+  </si>
+  <si>
+    <t>3551 Trousdale Pkwy Suite 160  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>21st Amendment Brewery Cafe</t>
+  </si>
+  <si>
+    <t>2010 Williams Street  San Leandro CA 94577</t>
+  </si>
+  <si>
+    <t>563 2nd Street  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>University of Southern California (Health Sciences Campus)</t>
+  </si>
+  <si>
+    <t>1985 Zonal St.  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>University of Southern California (HC2)</t>
+  </si>
+  <si>
+    <t>1520 San Pablo St.  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>University of Southern California (Keck)</t>
+  </si>
+  <si>
+    <t>1500 San Pablo Street  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>University of Southern California (Norris)</t>
+  </si>
+  <si>
+    <t>1441 Eastlake Ave  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>University of Southern California (Soto II)</t>
+  </si>
+  <si>
+    <t>2011 N. Soto.  Los Angeles CA 90032</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -1891,7 +1996,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/10/2025</t>
+      <t>07/01/25 to 09/15/2025</t>
     </r>
     <r>
       <rPr>
@@ -1911,71 +2016,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I309.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I326.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/10/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
-    <t>Revol Greens CA, LLC</t>
-  </si>
-  <si>
-    <t>20570 Pellisier Road  Tehachapi CA 93561</t>
-  </si>
-  <si>
-    <t>Family YMCA of the Desert</t>
-  </si>
-  <si>
-    <t>73751 Magnesia Falls Dr  Palm Desert CA 92260</t>
-  </si>
-  <si>
-    <t>Epic Lightning Fast Service LLC</t>
-  </si>
-  <si>
-    <t>5670 Kearny Mesa Rd.  San Diego CA 92111</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals-Pleasanton</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals-Antioch</t>
-  </si>
-  <si>
-    <t>4501 Sand Creek  Antioch CA 94531</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals - Walnut Creek</t>
-  </si>
-  <si>
-    <t>25 N. Via Monte  Walnut Creek CA 94598</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals - 99 S. Pasadena</t>
-  </si>
-  <si>
-    <t>99 S. Oakland Avenue  Pasadena CA 91101</t>
-  </si>
-  <si>
-    <t>Kaiser Foundation Hospitals - 74 N. Pasadena</t>
-  </si>
-  <si>
-    <t>Woodward West</t>
-  </si>
-  <si>
-    <t>28400 Stallion Springs Dr.  Tehachapi CA 93561</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3137,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I318" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I326" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3440,41 +3482,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D341DFFF-02D2-4572-95F5-BB3221952133}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3494,20 +3534,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832896D-8AFB-4FFC-957E-910308F3BC0C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3515,16 +3555,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>16168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3532,7 +3572,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3541,7 +3581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3549,16 +3589,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3567,7 +3607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3586,30 +3626,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +3678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3667,7 +3707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3696,7 +3736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3725,7 +3765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3754,7 +3794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +3823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3812,7 +3852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3841,7 +3881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3870,7 +3910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3899,7 +3939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3928,7 +3968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3957,7 +3997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -3986,7 +4026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -4015,7 +4055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -4044,7 +4084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4102,7 +4142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4131,7 +4171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4160,7 +4200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4189,7 +4229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4218,7 +4258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4247,7 +4287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4276,7 +4316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4305,7 +4345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4363,7 +4403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4392,7 +4432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4421,7 +4461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4450,7 +4490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4479,7 +4519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4508,7 +4548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4537,7 +4577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4566,7 +4606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4595,7 +4635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4624,7 +4664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4653,7 +4693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4682,7 +4722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4740,7 +4780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4769,7 +4809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4798,7 +4838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4827,7 +4867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4856,7 +4896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4885,7 +4925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4914,7 +4954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4943,7 +4983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -4972,7 +5012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -5001,7 +5041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -5030,7 +5070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -5059,7 +5099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -5088,7 +5128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5117,7 +5157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5146,7 +5186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5175,7 +5215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5204,7 +5244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5233,7 +5273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5262,7 +5302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5291,7 +5331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5320,7 +5360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5349,7 +5389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5378,7 +5418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5407,7 +5447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5436,7 +5476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5465,7 +5505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5494,7 +5534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5552,7 +5592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5581,7 +5621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5610,7 +5650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5639,7 +5679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5668,7 +5708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5697,7 +5737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5726,7 +5766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5755,7 +5795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5784,7 +5824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5813,7 +5853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5842,7 +5882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5871,7 +5911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5900,7 +5940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5929,7 +5969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5958,7 +5998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -5987,7 +6027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -6016,7 +6056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -6045,7 +6085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -6074,7 +6114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -6103,7 +6143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6132,7 +6172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6161,7 +6201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6190,7 +6230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6219,7 +6259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6248,7 +6288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6277,7 +6317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6306,7 +6346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6335,7 +6375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6364,7 +6404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6393,7 +6433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6422,7 +6462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6433,7 +6473,7 @@
         <v>45855</v>
       </c>
       <c r="D99" s="33">
-        <v>45919</v>
+        <v>45933</v>
       </c>
       <c r="E99" s="32" t="s">
         <v>231</v>
@@ -6451,7 +6491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6480,7 +6520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6509,7 +6549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6538,7 +6578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6567,7 +6607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6596,7 +6636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6625,7 +6665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6654,7 +6694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6683,7 +6723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6712,7 +6752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6741,7 +6781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6770,7 +6810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6799,7 +6839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6828,7 +6868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6857,7 +6897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6886,7 +6926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6915,7 +6955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6944,7 +6984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -6973,7 +7013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -7002,7 +7042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -7031,7 +7071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -7060,7 +7100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -7089,7 +7129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7118,7 +7158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7147,7 +7187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7176,7 +7216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7205,7 +7245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7234,7 +7274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7263,7 +7303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7292,7 +7332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7321,7 +7361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7350,7 +7390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7379,7 +7419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7408,7 +7448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7437,7 +7477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7466,7 +7506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7495,7 +7535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7524,7 +7564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7553,7 +7593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7582,7 +7622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7611,7 +7651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7640,7 +7680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7669,7 +7709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7698,7 +7738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7727,7 +7767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7756,7 +7796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7785,7 +7825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7814,7 +7854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7843,7 +7883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7872,7 +7912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7901,7 +7941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7930,7 +7970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7959,7 +7999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -7988,7 +8028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -8017,7 +8057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -8046,7 +8086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -8075,7 +8115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -8104,7 +8144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8133,7 +8173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8162,7 +8202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8191,7 +8231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8220,7 +8260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8249,7 +8289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8278,7 +8318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8307,7 +8347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8336,7 +8376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8365,7 +8405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8394,7 +8434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8423,7 +8463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8452,7 +8492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8481,7 +8521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8510,7 +8550,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8539,7 +8579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8568,7 +8608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8597,7 +8637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8626,7 +8666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8655,7 +8695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8684,7 +8724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8713,7 +8753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8742,7 +8782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8771,7 +8811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8800,7 +8840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8829,7 +8869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8858,7 +8898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8887,7 +8927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8916,7 +8956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8945,7 +8985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -8974,7 +9014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -9003,7 +9043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -9032,7 +9072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -9061,7 +9101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -9090,7 +9130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9119,7 +9159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9148,7 +9188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9177,7 +9217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9206,7 +9246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9235,7 +9275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9264,7 +9304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9293,7 +9333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9322,7 +9362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9351,7 +9391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9380,7 +9420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9409,7 +9449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9438,7 +9478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9467,7 +9507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9496,7 +9536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9525,7 +9565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9554,7 +9594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9583,7 +9623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9612,7 +9652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9641,7 +9681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9670,7 +9710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9699,7 +9739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9728,7 +9768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9757,7 +9797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9786,7 +9826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9815,7 +9855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9844,7 +9884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9873,7 +9913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9902,7 +9942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9931,7 +9971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -9960,7 +10000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -9989,7 +10029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -10018,7 +10058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -10047,7 +10087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -10076,7 +10116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -10105,7 +10145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10134,7 +10174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10163,7 +10203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10192,7 +10232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10221,7 +10261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10250,7 +10290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10279,7 +10319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10308,7 +10348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10337,7 +10377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10366,7 +10406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10395,7 +10435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10424,7 +10464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10453,7 +10493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10482,7 +10522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10511,7 +10551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10540,7 +10580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10569,7 +10609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10598,7 +10638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10627,7 +10667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10656,7 +10696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10685,7 +10725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10714,7 +10754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10743,7 +10783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10772,7 +10812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10801,7 +10841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10830,7 +10870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10859,7 +10899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -10888,7 +10928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -10917,7 +10957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -10946,7 +10986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -10975,7 +11015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -11004,7 +11044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -11033,7 +11073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -11062,7 +11102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -11091,7 +11131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11120,7 +11160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11149,7 +11189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11178,7 +11218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11207,7 +11247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11236,7 +11276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11265,7 +11305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11294,7 +11334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11323,7 +11363,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11352,7 +11392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11381,7 +11421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11410,7 +11450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11439,7 +11479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11468,7 +11508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11497,7 +11537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11526,7 +11566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11555,7 +11595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11584,7 +11624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11613,7 +11653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11642,7 +11682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11671,7 +11711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11700,7 +11740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11729,7 +11769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11758,7 +11798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11787,7 +11827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11816,7 +11856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11845,7 +11885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -11874,7 +11914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -11903,7 +11943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -11932,7 +11972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -11961,7 +12001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -11990,7 +12030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -12019,7 +12059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -12048,7 +12088,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -12077,7 +12117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -12106,7 +12146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12135,7 +12175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12164,7 +12204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12193,7 +12233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12222,7 +12262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12251,7 +12291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="32" t="s">
         <v>90</v>
       </c>
@@ -12280,7 +12320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="32" t="s">
         <v>267</v>
       </c>
@@ -12309,7 +12349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="32" t="s">
         <v>74</v>
       </c>
@@ -12338,7 +12378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="32" t="s">
         <v>216</v>
       </c>
@@ -12367,7 +12407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="32" t="s">
         <v>5</v>
       </c>
@@ -12396,7 +12436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="32" t="s">
         <v>5</v>
       </c>
@@ -12425,7 +12465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="32" t="s">
         <v>5</v>
       </c>
@@ -12454,7 +12494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="32" t="s">
         <v>5</v>
       </c>
@@ -12483,7 +12523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="32" t="s">
         <v>52</v>
       </c>
@@ -12512,7 +12552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="32" t="s">
         <v>267</v>
       </c>
@@ -12541,7 +12581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="32" t="s">
         <v>332</v>
       </c>
@@ -12555,7 +12595,7 @@
         <v>45969</v>
       </c>
       <c r="E310" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F310" s="32" t="s">
         <v>54</v>
@@ -12564,13 +12604,13 @@
         <v>42</v>
       </c>
       <c r="H310" s="34" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I310" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="32" t="s">
         <v>267</v>
       </c>
@@ -12584,7 +12624,7 @@
         <v>45978</v>
       </c>
       <c r="E311" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F311" s="32" t="s">
         <v>280</v>
@@ -12593,13 +12633,13 @@
         <v>110</v>
       </c>
       <c r="H311" s="34" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I311" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="32" t="s">
         <v>74</v>
       </c>
@@ -12613,7 +12653,7 @@
         <v>45961</v>
       </c>
       <c r="E312" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F312" s="32" t="s">
         <v>54</v>
@@ -12622,13 +12662,13 @@
         <v>116</v>
       </c>
       <c r="H312" s="34" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I312" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="32" t="s">
         <v>52</v>
       </c>
@@ -12642,7 +12682,7 @@
         <v>45908</v>
       </c>
       <c r="E313" s="32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F313" s="32" t="s">
         <v>6</v>
@@ -12657,7 +12697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="32" t="s">
         <v>198</v>
       </c>
@@ -12671,7 +12711,7 @@
         <v>45908</v>
       </c>
       <c r="E314" s="32" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F314" s="32" t="s">
         <v>6</v>
@@ -12680,13 +12720,13 @@
         <v>1</v>
       </c>
       <c r="H314" s="34" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I314" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="32" t="s">
         <v>198</v>
       </c>
@@ -12700,7 +12740,7 @@
         <v>45908</v>
       </c>
       <c r="E315" s="32" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F315" s="32" t="s">
         <v>6</v>
@@ -12709,13 +12749,13 @@
         <v>1</v>
       </c>
       <c r="H315" s="34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I315" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="32" t="s">
         <v>5</v>
       </c>
@@ -12729,7 +12769,7 @@
         <v>45908</v>
       </c>
       <c r="E316" s="32" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F316" s="32" t="s">
         <v>6</v>
@@ -12738,13 +12778,13 @@
         <v>1</v>
       </c>
       <c r="H316" s="34" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I316" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="32" t="s">
         <v>5</v>
       </c>
@@ -12758,7 +12798,7 @@
         <v>45908</v>
       </c>
       <c r="E317" s="32" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F317" s="32" t="s">
         <v>6</v>
@@ -12773,7 +12813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="32" t="s">
         <v>332</v>
       </c>
@@ -12787,7 +12827,7 @@
         <v>45964</v>
       </c>
       <c r="E318" s="32" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F318" s="32" t="s">
         <v>54</v>
@@ -12796,9 +12836,241 @@
         <v>24</v>
       </c>
       <c r="H318" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="I318" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="33">
+        <v>45911</v>
+      </c>
+      <c r="C319" s="33">
+        <v>45912</v>
+      </c>
+      <c r="D319" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E319" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F319" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G319" s="34">
+        <v>137</v>
+      </c>
+      <c r="H319" s="34" t="s">
         <v>601</v>
       </c>
-      <c r="I318" s="26" t="s">
+      <c r="I319" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B320" s="33">
+        <v>45903</v>
+      </c>
+      <c r="C320" s="33">
+        <v>45912</v>
+      </c>
+      <c r="D320" s="33">
+        <v>45965</v>
+      </c>
+      <c r="E320" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="F320" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G320" s="34">
+        <v>58</v>
+      </c>
+      <c r="H320" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="I320" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B321" s="33">
+        <v>45903</v>
+      </c>
+      <c r="C321" s="33">
+        <v>45912</v>
+      </c>
+      <c r="D321" s="33">
+        <v>45965</v>
+      </c>
+      <c r="E321" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="F321" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G321" s="34">
+        <v>18</v>
+      </c>
+      <c r="H321" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="I321" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="33">
+        <v>45914</v>
+      </c>
+      <c r="C322" s="33">
+        <v>45915</v>
+      </c>
+      <c r="D322" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E322" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="F322" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G322" s="34">
+        <v>151</v>
+      </c>
+      <c r="H322" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="I322" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="33">
+        <v>45914</v>
+      </c>
+      <c r="C323" s="33">
+        <v>45915</v>
+      </c>
+      <c r="D323" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E323" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="F323" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G323" s="34">
+        <v>1</v>
+      </c>
+      <c r="H323" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="I323" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" s="33">
+        <v>45914</v>
+      </c>
+      <c r="C324" s="33">
+        <v>45915</v>
+      </c>
+      <c r="D324" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E324" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="F324" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G324" s="34">
+        <v>4</v>
+      </c>
+      <c r="H324" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="I324" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" s="33">
+        <v>45914</v>
+      </c>
+      <c r="C325" s="33">
+        <v>45915</v>
+      </c>
+      <c r="D325" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E325" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="F325" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G325" s="34">
+        <v>1</v>
+      </c>
+      <c r="H325" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="I325" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="33">
+        <v>45914</v>
+      </c>
+      <c r="C326" s="33">
+        <v>45915</v>
+      </c>
+      <c r="D326" s="33">
+        <v>45933</v>
+      </c>
+      <c r="E326" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="F326" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G326" s="34">
+        <v>1</v>
+      </c>
+      <c r="H326" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="I326" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12816,7 +13088,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I318</xm:sqref>
+          <xm:sqref>I3:I326</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12830,18 +13102,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -12849,7 +13121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -12858,7 +13130,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -12867,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -12876,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -12885,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -12894,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -12903,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -12929,25 +13201,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -12973,7 +13245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -13015,117 +13287,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEE8179-9592-4E0A-8B72-490A0952CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE3C20F-6B48-4AD2-8FD5-1021817FF1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="645">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1928,8 +1928,50 @@
     <t>28400 Stallion Springs Dr.  Tehachapi CA 93561</t>
   </si>
   <si>
+    <t>3551 Trousdale Pkwy Suite 160  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>21st Amendment Brewery Cafe</t>
+  </si>
+  <si>
+    <t>2010 Williams Street  San Leandro CA 94577</t>
+  </si>
+  <si>
+    <t>563 2nd Street  San Francisco CA 94107</t>
+  </si>
+  <si>
+    <t>University of Southern California (Health Sciences Campus)</t>
+  </si>
+  <si>
+    <t>1985 Zonal St.  Los Angeles CA 90089</t>
+  </si>
+  <si>
+    <t>University of Southern California (HC2)</t>
+  </si>
+  <si>
+    <t>1520 San Pablo St.  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>University of Southern California (Keck)</t>
+  </si>
+  <si>
+    <t>1500 San Pablo Street  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>University of Southern California (Norris)</t>
+  </si>
+  <si>
+    <t>1441 Eastlake Ave  Los Angeles CA 90033</t>
+  </si>
+  <si>
+    <t>University of Southern California (Soto II)</t>
+  </si>
+  <si>
+    <t>2011 N. Soto.  Los Angeles CA 90032</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/15/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/17/2025
 </t>
     </r>
     <r>
@@ -1943,46 +1985,91 @@
     </r>
   </si>
   <si>
-    <t>3551 Trousdale Pkwy Suite 160  Los Angeles CA 90089</t>
-  </si>
-  <si>
-    <t>21st Amendment Brewery Cafe</t>
-  </si>
-  <si>
-    <t>2010 Williams Street  San Leandro CA 94577</t>
-  </si>
-  <si>
-    <t>563 2nd Street  San Francisco CA 94107</t>
-  </si>
-  <si>
-    <t>University of Southern California (Health Sciences Campus)</t>
-  </si>
-  <si>
-    <t>1985 Zonal St.  Los Angeles CA 90089</t>
-  </si>
-  <si>
-    <t>University of Southern California (HC2)</t>
-  </si>
-  <si>
-    <t>1520 San Pablo St.  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>University of Southern California (Keck)</t>
-  </si>
-  <si>
-    <t>1500 San Pablo Street  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>University of Southern California (Norris)</t>
-  </si>
-  <si>
-    <t>1441 Eastlake Ave  Los Angeles CA 90033</t>
-  </si>
-  <si>
-    <t>University of Southern California (Soto II)</t>
-  </si>
-  <si>
-    <t>2011 N. Soto.  Los Angeles CA 90032</t>
+    <t>Thermal Structures, Inc.</t>
+  </si>
+  <si>
+    <t>2362 Railroad Street  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>G&amp;C Staffing, LLC (&amp;quot;Gold Flora&amp;quot;)</t>
+  </si>
+  <si>
+    <t>64125 19th Avenue  Desert Hot Springs CA 92240</t>
+  </si>
+  <si>
+    <t>CRC ED Treatment LLC, Montecatini, Inc. (2524)</t>
+  </si>
+  <si>
+    <t>2524 La Costa Avenue  Carlsbad CA 92009</t>
+  </si>
+  <si>
+    <t>CRC ED Treatment LLC, Montecatini, Inc. (6183)</t>
+  </si>
+  <si>
+    <t>6183 Paseo Del Norte, Suite 110  Carlsbad CA 92011</t>
+  </si>
+  <si>
+    <t>CRC ED Treatment LLC, Montecatini, Inc. (Remote)</t>
+  </si>
+  <si>
+    <t>Remote  Carlsbad CA 92009</t>
+  </si>
+  <si>
+    <t>5820 Owens Dr., Bldg. E  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>IPG DXTRA Entertainment, Inc. d/b/a Rogers &amp; Cowan PMK (&amp;quot;Company&amp;quot;)</t>
+  </si>
+  <si>
+    <t>1840 Century Park E  Los Angeles CA 90067</t>
+  </si>
+  <si>
+    <t>Arsenal Biosciences, Inc.</t>
+  </si>
+  <si>
+    <t>329 Oyster Point Blvd.  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Carbon, Inc.</t>
+  </si>
+  <si>
+    <t>1089 Mills Way  Redwood City CA 94063</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center 1160</t>
+  </si>
+  <si>
+    <t>1160 Jacob Lane  Carmichael CA 95608</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 2641</t>
+  </si>
+  <si>
+    <t>2641 Cottage Way #8, 9, &amp;10  Sacramento CA 95825</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 2264</t>
+  </si>
+  <si>
+    <t>2264 Green Hill Rd.  Sebastopol CA 95472</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 7064</t>
+  </si>
+  <si>
+    <t>7064 Corline Court, Ste. A and B  Sebastopol CA 954472</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 5665</t>
+  </si>
+  <si>
+    <t>5665 Burnside Road  Sebastopol CA 95472</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 11740</t>
+  </si>
+  <si>
+    <t>11740 Occidental Rd.  Sebastopol CA 95472</t>
   </si>
   <si>
     <r>
@@ -1996,7 +2083,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/15/2025</t>
+      <t>07/01/25 to 09/17/2025</t>
     </r>
     <r>
       <rPr>
@@ -2016,7 +2103,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I326.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I342.</t>
     </r>
   </si>
 </sst>
@@ -3137,7 +3224,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I326" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I342" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3484,37 +3571,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3536,18 +3623,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3555,16 +3642,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>16539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3572,7 +3659,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3581,7 +3668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3589,25 +3676,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3626,30 +3713,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3678,7 +3765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3707,7 +3794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3736,7 +3823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3794,7 +3881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3823,7 +3910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3852,7 +3939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3881,7 +3968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3910,7 +3997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -3939,7 +4026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -3968,7 +4055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -3997,7 +4084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -4026,7 +4113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -4055,7 +4142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -4084,7 +4171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -4113,7 +4200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4142,7 +4229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4171,7 +4258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4200,7 +4287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4229,7 +4316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4258,7 +4345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4287,7 +4374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4316,7 +4403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4345,7 +4432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4374,7 +4461,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4403,7 +4490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4432,7 +4519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4461,7 +4548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4490,7 +4577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4519,7 +4606,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4548,7 +4635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4577,7 +4664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4606,7 +4693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4635,7 +4722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4664,7 +4751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4693,7 +4780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4722,7 +4809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4751,7 +4838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4780,7 +4867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +4896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4838,7 +4925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4867,7 +4954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4896,7 +4983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -4925,7 +5012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -4954,7 +5041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -4983,7 +5070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -5012,7 +5099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -5041,7 +5128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -5070,7 +5157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -5099,7 +5186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -5128,7 +5215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5157,7 +5244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5186,7 +5273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5215,7 +5302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5244,7 +5331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5273,7 +5360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5302,7 +5389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5331,7 +5418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5360,7 +5447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5389,7 +5476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5418,7 +5505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5447,7 +5534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5476,7 +5563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5505,7 +5592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5534,7 +5621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5563,7 +5650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5592,7 +5679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5621,7 +5708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5650,7 +5737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5679,7 +5766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5708,7 +5795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5737,7 +5824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5766,7 +5853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5795,7 +5882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5824,7 +5911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5853,7 +5940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5882,7 +5969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5911,7 +5998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -5940,7 +6027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -5969,7 +6056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -5998,7 +6085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -6027,7 +6114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -6056,7 +6143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -6085,7 +6172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -6114,7 +6201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -6143,7 +6230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6172,7 +6259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6201,7 +6288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6230,7 +6317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6259,7 +6346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6288,7 +6375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6317,7 +6404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6346,7 +6433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6375,7 +6462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6404,7 +6491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6433,7 +6520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6462,7 +6549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6491,7 +6578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6520,7 +6607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6549,7 +6636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6578,7 +6665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6607,7 +6694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6636,7 +6723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6665,7 +6752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6694,7 +6781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6723,7 +6810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6752,7 +6839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6781,7 +6868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6810,7 +6897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6839,7 +6926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6868,7 +6955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6897,7 +6984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -6926,7 +7013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -6955,7 +7042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -6984,7 +7071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -7013,7 +7100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -7042,7 +7129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -7071,7 +7158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -7100,7 +7187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -7129,7 +7216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7158,7 +7245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7187,7 +7274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7216,7 +7303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7245,7 +7332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7274,7 +7361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7303,7 +7390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7332,7 +7419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7361,7 +7448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7390,7 +7477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7419,7 +7506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7448,7 +7535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7477,7 +7564,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7506,7 +7593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7535,7 +7622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7564,7 +7651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7593,7 +7680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7622,7 +7709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7651,7 +7738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7680,7 +7767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7709,7 +7796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7738,7 +7825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7767,7 +7854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7796,7 +7883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7825,7 +7912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7854,7 +7941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7883,7 +7970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7912,7 +7999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -7941,7 +8028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -7970,7 +8057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -7999,7 +8086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -8028,7 +8115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -8057,7 +8144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -8086,7 +8173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -8115,7 +8202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -8144,7 +8231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8173,7 +8260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8202,7 +8289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8231,7 +8318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8260,7 +8347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8289,7 +8376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8318,7 +8405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8347,7 +8434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8376,7 +8463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8405,7 +8492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8434,7 +8521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8463,7 +8550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8492,7 +8579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8521,7 +8608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8550,7 +8637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8579,7 +8666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8608,7 +8695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8637,7 +8724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8666,7 +8753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8695,7 +8782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8724,7 +8811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8753,7 +8840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8782,7 +8869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8811,7 +8898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8840,7 +8927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8869,7 +8956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8898,7 +8985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -8927,7 +9014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -8956,7 +9043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -8985,7 +9072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -9014,7 +9101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +9130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -9072,7 +9159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -9101,7 +9188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -9130,7 +9217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9159,7 +9246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9188,7 +9275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9217,7 +9304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9246,7 +9333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9275,7 +9362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9304,7 +9391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9333,7 +9420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9362,7 +9449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9391,7 +9478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9420,7 +9507,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9449,7 +9536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9478,7 +9565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9507,7 +9594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9536,7 +9623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9565,7 +9652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9594,7 +9681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9623,7 +9710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9652,7 +9739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9681,7 +9768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9710,7 +9797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9739,7 +9826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9768,7 +9855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9797,7 +9884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9826,7 +9913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9855,7 +9942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9884,7 +9971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -9913,7 +10000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -9942,7 +10029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -9971,7 +10058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -10000,7 +10087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -10029,7 +10116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -10058,7 +10145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -10087,7 +10174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -10116,7 +10203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -10145,7 +10232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10174,7 +10261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10203,7 +10290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10232,7 +10319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10261,7 +10348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10290,7 +10377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10319,7 +10406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10348,7 +10435,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10377,7 +10464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10406,7 +10493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10435,7 +10522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10464,7 +10551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10493,7 +10580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10522,7 +10609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10551,7 +10638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10580,7 +10667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10609,7 +10696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10638,7 +10725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10667,7 +10754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10696,7 +10783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10725,7 +10812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10754,7 +10841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10783,7 +10870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10812,7 +10899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10841,7 +10928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10870,7 +10957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10899,7 +10986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -10928,7 +11015,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -10957,7 +11044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -10986,7 +11073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -11015,7 +11102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -11044,7 +11131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -11073,7 +11160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -11102,7 +11189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -11131,7 +11218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11160,7 +11247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11189,7 +11276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11218,7 +11305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11247,7 +11334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11276,7 +11363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11305,7 +11392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11334,7 +11421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11363,7 +11450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11392,7 +11479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11421,7 +11508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11450,7 +11537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11479,7 +11566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11508,7 +11595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11537,7 +11624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11566,7 +11653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11577,7 +11664,7 @@
         <v>45897</v>
       </c>
       <c r="D275" s="33">
-        <v>45951</v>
+        <v>45961</v>
       </c>
       <c r="E275" s="32" t="s">
         <v>534</v>
@@ -11595,7 +11682,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11624,7 +11711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11653,7 +11740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11682,7 +11769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11711,7 +11798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11740,7 +11827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11769,7 +11856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11798,7 +11885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11827,7 +11914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11856,7 +11943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11885,7 +11972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -11914,7 +12001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -11943,7 +12030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -11972,7 +12059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -12001,7 +12088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -12030,7 +12117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -12059,7 +12146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -12088,7 +12175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -12117,7 +12204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -12146,7 +12233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12175,7 +12262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12204,7 +12291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12233,7 +12320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12262,7 +12349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12291,7 +12378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="32" t="s">
         <v>90</v>
       </c>
@@ -12320,7 +12407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="32" t="s">
         <v>267</v>
       </c>
@@ -12349,7 +12436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="32" t="s">
         <v>74</v>
       </c>
@@ -12378,7 +12465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="32" t="s">
         <v>216</v>
       </c>
@@ -12407,7 +12494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="32" t="s">
         <v>5</v>
       </c>
@@ -12436,7 +12523,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="32" t="s">
         <v>5</v>
       </c>
@@ -12465,7 +12552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="32" t="s">
         <v>5</v>
       </c>
@@ -12494,7 +12581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="32" t="s">
         <v>5</v>
       </c>
@@ -12523,7 +12610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="32" t="s">
         <v>52</v>
       </c>
@@ -12552,7 +12639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="32" t="s">
         <v>267</v>
       </c>
@@ -12581,7 +12668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="32" t="s">
         <v>332</v>
       </c>
@@ -12610,7 +12697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="32" t="s">
         <v>267</v>
       </c>
@@ -12639,7 +12726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="32" t="s">
         <v>74</v>
       </c>
@@ -12668,7 +12755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="32" t="s">
         <v>52</v>
       </c>
@@ -12697,7 +12784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="32" t="s">
         <v>198</v>
       </c>
@@ -12726,7 +12813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="32" t="s">
         <v>198</v>
       </c>
@@ -12755,7 +12842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="32" t="s">
         <v>5</v>
       </c>
@@ -12784,7 +12871,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="32" t="s">
         <v>5</v>
       </c>
@@ -12813,7 +12900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="32" t="s">
         <v>332</v>
       </c>
@@ -12842,7 +12929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="32" t="s">
         <v>5</v>
       </c>
@@ -12865,13 +12952,13 @@
         <v>137</v>
       </c>
       <c r="H319" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I319" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="32" t="s">
         <v>52</v>
       </c>
@@ -12885,7 +12972,7 @@
         <v>45965</v>
       </c>
       <c r="E320" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F320" s="32" t="s">
         <v>54</v>
@@ -12894,13 +12981,13 @@
         <v>58</v>
       </c>
       <c r="H320" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I320" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="32" t="s">
         <v>94</v>
       </c>
@@ -12914,7 +13001,7 @@
         <v>45965</v>
       </c>
       <c r="E321" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F321" s="32" t="s">
         <v>54</v>
@@ -12923,13 +13010,13 @@
         <v>18</v>
       </c>
       <c r="H321" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I321" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="32" t="s">
         <v>5</v>
       </c>
@@ -12943,7 +13030,7 @@
         <v>45933</v>
       </c>
       <c r="E322" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F322" s="32" t="s">
         <v>6</v>
@@ -12952,13 +13039,13 @@
         <v>151</v>
       </c>
       <c r="H322" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I322" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="32" t="s">
         <v>5</v>
       </c>
@@ -12972,7 +13059,7 @@
         <v>45933</v>
       </c>
       <c r="E323" s="32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F323" s="32" t="s">
         <v>6</v>
@@ -12981,13 +13068,13 @@
         <v>1</v>
       </c>
       <c r="H323" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I323" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="32" t="s">
         <v>5</v>
       </c>
@@ -13001,7 +13088,7 @@
         <v>45933</v>
       </c>
       <c r="E324" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F324" s="32" t="s">
         <v>6</v>
@@ -13010,13 +13097,13 @@
         <v>4</v>
       </c>
       <c r="H324" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I324" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="32" t="s">
         <v>5</v>
       </c>
@@ -13030,7 +13117,7 @@
         <v>45933</v>
       </c>
       <c r="E325" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F325" s="32" t="s">
         <v>6</v>
@@ -13039,13 +13126,13 @@
         <v>1</v>
       </c>
       <c r="H325" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I325" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="32" t="s">
         <v>5</v>
       </c>
@@ -13059,7 +13146,7 @@
         <v>45933</v>
       </c>
       <c r="E326" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F326" s="32" t="s">
         <v>6</v>
@@ -13068,10 +13155,474 @@
         <v>1</v>
       </c>
       <c r="H326" s="34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I326" s="26" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A327" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B327" s="33">
+        <v>45902</v>
+      </c>
+      <c r="C327" s="33">
+        <v>45916</v>
+      </c>
+      <c r="D327" s="33">
+        <v>45985</v>
+      </c>
+      <c r="E327" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F327" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G327" s="34">
+        <v>447</v>
+      </c>
+      <c r="H327" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="I327" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A328" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B328" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C328" s="33">
+        <v>45916</v>
+      </c>
+      <c r="D328" s="33">
+        <v>45976</v>
+      </c>
+      <c r="E328" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="F328" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G328" s="34">
+        <v>27</v>
+      </c>
+      <c r="H328" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="I328" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A329" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B329" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C329" s="33">
+        <v>45916</v>
+      </c>
+      <c r="D329" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E329" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="F329" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G329" s="34">
+        <v>113</v>
+      </c>
+      <c r="H329" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="I329" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A330" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B330" s="33">
+        <v>45909</v>
+      </c>
+      <c r="C330" s="33">
+        <v>45916</v>
+      </c>
+      <c r="D330" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E330" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="F330" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G330" s="34">
+        <v>79</v>
+      </c>
+      <c r="H330" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="I330" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A331" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B331" s="33">
+        <v>45909</v>
+      </c>
+      <c r="C331" s="33">
+        <v>45916</v>
+      </c>
+      <c r="D331" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E331" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="F331" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G331" s="34">
+        <v>5</v>
+      </c>
+      <c r="H331" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="I331" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A332" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B332" s="33">
+        <v>45909</v>
+      </c>
+      <c r="C332" s="33">
+        <v>45916</v>
+      </c>
+      <c r="D332" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E332" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="F332" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G332" s="34">
+        <v>3</v>
+      </c>
+      <c r="H332" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="I332" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B333" s="33">
+        <v>45915</v>
+      </c>
+      <c r="C333" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D333" s="33">
+        <v>45915</v>
+      </c>
+      <c r="E333" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F333" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G333" s="34">
+        <v>5</v>
+      </c>
+      <c r="H333" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="I333" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="33">
+        <v>45917</v>
+      </c>
+      <c r="C334" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D334" s="33">
+        <v>45977</v>
+      </c>
+      <c r="E334" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="F334" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G334" s="34">
+        <v>108</v>
+      </c>
+      <c r="H334" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="I334" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B335" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C335" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D335" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E335" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="F335" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G335" s="34">
+        <v>100</v>
+      </c>
+      <c r="H335" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="I335" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B336" s="33">
+        <v>45915</v>
+      </c>
+      <c r="C336" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D336" s="33">
+        <v>45978</v>
+      </c>
+      <c r="E336" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="F336" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G336" s="34">
+        <v>78</v>
+      </c>
+      <c r="H336" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="I336" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B337" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C337" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D337" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E337" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="F337" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G337" s="34">
+        <v>1</v>
+      </c>
+      <c r="H337" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="I337" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B338" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C338" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D338" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E338" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="F338" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G338" s="34">
+        <v>3</v>
+      </c>
+      <c r="H338" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="I338" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B339" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C339" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D339" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E339" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="F339" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G339" s="34">
+        <v>61</v>
+      </c>
+      <c r="H339" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="I339" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B340" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C340" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D340" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E340" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="F340" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G340" s="34">
+        <v>8</v>
+      </c>
+      <c r="H340" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="I340" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B341" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C341" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D341" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E341" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="F341" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G341" s="34">
+        <v>1</v>
+      </c>
+      <c r="H341" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="I341" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B342" s="33">
+        <v>45916</v>
+      </c>
+      <c r="C342" s="33">
+        <v>45917</v>
+      </c>
+      <c r="D342" s="33">
+        <v>45969</v>
+      </c>
+      <c r="E342" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="F342" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G342" s="34">
+        <v>5</v>
+      </c>
+      <c r="H342" s="34" t="s">
+        <v>643</v>
+      </c>
+      <c r="I342" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -13088,7 +13639,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I326</xm:sqref>
+          <xm:sqref>I3:I342</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13102,18 +13653,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -13121,7 +13672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -13130,7 +13681,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -13139,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -13148,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -13157,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -13166,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -13175,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -13201,25 +13752,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -13245,7 +13796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -13287,117 +13838,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE3C20F-6B48-4AD2-8FD5-1021817FF1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0927AA-4C05-48F2-B345-D0AC47952949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="647">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2072,6 +2072,12 @@
     <t>11740 Occidental Rd.  Sebastopol CA 95472</t>
   </si>
   <si>
+    <t>MMCI Acquisition, LLC dba Mortech Manufacturing Company</t>
+  </si>
+  <si>
+    <t>411 Aerojet Avenue  Azusa CA 91702</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">WARN REPORT - </t>
     </r>
@@ -2083,7 +2089,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/17/2025</t>
+      <t>07/01/25 to 09/22/2025</t>
     </r>
     <r>
       <rPr>
@@ -2103,7 +2109,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I342.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I343.</t>
     </r>
   </si>
 </sst>
@@ -3224,7 +3230,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I342" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I343" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3571,37 +3577,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3623,18 +3629,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3642,16 +3648,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>17583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3676,16 +3682,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3713,30 +3719,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="78.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +3773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3823,7 +3831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -3997,7 +4005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -4084,7 +4092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -4113,7 +4121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4229,7 +4237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4258,7 +4266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4316,7 +4324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4345,7 +4353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4403,7 +4411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4432,7 +4440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4490,7 +4498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4519,7 +4527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4548,7 +4556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4577,7 +4585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4606,7 +4614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4664,7 +4672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4693,7 +4701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4751,7 +4759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4780,7 +4788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4809,7 +4817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4867,7 +4875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4925,7 +4933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4954,7 +4962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -5041,7 +5049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -5070,7 +5078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -5099,7 +5107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -5128,7 +5136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -5157,7 +5165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -5186,7 +5194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5273,7 +5281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5302,7 +5310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5331,7 +5339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5389,7 +5397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5418,7 +5426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5476,7 +5484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5505,7 +5513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5563,7 +5571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5650,7 +5658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5679,7 +5687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5708,7 +5716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5737,7 +5745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5795,7 +5803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5853,7 +5861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5882,7 +5890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5911,7 +5919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -5998,7 +6006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -6027,7 +6035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -6056,7 +6064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -6114,7 +6122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -6172,7 +6180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6259,7 +6267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6288,7 +6296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6375,7 +6383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6404,7 +6412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6433,7 +6441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6462,7 +6470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6520,7 +6528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6549,7 +6557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6607,7 +6615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6636,7 +6644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6665,7 +6673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6694,7 +6702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6723,7 +6731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6810,7 +6818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6868,7 +6876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6897,7 +6905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6926,7 +6934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6955,7 +6963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -7013,7 +7021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -7042,7 +7050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -7071,7 +7079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -7100,7 +7108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -7129,7 +7137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -7158,7 +7166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -7187,7 +7195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -7216,7 +7224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7245,7 +7253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7274,7 +7282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7303,7 +7311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7332,7 +7340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7361,7 +7369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7390,7 +7398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7419,7 +7427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7448,7 +7456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7477,7 +7485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7506,7 +7514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7535,7 +7543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7593,7 +7601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7622,7 +7630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7651,7 +7659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7680,7 +7688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7709,7 +7717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7738,7 +7746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7767,7 +7775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7825,7 +7833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7854,7 +7862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7883,7 +7891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7912,7 +7920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7941,7 +7949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7970,7 +7978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -7999,7 +8007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -8057,7 +8065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -8086,7 +8094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -8115,7 +8123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -8144,7 +8152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -8173,7 +8181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8260,7 +8268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8289,7 +8297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8318,7 +8326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8347,7 +8355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8376,7 +8384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8434,7 +8442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8492,7 +8500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8521,7 +8529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +8558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8579,7 +8587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8608,7 +8616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8637,7 +8645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8666,7 +8674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8695,7 +8703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8724,7 +8732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8753,7 +8761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8782,7 +8790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8811,7 +8819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8840,7 +8848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8869,7 +8877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8898,7 +8906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8927,7 +8935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8956,7 +8964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8985,7 +8993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -9014,7 +9022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -9043,7 +9051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -9072,7 +9080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -9101,7 +9109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -9130,7 +9138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -9159,7 +9167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -9188,7 +9196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -9217,7 +9225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9246,7 +9254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9275,7 +9283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9304,7 +9312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9333,7 +9341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9391,7 +9399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9420,7 +9428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9449,7 +9457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9478,7 +9486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9507,7 +9515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9536,7 +9544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9565,7 +9573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9594,7 +9602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9623,7 +9631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9652,7 +9660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9681,7 +9689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9710,7 +9718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9739,7 +9747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9768,7 +9776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9797,7 +9805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9826,7 +9834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9855,7 +9863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9884,7 +9892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9913,7 +9921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9942,7 +9950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9971,7 +9979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -10000,7 +10008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -10029,7 +10037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -10087,7 +10095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -10116,7 +10124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -10145,7 +10153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -10174,7 +10182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -10203,7 +10211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -10232,7 +10240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10261,7 +10269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10290,7 +10298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10319,7 +10327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10348,7 +10356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10377,7 +10385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10406,7 +10414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10435,7 +10443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10464,7 +10472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10493,7 +10501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10522,7 +10530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10551,7 +10559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10580,7 +10588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10609,7 +10617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10638,7 +10646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10667,7 +10675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10725,7 +10733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10754,7 +10762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10783,7 +10791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10812,7 +10820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10841,7 +10849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10870,7 +10878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10899,7 +10907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10928,7 +10936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10957,7 +10965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10986,7 +10994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -11015,7 +11023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -11044,7 +11052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -11073,7 +11081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -11102,7 +11110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -11131,7 +11139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -11160,7 +11168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -11189,7 +11197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -11218,7 +11226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11247,7 +11255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11276,7 +11284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11305,7 +11313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11334,7 +11342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11363,7 +11371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11392,7 +11400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11421,7 +11429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11450,7 +11458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11479,7 +11487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11508,7 +11516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11537,7 +11545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11566,7 +11574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11595,7 +11603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11624,7 +11632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11653,7 +11661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11682,7 +11690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11711,7 +11719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11740,7 +11748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11769,7 +11777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11798,7 +11806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11827,7 +11835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11856,7 +11864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11885,7 +11893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11914,7 +11922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11943,7 +11951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11972,7 +11980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -12001,7 +12009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -12030,7 +12038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -12059,7 +12067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -12088,7 +12096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -12117,7 +12125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -12146,7 +12154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -12175,7 +12183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -12204,7 +12212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -12233,7 +12241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12262,7 +12270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12291,7 +12299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12320,7 +12328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12349,7 +12357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12378,7 +12386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="32" t="s">
         <v>90</v>
       </c>
@@ -12407,7 +12415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="32" t="s">
         <v>267</v>
       </c>
@@ -12436,7 +12444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="32" t="s">
         <v>74</v>
       </c>
@@ -12465,7 +12473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="32" t="s">
         <v>216</v>
       </c>
@@ -12494,7 +12502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="32" t="s">
         <v>5</v>
       </c>
@@ -12523,7 +12531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="32" t="s">
         <v>5</v>
       </c>
@@ -12552,7 +12560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="32" t="s">
         <v>5</v>
       </c>
@@ -12581,7 +12589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="32" t="s">
         <v>5</v>
       </c>
@@ -12610,7 +12618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="32" t="s">
         <v>52</v>
       </c>
@@ -12639,7 +12647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="32" t="s">
         <v>267</v>
       </c>
@@ -12668,7 +12676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="32" t="s">
         <v>332</v>
       </c>
@@ -12697,7 +12705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="32" t="s">
         <v>267</v>
       </c>
@@ -12726,7 +12734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="32" t="s">
         <v>74</v>
       </c>
@@ -12755,7 +12763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="32" t="s">
         <v>52</v>
       </c>
@@ -12784,7 +12792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="32" t="s">
         <v>198</v>
       </c>
@@ -12813,7 +12821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="32" t="s">
         <v>198</v>
       </c>
@@ -12842,7 +12850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="32" t="s">
         <v>5</v>
       </c>
@@ -12871,7 +12879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="32" t="s">
         <v>5</v>
       </c>
@@ -12900,7 +12908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="32" t="s">
         <v>332</v>
       </c>
@@ -12929,7 +12937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="32" t="s">
         <v>5</v>
       </c>
@@ -12958,7 +12966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="32" t="s">
         <v>52</v>
       </c>
@@ -12987,7 +12995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="32" t="s">
         <v>94</v>
       </c>
@@ -13016,7 +13024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="32" t="s">
         <v>5</v>
       </c>
@@ -13045,7 +13053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="32" t="s">
         <v>5</v>
       </c>
@@ -13074,7 +13082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="32" t="s">
         <v>5</v>
       </c>
@@ -13103,7 +13111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="32" t="s">
         <v>5</v>
       </c>
@@ -13132,7 +13140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="32" t="s">
         <v>5</v>
       </c>
@@ -13161,7 +13169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="32" t="s">
         <v>267</v>
       </c>
@@ -13190,7 +13198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="32" t="s">
         <v>267</v>
       </c>
@@ -13219,7 +13227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="32" t="s">
         <v>124</v>
       </c>
@@ -13248,7 +13256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="32" t="s">
         <v>74</v>
       </c>
@@ -13277,7 +13285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="32" t="s">
         <v>74</v>
       </c>
@@ -13306,7 +13314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="32" t="s">
         <v>74</v>
       </c>
@@ -13335,7 +13343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="32" t="s">
         <v>52</v>
       </c>
@@ -13364,7 +13372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="32" t="s">
         <v>5</v>
       </c>
@@ -13393,7 +13401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="32" t="s">
         <v>97</v>
       </c>
@@ -13422,7 +13430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="32" t="s">
         <v>97</v>
       </c>
@@ -13451,7 +13459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="32" t="s">
         <v>124</v>
       </c>
@@ -13480,7 +13488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="32" t="s">
         <v>124</v>
       </c>
@@ -13509,7 +13517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="32" t="s">
         <v>275</v>
       </c>
@@ -13538,7 +13546,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="32" t="s">
         <v>275</v>
       </c>
@@ -13567,7 +13575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="32" t="s">
         <v>275</v>
       </c>
@@ -13596,7 +13604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="32" t="s">
         <v>275</v>
       </c>
@@ -13623,6 +13631,35 @@
       </c>
       <c r="I342" s="26" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="33">
+        <v>45922</v>
+      </c>
+      <c r="C343" s="33">
+        <v>45922</v>
+      </c>
+      <c r="D343" s="33">
+        <v>45992</v>
+      </c>
+      <c r="E343" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="F343" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G343" s="34">
+        <v>46</v>
+      </c>
+      <c r="H343" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="I343" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -13639,7 +13676,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I342</xm:sqref>
+          <xm:sqref>I3:I343</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13653,18 +13690,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -13672,7 +13709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -13681,7 +13718,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -13690,7 +13727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -13699,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -13708,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -13717,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -13726,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -13752,25 +13789,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>614</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -13796,7 +13833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -13838,117 +13875,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0927AA-4C05-48F2-B345-D0AC47952949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1130D-9873-4634-AE0E-4B06E19F9FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="657">
   <si>
     <t>County/Parish</t>
   </si>
@@ -1970,8 +1970,101 @@
     <t>2011 N. Soto.  Los Angeles CA 90032</t>
   </si>
   <si>
+    <t>Thermal Structures, Inc.</t>
+  </si>
+  <si>
+    <t>2362 Railroad Street  Corona CA 92878</t>
+  </si>
+  <si>
+    <t>G&amp;C Staffing, LLC (&amp;quot;Gold Flora&amp;quot;)</t>
+  </si>
+  <si>
+    <t>64125 19th Avenue  Desert Hot Springs CA 92240</t>
+  </si>
+  <si>
+    <t>CRC ED Treatment LLC, Montecatini, Inc. (2524)</t>
+  </si>
+  <si>
+    <t>2524 La Costa Avenue  Carlsbad CA 92009</t>
+  </si>
+  <si>
+    <t>CRC ED Treatment LLC, Montecatini, Inc. (6183)</t>
+  </si>
+  <si>
+    <t>6183 Paseo Del Norte, Suite 110  Carlsbad CA 92011</t>
+  </si>
+  <si>
+    <t>CRC ED Treatment LLC, Montecatini, Inc. (Remote)</t>
+  </si>
+  <si>
+    <t>Remote  Carlsbad CA 92009</t>
+  </si>
+  <si>
+    <t>5820 Owens Dr., Bldg. E  Pleasanton CA 94588</t>
+  </si>
+  <si>
+    <t>IPG DXTRA Entertainment, Inc. d/b/a Rogers &amp; Cowan PMK (&amp;quot;Company&amp;quot;)</t>
+  </si>
+  <si>
+    <t>1840 Century Park E  Los Angeles CA 90067</t>
+  </si>
+  <si>
+    <t>Arsenal Biosciences, Inc.</t>
+  </si>
+  <si>
+    <t>329 Oyster Point Blvd.  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>Carbon, Inc.</t>
+  </si>
+  <si>
+    <t>1089 Mills Way  Redwood City CA 94063</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center 1160</t>
+  </si>
+  <si>
+    <t>1160 Jacob Lane  Carmichael CA 95608</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 2641</t>
+  </si>
+  <si>
+    <t>2641 Cottage Way #8, 9, &amp;10  Sacramento CA 95825</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 2264</t>
+  </si>
+  <si>
+    <t>2264 Green Hill Rd.  Sebastopol CA 95472</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 7064</t>
+  </si>
+  <si>
+    <t>7064 Corline Court, Ste. A and B  Sebastopol CA 954472</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 5665</t>
+  </si>
+  <si>
+    <t>5665 Burnside Road  Sebastopol CA 95472</t>
+  </si>
+  <si>
+    <t>Azure Acres Treatment Center - 11740</t>
+  </si>
+  <si>
+    <t>11740 Occidental Rd.  Sebastopol CA 95472</t>
+  </si>
+  <si>
+    <t>MMCI Acquisition, LLC dba Mortech Manufacturing Company</t>
+  </si>
+  <si>
+    <t>411 Aerojet Avenue  Azusa CA 91702</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/17/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/24/2025
 </t>
     </r>
     <r>
@@ -1985,97 +2078,34 @@
     </r>
   </si>
   <si>
-    <t>Thermal Structures, Inc.</t>
-  </si>
-  <si>
-    <t>2362 Railroad Street  Corona CA 92878</t>
-  </si>
-  <si>
-    <t>G&amp;C Staffing, LLC (&amp;quot;Gold Flora&amp;quot;)</t>
-  </si>
-  <si>
-    <t>64125 19th Avenue  Desert Hot Springs CA 92240</t>
-  </si>
-  <si>
-    <t>CRC ED Treatment LLC, Montecatini, Inc. (2524)</t>
-  </si>
-  <si>
-    <t>2524 La Costa Avenue  Carlsbad CA 92009</t>
-  </si>
-  <si>
-    <t>CRC ED Treatment LLC, Montecatini, Inc. (6183)</t>
-  </si>
-  <si>
-    <t>6183 Paseo Del Norte, Suite 110  Carlsbad CA 92011</t>
-  </si>
-  <si>
-    <t>CRC ED Treatment LLC, Montecatini, Inc. (Remote)</t>
-  </si>
-  <si>
-    <t>Remote  Carlsbad CA 92009</t>
-  </si>
-  <si>
-    <t>5820 Owens Dr., Bldg. E  Pleasanton CA 94588</t>
-  </si>
-  <si>
-    <t>IPG DXTRA Entertainment, Inc. d/b/a Rogers &amp; Cowan PMK (&amp;quot;Company&amp;quot;)</t>
-  </si>
-  <si>
-    <t>1840 Century Park E  Los Angeles CA 90067</t>
-  </si>
-  <si>
-    <t>Arsenal Biosciences, Inc.</t>
-  </si>
-  <si>
-    <t>329 Oyster Point Blvd.  South San Francisco CA 94080</t>
-  </si>
-  <si>
-    <t>Carbon, Inc.</t>
-  </si>
-  <si>
-    <t>1089 Mills Way  Redwood City CA 94063</t>
-  </si>
-  <si>
-    <t>Azure Acres Treatment Center 1160</t>
-  </si>
-  <si>
-    <t>1160 Jacob Lane  Carmichael CA 95608</t>
-  </si>
-  <si>
-    <t>Azure Acres Treatment Center - 2641</t>
-  </si>
-  <si>
-    <t>2641 Cottage Way #8, 9, &amp;10  Sacramento CA 95825</t>
-  </si>
-  <si>
-    <t>Azure Acres Treatment Center - 2264</t>
-  </si>
-  <si>
-    <t>2264 Green Hill Rd.  Sebastopol CA 95472</t>
-  </si>
-  <si>
-    <t>Azure Acres Treatment Center - 7064</t>
-  </si>
-  <si>
-    <t>7064 Corline Court, Ste. A and B  Sebastopol CA 954472</t>
-  </si>
-  <si>
-    <t>Azure Acres Treatment Center - 5665</t>
-  </si>
-  <si>
-    <t>5665 Burnside Road  Sebastopol CA 95472</t>
-  </si>
-  <si>
-    <t>Azure Acres Treatment Center - 11740</t>
-  </si>
-  <si>
-    <t>11740 Occidental Rd.  Sebastopol CA 95472</t>
-  </si>
-  <si>
-    <t>MMCI Acquisition, LLC dba Mortech Manufacturing Company</t>
-  </si>
-  <si>
-    <t>411 Aerojet Avenue  Azusa CA 91702</t>
+    <t>Dreyer's Grand Ice Cream's</t>
+  </si>
+  <si>
+    <t>7301 District Boulevard  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>Point Quest, Inc.</t>
+  </si>
+  <si>
+    <t>9510 Elk Grove Florin Rd.  Elk Grove CA 95624</t>
+  </si>
+  <si>
+    <t>5735 47th Avenue  Sacramento CA 95824</t>
+  </si>
+  <si>
+    <t>Valyria, LLC</t>
+  </si>
+  <si>
+    <t>1050 Aviator Drive  Vacaville CA 95688</t>
+  </si>
+  <si>
+    <t>Dreyer's Grand Ice Cream</t>
+  </si>
+  <si>
+    <t>970 E. Continental  Tulare CA 93274</t>
+  </si>
+  <si>
+    <t>970 E. Continental Ave.  Tulare CA 93274</t>
   </si>
   <si>
     <r>
@@ -2089,7 +2119,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/22/2025</t>
+      <t>07/01/25 to 09/24/2025</t>
     </r>
     <r>
       <rPr>
@@ -2109,7 +2139,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I343.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I349.</t>
     </r>
   </si>
 </sst>
@@ -3230,7 +3260,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I343" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I349" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3577,37 +3607,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3629,18 +3659,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3648,16 +3678,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>17629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3665,16 +3695,16 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3682,25 +3712,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3719,32 +3749,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="59.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="99.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3802,7 +3830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3831,7 +3859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3889,7 +3917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3918,7 +3946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3947,7 +3975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3976,7 +4004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -4005,7 +4033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -4034,7 +4062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -4063,7 +4091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -4092,7 +4120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -4121,7 +4149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -4150,7 +4178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -4179,7 +4207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -4208,7 +4236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +4265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4266,7 +4294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4295,7 +4323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4324,7 +4352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4353,7 +4381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4382,7 +4410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4411,7 +4439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4469,7 +4497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4498,7 +4526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4527,7 +4555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4556,7 +4584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4585,7 +4613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4614,7 +4642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4643,7 +4671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4672,7 +4700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4701,7 +4729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4730,7 +4758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4759,7 +4787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4788,7 +4816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4817,7 +4845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4846,7 +4874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4875,7 +4903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4904,7 +4932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4933,7 +4961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4962,7 +4990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -4991,7 +5019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -5020,7 +5048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -5049,7 +5077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -5078,7 +5106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -5107,7 +5135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -5136,7 +5164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -5165,7 +5193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -5194,7 +5222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -5223,7 +5251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5252,7 +5280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5281,7 +5309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5310,7 +5338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5339,7 +5367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5368,7 +5396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5397,7 +5425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5426,7 +5454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5455,7 +5483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5484,7 +5512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5513,7 +5541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5542,7 +5570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5571,7 +5599,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5600,7 +5628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5629,7 +5657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5658,7 +5686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5687,7 +5715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5716,7 +5744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5745,7 +5773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5774,7 +5802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5803,7 +5831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5832,7 +5860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5861,7 +5889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5890,7 +5918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5919,7 +5947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5948,7 +5976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -5977,7 +6005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -6006,7 +6034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -6035,7 +6063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -6064,7 +6092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -6093,7 +6121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -6122,7 +6150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -6151,7 +6179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -6180,7 +6208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -6209,7 +6237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -6238,7 +6266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6267,7 +6295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6296,7 +6324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6325,7 +6353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6354,7 +6382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6383,7 +6411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6412,7 +6440,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6441,7 +6469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6470,7 +6498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6499,7 +6527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6528,7 +6556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6557,7 +6585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6586,7 +6614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6615,7 +6643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6644,7 +6672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6673,7 +6701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6702,7 +6730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6731,7 +6759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6760,7 +6788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6789,7 +6817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6818,7 +6846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6847,7 +6875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6876,7 +6904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6905,7 +6933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6934,7 +6962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6963,7 +6991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -6992,7 +7020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -7021,7 +7049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -7050,7 +7078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -7079,7 +7107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -7108,7 +7136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -7137,7 +7165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -7166,7 +7194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -7195,7 +7223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -7224,7 +7252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7253,7 +7281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7282,7 +7310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7311,7 +7339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7340,7 +7368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7369,7 +7397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7398,7 +7426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7427,7 +7455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7456,7 +7484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7485,7 +7513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7514,7 +7542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7543,7 +7571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7569,10 +7597,10 @@
         <v>400</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7598,10 +7626,10 @@
         <v>298</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7627,10 +7655,10 @@
         <v>300</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7656,10 +7684,10 @@
         <v>302</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7685,10 +7713,10 @@
         <v>304</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7714,10 +7742,10 @@
         <v>306</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7743,10 +7771,10 @@
         <v>308</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7772,10 +7800,10 @@
         <v>310</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7801,10 +7829,10 @@
         <v>313</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7833,7 +7861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7862,7 +7890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7891,7 +7919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7920,7 +7948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7949,7 +7977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -7975,10 +8003,10 @@
         <v>322</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -8004,10 +8032,10 @@
         <v>324</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -8033,10 +8061,10 @@
         <v>325</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -8062,10 +8090,10 @@
         <v>326</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -8094,7 +8122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -8120,10 +8148,10 @@
         <v>330</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -8149,10 +8177,10 @@
         <v>331</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -8178,10 +8206,10 @@
         <v>334</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -8210,7 +8238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -8239,7 +8267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8268,7 +8296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8297,7 +8325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8323,10 +8351,10 @@
         <v>343</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8352,10 +8380,10 @@
         <v>344</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8384,7 +8412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8413,7 +8441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8442,7 +8470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8471,7 +8499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8500,7 +8528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8526,10 +8554,10 @@
         <v>351</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8558,7 +8586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8587,7 +8615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8613,10 +8641,10 @@
         <v>357</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8642,10 +8670,10 @@
         <v>359</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8671,10 +8699,10 @@
         <v>361</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8700,10 +8728,10 @@
         <v>363</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8729,10 +8757,10 @@
         <v>365</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8758,10 +8786,10 @@
         <v>367</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8787,10 +8815,10 @@
         <v>369</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8816,10 +8844,10 @@
         <v>371</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8845,10 +8873,10 @@
         <v>373</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8874,10 +8902,10 @@
         <v>375</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8906,7 +8934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8935,7 +8963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8964,7 +8992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -8993,7 +9021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -9022,7 +9050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -9051,7 +9079,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -9080,7 +9108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -9109,7 +9137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -9138,7 +9166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -9167,7 +9195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -9196,7 +9224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -9225,7 +9253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9254,7 +9282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9283,7 +9311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9312,7 +9340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9341,7 +9369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9370,7 +9398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9399,7 +9427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9428,7 +9456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9457,7 +9485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9486,7 +9514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9515,7 +9543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9544,7 +9572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9573,7 +9601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9602,7 +9630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9631,7 +9659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9660,7 +9688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9689,7 +9717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9718,7 +9746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9747,7 +9775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9776,7 +9804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9805,7 +9833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9834,7 +9862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9863,7 +9891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9892,7 +9920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9921,7 +9949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9950,7 +9978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -9979,7 +10007,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -10008,7 +10036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -10037,7 +10065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -10066,7 +10094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -10095,7 +10123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -10124,7 +10152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -10153,7 +10181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -10182,7 +10210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -10211,7 +10239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -10240,7 +10268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10269,7 +10297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10298,7 +10326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10327,7 +10355,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10356,7 +10384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10385,7 +10413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10414,7 +10442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10443,7 +10471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10472,7 +10500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10501,7 +10529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10530,7 +10558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10559,7 +10587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10588,7 +10616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10617,7 +10645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10646,7 +10674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10675,7 +10703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10704,7 +10732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10733,7 +10761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10762,7 +10790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10791,7 +10819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10820,7 +10848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10849,7 +10877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10878,7 +10906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10907,7 +10935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10936,7 +10964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10965,7 +10993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -10994,7 +11022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -11023,7 +11051,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -11052,7 +11080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -11081,7 +11109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -11110,7 +11138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -11139,7 +11167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -11168,7 +11196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -11197,7 +11225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -11226,7 +11254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11255,7 +11283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11284,7 +11312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11313,7 +11341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11342,7 +11370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11371,7 +11399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11400,7 +11428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11429,7 +11457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11458,7 +11486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11487,7 +11515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11516,7 +11544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11545,7 +11573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11574,7 +11602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11603,7 +11631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11632,7 +11660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11661,7 +11689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11690,7 +11718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11719,7 +11747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11748,7 +11776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11777,7 +11805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11806,7 +11834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11835,7 +11863,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11864,7 +11892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11893,7 +11921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11922,7 +11950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11951,7 +11979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -11980,7 +12008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -12009,7 +12037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -12038,7 +12066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -12067,7 +12095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -12096,7 +12124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -12125,7 +12153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -12154,7 +12182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -12183,7 +12211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -12212,7 +12240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -12241,7 +12269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12270,7 +12298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12299,7 +12327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12328,7 +12356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12357,7 +12385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12386,7 +12414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="32" t="s">
         <v>90</v>
       </c>
@@ -12415,7 +12443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="32" t="s">
         <v>267</v>
       </c>
@@ -12444,7 +12472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="32" t="s">
         <v>74</v>
       </c>
@@ -12473,7 +12501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="32" t="s">
         <v>216</v>
       </c>
@@ -12502,7 +12530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="32" t="s">
         <v>5</v>
       </c>
@@ -12531,7 +12559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="32" t="s">
         <v>5</v>
       </c>
@@ -12560,7 +12588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="32" t="s">
         <v>5</v>
       </c>
@@ -12589,7 +12617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="32" t="s">
         <v>5</v>
       </c>
@@ -12618,7 +12646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="32" t="s">
         <v>52</v>
       </c>
@@ -12647,7 +12675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="32" t="s">
         <v>267</v>
       </c>
@@ -12676,7 +12704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="32" t="s">
         <v>332</v>
       </c>
@@ -12705,7 +12733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="32" t="s">
         <v>267</v>
       </c>
@@ -12734,7 +12762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="32" t="s">
         <v>74</v>
       </c>
@@ -12763,7 +12791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="32" t="s">
         <v>52</v>
       </c>
@@ -12792,7 +12820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="32" t="s">
         <v>198</v>
       </c>
@@ -12821,7 +12849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="32" t="s">
         <v>198</v>
       </c>
@@ -12850,7 +12878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="32" t="s">
         <v>5</v>
       </c>
@@ -12879,7 +12907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="32" t="s">
         <v>5</v>
       </c>
@@ -12908,7 +12936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="32" t="s">
         <v>332</v>
       </c>
@@ -12937,7 +12965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="32" t="s">
         <v>5</v>
       </c>
@@ -12966,7 +12994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="32" t="s">
         <v>52</v>
       </c>
@@ -12995,7 +13023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="32" t="s">
         <v>94</v>
       </c>
@@ -13024,7 +13052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="32" t="s">
         <v>5</v>
       </c>
@@ -13053,7 +13081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="32" t="s">
         <v>5</v>
       </c>
@@ -13082,7 +13110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="32" t="s">
         <v>5</v>
       </c>
@@ -13111,7 +13139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="32" t="s">
         <v>5</v>
       </c>
@@ -13140,7 +13168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="32" t="s">
         <v>5</v>
       </c>
@@ -13169,7 +13197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="32" t="s">
         <v>267</v>
       </c>
@@ -13183,7 +13211,7 @@
         <v>45985</v>
       </c>
       <c r="E327" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F327" s="32" t="s">
         <v>107</v>
@@ -13192,13 +13220,13 @@
         <v>447</v>
       </c>
       <c r="H327" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I327" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="32" t="s">
         <v>267</v>
       </c>
@@ -13212,7 +13240,7 @@
         <v>45976</v>
       </c>
       <c r="E328" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F328" s="32" t="s">
         <v>54</v>
@@ -13221,13 +13249,13 @@
         <v>27</v>
       </c>
       <c r="H328" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I328" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="32" t="s">
         <v>124</v>
       </c>
@@ -13256,7 +13284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="32" t="s">
         <v>74</v>
       </c>
@@ -13270,7 +13298,7 @@
         <v>45969</v>
       </c>
       <c r="E330" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F330" s="32" t="s">
         <v>54</v>
@@ -13279,13 +13307,13 @@
         <v>79</v>
       </c>
       <c r="H330" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I330" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="32" t="s">
         <v>74</v>
       </c>
@@ -13299,7 +13327,7 @@
         <v>45969</v>
       </c>
       <c r="E331" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F331" s="32" t="s">
         <v>54</v>
@@ -13308,13 +13336,13 @@
         <v>5</v>
       </c>
       <c r="H331" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I331" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="32" t="s">
         <v>74</v>
       </c>
@@ -13328,7 +13356,7 @@
         <v>45969</v>
       </c>
       <c r="E332" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F332" s="32" t="s">
         <v>54</v>
@@ -13337,13 +13365,13 @@
         <v>3</v>
       </c>
       <c r="H332" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I332" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="32" t="s">
         <v>52</v>
       </c>
@@ -13366,13 +13394,13 @@
         <v>5</v>
       </c>
       <c r="H333" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I333" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="32" t="s">
         <v>5</v>
       </c>
@@ -13386,7 +13414,7 @@
         <v>45977</v>
       </c>
       <c r="E334" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F334" s="32" t="s">
         <v>6</v>
@@ -13395,13 +13423,13 @@
         <v>108</v>
       </c>
       <c r="H334" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I334" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="32" t="s">
         <v>97</v>
       </c>
@@ -13415,7 +13443,7 @@
         <v>45975</v>
       </c>
       <c r="E335" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F335" s="32" t="s">
         <v>6</v>
@@ -13424,13 +13452,13 @@
         <v>100</v>
       </c>
       <c r="H335" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I335" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="32" t="s">
         <v>97</v>
       </c>
@@ -13444,7 +13472,7 @@
         <v>45978</v>
       </c>
       <c r="E336" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F336" s="32" t="s">
         <v>6</v>
@@ -13453,13 +13481,13 @@
         <v>78</v>
       </c>
       <c r="H336" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I336" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="32" t="s">
         <v>124</v>
       </c>
@@ -13473,7 +13501,7 @@
         <v>45969</v>
       </c>
       <c r="E337" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F337" s="32" t="s">
         <v>54</v>
@@ -13482,13 +13510,13 @@
         <v>1</v>
       </c>
       <c r="H337" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I337" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="32" t="s">
         <v>124</v>
       </c>
@@ -13502,7 +13530,7 @@
         <v>45969</v>
       </c>
       <c r="E338" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F338" s="32" t="s">
         <v>54</v>
@@ -13511,13 +13539,13 @@
         <v>3</v>
       </c>
       <c r="H338" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I338" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="32" t="s">
         <v>275</v>
       </c>
@@ -13531,7 +13559,7 @@
         <v>45969</v>
       </c>
       <c r="E339" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F339" s="32" t="s">
         <v>54</v>
@@ -13540,13 +13568,13 @@
         <v>61</v>
       </c>
       <c r="H339" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I339" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="32" t="s">
         <v>275</v>
       </c>
@@ -13560,7 +13588,7 @@
         <v>45969</v>
       </c>
       <c r="E340" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F340" s="32" t="s">
         <v>54</v>
@@ -13569,13 +13597,13 @@
         <v>8</v>
       </c>
       <c r="H340" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I340" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="32" t="s">
         <v>275</v>
       </c>
@@ -13589,7 +13617,7 @@
         <v>45969</v>
       </c>
       <c r="E341" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F341" s="32" t="s">
         <v>54</v>
@@ -13598,13 +13626,13 @@
         <v>1</v>
       </c>
       <c r="H341" s="34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I341" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="32" t="s">
         <v>275</v>
       </c>
@@ -13618,7 +13646,7 @@
         <v>45969</v>
       </c>
       <c r="E342" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F342" s="32" t="s">
         <v>54</v>
@@ -13627,13 +13655,13 @@
         <v>5</v>
       </c>
       <c r="H342" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I342" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="32" t="s">
         <v>5</v>
       </c>
@@ -13647,7 +13675,7 @@
         <v>45992</v>
       </c>
       <c r="E343" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F343" s="32" t="s">
         <v>54</v>
@@ -13656,10 +13684,184 @@
         <v>46</v>
       </c>
       <c r="H343" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I343" s="26" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B344" s="33">
+        <v>45924</v>
+      </c>
+      <c r="C344" s="33">
+        <v>45924</v>
+      </c>
+      <c r="D344" s="33">
+        <v>45984</v>
+      </c>
+      <c r="E344" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="F344" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G344" s="34">
+        <v>214</v>
+      </c>
+      <c r="H344" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="I344" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B345" s="33">
+        <v>45923</v>
+      </c>
+      <c r="C345" s="33">
+        <v>45924</v>
+      </c>
+      <c r="D345" s="33">
+        <v>45922</v>
+      </c>
+      <c r="E345" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="F345" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G345" s="34">
+        <v>66</v>
+      </c>
+      <c r="H345" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="I345" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B346" s="33">
+        <v>45923</v>
+      </c>
+      <c r="C346" s="33">
+        <v>45924</v>
+      </c>
+      <c r="D346" s="33">
+        <v>45922</v>
+      </c>
+      <c r="E346" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="F346" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G346" s="34">
+        <v>100</v>
+      </c>
+      <c r="H346" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="I346" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B347" s="33">
+        <v>45924</v>
+      </c>
+      <c r="C347" s="33">
+        <v>45924</v>
+      </c>
+      <c r="D347" s="33">
+        <v>45982</v>
+      </c>
+      <c r="E347" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="F347" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G347" s="34">
+        <v>25</v>
+      </c>
+      <c r="H347" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="I347" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B348" s="33">
+        <v>45923</v>
+      </c>
+      <c r="C348" s="33">
+        <v>45924</v>
+      </c>
+      <c r="D348" s="33">
+        <v>45985</v>
+      </c>
+      <c r="E348" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="F348" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G348" s="34">
+        <v>188</v>
+      </c>
+      <c r="H348" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="I348" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B349" s="33">
+        <v>45924</v>
+      </c>
+      <c r="C349" s="33">
+        <v>45924</v>
+      </c>
+      <c r="D349" s="33">
+        <v>45985</v>
+      </c>
+      <c r="E349" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="F349" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G349" s="34">
+        <v>110</v>
+      </c>
+      <c r="H349" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="I349" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -13676,7 +13878,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I343</xm:sqref>
+          <xm:sqref>I3:I349</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13690,18 +13892,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -13709,7 +13911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -13718,7 +13920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -13727,7 +13929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -13736,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -13745,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -13754,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -13763,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -13789,25 +13991,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -13833,7 +14035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -13875,117 +14077,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1130D-9873-4634-AE0E-4B06E19F9FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{660367D6-1A43-4E28-92C4-62C34D3C2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="690">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2063,8 +2063,38 @@
     <t>411 Aerojet Avenue  Azusa CA 91702</t>
   </si>
   <si>
+    <t>Dreyer's Grand Ice Cream's</t>
+  </si>
+  <si>
+    <t>7301 District Boulevard  Bakersfield CA 93313</t>
+  </si>
+  <si>
+    <t>Point Quest, Inc.</t>
+  </si>
+  <si>
+    <t>9510 Elk Grove Florin Rd.  Elk Grove CA 95624</t>
+  </si>
+  <si>
+    <t>5735 47th Avenue  Sacramento CA 95824</t>
+  </si>
+  <si>
+    <t>Valyria, LLC</t>
+  </si>
+  <si>
+    <t>1050 Aviator Drive  Vacaville CA 95688</t>
+  </si>
+  <si>
+    <t>Dreyer's Grand Ice Cream</t>
+  </si>
+  <si>
+    <t>970 E. Continental  Tulare CA 93274</t>
+  </si>
+  <si>
+    <t>970 E. Continental Ave.  Tulare CA 93274</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/24/2025
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/29/2025
 </t>
     </r>
     <r>
@@ -2078,34 +2108,103 @@
     </r>
   </si>
   <si>
-    <t>Dreyer's Grand Ice Cream's</t>
-  </si>
-  <si>
-    <t>7301 District Boulevard  Bakersfield CA 93313</t>
-  </si>
-  <si>
-    <t>Point Quest, Inc.</t>
-  </si>
-  <si>
-    <t>9510 Elk Grove Florin Rd.  Elk Grove CA 95624</t>
-  </si>
-  <si>
-    <t>5735 47th Avenue  Sacramento CA 95824</t>
-  </si>
-  <si>
-    <t>Valyria, LLC</t>
-  </si>
-  <si>
-    <t>1050 Aviator Drive  Vacaville CA 95688</t>
-  </si>
-  <si>
-    <t>Dreyer's Grand Ice Cream</t>
-  </si>
-  <si>
-    <t>970 E. Continental  Tulare CA 93274</t>
-  </si>
-  <si>
-    <t>970 E. Continental Ave.  Tulare CA 93274</t>
+    <t>Palo Verde Healthcare District</t>
+  </si>
+  <si>
+    <t>250 N First Street  Blythe CA 92225</t>
+  </si>
+  <si>
+    <t>Eclipse Advantage, LLC</t>
+  </si>
+  <si>
+    <t>5540 E. 4th Street  Ontario CA 91764</t>
+  </si>
+  <si>
+    <t>Jabil Inc.</t>
+  </si>
+  <si>
+    <t>30 Great Oaks Boulevard  San Jose CA 95119</t>
+  </si>
+  <si>
+    <t>Humboldt County</t>
+  </si>
+  <si>
+    <t>Avelo Airlines, Inc.</t>
+  </si>
+  <si>
+    <t>3561 Boeing Avenue  Mckinleyville CA 95519</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Dublin Physical &amp; Hand Therapy)</t>
+  </si>
+  <si>
+    <t>4000 Dublin Blvd #320  Dublin CA 94568</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Fremont Physical Therapy &amp; Hand Therapy)</t>
+  </si>
+  <si>
+    <t>3200 Kearney St  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health San Carlos Physical Therapy &amp; Hand Therapy)</t>
+  </si>
+  <si>
+    <t>301 Industrial Rd  San Carlos CA 94070</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Sunnyvale Physical Therapy 1085)</t>
+  </si>
+  <si>
+    <t>1085 West El Camino Real  Sunnyvale CA 94087</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Sunnyvale Center 401 Physical Therapy)</t>
+  </si>
+  <si>
+    <t>401 Old San Francisco Road  Sunnyvale CA 94086</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Sunnyvale Center (301) Physical Therapy)</t>
+  </si>
+  <si>
+    <t>301 Old San Francisco Road  Sunnyvale CA 94086</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Mountain View Center)</t>
+  </si>
+  <si>
+    <t>701 East El Camino Real  Mountain View CA 94040</t>
+  </si>
+  <si>
+    <t>Agile Physical Therapy (Sutter Health Palo Alto Physical Therapy &amp; Hand Therapy)</t>
+  </si>
+  <si>
+    <t>795 El Camino Real  Palo Alto CA 94301</t>
+  </si>
+  <si>
+    <t>GEP Administrative Services, LLC dba Entertainment Partners</t>
+  </si>
+  <si>
+    <t>2950 N. Hollywood Way  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>City of Hope</t>
+  </si>
+  <si>
+    <t>1500 E. Duarte Road  Duarte CA 91010</t>
+  </si>
+  <si>
+    <t>4900 Rivergrade Road  Baldwin Park CA 91706</t>
+  </si>
+  <si>
+    <t>GSK plc.</t>
+  </si>
+  <si>
+    <t>499 Illinois Street  San Francisco CA 94158</t>
+  </si>
+  <si>
+    <t>2627 N Hollywood Way  Burbank CA 91505</t>
   </si>
   <si>
     <r>
@@ -2119,7 +2218,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/24/2025</t>
+      <t>07/01/25 to 09/29/2025</t>
     </r>
     <r>
       <rPr>
@@ -2139,7 +2238,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I349.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I368.</t>
     </r>
   </si>
 </sst>
@@ -3260,7 +3359,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I349" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I368" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3607,37 +3706,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -3659,18 +3758,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -3678,16 +3777,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>18332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +3794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3704,7 +3803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3712,25 +3811,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Temporary")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3749,30 +3848,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I368"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="78.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="78.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +3900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -3830,7 +3929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +3958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
@@ -3888,7 +3987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
@@ -3917,7 +4016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>64</v>
       </c>
@@ -3946,7 +4045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>64</v>
       </c>
@@ -3975,7 +4074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>64</v>
       </c>
@@ -4004,7 +4103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -4033,7 +4132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>74</v>
       </c>
@@ -4062,7 +4161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
@@ -4091,7 +4190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
@@ -4120,7 +4219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
@@ -4149,7 +4248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -4178,7 +4277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>74</v>
       </c>
@@ -4207,7 +4306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>52</v>
       </c>
@@ -4236,7 +4335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4265,7 +4364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>74</v>
       </c>
@@ -4294,7 +4393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>90</v>
       </c>
@@ -4323,7 +4422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>92</v>
       </c>
@@ -4352,7 +4451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>94</v>
       </c>
@@ -4381,7 +4480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>97</v>
       </c>
@@ -4410,7 +4509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>90</v>
       </c>
@@ -4439,7 +4538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
@@ -4468,7 +4567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>5</v>
       </c>
@@ -4497,7 +4596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>5</v>
       </c>
@@ -4526,7 +4625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>90</v>
       </c>
@@ -4555,7 +4654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>90</v>
       </c>
@@ -4584,7 +4683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>90</v>
       </c>
@@ -4613,7 +4712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4642,7 +4741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>90</v>
       </c>
@@ -4671,7 +4770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
@@ -4700,7 +4799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
@@ -4729,7 +4828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>64</v>
       </c>
@@ -4758,7 +4857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>124</v>
       </c>
@@ -4787,7 +4886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
@@ -4816,7 +4915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
@@ -4845,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>5</v>
       </c>
@@ -4874,7 +4973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>132</v>
       </c>
@@ -4903,7 +5002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
@@ -4932,7 +5031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>5</v>
       </c>
@@ -4961,7 +5060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>74</v>
       </c>
@@ -4990,7 +5089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>52</v>
       </c>
@@ -5019,7 +5118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>52</v>
       </c>
@@ -5048,7 +5147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>64</v>
       </c>
@@ -5077,7 +5176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
@@ -5106,7 +5205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>74</v>
       </c>
@@ -5135,7 +5234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>74</v>
       </c>
@@ -5164,7 +5263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>74</v>
       </c>
@@ -5193,7 +5292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>74</v>
       </c>
@@ -5222,7 +5321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>74</v>
       </c>
@@ -5251,7 +5350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>74</v>
       </c>
@@ -5280,7 +5379,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>74</v>
       </c>
@@ -5309,7 +5408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>74</v>
       </c>
@@ -5338,7 +5437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>74</v>
       </c>
@@ -5367,7 +5466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>74</v>
       </c>
@@ -5396,7 +5495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>74</v>
       </c>
@@ -5425,7 +5524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>74</v>
       </c>
@@ -5454,7 +5553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>74</v>
       </c>
@@ -5483,7 +5582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>90</v>
       </c>
@@ -5512,7 +5611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>5</v>
       </c>
@@ -5541,7 +5640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>5</v>
       </c>
@@ -5570,7 +5669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>5</v>
       </c>
@@ -5599,7 +5698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>5</v>
       </c>
@@ -5628,7 +5727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>5</v>
       </c>
@@ -5657,7 +5756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>5</v>
       </c>
@@ -5686,7 +5785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>5</v>
       </c>
@@ -5715,7 +5814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>124</v>
       </c>
@@ -5744,7 +5843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>71</v>
       </c>
@@ -5773,7 +5872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>5</v>
       </c>
@@ -5802,7 +5901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>90</v>
       </c>
@@ -5831,7 +5930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>90</v>
       </c>
@@ -5860,7 +5959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>90</v>
       </c>
@@ -5889,7 +5988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>90</v>
       </c>
@@ -5918,7 +6017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>90</v>
       </c>
@@ -5947,7 +6046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>90</v>
       </c>
@@ -5976,7 +6075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>52</v>
       </c>
@@ -6005,7 +6104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -6034,7 +6133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>52</v>
       </c>
@@ -6063,7 +6162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>203</v>
       </c>
@@ -6092,7 +6191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>203</v>
       </c>
@@ -6121,7 +6220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>5</v>
       </c>
@@ -6150,7 +6249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
@@ -6179,7 +6278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>124</v>
       </c>
@@ -6208,7 +6307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>74</v>
       </c>
@@ -6237,7 +6336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>216</v>
       </c>
@@ -6266,7 +6365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>219</v>
       </c>
@@ -6295,7 +6394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>52</v>
       </c>
@@ -6324,7 +6423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>5</v>
       </c>
@@ -6353,7 +6452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>5</v>
       </c>
@@ -6382,7 +6481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>64</v>
       </c>
@@ -6411,7 +6510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>94</v>
       </c>
@@ -6440,7 +6539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>97</v>
       </c>
@@ -6469,7 +6568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>74</v>
       </c>
@@ -6498,7 +6597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>94</v>
       </c>
@@ -6527,7 +6626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>94</v>
       </c>
@@ -6556,7 +6655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>233</v>
       </c>
@@ -6585,7 +6684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>92</v>
       </c>
@@ -6614,7 +6713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>52</v>
       </c>
@@ -6643,7 +6742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>247</v>
       </c>
@@ -6672,7 +6771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>247</v>
       </c>
@@ -6701,7 +6800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>251</v>
       </c>
@@ -6730,7 +6829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>5</v>
       </c>
@@ -6759,7 +6858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>5</v>
       </c>
@@ -6788,7 +6887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>5</v>
       </c>
@@ -6817,7 +6916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>5</v>
       </c>
@@ -6846,7 +6945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>5</v>
       </c>
@@ -6875,7 +6974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>263</v>
       </c>
@@ -6904,7 +7003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>219</v>
       </c>
@@ -6933,7 +7032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>90</v>
       </c>
@@ -6962,7 +7061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>64</v>
       </c>
@@ -6991,7 +7090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>64</v>
       </c>
@@ -7020,7 +7119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>267</v>
       </c>
@@ -7049,7 +7148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>267</v>
       </c>
@@ -7078,7 +7177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>124</v>
       </c>
@@ -7107,7 +7206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>124</v>
       </c>
@@ -7136,7 +7235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>74</v>
       </c>
@@ -7165,7 +7264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>74</v>
       </c>
@@ -7194,7 +7293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>216</v>
       </c>
@@ -7223,7 +7322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>132</v>
       </c>
@@ -7252,7 +7351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>275</v>
       </c>
@@ -7281,7 +7380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>5</v>
       </c>
@@ -7310,7 +7409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>278</v>
       </c>
@@ -7339,7 +7438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>74</v>
       </c>
@@ -7368,7 +7467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>52</v>
       </c>
@@ -7397,7 +7496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>285</v>
       </c>
@@ -7426,7 +7525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>267</v>
       </c>
@@ -7455,7 +7554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>132</v>
       </c>
@@ -7484,7 +7583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>132</v>
       </c>
@@ -7513,7 +7612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>132</v>
       </c>
@@ -7542,7 +7641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>92</v>
       </c>
@@ -7571,7 +7670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>97</v>
       </c>
@@ -7600,7 +7699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>267</v>
       </c>
@@ -7629,7 +7728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>71</v>
       </c>
@@ -7658,7 +7757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>74</v>
       </c>
@@ -7687,7 +7786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>5</v>
       </c>
@@ -7716,7 +7815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>124</v>
       </c>
@@ -7745,7 +7844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>267</v>
       </c>
@@ -7774,7 +7873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>267</v>
       </c>
@@ -7803,7 +7902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>311</v>
       </c>
@@ -7832,7 +7931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>52</v>
       </c>
@@ -7861,7 +7960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>52</v>
       </c>
@@ -7890,7 +7989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>5</v>
       </c>
@@ -7919,7 +8018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>5</v>
       </c>
@@ -7948,7 +8047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>5</v>
       </c>
@@ -7977,7 +8076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>74</v>
       </c>
@@ -8006,7 +8105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>267</v>
       </c>
@@ -8035,7 +8134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>267</v>
       </c>
@@ -8064,7 +8163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>74</v>
       </c>
@@ -8093,7 +8192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>74</v>
       </c>
@@ -8122,7 +8221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>74</v>
       </c>
@@ -8151,7 +8250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>247</v>
       </c>
@@ -8180,7 +8279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>332</v>
       </c>
@@ -8209,7 +8308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>332</v>
       </c>
@@ -8238,7 +8337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>337</v>
       </c>
@@ -8267,7 +8366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>339</v>
       </c>
@@ -8296,7 +8395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>263</v>
       </c>
@@ -8325,7 +8424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>342</v>
       </c>
@@ -8354,7 +8453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>219</v>
       </c>
@@ -8383,7 +8482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>97</v>
       </c>
@@ -8412,7 +8511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>124</v>
       </c>
@@ -8441,7 +8540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>216</v>
       </c>
@@ -8470,7 +8569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>90</v>
       </c>
@@ -8499,7 +8598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>342</v>
       </c>
@@ -8528,7 +8627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>350</v>
       </c>
@@ -8557,7 +8656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>5</v>
       </c>
@@ -8586,7 +8685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>5</v>
       </c>
@@ -8615,7 +8714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>5</v>
       </c>
@@ -8644,7 +8743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>132</v>
       </c>
@@ -8673,7 +8772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>339</v>
       </c>
@@ -8702,7 +8801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>74</v>
       </c>
@@ -8731,7 +8830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>90</v>
       </c>
@@ -8760,7 +8859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>275</v>
       </c>
@@ -8789,7 +8888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>124</v>
       </c>
@@ -8818,7 +8917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>5</v>
       </c>
@@ -8847,7 +8946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>5</v>
       </c>
@@ -8876,7 +8975,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>74</v>
       </c>
@@ -8905,7 +9004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>5</v>
       </c>
@@ -8934,7 +9033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>5</v>
       </c>
@@ -8963,7 +9062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>5</v>
       </c>
@@ -8992,7 +9091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>5</v>
       </c>
@@ -9021,7 +9120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>5</v>
       </c>
@@ -9050,7 +9149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>5</v>
       </c>
@@ -9079,7 +9178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>5</v>
       </c>
@@ -9108,7 +9207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>5</v>
       </c>
@@ -9137,7 +9236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>5</v>
       </c>
@@ -9166,7 +9265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>64</v>
       </c>
@@ -9195,7 +9294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>71</v>
       </c>
@@ -9224,7 +9323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>198</v>
       </c>
@@ -9253,7 +9352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>74</v>
       </c>
@@ -9282,7 +9381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>74</v>
       </c>
@@ -9311,7 +9410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>394</v>
       </c>
@@ -9340,7 +9439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>92</v>
       </c>
@@ -9369,7 +9468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>90</v>
       </c>
@@ -9398,7 +9497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>74</v>
       </c>
@@ -9427,7 +9526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>74</v>
       </c>
@@ -9456,7 +9555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>74</v>
       </c>
@@ -9485,7 +9584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>74</v>
       </c>
@@ -9514,7 +9613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>350</v>
       </c>
@@ -9543,7 +9642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>90</v>
       </c>
@@ -9572,7 +9671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>52</v>
       </c>
@@ -9601,7 +9700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>5</v>
       </c>
@@ -9630,7 +9729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>97</v>
       </c>
@@ -9659,7 +9758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>52</v>
       </c>
@@ -9688,7 +9787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>275</v>
       </c>
@@ -9717,7 +9816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>5</v>
       </c>
@@ -9746,7 +9845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>5</v>
       </c>
@@ -9775,7 +9874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>5</v>
       </c>
@@ -9804,7 +9903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>90</v>
       </c>
@@ -9833,7 +9932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>311</v>
       </c>
@@ -9862,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>64</v>
       </c>
@@ -9891,7 +9990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>332</v>
       </c>
@@ -9920,7 +10019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>5</v>
       </c>
@@ -9949,7 +10048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>5</v>
       </c>
@@ -9978,7 +10077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>5</v>
       </c>
@@ -10007,7 +10106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>449</v>
       </c>
@@ -10036,7 +10135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>90</v>
       </c>
@@ -10065,7 +10164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>94</v>
       </c>
@@ -10094,7 +10193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>311</v>
       </c>
@@ -10123,7 +10222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>5</v>
       </c>
@@ -10152,7 +10251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>64</v>
       </c>
@@ -10181,7 +10280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>198</v>
       </c>
@@ -10210,7 +10309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>52</v>
       </c>
@@ -10239,7 +10338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>52</v>
       </c>
@@ -10268,7 +10367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>5</v>
       </c>
@@ -10297,7 +10396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>285</v>
       </c>
@@ -10326,7 +10425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>267</v>
       </c>
@@ -10355,7 +10454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>267</v>
       </c>
@@ -10384,7 +10483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>203</v>
       </c>
@@ -10413,7 +10512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>5</v>
       </c>
@@ -10442,7 +10541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>52</v>
       </c>
@@ -10471,7 +10570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>52</v>
       </c>
@@ -10500,7 +10599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>267</v>
       </c>
@@ -10529,7 +10628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>90</v>
       </c>
@@ -10558,7 +10657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>5</v>
       </c>
@@ -10587,7 +10686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="32" t="s">
         <v>5</v>
       </c>
@@ -10616,7 +10715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="32" t="s">
         <v>311</v>
       </c>
@@ -10645,7 +10744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>5</v>
       </c>
@@ -10674,7 +10773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>482</v>
       </c>
@@ -10703,7 +10802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>90</v>
       </c>
@@ -10732,7 +10831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>52</v>
       </c>
@@ -10761,7 +10860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="32" t="s">
         <v>52</v>
       </c>
@@ -10790,7 +10889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="32" t="s">
         <v>5</v>
       </c>
@@ -10819,7 +10918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
         <v>267</v>
       </c>
@@ -10848,7 +10947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
         <v>267</v>
       </c>
@@ -10877,7 +10976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
         <v>492</v>
       </c>
@@ -10906,7 +11005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
         <v>52</v>
       </c>
@@ -10935,7 +11034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="32" t="s">
         <v>97</v>
       </c>
@@ -10964,7 +11063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="32" t="s">
         <v>97</v>
       </c>
@@ -10993,7 +11092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
         <v>90</v>
       </c>
@@ -11022,7 +11121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="32" t="s">
         <v>90</v>
       </c>
@@ -11051,7 +11150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
         <v>90</v>
       </c>
@@ -11080,7 +11179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="32" t="s">
         <v>64</v>
       </c>
@@ -11109,7 +11208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="32" t="s">
         <v>124</v>
       </c>
@@ -11138,7 +11237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
         <v>124</v>
       </c>
@@ -11167,7 +11266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="32" t="s">
         <v>198</v>
       </c>
@@ -11196,7 +11295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="32" t="s">
         <v>74</v>
       </c>
@@ -11225,7 +11324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="32" t="s">
         <v>90</v>
       </c>
@@ -11254,7 +11353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="32" t="s">
         <v>90</v>
       </c>
@@ -11283,7 +11382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="32" t="s">
         <v>90</v>
       </c>
@@ -11312,7 +11411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="32" t="s">
         <v>90</v>
       </c>
@@ -11341,7 +11440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="32" t="s">
         <v>198</v>
       </c>
@@ -11370,7 +11469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="32" t="s">
         <v>5</v>
       </c>
@@ -11399,7 +11498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="32" t="s">
         <v>5</v>
       </c>
@@ -11428,7 +11527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="32" t="s">
         <v>90</v>
       </c>
@@ -11457,7 +11556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="32" t="s">
         <v>52</v>
       </c>
@@ -11486,7 +11585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="32" t="s">
         <v>71</v>
       </c>
@@ -11515,7 +11614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="32" t="s">
         <v>94</v>
       </c>
@@ -11544,7 +11643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="32" t="s">
         <v>216</v>
       </c>
@@ -11573,7 +11672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="32" t="s">
         <v>350</v>
       </c>
@@ -11602,7 +11701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="32" t="s">
         <v>350</v>
       </c>
@@ -11631,7 +11730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="32" t="s">
         <v>278</v>
       </c>
@@ -11660,7 +11759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="32" t="s">
         <v>278</v>
       </c>
@@ -11689,7 +11788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="32" t="s">
         <v>124</v>
       </c>
@@ -11718,7 +11817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="32" t="s">
         <v>74</v>
       </c>
@@ -11747,7 +11846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="32" t="s">
         <v>52</v>
       </c>
@@ -11776,7 +11875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="32" t="s">
         <v>52</v>
       </c>
@@ -11805,7 +11904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="32" t="s">
         <v>263</v>
       </c>
@@ -11834,7 +11933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="32" t="s">
         <v>90</v>
       </c>
@@ -11863,7 +11962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="32" t="s">
         <v>90</v>
       </c>
@@ -11892,7 +11991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="32" t="s">
         <v>124</v>
       </c>
@@ -11921,7 +12020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="32" t="s">
         <v>90</v>
       </c>
@@ -11950,7 +12049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="32" t="s">
         <v>90</v>
       </c>
@@ -11979,7 +12078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="32" t="s">
         <v>342</v>
       </c>
@@ -12008,7 +12107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="32" t="s">
         <v>132</v>
       </c>
@@ -12037,7 +12136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="32" t="s">
         <v>350</v>
       </c>
@@ -12066,7 +12165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="32" t="s">
         <v>92</v>
       </c>
@@ -12095,7 +12194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="32" t="s">
         <v>92</v>
       </c>
@@ -12124,7 +12223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="32" t="s">
         <v>285</v>
       </c>
@@ -12153,7 +12252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="32" t="s">
         <v>52</v>
       </c>
@@ -12182,7 +12281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="32" t="s">
         <v>52</v>
       </c>
@@ -12211,7 +12310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="32" t="s">
         <v>97</v>
       </c>
@@ -12240,7 +12339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="32" t="s">
         <v>90</v>
       </c>
@@ -12269,7 +12368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="32" t="s">
         <v>94</v>
       </c>
@@ -12298,7 +12397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="32" t="s">
         <v>94</v>
       </c>
@@ -12327,7 +12426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="32" t="s">
         <v>247</v>
       </c>
@@ -12356,7 +12455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="32" t="s">
         <v>5</v>
       </c>
@@ -12385,7 +12484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="32" t="s">
         <v>74</v>
       </c>
@@ -12414,7 +12513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="32" t="s">
         <v>90</v>
       </c>
@@ -12443,7 +12542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="32" t="s">
         <v>267</v>
       </c>
@@ -12472,7 +12571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="32" t="s">
         <v>74</v>
       </c>
@@ -12501,7 +12600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="32" t="s">
         <v>216</v>
       </c>
@@ -12530,7 +12629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="32" t="s">
         <v>5</v>
       </c>
@@ -12559,7 +12658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="32" t="s">
         <v>5</v>
       </c>
@@ -12588,7 +12687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="32" t="s">
         <v>5</v>
       </c>
@@ -12617,7 +12716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="32" t="s">
         <v>5</v>
       </c>
@@ -12646,7 +12745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="32" t="s">
         <v>52</v>
       </c>
@@ -12675,7 +12774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="32" t="s">
         <v>267</v>
       </c>
@@ -12704,7 +12803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="32" t="s">
         <v>332</v>
       </c>
@@ -12733,7 +12832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="32" t="s">
         <v>267</v>
       </c>
@@ -12762,7 +12861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="32" t="s">
         <v>74</v>
       </c>
@@ -12791,7 +12890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="32" t="s">
         <v>52</v>
       </c>
@@ -12820,7 +12919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="32" t="s">
         <v>198</v>
       </c>
@@ -12849,7 +12948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="32" t="s">
         <v>198</v>
       </c>
@@ -12878,7 +12977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="32" t="s">
         <v>5</v>
       </c>
@@ -12907,7 +13006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="32" t="s">
         <v>5</v>
       </c>
@@ -12936,7 +13035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="32" t="s">
         <v>332</v>
       </c>
@@ -12965,7 +13064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="32" t="s">
         <v>5</v>
       </c>
@@ -12994,7 +13093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="32" t="s">
         <v>52</v>
       </c>
@@ -13023,7 +13122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="32" t="s">
         <v>94</v>
       </c>
@@ -13052,7 +13151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="32" t="s">
         <v>5</v>
       </c>
@@ -13081,7 +13180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="32" t="s">
         <v>5</v>
       </c>
@@ -13110,7 +13209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="32" t="s">
         <v>5</v>
       </c>
@@ -13139,7 +13238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="32" t="s">
         <v>5</v>
       </c>
@@ -13168,7 +13267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="32" t="s">
         <v>5</v>
       </c>
@@ -13197,7 +13296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="32" t="s">
         <v>267</v>
       </c>
@@ -13226,7 +13325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="32" t="s">
         <v>267</v>
       </c>
@@ -13255,7 +13354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="32" t="s">
         <v>124</v>
       </c>
@@ -13284,7 +13383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="32" t="s">
         <v>74</v>
       </c>
@@ -13313,7 +13412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="32" t="s">
         <v>74</v>
       </c>
@@ -13342,7 +13441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="32" t="s">
         <v>74</v>
       </c>
@@ -13371,7 +13470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="32" t="s">
         <v>52</v>
       </c>
@@ -13400,7 +13499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="32" t="s">
         <v>5</v>
       </c>
@@ -13429,7 +13528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="32" t="s">
         <v>97</v>
       </c>
@@ -13458,7 +13557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="32" t="s">
         <v>97</v>
       </c>
@@ -13487,7 +13586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="32" t="s">
         <v>124</v>
       </c>
@@ -13516,7 +13615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="32" t="s">
         <v>124</v>
       </c>
@@ -13545,7 +13644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="32" t="s">
         <v>275</v>
       </c>
@@ -13574,7 +13673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="32" t="s">
         <v>275</v>
       </c>
@@ -13603,7 +13702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="32" t="s">
         <v>275</v>
       </c>
@@ -13632,7 +13731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="32" t="s">
         <v>275</v>
       </c>
@@ -13661,7 +13760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="32" t="s">
         <v>5</v>
       </c>
@@ -13690,7 +13789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="32" t="s">
         <v>332</v>
       </c>
@@ -13704,7 +13803,7 @@
         <v>45984</v>
       </c>
       <c r="E344" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F344" s="32" t="s">
         <v>107</v>
@@ -13713,13 +13812,13 @@
         <v>214</v>
       </c>
       <c r="H344" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I344" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="32" t="s">
         <v>124</v>
       </c>
@@ -13733,7 +13832,7 @@
         <v>45922</v>
       </c>
       <c r="E345" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F345" s="32" t="s">
         <v>6</v>
@@ -13742,13 +13841,13 @@
         <v>66</v>
       </c>
       <c r="H345" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I345" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="32" t="s">
         <v>124</v>
       </c>
@@ -13762,7 +13861,7 @@
         <v>45922</v>
       </c>
       <c r="E346" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F346" s="32" t="s">
         <v>6</v>
@@ -13771,13 +13870,13 @@
         <v>100</v>
       </c>
       <c r="H346" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I346" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="32" t="s">
         <v>132</v>
       </c>
@@ -13791,7 +13890,7 @@
         <v>45982</v>
       </c>
       <c r="E347" s="34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F347" s="32" t="s">
         <v>54</v>
@@ -13800,13 +13899,13 @@
         <v>25</v>
       </c>
       <c r="H347" s="34" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I347" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="32" t="s">
         <v>278</v>
       </c>
@@ -13820,7 +13919,7 @@
         <v>45985</v>
       </c>
       <c r="E348" s="34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F348" s="32" t="s">
         <v>280</v>
@@ -13829,13 +13928,13 @@
         <v>188</v>
       </c>
       <c r="H348" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I348" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="32" t="s">
         <v>278</v>
       </c>
@@ -13849,7 +13948,7 @@
         <v>45985</v>
       </c>
       <c r="E349" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F349" s="32" t="s">
         <v>107</v>
@@ -13858,10 +13957,561 @@
         <v>110</v>
       </c>
       <c r="H349" s="34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I349" s="26" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B350" s="33">
+        <v>45924</v>
+      </c>
+      <c r="C350" s="33">
+        <v>45925</v>
+      </c>
+      <c r="D350" s="33">
+        <v>45984</v>
+      </c>
+      <c r="E350" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="F350" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G350" s="34">
+        <v>94</v>
+      </c>
+      <c r="H350" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="I350" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B351" s="33">
+        <v>45924</v>
+      </c>
+      <c r="C351" s="33">
+        <v>45925</v>
+      </c>
+      <c r="D351" s="33">
+        <v>45984</v>
+      </c>
+      <c r="E351" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="F351" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G351" s="34">
+        <v>58</v>
+      </c>
+      <c r="H351" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="I351" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B352" s="33">
+        <v>45924</v>
+      </c>
+      <c r="C352" s="33">
+        <v>45925</v>
+      </c>
+      <c r="D352" s="33">
+        <v>45985</v>
+      </c>
+      <c r="E352" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="F352" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G352" s="34">
+        <v>393</v>
+      </c>
+      <c r="H352" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="I352" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="B353" s="33">
+        <v>45926</v>
+      </c>
+      <c r="C353" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D353" s="33">
+        <v>45979</v>
+      </c>
+      <c r="E353" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="F353" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G353" s="34">
+        <v>11</v>
+      </c>
+      <c r="H353" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="I353" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" s="33">
+        <v>45926</v>
+      </c>
+      <c r="C354" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D354" s="33">
+        <v>45985</v>
+      </c>
+      <c r="E354" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="F354" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G354" s="34">
+        <v>6</v>
+      </c>
+      <c r="H354" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="I354" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B355" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C355" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D355" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E355" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="F355" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G355" s="34">
+        <v>7</v>
+      </c>
+      <c r="H355" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="I355" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B356" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C356" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D356" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E356" s="34" t="s">
+        <v>667</v>
+      </c>
+      <c r="F356" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G356" s="34">
+        <v>24</v>
+      </c>
+      <c r="H356" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="I356" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B357" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C357" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D357" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E357" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="F357" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G357" s="34">
+        <v>19</v>
+      </c>
+      <c r="H357" s="34" t="s">
+        <v>670</v>
+      </c>
+      <c r="I357" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B358" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C358" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D358" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E358" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="F358" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G358" s="34">
+        <v>23</v>
+      </c>
+      <c r="H358" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="I358" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B359" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C359" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D359" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E359" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="F359" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G359" s="34">
+        <v>16</v>
+      </c>
+      <c r="H359" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="I359" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B360" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C360" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D360" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E360" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="F360" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G360" s="34">
+        <v>4</v>
+      </c>
+      <c r="H360" s="34" t="s">
+        <v>676</v>
+      </c>
+      <c r="I360" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B361" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C361" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D361" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E361" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="F361" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G361" s="34">
+        <v>1</v>
+      </c>
+      <c r="H361" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="I361" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B362" s="33">
+        <v>45912</v>
+      </c>
+      <c r="C362" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D362" s="33">
+        <v>45975</v>
+      </c>
+      <c r="E362" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="F362" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G362" s="34">
+        <v>30</v>
+      </c>
+      <c r="H362" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="I362" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" s="33">
+        <v>45926</v>
+      </c>
+      <c r="C363" s="33">
+        <v>45926</v>
+      </c>
+      <c r="D363" s="33">
+        <v>45992</v>
+      </c>
+      <c r="E363" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="F363" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G363" s="34">
+        <v>61</v>
+      </c>
+      <c r="H363" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="I363" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" s="33">
+        <v>45925</v>
+      </c>
+      <c r="C364" s="33">
+        <v>45929</v>
+      </c>
+      <c r="D364" s="33">
+        <v>45986</v>
+      </c>
+      <c r="E364" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="F364" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G364" s="34">
+        <v>56</v>
+      </c>
+      <c r="H364" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="I364" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C365" s="33">
+        <v>45929</v>
+      </c>
+      <c r="D365" s="33">
+        <v>45934</v>
+      </c>
+      <c r="E365" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F365" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G365" s="34">
+        <v>55</v>
+      </c>
+      <c r="H365" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I365" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" s="33">
+        <v>45925</v>
+      </c>
+      <c r="C366" s="33">
+        <v>45929</v>
+      </c>
+      <c r="D366" s="33">
+        <v>45986</v>
+      </c>
+      <c r="E366" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="F366" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G366" s="34">
+        <v>140</v>
+      </c>
+      <c r="H366" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="I366" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B367" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C367" s="33">
+        <v>45929</v>
+      </c>
+      <c r="D367" s="33">
+        <v>45929</v>
+      </c>
+      <c r="E367" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="F367" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G367" s="34">
+        <v>8</v>
+      </c>
+      <c r="H367" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="I367" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" s="33">
+        <v>45917</v>
+      </c>
+      <c r="C368" s="33">
+        <v>45929</v>
+      </c>
+      <c r="D368" s="33">
+        <v>45951</v>
+      </c>
+      <c r="E368" s="34" t="s">
+        <v>663</v>
+      </c>
+      <c r="F368" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G368" s="34">
+        <v>38</v>
+      </c>
+      <c r="H368" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="I368" s="26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -13878,7 +14528,7 @@
           <x14:formula1>
             <xm:f>'Industry List'!$A$1:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I349</xm:sqref>
+          <xm:sqref>I3:I368</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13892,18 +14542,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="95" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="97.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -13911,7 +14561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
@@ -13920,7 +14570,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
@@ -13929,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -13938,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
@@ -13947,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -13956,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
@@ -13965,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -13991,25 +14641,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -14035,7 +14685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -14077,117 +14727,117 @@
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>

--- a/data/warn-scraper/cache/ca/warn_report1.xlsx
+++ b/data/warn-scraper/cache/ca/warn_report1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\entshare3\JS-Data\WSB-CO\BPAC\Policy &amp; Program Communications Group\Communications Unit\Website Management\5. WARN (Worker Adjustment and Retraining Notification) Updates\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{660367D6-1A43-4E28-92C4-62C34D3C2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC6600-B891-4F8B-A3CD-A1F2EDB3C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
+    <workbookView xWindow="20" yWindow="260" windowWidth="19180" windowHeight="10200" tabRatio="751" xr2:uid="{3EA4B9A5-CE9D-4ACF-B45F-4158810915D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="729">
   <si>
     <t>County/Parish</t>
   </si>
@@ -2093,21 +2093,6 @@
     <t>970 E. Continental Ave.  Tulare CA 93274</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 09/29/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
-    </r>
-  </si>
-  <si>
     <t>Palo Verde Healthcare District</t>
   </si>
   <si>
@@ -2205,6 +2190,123 @@
   </si>
   <si>
     <t>2627 N Hollywood Way  Burbank CA 91505</t>
+  </si>
+  <si>
+    <t>North State Public Radio (NSPR)</t>
+  </si>
+  <si>
+    <t>35 Main Street, Suite 101  Chico CA 95928</t>
+  </si>
+  <si>
+    <t>Sutro Biopharma, Inc.</t>
+  </si>
+  <si>
+    <t>111 Oyster Point Blvd  South San Francisco CA 94080</t>
+  </si>
+  <si>
+    <t>870 Industrial Rd  San Carlos CA 94070</t>
+  </si>
+  <si>
+    <t>Remote  Remote CA 94080</t>
+  </si>
+  <si>
+    <t>Google - 1265</t>
+  </si>
+  <si>
+    <t>1265 Borregas Avenue  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google -1225</t>
+  </si>
+  <si>
+    <t>1225 Crossman Avenue  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google - 242</t>
+  </si>
+  <si>
+    <t>242 Humboldt Court  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google - 244</t>
+  </si>
+  <si>
+    <t>244 Humboldt Court  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google - 1175</t>
+  </si>
+  <si>
+    <t>1175 Borregas Avenue  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google - 1190</t>
+  </si>
+  <si>
+    <t>1190 Bordeaux Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google -1160</t>
+  </si>
+  <si>
+    <t>1160 N. Mathilda Avenue  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google - 1195</t>
+  </si>
+  <si>
+    <t>1195 Borregas Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Google - 237</t>
+  </si>
+  <si>
+    <t>237 Moffett Park Drive  Sunnyvale CA 94089</t>
+  </si>
+  <si>
+    <t>Napa County</t>
+  </si>
+  <si>
+    <t>Boardwalk Property Services, LLC</t>
+  </si>
+  <si>
+    <t>6481 Washington Street  Yountville CA 94599</t>
+  </si>
+  <si>
+    <t>Celestica Precision Machining Ltd</t>
+  </si>
+  <si>
+    <t>40725 Encyclopedia Circle  Fremont CA 94538</t>
+  </si>
+  <si>
+    <t>Bicycle Transit Systems</t>
+  </si>
+  <si>
+    <t>164 W Jefferson Blvd  Los Angeles CA 90007</t>
+  </si>
+  <si>
+    <t>FPI Management, Inc. (800)</t>
+  </si>
+  <si>
+    <t>800 Iron Point Road  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>FPI Management, Inc. (1110)</t>
+  </si>
+  <si>
+    <t>1110 Iron Point Road  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>FPI Management, Inc. (Remote)</t>
+  </si>
+  <si>
+    <t>Remote  Folsom CA 95630</t>
+  </si>
+  <si>
+    <t>Cruise LLC</t>
+  </si>
+  <si>
+    <t>1201 Bryant Street  San Francisco CA 94103</t>
   </si>
   <si>
     <r>
@@ -2218,7 +2320,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07/01/25 to 09/29/2025</t>
+      <t>07/01/25 to 10/01/2025</t>
     </r>
     <r>
       <rPr>
@@ -2238,7 +2340,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I368.</t>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through I389.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WARN REPORT - 01/01/2023 - 10/01/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A detailed WARN summary by county and filtered according to processed date. Table Spans cells A2 through H3.</t>
     </r>
   </si>
 </sst>
@@ -2353,6 +2470,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3359,7 +3477,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I368" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F69E8FD-21FF-4B81-951D-D7EC70F8E5F9}" name="DetailedWarnReport" displayName="DetailedWarnReport" ref="A2:I389" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3E60720E-46D7-48F7-AF17-837D42D08A11}" name="County/Parish" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{058DED91-D77E-48B6-A71D-06D4A25AA391}" name="Notice_x000a_Date" dataDxfId="24"/>
@@ -3761,7 +3879,7 @@
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
@@ -3783,7 +3901,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUM('Detailed WARN Report '!G:G)</f>
-        <v>19376</v>
+        <v>20538</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +3918,7 @@
       </c>
       <c r="B5" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Layoff Temporary")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3935,7 @@
       </c>
       <c r="B7" s="11">
         <f>COUNTIF('Detailed WARN Report '!F:F,"Closure Permanent")</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,26 +3966,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E7117B-AC46-45AC-B2F3-AE611FA82488}">
-  <dimension ref="A1:I368"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>689</v>
+        <v>727</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -13977,7 +14095,7 @@
         <v>45984</v>
       </c>
       <c r="E350" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F350" s="32" t="s">
         <v>54</v>
@@ -13986,7 +14104,7 @@
         <v>94</v>
       </c>
       <c r="H350" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I350" s="26" t="s">
         <v>45</v>
@@ -14006,7 +14124,7 @@
         <v>45984</v>
       </c>
       <c r="E351" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F351" s="32" t="s">
         <v>6</v>
@@ -14015,7 +14133,7 @@
         <v>58</v>
       </c>
       <c r="H351" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I351" s="26" t="s">
         <v>43</v>
@@ -14035,7 +14153,7 @@
         <v>45985</v>
       </c>
       <c r="E352" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F352" s="32" t="s">
         <v>107</v>
@@ -14044,7 +14162,7 @@
         <v>393</v>
       </c>
       <c r="H352" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I352" s="26" t="s">
         <v>34</v>
@@ -14052,7 +14170,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B353" s="33">
         <v>45926</v>
@@ -14064,7 +14182,7 @@
         <v>45979</v>
       </c>
       <c r="E353" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F353" s="32" t="s">
         <v>54</v>
@@ -14073,7 +14191,7 @@
         <v>11</v>
       </c>
       <c r="H353" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I353" s="26" t="s">
         <v>37</v>
@@ -14122,7 +14240,7 @@
         <v>45975</v>
       </c>
       <c r="E355" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F355" s="32" t="s">
         <v>6</v>
@@ -14131,7 +14249,7 @@
         <v>7</v>
       </c>
       <c r="H355" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I355" s="26" t="s">
         <v>45</v>
@@ -14151,7 +14269,7 @@
         <v>45975</v>
       </c>
       <c r="E356" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F356" s="32" t="s">
         <v>6</v>
@@ -14160,7 +14278,7 @@
         <v>24</v>
       </c>
       <c r="H356" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I356" s="26" t="s">
         <v>45</v>
@@ -14180,7 +14298,7 @@
         <v>45975</v>
       </c>
       <c r="E357" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F357" s="32" t="s">
         <v>6</v>
@@ -14189,7 +14307,7 @@
         <v>19</v>
       </c>
       <c r="H357" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I357" s="26" t="s">
         <v>45</v>
@@ -14209,7 +14327,7 @@
         <v>45975</v>
       </c>
       <c r="E358" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F358" s="32" t="s">
         <v>6</v>
@@ -14218,7 +14336,7 @@
         <v>23</v>
       </c>
       <c r="H358" s="34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I358" s="26" t="s">
         <v>45</v>
@@ -14238,7 +14356,7 @@
         <v>45975</v>
       </c>
       <c r="E359" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F359" s="32" t="s">
         <v>6</v>
@@ -14247,7 +14365,7 @@
         <v>16</v>
       </c>
       <c r="H359" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I359" s="26" t="s">
         <v>45</v>
@@ -14267,7 +14385,7 @@
         <v>45975</v>
       </c>
       <c r="E360" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F360" s="32" t="s">
         <v>6</v>
@@ -14276,7 +14394,7 @@
         <v>4</v>
       </c>
       <c r="H360" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I360" s="26" t="s">
         <v>45</v>
@@ -14296,7 +14414,7 @@
         <v>45975</v>
       </c>
       <c r="E361" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F361" s="32" t="s">
         <v>6</v>
@@ -14305,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="H361" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I361" s="26" t="s">
         <v>45</v>
@@ -14325,7 +14443,7 @@
         <v>45975</v>
       </c>
       <c r="E362" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F362" s="32" t="s">
         <v>6</v>
@@ -14334,7 +14452,7 @@
         <v>30</v>
       </c>
       <c r="H362" s="34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I362" s="26" t="s">
         <v>45</v>
@@ -14354,7 +14472,7 @@
         <v>45992</v>
       </c>
       <c r="E363" s="34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F363" s="32" t="s">
         <v>6</v>
@@ -14363,7 +14481,7 @@
         <v>61</v>
       </c>
       <c r="H363" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I363" s="26" t="s">
         <v>41</v>
@@ -14383,7 +14501,7 @@
         <v>45986</v>
       </c>
       <c r="E364" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F364" s="32" t="s">
         <v>6</v>
@@ -14392,7 +14510,7 @@
         <v>56</v>
       </c>
       <c r="H364" s="34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I364" s="26" t="s">
         <v>45</v>
@@ -14441,7 +14559,7 @@
         <v>45986</v>
       </c>
       <c r="E366" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F366" s="32" t="s">
         <v>6</v>
@@ -14450,7 +14568,7 @@
         <v>140</v>
       </c>
       <c r="H366" s="34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I366" s="26" t="s">
         <v>45</v>
@@ -14470,7 +14588,7 @@
         <v>45929</v>
       </c>
       <c r="E367" s="34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F367" s="32" t="s">
         <v>6</v>
@@ -14479,7 +14597,7 @@
         <v>8</v>
       </c>
       <c r="H367" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I367" s="26" t="s">
         <v>41</v>
@@ -14499,7 +14617,7 @@
         <v>45951</v>
       </c>
       <c r="E368" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F368" s="32" t="s">
         <v>54</v>
@@ -14508,9 +14626,618 @@
         <v>38</v>
       </c>
       <c r="H368" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="I368" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="B369" s="33">
+        <v>45923</v>
+      </c>
+      <c r="C369" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D369" s="33">
+        <v>45984</v>
+      </c>
+      <c r="E369" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="F369" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G369" s="34">
+        <v>726</v>
+      </c>
+      <c r="H369" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="I369" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B370" s="33">
+        <v>45930</v>
+      </c>
+      <c r="C370" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D370" s="33">
+        <v>45991</v>
+      </c>
+      <c r="E370" s="34" t="s">
         <v>688</v>
       </c>
-      <c r="I368" s="26" t="s">
+      <c r="F370" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G370" s="34">
+        <v>12</v>
+      </c>
+      <c r="H370" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="I370" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B371" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C371" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D371" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E371" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="F371" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G371" s="34">
+        <v>45</v>
+      </c>
+      <c r="H371" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="I371" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B372" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C372" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D372" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E372" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="F372" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G372" s="34">
+        <v>8</v>
+      </c>
+      <c r="H372" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="I372" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B373" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C373" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D373" s="33">
+        <v>45930</v>
+      </c>
+      <c r="E373" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="F373" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G373" s="34">
+        <v>1</v>
+      </c>
+      <c r="H373" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="I373" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B374" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C374" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D374" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E374" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="F374" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G374" s="34">
+        <v>9</v>
+      </c>
+      <c r="H374" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="I374" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B375" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C375" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D375" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E375" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="F375" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G375" s="34">
+        <v>1</v>
+      </c>
+      <c r="H375" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="I375" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B376" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C376" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D376" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E376" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="F376" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G376" s="34">
+        <v>20</v>
+      </c>
+      <c r="H376" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="I376" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B377" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C377" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D377" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E377" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="F377" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G377" s="34">
+        <v>1</v>
+      </c>
+      <c r="H377" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="I377" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B378" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C378" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D378" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E378" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="F378" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G378" s="34">
+        <v>1</v>
+      </c>
+      <c r="H378" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="I378" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B379" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C379" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D379" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E379" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="F379" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G379" s="34">
+        <v>8</v>
+      </c>
+      <c r="H379" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="I379" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B380" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C380" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D380" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E380" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="F380" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G380" s="34">
+        <v>4</v>
+      </c>
+      <c r="H380" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="I380" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B381" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C381" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D381" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E381" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="F381" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G381" s="34">
+        <v>4</v>
+      </c>
+      <c r="H381" s="34" t="s">
+        <v>709</v>
+      </c>
+      <c r="I381" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B382" s="33">
+        <v>45929</v>
+      </c>
+      <c r="C382" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D382" s="33">
+        <v>45970</v>
+      </c>
+      <c r="E382" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="F382" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G382" s="34">
+        <v>2</v>
+      </c>
+      <c r="H382" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="I382" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="B383" s="33">
+        <v>45923</v>
+      </c>
+      <c r="C383" s="33">
+        <v>45930</v>
+      </c>
+      <c r="D383" s="33">
+        <v>45984</v>
+      </c>
+      <c r="E383" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="F383" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G383" s="34">
+        <v>66</v>
+      </c>
+      <c r="H383" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="I383" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B384" s="33">
+        <v>45931</v>
+      </c>
+      <c r="C384" s="33">
+        <v>45931</v>
+      </c>
+      <c r="D384" s="33">
+        <v>45992</v>
+      </c>
+      <c r="E384" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="F384" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G384" s="34">
+    